--- a/trade.xlsx
+++ b/trade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="259">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -882,6 +882,63 @@
     <t>원화투자지출</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>미국하이일드</t>
+  </si>
+  <si>
+    <t>ACE 미국하이일드액티브(H)</t>
+  </si>
+  <si>
+    <t>코스피 IT TR</t>
+  </si>
+  <si>
+    <t>KODEX 200IT TR</t>
+  </si>
+  <si>
+    <t>미국나스닥</t>
+  </si>
+  <si>
+    <t>TIGER 미국나스닥100TR(H)</t>
+  </si>
+  <si>
+    <t>해외주식</t>
+  </si>
+  <si>
+    <t>선진국</t>
+  </si>
+  <si>
+    <t>한투외화채권2</t>
+  </si>
+  <si>
+    <t>BOND_KOIN2</t>
+  </si>
+  <si>
+    <t>미국채 0.25 06/15/24</t>
+  </si>
+  <si>
+    <t>넥스틸</t>
+  </si>
+  <si>
+    <t>KODEX WTI 원유선물(H)</t>
+  </si>
+  <si>
+    <t>092790</t>
+  </si>
+  <si>
+    <t>원유선물</t>
+  </si>
+  <si>
+    <t>에너지</t>
+  </si>
+  <si>
+    <t>중국테크주식</t>
+  </si>
+  <si>
+    <t>TIGER 차이나항셍테크</t>
+  </si>
+  <si>
+    <t>신흥국</t>
+  </si>
 </sst>
 </file>
 
@@ -892,7 +949,7 @@
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -945,6 +1002,21 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1130,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1485,12 +1557,57 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="209">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1507,12 +1624,6 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -4696,7 +4807,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4712,8 +4823,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:I50" totalsRowShown="0">
-  <autoFilter ref="A1:I50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:I57" totalsRowShown="0">
+  <autoFilter ref="A1:I57"/>
   <tableColumns count="9">
     <tableColumn id="8" name="종목코드" dataDxfId="208">
       <calculatedColumnFormula>MID(#REF!,SEARCH("_",#REF!)+1,LEN(#REF!))</calculatedColumnFormula>
@@ -4778,25 +4889,25 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F387" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F387"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F384" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F384"/>
   <tableColumns count="6">
     <tableColumn id="1" name="거래일자" dataDxfId="5"/>
     <tableColumn id="4" name="원화자금유입" dataDxfId="4"/>
     <tableColumn id="2" name="원화투자회수" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="0" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</calculatedColumnFormula>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="2" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="0" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S100" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S135" totalsRowShown="0" headerRowDxfId="206" dataDxfId="205" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S135"/>
   <tableColumns count="19">
     <tableColumn id="1" name="거래일자" dataDxfId="204" totalsRowDxfId="203"/>
     <tableColumn id="4" name="종목코드" dataDxfId="202" totalsRowDxfId="201"/>
@@ -4839,8 +4950,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S89" totalsRowShown="0" headerRowDxfId="166" dataDxfId="164" headerRowBorderDxfId="165" tableBorderDxfId="163" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S92" totalsRowShown="0" headerRowDxfId="166" dataDxfId="164" headerRowBorderDxfId="165" tableBorderDxfId="163" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S92"/>
   <tableColumns count="19">
     <tableColumn id="1" name="거래일자" dataDxfId="162"/>
     <tableColumn id="17" name="종목코드" dataDxfId="161"/>
@@ -5016,8 +5127,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S24" totalsRowShown="0" headerRowDxfId="57" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S38" totalsRowShown="0" headerRowDxfId="57" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S38"/>
   <tableColumns count="19">
     <tableColumn id="1" name="거래일자" dataDxfId="56"/>
     <tableColumn id="5" name="종목코드" dataDxfId="55"/>
@@ -5104,8 +5215,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S8" totalsRowShown="0" headerRowDxfId="37" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S9" totalsRowShown="0" headerRowDxfId="37" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S9"/>
   <tableColumns count="19">
     <tableColumn id="1" name="거래일자" dataDxfId="36"/>
     <tableColumn id="5" name="종목코드" dataDxfId="35"/>
@@ -5410,10 +5521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5456,7 +5567,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="60" t="s">
         <v>114</v>
       </c>
       <c r="B2" t="s">
@@ -5482,7 +5593,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="60" t="s">
         <v>115</v>
       </c>
       <c r="B3" t="s">
@@ -5508,7 +5619,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="60" t="s">
         <v>116</v>
       </c>
       <c r="B4" t="s">
@@ -5534,7 +5645,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="60" t="s">
         <v>117</v>
       </c>
       <c r="B5" t="s">
@@ -5560,7 +5671,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="60" t="s">
         <v>118</v>
       </c>
       <c r="B6" t="s">
@@ -5586,7 +5697,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="60" t="s">
         <v>119</v>
       </c>
       <c r="B7" t="s">
@@ -5612,7 +5723,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="60" t="s">
         <v>120</v>
       </c>
       <c r="B8" t="s">
@@ -5638,7 +5749,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="60" t="s">
         <v>121</v>
       </c>
       <c r="B9" t="s">
@@ -5664,7 +5775,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="60" t="s">
         <v>122</v>
       </c>
       <c r="B10" t="s">
@@ -5690,7 +5801,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="60" t="s">
         <v>123</v>
       </c>
       <c r="B11" t="s">
@@ -5716,7 +5827,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="60" t="s">
         <v>124</v>
       </c>
       <c r="B12" t="s">
@@ -5742,7 +5853,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="60" t="s">
         <v>125</v>
       </c>
       <c r="B13" t="s">
@@ -5768,7 +5879,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="60" t="s">
         <v>126</v>
       </c>
       <c r="B14" t="s">
@@ -5794,7 +5905,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="60" t="s">
         <v>127</v>
       </c>
       <c r="B15" t="s">
@@ -5820,7 +5931,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="60" t="s">
         <v>128</v>
       </c>
       <c r="B16" t="s">
@@ -5846,7 +5957,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="60" t="s">
         <v>129</v>
       </c>
       <c r="B17" t="s">
@@ -5872,7 +5983,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="60" t="s">
         <v>142</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -5898,7 +6009,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="60" t="s">
         <v>130</v>
       </c>
       <c r="B19" t="s">
@@ -5924,7 +6035,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="60" t="s">
         <v>131</v>
       </c>
       <c r="B20" t="s">
@@ -5950,7 +6061,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="60" t="s">
         <v>141</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5999,7 +6110,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="60" t="s">
         <v>81</v>
       </c>
       <c r="B23" t="s">
@@ -6022,7 +6133,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="60" t="s">
         <v>82</v>
       </c>
       <c r="B24" t="s">
@@ -6048,7 +6159,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="60" t="s">
         <v>83</v>
       </c>
       <c r="B25" t="s">
@@ -6071,7 +6182,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="60" t="s">
         <v>189</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -6094,7 +6205,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="60" t="s">
         <v>185</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -6120,7 +6231,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="60" t="s">
         <v>200</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -6146,7 +6257,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="60" t="s">
         <v>201</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -6172,7 +6283,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="60" t="s">
         <v>202</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -6198,7 +6309,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="60" t="s">
         <v>84</v>
       </c>
       <c r="B31" t="s">
@@ -6221,7 +6332,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="60" t="s">
         <v>85</v>
       </c>
       <c r="B32" t="s">
@@ -6244,7 +6355,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="60" t="s">
         <v>86</v>
       </c>
       <c r="B33" t="s">
@@ -6267,7 +6378,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="60" t="s">
         <v>87</v>
       </c>
       <c r="B34" t="s">
@@ -6293,7 +6404,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="60" t="s">
         <v>88</v>
       </c>
       <c r="B35" t="s">
@@ -6319,7 +6430,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="60" t="s">
         <v>89</v>
       </c>
       <c r="B36" t="s">
@@ -6345,7 +6456,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="60" t="s">
         <v>194</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -6371,7 +6482,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="60" t="s">
         <v>90</v>
       </c>
       <c r="B38" t="s">
@@ -6397,7 +6508,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="60" t="s">
         <v>166</v>
       </c>
       <c r="B39" t="s">
@@ -6420,7 +6531,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="60" t="s">
         <v>167</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -6446,7 +6557,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="60" t="s">
         <v>168</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -6472,7 +6583,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="60" t="s">
         <v>175</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -6495,7 +6606,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="60" t="s">
         <v>152</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -6518,7 +6629,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="60" t="s">
         <v>155</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -6541,7 +6652,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="60" t="s">
         <v>157</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -6590,7 +6701,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="60" t="s">
         <v>163</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -6662,7 +6773,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="60" t="s">
         <v>213</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -6685,6 +6796,182 @@
       </c>
       <c r="I50" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="60">
+        <v>455660</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D51" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" t="s">
+        <v>212</v>
+      </c>
+      <c r="F51" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
+        <v>138</v>
+      </c>
+      <c r="H51" t="s">
+        <v>139</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="60">
+        <v>363580</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D52" t="s">
+        <v>243</v>
+      </c>
+      <c r="E52" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" t="s">
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="60">
+        <v>448300</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D53" t="s">
+        <v>245</v>
+      </c>
+      <c r="E53" t="s">
+        <v>212</v>
+      </c>
+      <c r="F53" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>246</v>
+      </c>
+      <c r="I53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" t="s">
+        <v>212</v>
+      </c>
+      <c r="F54" t="s">
+        <v>148</v>
+      </c>
+      <c r="G54" t="s">
+        <v>138</v>
+      </c>
+      <c r="H54" t="s">
+        <v>139</v>
+      </c>
+      <c r="I54" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" t="s">
+        <v>251</v>
+      </c>
+      <c r="E55" t="s">
+        <v>212</v>
+      </c>
+      <c r="F55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="60">
+        <v>261220</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" t="s">
+        <v>252</v>
+      </c>
+      <c r="E56" t="s">
+        <v>212</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>149</v>
+      </c>
+      <c r="I56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="60">
+        <v>371160</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" t="s">
+        <v>257</v>
+      </c>
+      <c r="E57" t="s">
+        <v>212</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G57" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" t="s">
+        <v>246</v>
+      </c>
+      <c r="I57" t="s">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -6701,7 +6988,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7086,10 +7373,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M387"/>
+  <dimension ref="A1:M384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H306" sqref="H306"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7125,12 +7412,12 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>45271</v>
+        <v>45274</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E2" s="7"/>
@@ -7138,38 +7425,40 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>45272</v>
+        <v>45275</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7">
+        <v>1986.58</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>45273</v>
+        <v>45276</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>45274</v>
+        <v>45277</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E5" s="7"/>
@@ -7177,27 +7466,25 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>45275</v>
+        <v>45278</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E6" s="7"/>
-      <c r="F6" s="7">
-        <v>1986.58</v>
-      </c>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>45276</v>
+        <v>45279</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E7" s="7"/>
@@ -7205,25 +7492,27 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>45277</v>
+        <v>45280</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>45278</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>45281</v>
+      </c>
+      <c r="B9" s="7">
+        <v>5846830</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="7"/>
@@ -7231,12 +7520,12 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>45279</v>
+        <v>45282</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="7"/>
@@ -7244,27 +7533,25 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>45280</v>
+        <v>45283</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>45281</v>
-      </c>
-      <c r="B12" s="7">
-        <v>5846830</v>
-      </c>
+        <v>45284</v>
+      </c>
+      <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E12" s="7"/>
@@ -7272,12 +7559,12 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>45282</v>
+        <v>45285</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="7"/>
@@ -7285,38 +7572,40 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>45283</v>
+        <v>45286</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>3000</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>45284</v>
+        <v>45287</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>45285</v>
+        <v>45288</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E16" s="7"/>
@@ -7324,40 +7613,38 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>45286</v>
+        <v>45289</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="7">
-        <v>3000</v>
-      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>45287</v>
+        <v>45290</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>45288</v>
+        <v>45291</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E19" s="7"/>
@@ -7365,12 +7652,12 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>45289</v>
+        <v>45292</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E20" s="7"/>
@@ -7378,12 +7665,12 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>45290</v>
+        <v>45293</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="7"/>
@@ -7391,25 +7678,25 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>45291</v>
+        <v>45294</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E23" s="7"/>
@@ -7417,12 +7704,12 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E24" s="7"/>
@@ -7430,25 +7717,25 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>45294</v>
+        <v>45297</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>45295</v>
+        <v>45298</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E26" s="7"/>
@@ -7456,12 +7743,12 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>45296</v>
+        <v>45299</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E27" s="7"/>
@@ -7469,12 +7756,12 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>45297</v>
+        <v>45300</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E28" s="7"/>
@@ -7482,25 +7769,25 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>45298</v>
+        <v>45301</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E30" s="7"/>
@@ -7508,12 +7795,12 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>45300</v>
+        <v>45303</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E31" s="7"/>
@@ -7521,25 +7808,25 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>45301</v>
+        <v>45304</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>45302</v>
+        <v>45305</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E33" s="7"/>
@@ -7547,12 +7834,12 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>45303</v>
+        <v>45306</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E34" s="7"/>
@@ -7560,12 +7847,12 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>45304</v>
+        <v>45307</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="7"/>
@@ -7573,25 +7860,25 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E37" s="7"/>
@@ -7599,12 +7886,12 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>45307</v>
+        <v>45310</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E38" s="7"/>
@@ -7612,25 +7899,27 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>45308</v>
+        <v>45311</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>45309</v>
-      </c>
-      <c r="B40" s="5"/>
+        <v>45312</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2895077</v>
+      </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E40" s="7"/>
@@ -7638,12 +7927,12 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>45310</v>
+        <v>45313</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E41" s="7"/>
@@ -7651,12 +7940,12 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>45311</v>
+        <v>45314</v>
       </c>
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E42" s="7"/>
@@ -7664,27 +7953,25 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>45312</v>
-      </c>
-      <c r="B43" s="5">
-        <v>2895077</v>
-      </c>
+        <v>45315</v>
+      </c>
+      <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E44" s="7"/>
@@ -7692,12 +7979,12 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>45314</v>
+        <v>45317</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E45" s="7"/>
@@ -7705,25 +7992,25 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>45315</v>
+        <v>45318</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E47" s="7"/>
@@ -7731,12 +8018,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>45317</v>
+        <v>45320</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E48" s="7"/>
@@ -7744,12 +8031,12 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>45318</v>
+        <v>45321</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E49" s="7"/>
@@ -7757,25 +8044,25 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>45319</v>
+        <v>45322</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>45320</v>
+        <v>45323</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E51" s="7"/>
@@ -7783,12 +8070,12 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>45321</v>
+        <v>45324</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E52" s="7"/>
@@ -7796,25 +8083,25 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>5000000</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>45323</v>
+        <v>45326</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E54" s="7"/>
@@ -7822,12 +8109,12 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E55" s="7"/>
@@ -7835,12 +8122,12 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E56" s="7"/>
@@ -7848,25 +8135,25 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>45327</v>
+        <v>45330</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="7"/>
       <c r="D58" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E58" s="7"/>
@@ -7874,12 +8161,12 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>45328</v>
+        <v>45331</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7">
-        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 5000000,0)</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E59" s="7"/>
@@ -7887,462 +8174,588 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>45330</v>
+        <v>45333</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
+      <c r="D62" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>45332</v>
+        <v>45335</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>45333</v>
+        <v>45336</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
+      </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>45334</v>
+        <v>45337</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
+      <c r="D65" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>45335</v>
+        <v>45338</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>45336</v>
+        <v>45339</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>45337</v>
+        <v>45340</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>45338</v>
+        <v>45341</v>
       </c>
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
+      <c r="D69" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>45339</v>
+        <v>45342</v>
       </c>
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
+      <c r="D70" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>45340</v>
-      </c>
-      <c r="B71" s="5"/>
+        <v>45343</v>
+      </c>
+      <c r="B71" s="5">
+        <v>7147809</v>
+      </c>
       <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
+      <c r="D71" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="D72" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>45342</v>
+        <v>45345</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
+      <c r="D73" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>45343</v>
-      </c>
-      <c r="B74" s="5">
-        <v>7147809</v>
-      </c>
+        <v>45346</v>
+      </c>
+      <c r="B74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7">
-        <f>1758803+표8[[#This Row],[원화자금유입]]</f>
-        <v>8906612</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>45345</v>
+        <v>45348</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
+      <c r="D76" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>45346</v>
+        <v>45349</v>
       </c>
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
+      <c r="D77" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>45347</v>
+        <v>45350</v>
       </c>
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="D78" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
+      </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>45348</v>
+        <v>45351</v>
       </c>
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
+      <c r="D79" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
+      <c r="D80" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>45350</v>
+        <v>45353</v>
       </c>
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
+      <c r="D81" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
+      <c r="D82" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
+      <c r="D83" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>45353</v>
+        <v>45356</v>
       </c>
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>45354</v>
+        <v>45357</v>
       </c>
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
+      </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
-        <v>45355</v>
+        <v>45358</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
+      <c r="D86" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>45357</v>
+        <v>45360</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>45358</v>
+        <v>45361</v>
       </c>
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="D89" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
+      <c r="D90" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>45360</v>
+        <v>45363</v>
       </c>
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
+      <c r="D91" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>45361</v>
+        <v>45364</v>
       </c>
       <c r="B92" s="5"/>
       <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
+      <c r="D92" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>45362</v>
+        <v>45365</v>
       </c>
       <c r="B93" s="5"/>
       <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
+      <c r="D93" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>45363</v>
+        <v>45366</v>
       </c>
       <c r="B94" s="5"/>
       <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
+      <c r="D94" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B95" s="5"/>
       <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>45365</v>
+        <v>45368</v>
       </c>
       <c r="B96" s="5"/>
       <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>45366</v>
+        <v>45369</v>
       </c>
       <c r="B97" s="5"/>
       <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
+      <c r="D97" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B98" s="5"/>
       <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
+      <c r="D98" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>45368</v>
+        <v>45371</v>
       </c>
       <c r="B99" s="5"/>
       <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
+      <c r="D99" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
+      </c>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>45369</v>
-      </c>
-      <c r="B100" s="5"/>
+        <v>45372</v>
+      </c>
+      <c r="B100" s="5">
+        <v>3314465</v>
+      </c>
       <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
+      <c r="D100" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E100" s="7"/>
       <c r="F100" s="7"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>45370</v>
+        <v>45373</v>
       </c>
       <c r="B101" s="5"/>
       <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
+      <c r="D101" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>45371</v>
+        <v>45374</v>
       </c>
       <c r="B102" s="5"/>
       <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
+      <c r="D102" s="7">
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
+      </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>45372</v>
-      </c>
-      <c r="B103" s="5">
-        <v>3314465</v>
-      </c>
+        <v>45375</v>
+      </c>
+      <c r="B103" s="5"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>3314465</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>45373</v>
+        <v>45376</v>
       </c>
       <c r="B104" s="5"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E104" s="7"/>
@@ -8350,12 +8763,12 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>45374</v>
+        <v>45377</v>
       </c>
       <c r="B105" s="5"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E105" s="7"/>
@@ -8363,25 +8776,25 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>45375</v>
+        <v>45378</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>45376</v>
+        <v>45379</v>
       </c>
       <c r="B107" s="5"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E107" s="7"/>
@@ -8389,12 +8802,12 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>45377</v>
+        <v>45380</v>
       </c>
       <c r="B108" s="5"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E108" s="7"/>
@@ -8402,12 +8815,12 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>45378</v>
+        <v>45381</v>
       </c>
       <c r="B109" s="5"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E109" s="7"/>
@@ -8415,12 +8828,12 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>45379</v>
+        <v>45382</v>
       </c>
       <c r="B110" s="5"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E110" s="7"/>
@@ -8428,12 +8841,12 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B111" s="5"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E111" s="7"/>
@@ -8441,12 +8854,12 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="B112" s="5"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E112" s="7"/>
@@ -8454,25 +8867,25 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B113" s="5"/>
       <c r="C113" s="7"/>
       <c r="D113" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>45383</v>
+        <v>45386</v>
       </c>
       <c r="B114" s="5"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E114" s="7"/>
@@ -8480,12 +8893,12 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>45384</v>
+        <v>45387</v>
       </c>
       <c r="B115" s="5"/>
       <c r="C115" s="7"/>
       <c r="D115" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E115" s="7"/>
@@ -8493,12 +8906,12 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>45385</v>
+        <v>45388</v>
       </c>
       <c r="B116" s="5"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E116" s="7"/>
@@ -8506,12 +8919,12 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>45386</v>
+        <v>45389</v>
       </c>
       <c r="B117" s="5"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E117" s="7"/>
@@ -8519,12 +8932,12 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>45387</v>
+        <v>45390</v>
       </c>
       <c r="B118" s="5"/>
       <c r="C118" s="7"/>
       <c r="D118" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E118" s="7"/>
@@ -8532,12 +8945,12 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>45388</v>
+        <v>45391</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E119" s="7"/>
@@ -8545,25 +8958,25 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B120" s="5"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E120" s="7"/>
       <c r="F120" s="7"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>45390</v>
+        <v>45393</v>
       </c>
       <c r="B121" s="5"/>
       <c r="C121" s="7"/>
       <c r="D121" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E121" s="7"/>
@@ -8571,12 +8984,12 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B122" s="5"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E122" s="7"/>
@@ -8584,12 +8997,12 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>45392</v>
+        <v>45395</v>
       </c>
       <c r="B123" s="5"/>
       <c r="C123" s="7"/>
       <c r="D123" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E123" s="7"/>
@@ -8597,12 +9010,12 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B124" s="5"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E124" s="7"/>
@@ -8610,12 +9023,12 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="B125" s="5"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E125" s="7"/>
@@ -8623,12 +9036,12 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>45395</v>
+        <v>45398</v>
       </c>
       <c r="B126" s="5"/>
       <c r="C126" s="7"/>
       <c r="D126" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E126" s="7"/>
@@ -8636,25 +9049,25 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>45396</v>
+        <v>45399</v>
       </c>
       <c r="B127" s="5"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>45397</v>
+        <v>45400</v>
       </c>
       <c r="B128" s="5"/>
       <c r="C128" s="7"/>
       <c r="D128" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E128" s="7"/>
@@ -8662,12 +9075,12 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>45398</v>
+        <v>45401</v>
       </c>
       <c r="B129" s="5"/>
       <c r="C129" s="7"/>
       <c r="D129" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E129" s="7"/>
@@ -8675,12 +9088,12 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>45399</v>
+        <v>45402</v>
       </c>
       <c r="B130" s="5"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E130" s="7"/>
@@ -8688,12 +9101,14 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>45400</v>
-      </c>
-      <c r="B131" s="5"/>
+        <v>45403</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2683586</v>
+      </c>
       <c r="C131" s="7"/>
       <c r="D131" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E131" s="7"/>
@@ -8701,12 +9116,12 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>45401</v>
+        <v>45404</v>
       </c>
       <c r="B132" s="5"/>
       <c r="C132" s="7"/>
       <c r="D132" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E132" s="7"/>
@@ -8714,12 +9129,12 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>45402</v>
+        <v>45405</v>
       </c>
       <c r="B133" s="5"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E133" s="7"/>
@@ -8727,27 +9142,25 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>45403</v>
-      </c>
-      <c r="B134" s="5">
-        <v>2683586</v>
-      </c>
+        <v>45406</v>
+      </c>
+      <c r="B134" s="5"/>
       <c r="C134" s="7"/>
       <c r="D134" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>2683586</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>45404</v>
+        <v>45407</v>
       </c>
       <c r="B135" s="5"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E135" s="7"/>
@@ -8755,12 +9168,12 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>45405</v>
+        <v>45408</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="7"/>
       <c r="D136" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E136" s="7"/>
@@ -8768,12 +9181,12 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>45406</v>
+        <v>45409</v>
       </c>
       <c r="B137" s="5"/>
       <c r="C137" s="7"/>
       <c r="D137" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E137" s="7"/>
@@ -8781,12 +9194,12 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>45407</v>
+        <v>45410</v>
       </c>
       <c r="B138" s="5"/>
       <c r="C138" s="7"/>
       <c r="D138" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E138" s="7"/>
@@ -8794,12 +9207,12 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>45408</v>
+        <v>45411</v>
       </c>
       <c r="B139" s="5"/>
       <c r="C139" s="7"/>
       <c r="D139" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E139" s="7"/>
@@ -8807,12 +9220,12 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>45409</v>
+        <v>45412</v>
       </c>
       <c r="B140" s="5"/>
       <c r="C140" s="7"/>
       <c r="D140" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E140" s="7"/>
@@ -8820,25 +9233,25 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>45410</v>
+        <v>45413</v>
       </c>
       <c r="B141" s="5"/>
       <c r="C141" s="7"/>
       <c r="D141" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>45411</v>
+        <v>45414</v>
       </c>
       <c r="B142" s="5"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E142" s="7"/>
@@ -8846,12 +9259,12 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>45412</v>
+        <v>45415</v>
       </c>
       <c r="B143" s="5"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E143" s="7"/>
@@ -8859,12 +9272,12 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>45413</v>
+        <v>45416</v>
       </c>
       <c r="B144" s="5"/>
       <c r="C144" s="7"/>
       <c r="D144" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E144" s="7"/>
@@ -8872,12 +9285,12 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>45414</v>
+        <v>45417</v>
       </c>
       <c r="B145" s="5"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E145" s="7"/>
@@ -8885,12 +9298,12 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>45415</v>
+        <v>45418</v>
       </c>
       <c r="B146" s="5"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E146" s="7"/>
@@ -8898,12 +9311,12 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>45416</v>
+        <v>45419</v>
       </c>
       <c r="B147" s="5"/>
       <c r="C147" s="7"/>
       <c r="D147" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E147" s="7"/>
@@ -8911,25 +9324,25 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>45417</v>
+        <v>45420</v>
       </c>
       <c r="B148" s="5"/>
       <c r="C148" s="7"/>
       <c r="D148" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>45418</v>
+        <v>45421</v>
       </c>
       <c r="B149" s="5"/>
       <c r="C149" s="7"/>
       <c r="D149" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E149" s="7"/>
@@ -8937,12 +9350,12 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>45419</v>
+        <v>45422</v>
       </c>
       <c r="B150" s="5"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E150" s="7"/>
@@ -8950,12 +9363,12 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>45420</v>
+        <v>45423</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="7"/>
       <c r="D151" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E151" s="7"/>
@@ -8963,12 +9376,12 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>45421</v>
+        <v>45424</v>
       </c>
       <c r="B152" s="5"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E152" s="7"/>
@@ -8976,12 +9389,12 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>45422</v>
+        <v>45425</v>
       </c>
       <c r="B153" s="5"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E153" s="7"/>
@@ -8989,12 +9402,12 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>45423</v>
+        <v>45426</v>
       </c>
       <c r="B154" s="5"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E154" s="7"/>
@@ -9002,25 +9415,25 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>45424</v>
+        <v>45427</v>
       </c>
       <c r="B155" s="5"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>45425</v>
+        <v>45428</v>
       </c>
       <c r="B156" s="5"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E156" s="7"/>
@@ -9028,12 +9441,12 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="B157" s="5"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E157" s="7"/>
@@ -9041,12 +9454,12 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>45427</v>
+        <v>45430</v>
       </c>
       <c r="B158" s="5"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E158" s="7"/>
@@ -9054,12 +9467,12 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>45428</v>
+        <v>45431</v>
       </c>
       <c r="B159" s="5"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E159" s="7"/>
@@ -9067,12 +9480,12 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>45429</v>
+        <v>45432</v>
       </c>
       <c r="B160" s="5"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E160" s="7"/>
@@ -9080,12 +9493,14 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>45430</v>
-      </c>
-      <c r="B161" s="5"/>
+        <v>45433</v>
+      </c>
+      <c r="B161" s="5">
+        <v>4132261</v>
+      </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E161" s="7"/>
@@ -9093,25 +9508,25 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>45431</v>
+        <v>45434</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>45432</v>
+        <v>45435</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E163" s="7"/>
@@ -9119,27 +9534,25 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>45433</v>
-      </c>
-      <c r="B164" s="5">
-        <v>4132261</v>
-      </c>
+        <v>45436</v>
+      </c>
+      <c r="B164" s="5"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>4132261</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>45434</v>
+        <v>45437</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E165" s="7"/>
@@ -9147,12 +9560,12 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>45435</v>
+        <v>45438</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E166" s="7"/>
@@ -9160,12 +9573,12 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>45436</v>
+        <v>45439</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E167" s="7"/>
@@ -9173,12 +9586,12 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>45437</v>
+        <v>45440</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E168" s="7"/>
@@ -9186,25 +9599,25 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>45438</v>
+        <v>45441</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="7"/>
       <c r="D169" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E169" s="7"/>
       <c r="F169" s="7"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>45439</v>
+        <v>45442</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="7"/>
       <c r="D170" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E170" s="7"/>
@@ -9212,12 +9625,12 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>45440</v>
+        <v>45443</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="7"/>
       <c r="D171" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E171" s="7"/>
@@ -9225,12 +9638,12 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>45441</v>
+        <v>45444</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="7"/>
       <c r="D172" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E172" s="7"/>
@@ -9238,12 +9651,12 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>45442</v>
+        <v>45445</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="7"/>
       <c r="D173" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E173" s="7"/>
@@ -9251,12 +9664,12 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>45443</v>
+        <v>45446</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="7"/>
       <c r="D174" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E174" s="7"/>
@@ -9264,12 +9677,14 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>45444</v>
+        <v>45447</v>
       </c>
       <c r="B175" s="5"/>
-      <c r="C175" s="7"/>
+      <c r="C175" s="7">
+        <v>5010238</v>
+      </c>
       <c r="D175" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E175" s="7"/>
@@ -9277,25 +9692,25 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>45445</v>
+        <v>45448</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="7"/>
       <c r="D176" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E176" s="7"/>
       <c r="F176" s="7"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>45446</v>
+        <v>45449</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E177" s="7"/>
@@ -9303,27 +9718,25 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>45447</v>
+        <v>45450</v>
       </c>
       <c r="B178" s="5"/>
-      <c r="C178" s="7">
-        <v>5010238</v>
-      </c>
+      <c r="C178" s="7"/>
       <c r="D178" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>5010238</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E178" s="7"/>
       <c r="F178" s="7"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>45448</v>
+        <v>45451</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="7"/>
       <c r="D179" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E179" s="7"/>
@@ -9331,12 +9744,12 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>45449</v>
+        <v>45452</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E180" s="7"/>
@@ -9344,12 +9757,12 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>45450</v>
+        <v>45453</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="7"/>
       <c r="D181" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E181" s="7"/>
@@ -9357,12 +9770,12 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>45451</v>
+        <v>45454</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="7"/>
       <c r="D182" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E182" s="7"/>
@@ -9370,25 +9783,25 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>45452</v>
+        <v>45455</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="7"/>
       <c r="D183" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E183" s="7"/>
       <c r="F183" s="7"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>45453</v>
+        <v>45456</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="7"/>
       <c r="D184" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E184" s="7"/>
@@ -9396,12 +9809,12 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>45454</v>
+        <v>45457</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E185" s="7"/>
@@ -9409,12 +9822,12 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>45455</v>
+        <v>45458</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="7"/>
       <c r="D186" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E186" s="7"/>
@@ -9422,12 +9835,12 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>45456</v>
+        <v>45459</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E187" s="7"/>
@@ -9435,12 +9848,12 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>45457</v>
+        <v>45460</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E188" s="7"/>
@@ -9448,12 +9861,12 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>45458</v>
+        <v>45461</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="7"/>
       <c r="D189" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E189" s="7"/>
@@ -9461,25 +9874,25 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>45459</v>
+        <v>45462</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="7"/>
       <c r="D190" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>45460</v>
+        <v>45463</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="7"/>
       <c r="D191" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E191" s="7"/>
@@ -9487,12 +9900,14 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>45461</v>
-      </c>
-      <c r="B192" s="5"/>
+        <v>45464</v>
+      </c>
+      <c r="B192" s="5">
+        <v>3048373</v>
+      </c>
       <c r="C192" s="7"/>
       <c r="D192" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E192" s="7"/>
@@ -9500,12 +9915,12 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>45462</v>
+        <v>45465</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="7"/>
       <c r="D193" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E193" s="7"/>
@@ -9513,12 +9928,12 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>45463</v>
+        <v>45466</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="7"/>
       <c r="D194" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E194" s="7"/>
@@ -9526,27 +9941,25 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <v>45464</v>
-      </c>
-      <c r="B195" s="5">
-        <v>3048373</v>
-      </c>
+        <v>45467</v>
+      </c>
+      <c r="B195" s="5"/>
       <c r="C195" s="7"/>
       <c r="D195" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>3048373</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>45465</v>
+        <v>45468</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="7"/>
       <c r="D196" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E196" s="7"/>
@@ -9554,25 +9967,25 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>45466</v>
+        <v>45469</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="7"/>
       <c r="D197" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E197" s="7"/>
       <c r="F197" s="7"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>45467</v>
+        <v>45470</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="7"/>
       <c r="D198" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E198" s="7"/>
@@ -9580,12 +9993,12 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>45468</v>
+        <v>45471</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="7"/>
       <c r="D199" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E199" s="7"/>
@@ -9593,12 +10006,12 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>45469</v>
+        <v>45472</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="7"/>
       <c r="D200" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E200" s="7"/>
@@ -9606,12 +10019,12 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>45470</v>
+        <v>45473</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E201" s="7"/>
@@ -9619,12 +10032,12 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>45471</v>
+        <v>45474</v>
       </c>
       <c r="B202" s="5"/>
       <c r="C202" s="7"/>
       <c r="D202" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E202" s="7"/>
@@ -9632,12 +10045,12 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>45472</v>
+        <v>45475</v>
       </c>
       <c r="B203" s="5"/>
       <c r="C203" s="7"/>
       <c r="D203" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E203" s="7"/>
@@ -9645,25 +10058,25 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>45473</v>
+        <v>45476</v>
       </c>
       <c r="B204" s="5"/>
       <c r="C204" s="7"/>
       <c r="D204" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E204" s="7"/>
       <c r="F204" s="7"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>45474</v>
+        <v>45477</v>
       </c>
       <c r="B205" s="5"/>
       <c r="C205" s="7"/>
       <c r="D205" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E205" s="7"/>
@@ -9671,12 +10084,12 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>45475</v>
+        <v>45478</v>
       </c>
       <c r="B206" s="5"/>
       <c r="C206" s="7"/>
       <c r="D206" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E206" s="7"/>
@@ -9684,12 +10097,12 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>45476</v>
+        <v>45479</v>
       </c>
       <c r="B207" s="5"/>
       <c r="C207" s="7"/>
       <c r="D207" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E207" s="7"/>
@@ -9697,12 +10110,12 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>45477</v>
+        <v>45480</v>
       </c>
       <c r="B208" s="5"/>
       <c r="C208" s="7"/>
       <c r="D208" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E208" s="7"/>
@@ -9710,12 +10123,12 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B209" s="5"/>
       <c r="C209" s="7"/>
       <c r="D209" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E209" s="7"/>
@@ -9723,12 +10136,12 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>45479</v>
+        <v>45482</v>
       </c>
       <c r="B210" s="5"/>
       <c r="C210" s="7"/>
       <c r="D210" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E210" s="7"/>
@@ -9736,25 +10149,25 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>45480</v>
+        <v>45483</v>
       </c>
       <c r="B211" s="5"/>
       <c r="C211" s="7"/>
       <c r="D211" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="7"/>
       <c r="D212" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E212" s="7"/>
@@ -9762,12 +10175,12 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B213" s="5"/>
       <c r="C213" s="7"/>
       <c r="D213" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E213" s="7"/>
@@ -9775,12 +10188,12 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>45483</v>
+        <v>45486</v>
       </c>
       <c r="B214" s="5"/>
       <c r="C214" s="7"/>
       <c r="D214" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E214" s="7"/>
@@ -9788,12 +10201,12 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>45484</v>
+        <v>45487</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="7"/>
       <c r="D215" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E215" s="7"/>
@@ -9801,12 +10214,12 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="7"/>
       <c r="D216" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E216" s="7"/>
@@ -9814,12 +10227,12 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
-        <v>45486</v>
+        <v>45489</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="7"/>
       <c r="D217" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E217" s="7"/>
@@ -9827,25 +10240,25 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>45487</v>
+        <v>45490</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="7"/>
       <c r="D218" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="7"/>
       <c r="D219" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E219" s="7"/>
@@ -9853,12 +10266,12 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="7"/>
       <c r="D220" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E220" s="7"/>
@@ -9866,12 +10279,12 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <v>45490</v>
+        <v>45493</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="7"/>
       <c r="D221" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E221" s="7"/>
@@ -9879,12 +10292,14 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>45491</v>
-      </c>
-      <c r="B222" s="5"/>
+        <v>45494</v>
+      </c>
+      <c r="B222" s="5">
+        <v>2490355</v>
+      </c>
       <c r="C222" s="7"/>
       <c r="D222" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E222" s="7"/>
@@ -9892,12 +10307,12 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B223" s="5"/>
       <c r="C223" s="7"/>
       <c r="D223" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E223" s="7"/>
@@ -9905,12 +10320,12 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>45493</v>
+        <v>45496</v>
       </c>
       <c r="B224" s="5"/>
       <c r="C224" s="7"/>
       <c r="D224" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E224" s="7"/>
@@ -9918,27 +10333,25 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>45494</v>
-      </c>
-      <c r="B225" s="5">
-        <v>2490355</v>
-      </c>
+        <v>45497</v>
+      </c>
+      <c r="B225" s="5"/>
       <c r="C225" s="7"/>
       <c r="D225" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>2490355</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E225" s="7"/>
       <c r="F225" s="7"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="7"/>
       <c r="D226" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E226" s="7"/>
@@ -9946,12 +10359,12 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="7"/>
       <c r="D227" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E227" s="7"/>
@@ -9959,12 +10372,12 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>45497</v>
+        <v>45500</v>
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="7"/>
       <c r="D228" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E228" s="7"/>
@@ -9972,12 +10385,12 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>45498</v>
+        <v>45501</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="7"/>
       <c r="D229" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E229" s="7"/>
@@ -9985,12 +10398,12 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="7"/>
       <c r="D230" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E230" s="7"/>
@@ -9998,12 +10411,12 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
-        <v>45500</v>
+        <v>45503</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="7"/>
       <c r="D231" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E231" s="7"/>
@@ -10011,25 +10424,25 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>45501</v>
+        <v>45504</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="7"/>
       <c r="D232" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="7"/>
       <c r="D233" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E233" s="7"/>
@@ -10037,12 +10450,12 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="7"/>
       <c r="D234" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E234" s="7"/>
@@ -10050,12 +10463,12 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>45504</v>
+        <v>45507</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="7"/>
       <c r="D235" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E235" s="7"/>
@@ -10063,12 +10476,12 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="7"/>
       <c r="D236" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E236" s="7"/>
@@ -10076,12 +10489,12 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="7"/>
       <c r="D237" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E237" s="7"/>
@@ -10089,12 +10502,12 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="7"/>
       <c r="D238" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E238" s="7"/>
@@ -10102,25 +10515,25 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>45508</v>
+        <v>45511</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="7"/>
       <c r="D239" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E239" s="7"/>
       <c r="F239" s="7"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="7"/>
       <c r="D240" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E240" s="7"/>
@@ -10128,12 +10541,12 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="7"/>
       <c r="D241" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E241" s="7"/>
@@ -10141,12 +10554,12 @@
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="7"/>
       <c r="D242" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E242" s="7"/>
@@ -10154,12 +10567,12 @@
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="7"/>
       <c r="D243" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E243" s="7"/>
@@ -10167,12 +10580,12 @@
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="7"/>
       <c r="D244" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E244" s="7"/>
@@ -10180,12 +10593,12 @@
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="7"/>
       <c r="D245" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E245" s="7"/>
@@ -10193,25 +10606,25 @@
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="7"/>
       <c r="D246" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E246" s="7"/>
       <c r="F246" s="7"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="7"/>
       <c r="D247" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E247" s="7"/>
@@ -10219,12 +10632,12 @@
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="7"/>
       <c r="D248" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E248" s="7"/>
@@ -10232,12 +10645,12 @@
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
-        <v>45518</v>
+        <v>45521</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="7"/>
       <c r="D249" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E249" s="7"/>
@@ -10245,12 +10658,12 @@
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>45519</v>
+        <v>45522</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="7"/>
       <c r="D250" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E250" s="7"/>
@@ -10258,12 +10671,12 @@
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="B251" s="5"/>
       <c r="C251" s="7"/>
       <c r="D251" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E251" s="7"/>
@@ -10271,12 +10684,12 @@
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="B252" s="5"/>
       <c r="C252" s="7"/>
       <c r="D252" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E252" s="7"/>
@@ -10284,25 +10697,27 @@
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>45522</v>
-      </c>
-      <c r="B253" s="5"/>
+        <v>45525</v>
+      </c>
+      <c r="B253" s="5">
+        <v>6292866</v>
+      </c>
       <c r="C253" s="7"/>
       <c r="D253" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E253" s="7"/>
       <c r="F253" s="7"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B254" s="5"/>
       <c r="C254" s="7"/>
       <c r="D254" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E254" s="7"/>
@@ -10310,12 +10725,12 @@
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B255" s="5"/>
       <c r="C255" s="7"/>
       <c r="D255" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E255" s="7"/>
@@ -10323,27 +10738,25 @@
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <v>45525</v>
-      </c>
-      <c r="B256" s="5">
-        <v>6292866</v>
-      </c>
+        <v>45528</v>
+      </c>
+      <c r="B256" s="5"/>
       <c r="C256" s="7"/>
       <c r="D256" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>6292866</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E256" s="7"/>
       <c r="F256" s="7"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>45526</v>
+        <v>45529</v>
       </c>
       <c r="B257" s="5"/>
       <c r="C257" s="7"/>
       <c r="D257" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E257" s="7"/>
@@ -10351,12 +10764,12 @@
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="B258" s="5"/>
       <c r="C258" s="7"/>
       <c r="D258" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E258" s="7"/>
@@ -10364,12 +10777,12 @@
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
-        <v>45528</v>
+        <v>45531</v>
       </c>
       <c r="B259" s="5"/>
       <c r="C259" s="7"/>
       <c r="D259" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E259" s="7"/>
@@ -10377,25 +10790,25 @@
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
-        <v>45529</v>
+        <v>45532</v>
       </c>
       <c r="B260" s="5"/>
       <c r="C260" s="7"/>
       <c r="D260" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E260" s="7"/>
       <c r="F260" s="7"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B261" s="5"/>
       <c r="C261" s="7"/>
       <c r="D261" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E261" s="7"/>
@@ -10403,12 +10816,12 @@
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B262" s="5"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E262" s="7"/>
@@ -10416,12 +10829,12 @@
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
-        <v>45532</v>
+        <v>45535</v>
       </c>
       <c r="B263" s="5"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E263" s="7"/>
@@ -10429,12 +10842,12 @@
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <v>45533</v>
+        <v>45536</v>
       </c>
       <c r="B264" s="5"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E264" s="7"/>
@@ -10442,12 +10855,12 @@
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="B265" s="5"/>
       <c r="C265" s="7"/>
       <c r="D265" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E265" s="7"/>
@@ -10455,12 +10868,12 @@
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>45535</v>
+        <v>45538</v>
       </c>
       <c r="B266" s="5"/>
       <c r="C266" s="7"/>
       <c r="D266" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E266" s="7"/>
@@ -10468,25 +10881,25 @@
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>45536</v>
+        <v>45539</v>
       </c>
       <c r="B267" s="5"/>
       <c r="C267" s="7"/>
       <c r="D267" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E267" s="7"/>
       <c r="F267" s="7"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="B268" s="5"/>
       <c r="C268" s="7"/>
       <c r="D268" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E268" s="7"/>
@@ -10494,12 +10907,12 @@
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B269" s="5"/>
       <c r="C269" s="7"/>
       <c r="D269" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E269" s="7"/>
@@ -10507,12 +10920,12 @@
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>45539</v>
+        <v>45542</v>
       </c>
       <c r="B270" s="5"/>
       <c r="C270" s="7"/>
       <c r="D270" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E270" s="7"/>
@@ -10520,12 +10933,12 @@
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>45540</v>
+        <v>45543</v>
       </c>
       <c r="B271" s="5"/>
       <c r="C271" s="7"/>
       <c r="D271" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E271" s="7"/>
@@ -10533,12 +10946,12 @@
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B272" s="5"/>
       <c r="C272" s="7"/>
       <c r="D272" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E272" s="7"/>
@@ -10546,12 +10959,12 @@
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="B273" s="5"/>
       <c r="C273" s="7"/>
       <c r="D273" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E273" s="7"/>
@@ -10559,25 +10972,25 @@
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
-        <v>45543</v>
+        <v>45546</v>
       </c>
       <c r="B274" s="5"/>
       <c r="C274" s="7"/>
       <c r="D274" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E274" s="7"/>
       <c r="F274" s="7"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B275" s="5"/>
       <c r="C275" s="7"/>
       <c r="D275" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E275" s="7"/>
@@ -10585,12 +10998,12 @@
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B276" s="5"/>
       <c r="C276" s="7"/>
       <c r="D276" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E276" s="7"/>
@@ -10598,12 +11011,12 @@
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="B277" s="5"/>
       <c r="C277" s="7"/>
       <c r="D277" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E277" s="7"/>
@@ -10611,12 +11024,12 @@
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>45547</v>
+        <v>45550</v>
       </c>
       <c r="B278" s="5"/>
       <c r="C278" s="7"/>
       <c r="D278" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E278" s="7"/>
@@ -10624,12 +11037,12 @@
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B279" s="5"/>
       <c r="C279" s="7"/>
       <c r="D279" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E279" s="7"/>
@@ -10637,12 +11050,12 @@
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>45549</v>
+        <v>45552</v>
       </c>
       <c r="B280" s="5"/>
       <c r="C280" s="7"/>
       <c r="D280" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E280" s="7"/>
@@ -10650,25 +11063,25 @@
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B281" s="5"/>
       <c r="C281" s="7"/>
       <c r="D281" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B282" s="5"/>
       <c r="C282" s="7"/>
       <c r="D282" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E282" s="7"/>
@@ -10676,12 +11089,12 @@
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B283" s="5"/>
       <c r="C283" s="7"/>
       <c r="D283" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E283" s="7"/>
@@ -10689,12 +11102,14 @@
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
-        <v>45553</v>
-      </c>
-      <c r="B284" s="5"/>
+        <v>45556</v>
+      </c>
+      <c r="B284" s="5">
+        <v>3501776</v>
+      </c>
       <c r="C284" s="7"/>
       <c r="D284" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E284" s="7"/>
@@ -10702,12 +11117,12 @@
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B285" s="5"/>
       <c r="C285" s="7"/>
       <c r="D285" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E285" s="7"/>
@@ -10715,12 +11130,12 @@
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B286" s="5"/>
       <c r="C286" s="7"/>
       <c r="D286" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E286" s="7"/>
@@ -10728,40 +11143,38 @@
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
-        <v>45556</v>
-      </c>
-      <c r="B287" s="5">
-        <v>3501776</v>
-      </c>
+        <v>45559</v>
+      </c>
+      <c r="B287" s="5"/>
       <c r="C287" s="7"/>
       <c r="D287" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>3501776</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E287" s="7"/>
       <c r="F287" s="7"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B288" s="5"/>
       <c r="C288" s="7"/>
       <c r="D288" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E288" s="7"/>
       <c r="F288" s="7"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B289" s="5"/>
       <c r="C289" s="7"/>
       <c r="D289" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E289" s="7"/>
@@ -10769,12 +11182,12 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B290" s="5"/>
       <c r="C290" s="7"/>
       <c r="D290" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E290" s="7"/>
@@ -10782,12 +11195,12 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>45560</v>
+        <v>45563</v>
       </c>
       <c r="B291" s="5"/>
       <c r="C291" s="7"/>
       <c r="D291" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E291" s="7"/>
@@ -10795,12 +11208,12 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
-        <v>45561</v>
+        <v>45564</v>
       </c>
       <c r="B292" s="5"/>
       <c r="C292" s="7"/>
       <c r="D292" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E292" s="7"/>
@@ -10808,12 +11221,12 @@
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="B293" s="5"/>
       <c r="C293" s="7"/>
       <c r="D293" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E293" s="7"/>
@@ -10821,12 +11234,12 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
-        <v>45563</v>
+        <v>45566</v>
       </c>
       <c r="B294" s="5"/>
       <c r="C294" s="7"/>
       <c r="D294" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E294" s="7"/>
@@ -10834,25 +11247,25 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
-        <v>45564</v>
+        <v>45567</v>
       </c>
       <c r="B295" s="5"/>
       <c r="C295" s="7"/>
       <c r="D295" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E295" s="7"/>
       <c r="F295" s="7"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B296" s="5"/>
       <c r="C296" s="7"/>
       <c r="D296" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E296" s="7"/>
@@ -10860,12 +11273,12 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B297" s="5"/>
       <c r="C297" s="7"/>
       <c r="D297" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E297" s="7"/>
@@ -10873,12 +11286,12 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="B298" s="5"/>
       <c r="C298" s="7"/>
       <c r="D298" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E298" s="7"/>
@@ -10886,12 +11299,12 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="B299" s="5"/>
       <c r="C299" s="7"/>
       <c r="D299" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E299" s="7"/>
@@ -10899,12 +11312,12 @@
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B300" s="5"/>
       <c r="C300" s="7"/>
       <c r="D300" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E300" s="7"/>
@@ -10912,12 +11325,12 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
-        <v>45570</v>
+        <v>45573</v>
       </c>
       <c r="B301" s="5"/>
       <c r="C301" s="7"/>
       <c r="D301" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E301" s="7"/>
@@ -10925,25 +11338,25 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
-        <v>45571</v>
+        <v>45574</v>
       </c>
       <c r="B302" s="5"/>
       <c r="C302" s="7"/>
       <c r="D302" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E302" s="7"/>
       <c r="F302" s="7"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B303" s="5"/>
       <c r="C303" s="7"/>
       <c r="D303" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E303" s="7"/>
@@ -10951,12 +11364,12 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B304" s="5"/>
       <c r="C304" s="7"/>
       <c r="D304" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E304" s="7"/>
@@ -10964,12 +11377,12 @@
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
-        <v>45574</v>
+        <v>45577</v>
       </c>
       <c r="B305" s="5"/>
       <c r="C305" s="7"/>
       <c r="D305" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E305" s="7"/>
@@ -10977,12 +11390,12 @@
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
-        <v>45575</v>
+        <v>45578</v>
       </c>
       <c r="B306" s="5"/>
       <c r="C306" s="7"/>
       <c r="D306" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E306" s="7"/>
@@ -10990,12 +11403,12 @@
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B307" s="5"/>
       <c r="C307" s="7"/>
       <c r="D307" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E307" s="7"/>
@@ -11003,12 +11416,12 @@
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
-        <v>45577</v>
+        <v>45580</v>
       </c>
       <c r="B308" s="5"/>
       <c r="C308" s="7"/>
       <c r="D308" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E308" s="7"/>
@@ -11016,25 +11429,25 @@
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
-        <v>45578</v>
+        <v>45581</v>
       </c>
       <c r="B309" s="5"/>
       <c r="C309" s="7"/>
       <c r="D309" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E309" s="7"/>
       <c r="F309" s="7"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
-        <v>45579</v>
+        <v>45582</v>
       </c>
       <c r="B310" s="5"/>
       <c r="C310" s="7"/>
       <c r="D310" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E310" s="7"/>
@@ -11042,12 +11455,12 @@
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
-        <v>45580</v>
+        <v>45583</v>
       </c>
       <c r="B311" s="5"/>
       <c r="C311" s="7"/>
       <c r="D311" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E311" s="7"/>
@@ -11055,12 +11468,12 @@
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
-        <v>45581</v>
+        <v>45584</v>
       </c>
       <c r="B312" s="5"/>
       <c r="C312" s="7"/>
       <c r="D312" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E312" s="7"/>
@@ -11068,12 +11481,12 @@
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
-        <v>45582</v>
+        <v>45585</v>
       </c>
       <c r="B313" s="5"/>
       <c r="C313" s="7"/>
       <c r="D313" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E313" s="7"/>
@@ -11081,12 +11494,14 @@
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
-        <v>45583</v>
-      </c>
-      <c r="B314" s="5"/>
+        <v>45586</v>
+      </c>
+      <c r="B314" s="5">
+        <v>3171188</v>
+      </c>
       <c r="C314" s="7"/>
       <c r="D314" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E314" s="7"/>
@@ -11094,12 +11509,12 @@
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
-        <v>45584</v>
+        <v>45587</v>
       </c>
       <c r="B315" s="5"/>
       <c r="C315" s="7"/>
       <c r="D315" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E315" s="7"/>
@@ -11107,40 +11522,38 @@
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
-        <v>45585</v>
+        <v>45588</v>
       </c>
       <c r="B316" s="5"/>
       <c r="C316" s="7"/>
       <c r="D316" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E316" s="7"/>
       <c r="F316" s="7"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
-        <v>45586</v>
-      </c>
-      <c r="B317" s="5">
-        <v>3171188</v>
-      </c>
+        <v>45589</v>
+      </c>
+      <c r="B317" s="5"/>
       <c r="C317" s="7"/>
       <c r="D317" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>3171188</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E317" s="7"/>
       <c r="F317" s="7"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
-        <v>45587</v>
+        <v>45590</v>
       </c>
       <c r="B318" s="5"/>
       <c r="C318" s="7"/>
       <c r="D318" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E318" s="7"/>
@@ -11148,12 +11561,12 @@
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
-        <v>45588</v>
+        <v>45591</v>
       </c>
       <c r="B319" s="5"/>
       <c r="C319" s="7"/>
       <c r="D319" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E319" s="7"/>
@@ -11161,12 +11574,12 @@
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
-        <v>45589</v>
+        <v>45592</v>
       </c>
       <c r="B320" s="5"/>
       <c r="C320" s="7"/>
       <c r="D320" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E320" s="7"/>
@@ -11174,12 +11587,12 @@
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B321" s="5"/>
       <c r="C321" s="7"/>
       <c r="D321" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E321" s="7"/>
@@ -11187,12 +11600,12 @@
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
-        <v>45591</v>
+        <v>45594</v>
       </c>
       <c r="B322" s="5"/>
       <c r="C322" s="7"/>
       <c r="D322" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E322" s="7"/>
@@ -11200,25 +11613,25 @@
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
-        <v>45592</v>
+        <v>45595</v>
       </c>
       <c r="B323" s="5"/>
       <c r="C323" s="7"/>
       <c r="D323" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E323" s="7"/>
       <c r="F323" s="7"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
-        <v>45593</v>
+        <v>45596</v>
       </c>
       <c r="B324" s="5"/>
       <c r="C324" s="7"/>
       <c r="D324" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E324" s="7"/>
@@ -11226,12 +11639,12 @@
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
-        <v>45594</v>
+        <v>45597</v>
       </c>
       <c r="B325" s="5"/>
       <c r="C325" s="7"/>
       <c r="D325" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E325" s="7"/>
@@ -11239,12 +11652,12 @@
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
-        <v>45595</v>
+        <v>45598</v>
       </c>
       <c r="B326" s="5"/>
       <c r="C326" s="7"/>
       <c r="D326" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E326" s="7"/>
@@ -11252,12 +11665,12 @@
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
-        <v>45596</v>
+        <v>45599</v>
       </c>
       <c r="B327" s="5"/>
       <c r="C327" s="7"/>
       <c r="D327" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E327" s="7"/>
@@ -11265,12 +11678,12 @@
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="B328" s="5"/>
       <c r="C328" s="7"/>
       <c r="D328" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E328" s="7"/>
@@ -11278,12 +11691,12 @@
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
-        <v>45598</v>
+        <v>45601</v>
       </c>
       <c r="B329" s="5"/>
       <c r="C329" s="7"/>
       <c r="D329" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E329" s="7"/>
@@ -11291,25 +11704,25 @@
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
-        <v>45599</v>
+        <v>45602</v>
       </c>
       <c r="B330" s="5"/>
       <c r="C330" s="7"/>
       <c r="D330" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E330" s="7"/>
       <c r="F330" s="7"/>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
-        <v>45600</v>
+        <v>45603</v>
       </c>
       <c r="B331" s="5"/>
       <c r="C331" s="7"/>
       <c r="D331" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E331" s="7"/>
@@ -11317,12 +11730,12 @@
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="B332" s="5"/>
       <c r="C332" s="7"/>
       <c r="D332" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E332" s="7"/>
@@ -11330,12 +11743,12 @@
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="B333" s="5"/>
       <c r="C333" s="7"/>
       <c r="D333" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E333" s="7"/>
@@ -11343,12 +11756,12 @@
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="B334" s="5"/>
       <c r="C334" s="7"/>
       <c r="D334" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E334" s="7"/>
@@ -11356,12 +11769,12 @@
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="B335" s="5"/>
       <c r="C335" s="7"/>
       <c r="D335" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E335" s="7"/>
@@ -11369,12 +11782,12 @@
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="B336" s="5"/>
       <c r="C336" s="7"/>
       <c r="D336" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E336" s="7"/>
@@ -11382,25 +11795,25 @@
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
-        <v>45606</v>
+        <v>45609</v>
       </c>
       <c r="B337" s="5"/>
       <c r="C337" s="7"/>
       <c r="D337" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E337" s="7"/>
       <c r="F337" s="7"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B338" s="5"/>
       <c r="C338" s="7"/>
       <c r="D338" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E338" s="7"/>
@@ -11408,12 +11821,12 @@
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="B339" s="5"/>
       <c r="C339" s="7"/>
       <c r="D339" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E339" s="7"/>
@@ -11421,12 +11834,12 @@
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B340" s="5"/>
       <c r="C340" s="7"/>
       <c r="D340" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E340" s="7"/>
@@ -11434,12 +11847,12 @@
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="B341" s="5"/>
       <c r="C341" s="7"/>
       <c r="D341" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E341" s="7"/>
@@ -11447,12 +11860,12 @@
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B342" s="5"/>
       <c r="C342" s="7"/>
       <c r="D342" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E342" s="7"/>
@@ -11460,12 +11873,12 @@
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="B343" s="5"/>
       <c r="C343" s="7"/>
       <c r="D343" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E343" s="7"/>
@@ -11473,25 +11886,27 @@
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="B344" s="5"/>
       <c r="C344" s="7"/>
       <c r="D344" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E344" s="7"/>
       <c r="F344" s="7"/>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
-        <v>45614</v>
-      </c>
-      <c r="B345" s="5"/>
+        <v>45617</v>
+      </c>
+      <c r="B345" s="5">
+        <v>3475413</v>
+      </c>
       <c r="C345" s="7"/>
       <c r="D345" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E345" s="7"/>
@@ -11499,12 +11914,14 @@
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="B346" s="5"/>
-      <c r="C346" s="7"/>
+      <c r="C346" s="7">
+        <v>1049029</v>
+      </c>
       <c r="D346" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E346" s="7"/>
@@ -11512,12 +11929,12 @@
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
-        <v>45616</v>
+        <v>45619</v>
       </c>
       <c r="B347" s="5"/>
       <c r="C347" s="7"/>
       <c r="D347" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E347" s="7"/>
@@ -11525,42 +11942,38 @@
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
-        <v>45617</v>
-      </c>
-      <c r="B348" s="5">
-        <v>3475413</v>
-      </c>
+        <v>45620</v>
+      </c>
+      <c r="B348" s="5"/>
       <c r="C348" s="7"/>
       <c r="D348" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>3475413</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E348" s="7"/>
       <c r="F348" s="7"/>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="B349" s="5"/>
-      <c r="C349" s="7">
-        <v>1049029</v>
-      </c>
+      <c r="C349" s="7"/>
       <c r="D349" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>1049029</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>0</v>
       </c>
       <c r="E349" s="7"/>
       <c r="F349" s="7"/>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
-        <v>45619</v>
+        <v>45622</v>
       </c>
       <c r="B350" s="5"/>
       <c r="C350" s="7"/>
       <c r="D350" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E350" s="7"/>
@@ -11568,25 +11981,25 @@
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="B351" s="5"/>
       <c r="C351" s="7"/>
       <c r="D351" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E351" s="7"/>
       <c r="F351" s="7"/>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="B352" s="5"/>
       <c r="C352" s="7"/>
       <c r="D352" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E352" s="7"/>
@@ -11594,12 +12007,12 @@
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="B353" s="5"/>
       <c r="C353" s="7"/>
       <c r="D353" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E353" s="7"/>
@@ -11607,12 +12020,12 @@
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="B354" s="5"/>
       <c r="C354" s="7"/>
       <c r="D354" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E354" s="7"/>
@@ -11620,12 +12033,12 @@
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="B355" s="5"/>
       <c r="C355" s="7"/>
       <c r="D355" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E355" s="7"/>
@@ -11633,12 +12046,12 @@
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="B356" s="5"/>
       <c r="C356" s="7"/>
       <c r="D356" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E356" s="7"/>
@@ -11646,12 +12059,12 @@
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="B357" s="5"/>
       <c r="C357" s="7"/>
       <c r="D357" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E357" s="7"/>
@@ -11659,25 +12072,25 @@
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="B358" s="5"/>
       <c r="C358" s="7"/>
       <c r="D358" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E358" s="7"/>
       <c r="F358" s="7"/>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="B359" s="5"/>
       <c r="C359" s="7"/>
       <c r="D359" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E359" s="7"/>
@@ -11685,12 +12098,12 @@
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="B360" s="5"/>
       <c r="C360" s="7"/>
       <c r="D360" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E360" s="7"/>
@@ -11698,12 +12111,12 @@
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="B361" s="5"/>
       <c r="C361" s="7"/>
       <c r="D361" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E361" s="7"/>
@@ -11711,12 +12124,12 @@
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="B362" s="5"/>
       <c r="C362" s="7"/>
       <c r="D362" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E362" s="7"/>
@@ -11724,12 +12137,12 @@
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="B363" s="5"/>
       <c r="C363" s="7"/>
       <c r="D363" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E363" s="7"/>
@@ -11737,12 +12150,12 @@
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="B364" s="5"/>
       <c r="C364" s="7"/>
       <c r="D364" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E364" s="7"/>
@@ -11750,25 +12163,25 @@
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
-        <v>45634</v>
+        <v>45637</v>
       </c>
       <c r="B365" s="5"/>
       <c r="C365" s="7"/>
       <c r="D365" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E365" s="7"/>
       <c r="F365" s="7"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="B366" s="5"/>
       <c r="C366" s="7"/>
       <c r="D366" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E366" s="7"/>
@@ -11776,12 +12189,12 @@
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="B367" s="5"/>
       <c r="C367" s="7"/>
       <c r="D367" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E367" s="7"/>
@@ -11789,12 +12202,12 @@
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="B368" s="5"/>
       <c r="C368" s="7"/>
       <c r="D368" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E368" s="7"/>
@@ -11802,12 +12215,12 @@
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="B369" s="5"/>
       <c r="C369" s="7"/>
       <c r="D369" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E369" s="7"/>
@@ -11815,12 +12228,12 @@
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="B370" s="5"/>
       <c r="C370" s="7"/>
       <c r="D370" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E370" s="7"/>
@@ -11828,12 +12241,12 @@
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
-        <v>45640</v>
+        <v>45643</v>
       </c>
       <c r="B371" s="5"/>
       <c r="C371" s="7"/>
       <c r="D371" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E371" s="7"/>
@@ -11841,25 +12254,25 @@
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
-        <v>45641</v>
+        <v>45644</v>
       </c>
       <c r="B372" s="5"/>
       <c r="C372" s="7"/>
       <c r="D372" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E372" s="7"/>
       <c r="F372" s="7"/>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
-        <v>45642</v>
+        <v>45645</v>
       </c>
       <c r="B373" s="5"/>
       <c r="C373" s="7"/>
       <c r="D373" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E373" s="7"/>
@@ -11867,12 +12280,12 @@
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="B374" s="5"/>
       <c r="C374" s="7"/>
       <c r="D374" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E374" s="7"/>
@@ -11880,12 +12293,12 @@
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
-        <v>45644</v>
+        <v>45647</v>
       </c>
       <c r="B375" s="5"/>
       <c r="C375" s="7"/>
       <c r="D375" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E375" s="7"/>
@@ -11893,12 +12306,12 @@
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
-        <v>45645</v>
+        <v>45648</v>
       </c>
       <c r="B376" s="5"/>
       <c r="C376" s="7"/>
       <c r="D376" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E376" s="7"/>
@@ -11906,12 +12319,12 @@
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B377" s="5"/>
       <c r="C377" s="7"/>
       <c r="D377" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E377" s="7"/>
@@ -11919,12 +12332,12 @@
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
-        <v>45647</v>
+        <v>45650</v>
       </c>
       <c r="B378" s="5"/>
       <c r="C378" s="7"/>
       <c r="D378" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E378" s="7"/>
@@ -11932,25 +12345,25 @@
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
-        <v>45648</v>
+        <v>45651</v>
       </c>
       <c r="B379" s="5"/>
       <c r="C379" s="7"/>
       <c r="D379" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
+        <v>2000000</v>
       </c>
       <c r="E379" s="7"/>
       <c r="F379" s="7"/>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="B380" s="5"/>
       <c r="C380" s="7"/>
       <c r="D380" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E380" s="7"/>
@@ -11958,12 +12371,12 @@
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="B381" s="5"/>
       <c r="C381" s="7"/>
       <c r="D381" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E381" s="7"/>
@@ -11971,12 +12384,12 @@
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
-        <v>45651</v>
+        <v>45654</v>
       </c>
       <c r="B382" s="5"/>
       <c r="C382" s="7"/>
       <c r="D382" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E382" s="7"/>
@@ -11984,12 +12397,12 @@
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
-        <v>45652</v>
+        <v>45655</v>
       </c>
       <c r="B383" s="5"/>
       <c r="C383" s="7"/>
       <c r="D383" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E383" s="7"/>
@@ -11997,55 +12410,16 @@
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="B384" s="5"/>
       <c r="C384" s="7"/>
       <c r="D384" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
+        <f>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</f>
         <v>0</v>
       </c>
       <c r="E384" s="7"/>
       <c r="F384" s="7"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A385" s="3">
-        <v>45654</v>
-      </c>
-      <c r="B385" s="5"/>
-      <c r="C385" s="7"/>
-      <c r="D385" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
-      </c>
-      <c r="E385" s="7"/>
-      <c r="F385" s="7"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A386" s="3">
-        <v>45655</v>
-      </c>
-      <c r="B386" s="5"/>
-      <c r="C386" s="7"/>
-      <c r="D386" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
-      </c>
-      <c r="E386" s="7"/>
-      <c r="F386" s="7"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A387" s="3">
-        <v>45656</v>
-      </c>
-      <c r="B387" s="5"/>
-      <c r="C387" s="7"/>
-      <c r="D387" s="7">
-        <f>표8[[#This Row],[원화자금유입]]+표8[[#This Row],[원화투자회수]]</f>
-        <v>0</v>
-      </c>
-      <c r="E387" s="7"/>
-      <c r="F387" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -12060,7 +12434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -12425,14 +12799,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X100"/>
+  <dimension ref="A1:X135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E68" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E114" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="R88" sqref="R88"/>
+      <selection pane="bottomRight" activeCell="T128" sqref="T128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17958,6 +18332,1881 @@
         <v>17.479999999999638</v>
       </c>
     </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>45267</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국국채</v>
+      </c>
+      <c r="D101" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES U.S. Treasury Bond ETF</v>
+      </c>
+      <c r="F101" s="118"/>
+      <c r="G101" s="119"/>
+      <c r="H101" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="120"/>
+      <c r="J101" s="118"/>
+      <c r="K101" s="118"/>
+      <c r="L101" s="121">
+        <v>0.27</v>
+      </c>
+      <c r="M101" s="118">
+        <v>0.27</v>
+      </c>
+      <c r="N101" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O101" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P101" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.27</v>
+      </c>
+      <c r="Q101" s="122"/>
+      <c r="R101" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.27</v>
+      </c>
+      <c r="S101" s="13">
+        <f>SUM($R$2:R101)</f>
+        <v>17.749999999999638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>45267</v>
+      </c>
+      <c r="B102" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>하이일드</v>
+      </c>
+      <c r="D102" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR SERIES TRUST Portfolio High Yield Bond ETF</v>
+      </c>
+      <c r="F102" s="118"/>
+      <c r="G102" s="119"/>
+      <c r="H102" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="120"/>
+      <c r="J102" s="118"/>
+      <c r="K102" s="118"/>
+      <c r="L102" s="121">
+        <v>0.46</v>
+      </c>
+      <c r="M102" s="118">
+        <v>0.4</v>
+      </c>
+      <c r="N102" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.06</v>
+      </c>
+      <c r="P102" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q102" s="122"/>
+      <c r="R102" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="S102" s="13">
+        <f>SUM($R$2:R102)</f>
+        <v>18.149999999999636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>45267</v>
+      </c>
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>물가연동채</v>
+      </c>
+      <c r="D103" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR SERIES TRUST Portfolio TIPS ETF</v>
+      </c>
+      <c r="F103" s="118"/>
+      <c r="G103" s="119"/>
+      <c r="H103" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I103" s="120"/>
+      <c r="J103" s="118"/>
+      <c r="K103" s="118"/>
+      <c r="L103" s="121">
+        <v>0.93</v>
+      </c>
+      <c r="M103" s="118">
+        <v>0.79</v>
+      </c>
+      <c r="N103" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P103" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.79</v>
+      </c>
+      <c r="Q103" s="122"/>
+      <c r="R103" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.79</v>
+      </c>
+      <c r="S103" s="13">
+        <f>SUM($R$2:R103)</f>
+        <v>18.939999999999635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>45267</v>
+      </c>
+      <c r="B104" t="s">
+        <v>125</v>
+      </c>
+      <c r="C104" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국장기채</v>
+      </c>
+      <c r="D104" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR LONG TERM TREASURY ETF</v>
+      </c>
+      <c r="F104" s="118"/>
+      <c r="G104" s="119"/>
+      <c r="H104" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I104" s="120"/>
+      <c r="J104" s="118"/>
+      <c r="K104" s="118"/>
+      <c r="L104" s="121">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M104" s="118">
+        <v>0.98</v>
+      </c>
+      <c r="N104" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O104" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="P104" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="Q104" s="122"/>
+      <c r="R104" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="S104" s="13">
+        <f>SUM($R$2:R104)</f>
+        <v>19.919999999999636</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>45272</v>
+      </c>
+      <c r="B105" t="s">
+        <v>123</v>
+      </c>
+      <c r="C105" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>신흥국주식</v>
+      </c>
+      <c r="D105" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SCHWAB EMERGING MARKETS EQUITY ETF</v>
+      </c>
+      <c r="F105" s="118"/>
+      <c r="G105" s="119"/>
+      <c r="H105" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="120"/>
+      <c r="J105" s="118"/>
+      <c r="K105" s="118"/>
+      <c r="L105" s="121">
+        <v>7.4</v>
+      </c>
+      <c r="M105" s="118">
+        <v>6.29</v>
+      </c>
+      <c r="N105" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O105" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="P105" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>6.29</v>
+      </c>
+      <c r="Q105" s="122"/>
+      <c r="R105" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>6.29</v>
+      </c>
+      <c r="S105" s="13">
+        <f>SUM($R$2:R105)</f>
+        <v>26.209999999999635</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B106" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>하이일드</v>
+      </c>
+      <c r="D106" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR SERIES TRUST Portfolio High Yield Bond ETF</v>
+      </c>
+      <c r="F106" s="118"/>
+      <c r="G106" s="119"/>
+      <c r="H106" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="120">
+        <v>3</v>
+      </c>
+      <c r="J106" s="118">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="K106" s="118">
+        <v>69.81</v>
+      </c>
+      <c r="L106" s="121"/>
+      <c r="M106" s="118">
+        <v>69.7</v>
+      </c>
+      <c r="N106" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>2.4900000000000091</v>
+      </c>
+      <c r="O106" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="P106" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>2.3800000000000097</v>
+      </c>
+      <c r="Q106" s="122"/>
+      <c r="R106" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>69.7</v>
+      </c>
+      <c r="S106" s="13">
+        <f>SUM($R$2:R106)</f>
+        <v>95.909999999999641</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B107" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C107" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국장기채</v>
+      </c>
+      <c r="D107" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR LONG TERM TREASURY ETF</v>
+      </c>
+      <c r="F107" s="118"/>
+      <c r="G107" s="119"/>
+      <c r="H107" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="120">
+        <v>1</v>
+      </c>
+      <c r="J107" s="118">
+        <v>29.7</v>
+      </c>
+      <c r="K107" s="118">
+        <v>28.82</v>
+      </c>
+      <c r="L107" s="121"/>
+      <c r="M107" s="118">
+        <v>28.78</v>
+      </c>
+      <c r="N107" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>-0.87999999999999901</v>
+      </c>
+      <c r="O107" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="P107" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.91999999999999815</v>
+      </c>
+      <c r="Q107" s="122"/>
+      <c r="R107" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>28.78</v>
+      </c>
+      <c r="S107" s="13">
+        <f>SUM($R$2:R107)</f>
+        <v>124.68999999999964</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B108" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C108" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국국채</v>
+      </c>
+      <c r="D108" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES U.S. Treasury Bond ETF</v>
+      </c>
+      <c r="F108" s="118"/>
+      <c r="G108" s="119"/>
+      <c r="H108" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="120">
+        <v>5</v>
+      </c>
+      <c r="J108" s="118">
+        <v>111.45</v>
+      </c>
+      <c r="K108" s="118">
+        <v>114.58</v>
+      </c>
+      <c r="L108" s="121"/>
+      <c r="M108" s="118">
+        <v>114.4</v>
+      </c>
+      <c r="N108" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>3.1299999999999955</v>
+      </c>
+      <c r="O108" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.17999999999999261</v>
+      </c>
+      <c r="P108" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>2.9500000000000028</v>
+      </c>
+      <c r="Q108" s="122"/>
+      <c r="R108" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>114.4</v>
+      </c>
+      <c r="S108" s="13">
+        <f>SUM($R$2:R108)</f>
+        <v>239.08999999999963</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B109" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>캐나다주식</v>
+      </c>
+      <c r="D109" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES MSCI CANADA FUND</v>
+      </c>
+      <c r="F109" s="118"/>
+      <c r="G109" s="119"/>
+      <c r="H109" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="120">
+        <v>7</v>
+      </c>
+      <c r="J109" s="118">
+        <v>236.52</v>
+      </c>
+      <c r="K109" s="118">
+        <v>252.98</v>
+      </c>
+      <c r="L109" s="121"/>
+      <c r="M109" s="118">
+        <v>252.56</v>
+      </c>
+      <c r="N109" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>16.45999999999998</v>
+      </c>
+      <c r="O109" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.41999999999998749</v>
+      </c>
+      <c r="P109" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>16.039999999999992</v>
+      </c>
+      <c r="Q109" s="122"/>
+      <c r="R109" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>252.56</v>
+      </c>
+      <c r="S109" s="13">
+        <f>SUM($R$2:R109)</f>
+        <v>491.64999999999964</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B110" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="C110" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>물가연동채</v>
+      </c>
+      <c r="D110" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR SERIES TRUST Portfolio TIPS ETF</v>
+      </c>
+      <c r="F110" s="118"/>
+      <c r="G110" s="119"/>
+      <c r="H110" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="120">
+        <v>14</v>
+      </c>
+      <c r="J110" s="118">
+        <v>359.51</v>
+      </c>
+      <c r="K110" s="118">
+        <v>360.5</v>
+      </c>
+      <c r="L110" s="121"/>
+      <c r="M110" s="118">
+        <v>359.9</v>
+      </c>
+      <c r="N110" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0.99000000000000909</v>
+      </c>
+      <c r="O110" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.60000000000002274</v>
+      </c>
+      <c r="P110" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.38999999999998636</v>
+      </c>
+      <c r="Q110" s="122"/>
+      <c r="R110" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>359.9</v>
+      </c>
+      <c r="S110" s="13">
+        <f>SUM($R$2:R110)</f>
+        <v>851.54999999999961</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B111" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C111" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>에너지섹터</v>
+      </c>
+      <c r="D111" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>Energy Select Sector SPDR</v>
+      </c>
+      <c r="F111" s="118"/>
+      <c r="G111" s="119"/>
+      <c r="H111" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="120">
+        <v>5</v>
+      </c>
+      <c r="J111" s="118">
+        <v>455.28</v>
+      </c>
+      <c r="K111" s="118">
+        <v>424.75</v>
+      </c>
+      <c r="L111" s="121"/>
+      <c r="M111" s="118">
+        <v>424.04</v>
+      </c>
+      <c r="N111" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>-30.529999999999973</v>
+      </c>
+      <c r="O111" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.70999999999997954</v>
+      </c>
+      <c r="P111" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-31.239999999999952</v>
+      </c>
+      <c r="Q111" s="122"/>
+      <c r="R111" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>424.04</v>
+      </c>
+      <c r="S111" s="13">
+        <f>SUM($R$2:R111)</f>
+        <v>1275.5899999999997</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B112" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>일본주식</v>
+      </c>
+      <c r="D112" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI JAPAN ETF NEW(POST REV SPLT)</v>
+      </c>
+      <c r="F112" s="118"/>
+      <c r="G112" s="119"/>
+      <c r="H112" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="120">
+        <v>4</v>
+      </c>
+      <c r="J112" s="118">
+        <v>240.22</v>
+      </c>
+      <c r="K112" s="118">
+        <v>252.8</v>
+      </c>
+      <c r="L112" s="121"/>
+      <c r="M112" s="118">
+        <v>252.38</v>
+      </c>
+      <c r="N112" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>12.580000000000013</v>
+      </c>
+      <c r="O112" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.42000000000001592</v>
+      </c>
+      <c r="P112" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>12.159999999999997</v>
+      </c>
+      <c r="Q112" s="122"/>
+      <c r="R112" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>252.38</v>
+      </c>
+      <c r="S112" s="13">
+        <f>SUM($R$2:R112)</f>
+        <v>1527.9699999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B113" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>전세계주식</v>
+      </c>
+      <c r="D113" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR INDEX SHARES FUNDS PORTFOLIO MSCI GLOBAL STOCK MARKET E</v>
+      </c>
+      <c r="E113" s="72">
+        <v>4</v>
+      </c>
+      <c r="F113" s="118">
+        <f>54.82*4</f>
+        <v>219.28</v>
+      </c>
+      <c r="G113" s="118">
+        <v>219.64</v>
+      </c>
+      <c r="H113" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.35999999999998522</v>
+      </c>
+      <c r="I113" s="120"/>
+      <c r="J113" s="118"/>
+      <c r="K113" s="118"/>
+      <c r="L113" s="121"/>
+      <c r="M113" s="118"/>
+      <c r="N113" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P113" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.35999999999998522</v>
+      </c>
+      <c r="Q113" s="122"/>
+      <c r="R113" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-219.64</v>
+      </c>
+      <c r="S113" s="13">
+        <f>SUM($R$2:R113)</f>
+        <v>1308.33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B114" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C114" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>브라질주식</v>
+      </c>
+      <c r="D114" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI Brazil ETF</v>
+      </c>
+      <c r="E114" s="72">
+        <v>6</v>
+      </c>
+      <c r="F114" s="118">
+        <f>35.59*6</f>
+        <v>213.54000000000002</v>
+      </c>
+      <c r="G114" s="118">
+        <v>213.89</v>
+      </c>
+      <c r="H114" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.34999999999996589</v>
+      </c>
+      <c r="I114" s="120"/>
+      <c r="J114" s="118"/>
+      <c r="K114" s="118"/>
+      <c r="L114" s="121"/>
+      <c r="M114" s="118"/>
+      <c r="N114" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P114" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.34999999999996589</v>
+      </c>
+      <c r="Q114" s="122"/>
+      <c r="R114" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-213.89</v>
+      </c>
+      <c r="S114" s="13">
+        <f>SUM($R$2:R114)</f>
+        <v>1094.44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B115" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C115" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>멕시코주식</v>
+      </c>
+      <c r="D115" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI MEXICO ETF</v>
+      </c>
+      <c r="E115" s="72">
+        <v>1</v>
+      </c>
+      <c r="F115" s="118">
+        <v>69.14</v>
+      </c>
+      <c r="G115" s="118">
+        <v>69.25</v>
+      </c>
+      <c r="H115" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="I115" s="120"/>
+      <c r="J115" s="118"/>
+      <c r="K115" s="118"/>
+      <c r="L115" s="121"/>
+      <c r="M115" s="118"/>
+      <c r="N115" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O115" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P115" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q115" s="122"/>
+      <c r="R115" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-69.25</v>
+      </c>
+      <c r="S115" s="13">
+        <f>SUM($R$2:R115)</f>
+        <v>1025.19</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B116" s="87" t="s">
+        <v>123</v>
+      </c>
+      <c r="C116" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>신흥국주식</v>
+      </c>
+      <c r="D116" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SCHWAB EMERGING MARKETS EQUITY ETF</v>
+      </c>
+      <c r="E116" s="72">
+        <v>7</v>
+      </c>
+      <c r="F116" s="118">
+        <f>24.28*7</f>
+        <v>169.96</v>
+      </c>
+      <c r="G116" s="118">
+        <v>170.24</v>
+      </c>
+      <c r="H116" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.28000000000000114</v>
+      </c>
+      <c r="I116" s="120"/>
+      <c r="J116" s="118"/>
+      <c r="K116" s="118"/>
+      <c r="L116" s="121"/>
+      <c r="M116" s="118"/>
+      <c r="N116" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O116" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P116" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.28000000000000114</v>
+      </c>
+      <c r="Q116" s="122"/>
+      <c r="R116" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-170.24</v>
+      </c>
+      <c r="S116" s="13">
+        <f>SUM($R$2:R116)</f>
+        <v>854.95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B117" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C117" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>신흥국채권</v>
+      </c>
+      <c r="D117" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>VANGUARD EMERGING MARKETS GOVERNMENT BOND ETF</v>
+      </c>
+      <c r="E117" s="72">
+        <v>5</v>
+      </c>
+      <c r="F117" s="118">
+        <f>63.78*5</f>
+        <v>318.89999999999998</v>
+      </c>
+      <c r="G117" s="118">
+        <v>319.43</v>
+      </c>
+      <c r="H117" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.53000000000002956</v>
+      </c>
+      <c r="I117" s="120"/>
+      <c r="J117" s="118"/>
+      <c r="K117" s="118"/>
+      <c r="L117" s="121"/>
+      <c r="M117" s="118"/>
+      <c r="N117" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O117" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P117" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.53000000000002956</v>
+      </c>
+      <c r="Q117" s="122"/>
+      <c r="R117" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-319.43</v>
+      </c>
+      <c r="S117" s="13">
+        <f>SUM($R$2:R117)</f>
+        <v>535.52</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B118" s="87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>남아프리카주식</v>
+      </c>
+      <c r="D118" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES MSCI SOUTH AFRICA FUND</v>
+      </c>
+      <c r="E118" s="72">
+        <v>1</v>
+      </c>
+      <c r="F118" s="118">
+        <v>41.25</v>
+      </c>
+      <c r="G118" s="118">
+        <v>41.31</v>
+      </c>
+      <c r="H118" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="I118" s="120"/>
+      <c r="J118" s="118"/>
+      <c r="K118" s="118"/>
+      <c r="L118" s="121"/>
+      <c r="M118" s="118"/>
+      <c r="N118" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O118" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P118" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="Q118" s="122"/>
+      <c r="R118" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-41.31</v>
+      </c>
+      <c r="S118" s="13">
+        <f>SUM($R$2:R118)</f>
+        <v>494.21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B119" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C119" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국주식</v>
+      </c>
+      <c r="D119" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR PORTFOLIO S&amp;P 500 ETF</v>
+      </c>
+      <c r="E119" s="72">
+        <v>5</v>
+      </c>
+      <c r="F119" s="118">
+        <f>55.58*5</f>
+        <v>277.89999999999998</v>
+      </c>
+      <c r="G119" s="118">
+        <v>278.37</v>
+      </c>
+      <c r="H119" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.47000000000002728</v>
+      </c>
+      <c r="I119" s="120"/>
+      <c r="J119" s="118"/>
+      <c r="K119" s="118"/>
+      <c r="L119" s="121"/>
+      <c r="M119" s="118"/>
+      <c r="N119" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O119" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P119" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.47000000000002728</v>
+      </c>
+      <c r="Q119" s="122"/>
+      <c r="R119" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-278.37</v>
+      </c>
+      <c r="S119" s="13">
+        <f>SUM($R$2:R119)</f>
+        <v>215.83999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B120" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>중국주식</v>
+      </c>
+      <c r="D120" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES CHINA LARGE-CAP ETF</v>
+      </c>
+      <c r="E120" s="72">
+        <v>1</v>
+      </c>
+      <c r="F120" s="118">
+        <v>23.98</v>
+      </c>
+      <c r="G120" s="118">
+        <v>24</v>
+      </c>
+      <c r="H120" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="I120" s="120"/>
+      <c r="J120" s="118"/>
+      <c r="K120" s="118"/>
+      <c r="L120" s="121"/>
+      <c r="M120" s="118"/>
+      <c r="N120" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P120" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-1.9999999999999574E-2</v>
+      </c>
+      <c r="Q120" s="122"/>
+      <c r="R120" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-24</v>
+      </c>
+      <c r="S120" s="13">
+        <f>SUM($R$2:R120)</f>
+        <v>191.83999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B121" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>원자재</v>
+      </c>
+      <c r="D121" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>INVESCO ACT MANAGE EXCH TR CMDTY FD OPTIMUM YIELD DIVERSIFIE</v>
+      </c>
+      <c r="E121" s="72">
+        <v>1</v>
+      </c>
+      <c r="F121" s="118">
+        <v>13.46</v>
+      </c>
+      <c r="G121" s="118">
+        <v>13.47</v>
+      </c>
+      <c r="H121" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="I121" s="120"/>
+      <c r="J121" s="118"/>
+      <c r="K121" s="118"/>
+      <c r="L121" s="121"/>
+      <c r="M121" s="118"/>
+      <c r="N121" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O121" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P121" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-9.9999999999997868E-3</v>
+      </c>
+      <c r="Q121" s="122"/>
+      <c r="R121" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-13.47</v>
+      </c>
+      <c r="S121" s="13">
+        <f>SUM($R$2:R121)</f>
+        <v>178.36999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B122" s="87" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국국채</v>
+      </c>
+      <c r="D122" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES U.S. Treasury Bond ETF</v>
+      </c>
+      <c r="F122" s="118"/>
+      <c r="G122" s="119"/>
+      <c r="H122" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="120"/>
+      <c r="J122" s="118"/>
+      <c r="K122" s="118"/>
+      <c r="L122" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="M122" s="118">
+        <v>0.3</v>
+      </c>
+      <c r="N122" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O122" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P122" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.3</v>
+      </c>
+      <c r="Q122" s="122"/>
+      <c r="R122" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.3</v>
+      </c>
+      <c r="S122" s="13">
+        <f>SUM($R$2:R122)</f>
+        <v>178.67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B123" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C123" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>원자재</v>
+      </c>
+      <c r="D123" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>INVESCO ACT MANAGE EXCH TR CMDTY FD OPTIMUM YIELD DIVERSIFIE</v>
+      </c>
+      <c r="F123" s="118"/>
+      <c r="G123" s="119"/>
+      <c r="H123" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I123" s="120"/>
+      <c r="J123" s="118"/>
+      <c r="K123" s="118"/>
+      <c r="L123" s="121">
+        <v>2.8</v>
+      </c>
+      <c r="M123" s="118">
+        <v>2.38</v>
+      </c>
+      <c r="N123" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O123" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="P123" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>2.38</v>
+      </c>
+      <c r="Q123" s="122"/>
+      <c r="R123" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>2.38</v>
+      </c>
+      <c r="S123" s="13">
+        <f>SUM($R$2:R123)</f>
+        <v>181.04999999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B124" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C124" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>전세계주식</v>
+      </c>
+      <c r="D124" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR INDEX SHARES FUNDS PORTFOLIO MSCI GLOBAL STOCK MARKET E</v>
+      </c>
+      <c r="F124" s="118"/>
+      <c r="G124" s="119"/>
+      <c r="H124" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="120"/>
+      <c r="J124" s="118"/>
+      <c r="K124" s="118"/>
+      <c r="L124" s="121">
+        <v>3.4</v>
+      </c>
+      <c r="M124" s="118">
+        <v>2.9</v>
+      </c>
+      <c r="N124" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O124" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.5</v>
+      </c>
+      <c r="P124" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="Q124" s="122"/>
+      <c r="R124" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>2.9</v>
+      </c>
+      <c r="S124" s="13">
+        <f>SUM($R$2:R124)</f>
+        <v>183.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B125" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="C125" s="129" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>하이일드</v>
+      </c>
+      <c r="D125" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR SERIES TRUST Portfolio High Yield Bond ETF</v>
+      </c>
+      <c r="F125" s="118"/>
+      <c r="G125" s="119"/>
+      <c r="H125" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="120"/>
+      <c r="J125" s="118"/>
+      <c r="K125" s="118"/>
+      <c r="L125" s="121">
+        <v>0.47</v>
+      </c>
+      <c r="M125" s="118">
+        <v>0.4</v>
+      </c>
+      <c r="N125" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O125" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="P125" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="Q125" s="122"/>
+      <c r="R125" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.4</v>
+      </c>
+      <c r="S125" s="13">
+        <f>SUM($R$2:R125)</f>
+        <v>184.35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B126" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C126" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국주식</v>
+      </c>
+      <c r="D126" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR PORTFOLIO S&amp;P 500 ETF</v>
+      </c>
+      <c r="F126" s="118"/>
+      <c r="G126" s="119"/>
+      <c r="H126" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="120"/>
+      <c r="J126" s="118"/>
+      <c r="K126" s="118"/>
+      <c r="L126" s="121">
+        <v>1.55</v>
+      </c>
+      <c r="M126" s="118">
+        <v>1.31</v>
+      </c>
+      <c r="N126" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O126" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.24</v>
+      </c>
+      <c r="P126" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>1.31</v>
+      </c>
+      <c r="Q126" s="122"/>
+      <c r="R126" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>1.31</v>
+      </c>
+      <c r="S126" s="13">
+        <f>SUM($R$2:R126)</f>
+        <v>185.66</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B127" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="C127" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국장기채</v>
+      </c>
+      <c r="D127" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR LONG TERM TREASURY ETF</v>
+      </c>
+      <c r="F127" s="118"/>
+      <c r="G127" s="119"/>
+      <c r="H127" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="120"/>
+      <c r="J127" s="118"/>
+      <c r="K127" s="118"/>
+      <c r="L127" s="121">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M127" s="118">
+        <v>0.98</v>
+      </c>
+      <c r="N127" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O127" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.15999999999999992</v>
+      </c>
+      <c r="P127" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="Q127" s="122"/>
+      <c r="R127" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.98</v>
+      </c>
+      <c r="S127" s="13">
+        <f>SUM($R$2:R127)</f>
+        <v>186.64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>45286</v>
+      </c>
+      <c r="B128" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C128" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>에너지섹터</v>
+      </c>
+      <c r="D128" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>Energy Select Sector SPDR</v>
+      </c>
+      <c r="F128" s="118"/>
+      <c r="G128" s="119"/>
+      <c r="H128" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="120"/>
+      <c r="J128" s="118"/>
+      <c r="K128" s="118"/>
+      <c r="L128" s="121">
+        <v>4.01</v>
+      </c>
+      <c r="M128" s="118">
+        <v>3.41</v>
+      </c>
+      <c r="N128" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="P128" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>3.41</v>
+      </c>
+      <c r="Q128" s="122"/>
+      <c r="R128" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>3.41</v>
+      </c>
+      <c r="S128" s="13">
+        <f>SUM($R$2:R128)</f>
+        <v>190.04999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>45287</v>
+      </c>
+      <c r="B129" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>홍콩주식</v>
+      </c>
+      <c r="D129" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI HONG KONG ETF</v>
+      </c>
+      <c r="F129" s="118"/>
+      <c r="G129" s="119"/>
+      <c r="H129" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="120"/>
+      <c r="J129" s="118"/>
+      <c r="K129" s="118"/>
+      <c r="L129" s="121">
+        <v>5.58</v>
+      </c>
+      <c r="M129" s="118">
+        <v>4.75</v>
+      </c>
+      <c r="N129" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="P129" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>4.75</v>
+      </c>
+      <c r="Q129" s="122"/>
+      <c r="R129" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>4.75</v>
+      </c>
+      <c r="S129" s="13">
+        <f>SUM($R$2:R129)</f>
+        <v>194.79999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>45287</v>
+      </c>
+      <c r="B130" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C130" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>남아프리카주식</v>
+      </c>
+      <c r="D130" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES MSCI SOUTH AFRICA FUND</v>
+      </c>
+      <c r="F130" s="118"/>
+      <c r="G130" s="119"/>
+      <c r="H130" s="119">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="120"/>
+      <c r="J130" s="118"/>
+      <c r="K130" s="118"/>
+      <c r="L130" s="121">
+        <v>3.04</v>
+      </c>
+      <c r="M130" s="118">
+        <v>2.59</v>
+      </c>
+      <c r="N130" s="121">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O130" s="121">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="P130" s="121">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>2.59</v>
+      </c>
+      <c r="Q130" s="122"/>
+      <c r="R130" s="120">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>2.59</v>
+      </c>
+      <c r="S130" s="13">
+        <f>SUM($R$2:R130)</f>
+        <v>197.39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B131" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="C131" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>일본주식</v>
+      </c>
+      <c r="D131" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI JAPAN ETF NEW(POST REV SPLT)</v>
+      </c>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="13"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="7"/>
+      <c r="L131" s="11">
+        <v>1.74</v>
+      </c>
+      <c r="M131" s="7">
+        <v>1.48</v>
+      </c>
+      <c r="N131" s="11">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="11">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.26</v>
+      </c>
+      <c r="P131" s="11">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>1.48</v>
+      </c>
+      <c r="Q131" s="12"/>
+      <c r="R131" s="13">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>1.48</v>
+      </c>
+      <c r="S131" s="13">
+        <f>SUM($R$2:R131)</f>
+        <v>198.86999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B132" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>멕시코주식</v>
+      </c>
+      <c r="D132" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI MEXICO ETF</v>
+      </c>
+      <c r="G132" s="8"/>
+      <c r="H132" s="8">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="13"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="7"/>
+      <c r="L132" s="11">
+        <v>1.02</v>
+      </c>
+      <c r="M132" s="7">
+        <v>0.87</v>
+      </c>
+      <c r="N132" s="11">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O132" s="11">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="P132" s="11">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.87</v>
+      </c>
+      <c r="Q132" s="12"/>
+      <c r="R132" s="13">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0.87</v>
+      </c>
+      <c r="S132" s="13">
+        <f>SUM($R$2:R132)</f>
+        <v>199.73999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B133" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="C133" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>브라질주식</v>
+      </c>
+      <c r="D133" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI Brazil ETF</v>
+      </c>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="13"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="7"/>
+      <c r="L133" s="11">
+        <v>7.32</v>
+      </c>
+      <c r="M133" s="7">
+        <v>6.22</v>
+      </c>
+      <c r="N133" s="11">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O133" s="11">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>1.1000000000000005</v>
+      </c>
+      <c r="P133" s="11">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>6.22</v>
+      </c>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="13">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>6.22</v>
+      </c>
+      <c r="S133" s="13">
+        <f>SUM($R$2:R133)</f>
+        <v>205.95999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B134" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>중국주식</v>
+      </c>
+      <c r="D134" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES CHINA LARGE-CAP ETF</v>
+      </c>
+      <c r="G134" s="8"/>
+      <c r="H134" s="8">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I134" s="13"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="7"/>
+      <c r="L134" s="11">
+        <v>5.47</v>
+      </c>
+      <c r="M134" s="7">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="N134" s="11">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O134" s="11">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.8199999999999994</v>
+      </c>
+      <c r="P134" s="11">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q134" s="12"/>
+      <c r="R134" s="13">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S134" s="13">
+        <f>SUM($R$2:R134)</f>
+        <v>210.60999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B135" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C135" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>신흥국채권</v>
+      </c>
+      <c r="D135" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>VANGUARD EMERGING MARKETS GOVERNMENT BOND ETF</v>
+      </c>
+      <c r="G135" s="8"/>
+      <c r="H135" s="8">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I135" s="13"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="7"/>
+      <c r="L135" s="11">
+        <v>1.82</v>
+      </c>
+      <c r="M135" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="N135" s="11">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O135" s="11">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.27</v>
+      </c>
+      <c r="P135" s="11">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>1.55</v>
+      </c>
+      <c r="Q135" s="12"/>
+      <c r="R135" s="13">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>1.55</v>
+      </c>
+      <c r="S135" s="13">
+        <f>SUM($R$2:R135)</f>
+        <v>212.16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17970,14 +20219,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P81" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A90" sqref="A90"/>
+      <selection pane="bottomRight" activeCell="T95" sqref="T95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23099,6 +25348,177 @@
         <v>26.509999999999764</v>
       </c>
     </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A90" s="125">
+        <v>45278</v>
+      </c>
+      <c r="B90" s="123" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="1" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투외화채권</v>
+      </c>
+      <c r="D90" s="9" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>미국채 0.125 12/15/23</v>
+      </c>
+      <c r="E90" s="78"/>
+      <c r="F90" s="126"/>
+      <c r="G90" s="127"/>
+      <c r="H90" s="127">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="124">
+        <v>1</v>
+      </c>
+      <c r="J90" s="57">
+        <v>1986.58</v>
+      </c>
+      <c r="K90" s="126">
+        <v>2001.25</v>
+      </c>
+      <c r="L90" s="126"/>
+      <c r="M90" s="126">
+        <v>2001.25</v>
+      </c>
+      <c r="N90" s="126">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>14.670000000000073</v>
+      </c>
+      <c r="O90" s="126">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P90" s="128">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>14.670000000000073</v>
+      </c>
+      <c r="Q90" s="33"/>
+      <c r="R90" s="33">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>2001.25</v>
+      </c>
+      <c r="S90" s="102">
+        <f>SUM($R$2:R90)</f>
+        <v>2027.7599999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A91" s="125">
+        <v>45282</v>
+      </c>
+      <c r="B91" s="123" t="s">
+        <v>249</v>
+      </c>
+      <c r="C91" s="129" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투외화채권2</v>
+      </c>
+      <c r="D91" s="9" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>미국채 0.25 06/15/24</v>
+      </c>
+      <c r="E91" s="78">
+        <v>1</v>
+      </c>
+      <c r="F91" s="126">
+        <v>1956.13</v>
+      </c>
+      <c r="G91" s="126">
+        <v>1956.13</v>
+      </c>
+      <c r="H91" s="127">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I91" s="124"/>
+      <c r="J91" s="126"/>
+      <c r="K91" s="126"/>
+      <c r="L91" s="126"/>
+      <c r="M91" s="126"/>
+      <c r="N91" s="126">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O91" s="126">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P91" s="128">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q91" s="33"/>
+      <c r="R91" s="33">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>-1956.13</v>
+      </c>
+      <c r="S91" s="102">
+        <f>SUM($R$2:R91)</f>
+        <v>71.629999999999654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A92" s="125">
+        <v>45286</v>
+      </c>
+      <c r="B92" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="129" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(약정)한투외화발행어음</v>
+      </c>
+      <c r="D92" s="9" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 외화발행어음(약정)</v>
+      </c>
+      <c r="E92" s="78"/>
+      <c r="F92" s="126">
+        <v>3095.73</v>
+      </c>
+      <c r="G92" s="127">
+        <v>3095.73</v>
+      </c>
+      <c r="H92" s="127">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I92" s="124"/>
+      <c r="J92" s="126">
+        <v>3000</v>
+      </c>
+      <c r="K92" s="126">
+        <v>3028.47</v>
+      </c>
+      <c r="L92" s="126"/>
+      <c r="M92" s="126">
+        <v>3024.1</v>
+      </c>
+      <c r="N92" s="126">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>28.4699999999998</v>
+      </c>
+      <c r="O92" s="126">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>4.3699999999998909</v>
+      </c>
+      <c r="P92" s="128">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>24.099999999999909</v>
+      </c>
+      <c r="Q92" s="33"/>
+      <c r="R92" s="33">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>-71.630000000000109</v>
+      </c>
+      <c r="S92" s="102">
+        <f>SUM($R$2:R92)</f>
+        <v>-4.5474735088646412E-13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23113,11 +25533,11 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="S2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N25" sqref="N25"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23257,7 +25677,7 @@
       <c r="B3" s="60" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="61" t="str">
         <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>일본리츠</v>
       </c>
@@ -23318,8 +25738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23873,8 +26293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26778,10 +29198,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26790,7 +29210,7 @@
     <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="64" customWidth="1"/>
@@ -27941,7 +30361,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>45271</v>
+        <v>45273</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>210</v>
@@ -27958,11 +30378,9 @@
         <v>16</v>
       </c>
       <c r="F24" s="7">
-        <f>16*60700</f>
         <v>971200</v>
       </c>
       <c r="G24" s="5">
-        <f>971200+130</f>
         <v>971330</v>
       </c>
       <c r="H24" s="5">
@@ -27988,6 +30406,722 @@
       <c r="S24" s="5">
         <f>SUM($R$2:R24)</f>
         <v>32015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>45273</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D25" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="H25" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>8000000</v>
+      </c>
+      <c r="K25">
+        <f>3008284+5010849</f>
+        <v>8019133</v>
+      </c>
+      <c r="M25">
+        <f>3007024+5009189</f>
+        <v>8016213</v>
+      </c>
+      <c r="N25">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>19133</v>
+      </c>
+      <c r="O25" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>2920</v>
+      </c>
+      <c r="P25">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>16213</v>
+      </c>
+      <c r="R25" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>8016213</v>
+      </c>
+      <c r="S25" s="5">
+        <f>SUM($R$2:R25)</f>
+        <v>8048228</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45273</v>
+      </c>
+      <c r="B26" s="87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(약정)한투원화발행어음</v>
+      </c>
+      <c r="D26" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
+      </c>
+      <c r="E26" s="75"/>
+      <c r="F26" s="7">
+        <f>4732928+300000</f>
+        <v>5032928</v>
+      </c>
+      <c r="G26" s="7">
+        <f>4732928+300000</f>
+        <v>5032928</v>
+      </c>
+      <c r="H26" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-5032928</v>
+      </c>
+      <c r="S26" s="5">
+        <f>SUM($R$2:R26)</f>
+        <v>3015300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45275</v>
+      </c>
+      <c r="B27" s="60">
+        <v>455660</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국하이일드</v>
+      </c>
+      <c r="D27" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ACE 미국하이일드액티브(H)</v>
+      </c>
+      <c r="E27" s="75">
+        <v>303</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3014850</v>
+      </c>
+      <c r="G27" s="5">
+        <f>3014850+440</f>
+        <v>3015290</v>
+      </c>
+      <c r="H27" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>440</v>
+      </c>
+      <c r="N27">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-440</v>
+      </c>
+      <c r="R27" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-3015290</v>
+      </c>
+      <c r="S27" s="5">
+        <f>SUM($R$2:R27)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45275</v>
+      </c>
+      <c r="B28" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D28" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E28" s="75"/>
+      <c r="H28" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K28">
+        <v>5014794</v>
+      </c>
+      <c r="M28">
+        <v>5012524</v>
+      </c>
+      <c r="N28">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>14794</v>
+      </c>
+      <c r="O28" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>2270</v>
+      </c>
+      <c r="P28">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>12524</v>
+      </c>
+      <c r="R28" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>5012524</v>
+      </c>
+      <c r="S28" s="5">
+        <f>SUM($R$2:R28)</f>
+        <v>5012534</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45278</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투예수금</v>
+      </c>
+      <c r="D29" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E29" s="75"/>
+      <c r="H29" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>-130</v>
+      </c>
+      <c r="M29">
+        <v>-130</v>
+      </c>
+      <c r="N29">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-130</v>
+      </c>
+      <c r="R29" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-130</v>
+      </c>
+      <c r="S29" s="5">
+        <f>SUM($R$2:R29)</f>
+        <v>5012404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45279</v>
+      </c>
+      <c r="B30" s="60">
+        <v>363580</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>코스피 IT TR</v>
+      </c>
+      <c r="D30" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>KODEX 200IT TR</v>
+      </c>
+      <c r="E30" s="75">
+        <v>403</v>
+      </c>
+      <c r="F30" s="7">
+        <v>4985110</v>
+      </c>
+      <c r="G30" s="5">
+        <v>4985840</v>
+      </c>
+      <c r="H30" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>730</v>
+      </c>
+      <c r="N30">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-730</v>
+      </c>
+      <c r="R30" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-4985840</v>
+      </c>
+      <c r="S30" s="5">
+        <f>SUM($R$2:R30)</f>
+        <v>26564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45280</v>
+      </c>
+      <c r="B31" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D31" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E31" s="75"/>
+      <c r="H31" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <f>1000000+3986025</f>
+        <v>4986025</v>
+      </c>
+      <c r="K31" s="7">
+        <f>1004734+3999784</f>
+        <v>5004518</v>
+      </c>
+      <c r="M31">
+        <f>1004014+3997674</f>
+        <v>5001688</v>
+      </c>
+      <c r="N31">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>18493</v>
+      </c>
+      <c r="O31" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>2830</v>
+      </c>
+      <c r="P31">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>15663</v>
+      </c>
+      <c r="R31" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>5001688</v>
+      </c>
+      <c r="S31" s="5">
+        <f>SUM($R$2:R31)</f>
+        <v>5028252</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B32" s="91">
+        <v>448300</v>
+      </c>
+      <c r="C32" s="130" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국나스닥</v>
+      </c>
+      <c r="D32" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIGER 미국나스닥100TR(H)</v>
+      </c>
+      <c r="E32" s="75">
+        <v>144</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1992960</v>
+      </c>
+      <c r="G32" s="5">
+        <f>1992960+290</f>
+        <v>1993250</v>
+      </c>
+      <c r="H32" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>290</v>
+      </c>
+      <c r="N32">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-290</v>
+      </c>
+      <c r="R32" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-1993250</v>
+      </c>
+      <c r="S32" s="5">
+        <f>SUM($R$2:R32)</f>
+        <v>3035002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45286</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C33" s="130" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D33" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E33" s="75"/>
+      <c r="H33" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K33" s="7">
+        <v>5017260</v>
+      </c>
+      <c r="M33">
+        <v>5014610</v>
+      </c>
+      <c r="N33">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>17260</v>
+      </c>
+      <c r="O33" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>2650</v>
+      </c>
+      <c r="P33">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>14610</v>
+      </c>
+      <c r="R33" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>5014610</v>
+      </c>
+      <c r="S33" s="5">
+        <f>SUM($R$2:R33)</f>
+        <v>8049612</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>45287</v>
+      </c>
+      <c r="B34" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C34" s="130" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D34" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E34" s="75"/>
+      <c r="F34" s="7">
+        <v>5188345</v>
+      </c>
+      <c r="G34" s="5">
+        <v>5188345</v>
+      </c>
+      <c r="H34" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>6700000</v>
+      </c>
+      <c r="R34" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>1511655</v>
+      </c>
+      <c r="S34" s="5">
+        <f>SUM($R$2:R34)</f>
+        <v>9561267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="130" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="D35" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="E35" s="75">
+        <v>634</v>
+      </c>
+      <c r="F35" s="7">
+        <v>4983240</v>
+      </c>
+      <c r="G35" s="5">
+        <v>4983940</v>
+      </c>
+      <c r="H35" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>700</v>
+      </c>
+      <c r="I35" s="64">
+        <f>139+200</f>
+        <v>339</v>
+      </c>
+      <c r="J35" s="7">
+        <f>7860*(200+139)</f>
+        <v>2664540</v>
+      </c>
+      <c r="K35" s="7">
+        <f>7860*(200+139)</f>
+        <v>2664540</v>
+      </c>
+      <c r="M35" s="7">
+        <f>7860*(200+139)</f>
+        <v>2664540</v>
+      </c>
+      <c r="N35">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-700</v>
+      </c>
+      <c r="R35" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2319400</v>
+      </c>
+      <c r="S35" s="5">
+        <f>SUM($R$2:R35)</f>
+        <v>7241867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B36" s="60">
+        <v>261220</v>
+      </c>
+      <c r="C36" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>원유선물</v>
+      </c>
+      <c r="D36" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>KODEX WTI 원유선물(H)</v>
+      </c>
+      <c r="E36" s="75">
+        <v>217</v>
+      </c>
+      <c r="F36" s="7">
+        <v>3013045</v>
+      </c>
+      <c r="G36" s="5">
+        <v>3013485</v>
+      </c>
+      <c r="H36" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>440</v>
+      </c>
+      <c r="N36">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-440</v>
+      </c>
+      <c r="Q36">
+        <v>1000000</v>
+      </c>
+      <c r="R36" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2013485</v>
+      </c>
+      <c r="S36" s="5">
+        <f>SUM($R$2:R36)</f>
+        <v>5228382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B37" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D37" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E37" s="75"/>
+      <c r="F37" s="7">
+        <v>1988333</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1988333</v>
+      </c>
+      <c r="H37" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-1988333</v>
+      </c>
+      <c r="S37" s="5">
+        <f>SUM($R$2:R37)</f>
+        <v>3240049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45288</v>
+      </c>
+      <c r="B38" s="60">
+        <v>371160</v>
+      </c>
+      <c r="C38" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>중국테크주식</v>
+      </c>
+      <c r="D38" s="62" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIGER 차이나항셍테크</v>
+      </c>
+      <c r="E38" s="75">
+        <v>579</v>
+      </c>
+      <c r="F38" s="7">
+        <v>2999220</v>
+      </c>
+      <c r="G38" s="5">
+        <f>2999220+430</f>
+        <v>2999650</v>
+      </c>
+      <c r="H38" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>430</v>
+      </c>
+      <c r="K38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-430</v>
+      </c>
+      <c r="R38" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2999650</v>
+      </c>
+      <c r="S38" s="5">
+        <f>SUM($R$2:R38)</f>
+        <v>240399</v>
       </c>
     </row>
   </sheetData>
@@ -28004,8 +31138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S86"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33016,10 +36150,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33044,7 +36178,7 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -33103,7 +36237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>45085</v>
       </c>
@@ -33147,7 +36281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>45103</v>
       </c>
@@ -33191,7 +36325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>45225</v>
       </c>
@@ -33243,7 +36377,7 @@
         <v>4020</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>45232</v>
       </c>
@@ -33294,14 +36428,8 @@
         <f>SUM($R$2:R5)</f>
         <v>1144</v>
       </c>
-      <c r="U5">
-        <v>1144</v>
-      </c>
-      <c r="V5">
-        <v>956140</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>45245</v>
       </c>
@@ -33348,7 +36476,7 @@
         <v>10138</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>45252</v>
       </c>
@@ -33394,11 +36522,8 @@
         <f>SUM($R$2:R7)</f>
         <v>24332</v>
       </c>
-      <c r="U7">
-        <v>3202451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>45260</v>
       </c>
@@ -33440,6 +36565,53 @@
       <c r="S8">
         <f>SUM($R$2:R8)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>45275</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="D9" s="62" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="E9" s="75"/>
+      <c r="H9" s="5">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>8994</v>
+      </c>
+      <c r="M9" s="7">
+        <v>8994</v>
+      </c>
+      <c r="N9">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>8994</v>
+      </c>
+      <c r="R9" s="5">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>8994</v>
+      </c>
+      <c r="S9">
+        <f>SUM($R$2:R9)</f>
+        <v>8994</v>
       </c>
     </row>
   </sheetData>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -9,23 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="646" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="646"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="한투원화" sheetId="11" r:id="rId2"/>
     <sheet name="불리오달러" sheetId="1" r:id="rId3"/>
     <sheet name="한투달러" sheetId="4" r:id="rId4"/>
     <sheet name="한투엔화" sheetId="10" r:id="rId5"/>
     <sheet name="외화자산평가" sheetId="6" r:id="rId6"/>
     <sheet name="나무원화" sheetId="7" r:id="rId7"/>
-    <sheet name="한투원화" sheetId="11" r:id="rId8"/>
-    <sheet name="한투CMA" sheetId="5" r:id="rId9"/>
-    <sheet name="한투ISA" sheetId="12" r:id="rId10"/>
-    <sheet name="별도원화" sheetId="3" r:id="rId11"/>
-    <sheet name="현금흐름" sheetId="9" r:id="rId12"/>
-    <sheet name="급여및지출" sheetId="13" r:id="rId13"/>
-    <sheet name="각종정보" sheetId="8" r:id="rId14"/>
+    <sheet name="한투CMA" sheetId="5" r:id="rId8"/>
+    <sheet name="한투ISA" sheetId="12" r:id="rId9"/>
+    <sheet name="별도원화" sheetId="3" r:id="rId10"/>
+    <sheet name="현금흐름" sheetId="9" r:id="rId11"/>
+    <sheet name="급여및지출" sheetId="13" r:id="rId12"/>
+    <sheet name="각종정보" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="320">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1092,6 +1092,34 @@
   </si>
   <si>
     <t>평가금액</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초장부금액</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피 TR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 코스피 TR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>한투</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내주식</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1313,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1469,13 +1497,37 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="194">
+  <dxfs count="195">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1818,18 +1870,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4441,6 +4481,18 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4455,11 +4507,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:K57" totalsRowShown="0">
-  <autoFilter ref="A1:K57"/>
-  <tableColumns count="11">
-    <tableColumn id="8" name="종목코드" dataDxfId="31"/>
-    <tableColumn id="9" name="종목명" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:L58" totalsRowShown="0">
+  <autoFilter ref="A1:L58"/>
+  <tableColumns count="12">
+    <tableColumn id="8" name="종목코드" dataDxfId="194"/>
+    <tableColumn id="9" name="종목명" dataDxfId="193">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="평가금액"/>
@@ -4469,50 +4521,53 @@
     <tableColumn id="6" name="자산군"/>
     <tableColumn id="4" name="세부자산군"/>
     <tableColumn id="5" name="세부자산군2"/>
-    <tableColumn id="1" name="매입장부금액" dataDxfId="29"/>
-    <tableColumn id="10" name="기초평가손익" dataDxfId="28"/>
+    <tableColumn id="1" name="매입장부금액" dataDxfId="192"/>
+    <tableColumn id="10" name="기초평가손익" dataDxfId="191"/>
+    <tableColumn id="11" name="기초장부금액" dataDxfId="0">
+      <calculatedColumnFormula>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S4" totalsRowShown="0" headerRowDxfId="41" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="40"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="39"/>
-    <tableColumn id="9" name="종목명" dataDxfId="38">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" name="거래일자" dataDxfId="26"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="25"/>
+    <tableColumn id="9" name="종목명" dataDxfId="24">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="37">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" name="상품명" dataDxfId="23">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="36"/>
-    <tableColumn id="2" name="매입액"/>
-    <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="35">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="6" name="매입수량" dataDxfId="22"/>
+    <tableColumn id="2" name="매입액" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="19" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="34"/>
-    <tableColumn id="3" name="매도원금"/>
-    <tableColumn id="15" name="매도액"/>
-    <tableColumn id="14" name="이자배당액"/>
-    <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="17" name="매매수익">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="7" name="매도수량" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="13" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="18" name="매도비용" dataDxfId="12" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="19" name="순수익" dataDxfId="11" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="33">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="4" name="입출금" dataDxfId="10" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="9" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="32">
+    <tableColumn id="22" name="누적" dataDxfId="8" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4521,72 +4576,28 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="25"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="24"/>
-    <tableColumn id="9" name="종목명" dataDxfId="23">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="22">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="21"/>
-    <tableColumn id="2" name="매입액" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="18" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="12" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="11" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="10" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="8" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="7" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="5"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="4"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="2" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="6"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="5"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="3" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="0" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="193">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="190">
   <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
     <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="192"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="189"/>
     <tableColumn id="4" name="종목명"/>
     <tableColumn id="5" name="통화"/>
     <tableColumn id="6" name="계좌"/>
@@ -4610,246 +4621,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S15" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S15"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S22" totalsRowShown="0" headerRowDxfId="58" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S22"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="189"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="188"/>
-    <tableColumn id="9" name="종목명" dataDxfId="187">
-      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="186">
-      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="185"/>
-    <tableColumn id="2" name="매입액" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="182" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="175" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="173" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="172" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="171" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="166"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="165"/>
-    <tableColumn id="2" name="종목명" dataDxfId="164"/>
-    <tableColumn id="3" name="상품명" dataDxfId="163">
-      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="162"/>
-    <tableColumn id="4" name="매입액" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="159" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="152" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="151" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="150"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="149">
-      <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="148" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S3"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="143"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="142"/>
-    <tableColumn id="2" name="종목명" dataDxfId="141">
-      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="140">
-      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="139"/>
-    <tableColumn id="4" name="매입액" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="136" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="130" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="129" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="128" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="127"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="126">
-      <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="125">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:T3"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="9" name="종목명" dataDxfId="118" totalsRowDxfId="117">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="116" totalsRowDxfId="115">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="2" name="매입액" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="이자배당액" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="쉼표 [0]"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="80"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="79"/>
-    <tableColumn id="9" name="종목명" dataDxfId="78">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="77">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="76"/>
-    <tableColumn id="2" name="매입액" dataDxfId="75" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="74" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="73" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="72" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="71" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="70" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="69" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="68" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="67" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="66" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="65" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="64" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="63" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="62" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S12" totalsRowShown="0" headerRowDxfId="61" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S12"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="60"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="59"/>
-    <tableColumn id="9" name="종목명" dataDxfId="58">
+    <tableColumn id="1" name="거래일자" dataDxfId="57"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="56"/>
+    <tableColumn id="9" name="종목명" dataDxfId="55">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="57">
+    <tableColumn id="10" name="상품명" dataDxfId="54">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="56"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="53"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="55">
+    <tableColumn id="16" name="매입비용" dataDxfId="52">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="54"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="51"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -4864,10 +4654,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="53">
+    <tableColumn id="21" name="순현금수입" dataDxfId="50">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="52">
+    <tableColumn id="22" name="누적" dataDxfId="49">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4875,25 +4665,244 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="51" headerRowCellStyle="쉼표 [0]">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S15" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S15"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="186"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="185"/>
+    <tableColumn id="9" name="종목명" dataDxfId="184">
+      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="183">
+      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="매입수량" dataDxfId="182"/>
+    <tableColumn id="2" name="매입액" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="179" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매도수량" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="174" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="173" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="매도비용" dataDxfId="172" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="순수익" dataDxfId="171" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="입출금" dataDxfId="170" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="169" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="23" name="누적" dataDxfId="168" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="163"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="162"/>
+    <tableColumn id="2" name="종목명" dataDxfId="161"/>
+    <tableColumn id="3" name="상품명" dataDxfId="160">
+      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매입수량" dataDxfId="159"/>
+    <tableColumn id="4" name="매입액" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="156" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="매도수량" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="153" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="152" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="151" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="150" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="매도비용" dataDxfId="149" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="순수익" dataDxfId="148" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="입출금" dataDxfId="147"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="146">
+      <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="누적" dataDxfId="145" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S3"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="140"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="139"/>
+    <tableColumn id="2" name="종목명" dataDxfId="138">
+      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="상품명" dataDxfId="137">
+      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매입수량" dataDxfId="136"/>
+    <tableColumn id="4" name="매입액" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="133" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="매도수량" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="130" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="129" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="128" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="127" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="매도비용" dataDxfId="126" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" name="순수익" dataDxfId="125" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" name="입출금" dataDxfId="124"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="123">
+      <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="누적" dataDxfId="122">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:T3"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="거래일자" dataDxfId="119" totalsRowDxfId="118"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="117" totalsRowDxfId="116"/>
+    <tableColumn id="9" name="종목명" dataDxfId="115" totalsRowDxfId="114">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="113" totalsRowDxfId="112">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매입수량" dataDxfId="111" totalsRowDxfId="110"/>
+    <tableColumn id="2" name="매입액" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="매도수량" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매도비용" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="순수익" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="입출금" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="누적" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" name="외화입출금" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="쉼표 [0]"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="50"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="49"/>
-    <tableColumn id="9" name="종목명" dataDxfId="48">
+    <tableColumn id="1" name="거래일자" dataDxfId="77"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="76"/>
+    <tableColumn id="9" name="종목명" dataDxfId="75">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="74">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="매입수량" dataDxfId="73"/>
+    <tableColumn id="2" name="매입액" dataDxfId="72" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="71" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="70" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매도수량" dataDxfId="69" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="68" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="67" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="66" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="65" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="64" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매도비용" dataDxfId="63" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="순수익" dataDxfId="62" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="입출금" dataDxfId="61" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="60" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="누적" dataDxfId="59" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="47"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="46"/>
+    <tableColumn id="9" name="종목명" dataDxfId="45">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="47">
+    <tableColumn id="10" name="상품명" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="46"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="43"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="45">
+    <tableColumn id="16" name="매입비용" dataDxfId="42">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="44"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="41"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -4908,10 +4917,54 @@
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="43">
+    <tableColumn id="21" name="순현금수입" dataDxfId="40">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="42">
+    <tableColumn id="22" name="누적" dataDxfId="39">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="38" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="37"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="36"/>
+    <tableColumn id="9" name="종목명" dataDxfId="35">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="34">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="매입수량" dataDxfId="33"/>
+    <tableColumn id="2" name="매입액"/>
+    <tableColumn id="12" name="현금지출"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="32">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매도수량" dataDxfId="31"/>
+    <tableColumn id="3" name="매도원금"/>
+    <tableColumn id="15" name="매도액"/>
+    <tableColumn id="14" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="17" name="매매수익">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매도비용">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="순수익">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="입출금"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="30">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="누적" dataDxfId="29">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5182,10 +5235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5202,7 +5255,7 @@
     <col min="10" max="13" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -5236,8 +5289,11 @@
       <c r="K1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>113</v>
       </c>
@@ -5271,8 +5327,12 @@
       <c r="K2">
         <v>7.5199999999999818</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>157.91999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -5306,8 +5366,12 @@
       <c r="K3">
         <v>-0.1600000000000108</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>115</v>
       </c>
@@ -5341,8 +5405,12 @@
       <c r="K4">
         <v>-16.72999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>216.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>116</v>
       </c>
@@ -5376,8 +5444,12 @@
       <c r="K5">
         <v>-3.7800000000000011</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>209.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>117</v>
       </c>
@@ -5411,8 +5483,12 @@
       <c r="K6">
         <v>-15.199999999999989</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>225.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>118</v>
       </c>
@@ -5446,8 +5522,12 @@
       <c r="K7">
         <v>8.1700000000001012</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>128.28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>119</v>
       </c>
@@ -5481,8 +5561,12 @@
       <c r="K8">
         <v>-1.2900000000000205</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>67.849999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>120</v>
       </c>
@@ -5516,8 +5600,12 @@
       <c r="K9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>121</v>
       </c>
@@ -5551,8 +5639,12 @@
       <c r="K10">
         <v>21.75</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>250.74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>122</v>
       </c>
@@ -5586,8 +5678,12 @@
       <c r="K11">
         <v>9.4300000000000068</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>396.64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>123</v>
       </c>
@@ -5621,8 +5717,12 @@
       <c r="K12">
         <v>36.759999999999991</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>553.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>124</v>
       </c>
@@ -5656,8 +5756,12 @@
       <c r="K13">
         <v>-8.8299999999999841</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>377.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>125</v>
       </c>
@@ -5691,8 +5795,12 @@
       <c r="K14">
         <v>43.339999999999918</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>670.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>126</v>
       </c>
@@ -5726,8 +5834,12 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
@@ -5761,8 +5873,12 @@
       <c r="K16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>128</v>
       </c>
@@ -5796,8 +5912,12 @@
       <c r="K17">
         <v>2.2200000000000273</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>382.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>141</v>
       </c>
@@ -5831,8 +5951,12 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>129</v>
       </c>
@@ -5866,8 +5990,12 @@
       <c r="K19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>130</v>
       </c>
@@ -5901,8 +6029,12 @@
       <c r="K20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>140</v>
       </c>
@@ -5936,8 +6068,12 @@
       <c r="K21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>79</v>
       </c>
@@ -5968,8 +6104,12 @@
       <c r="K22">
         <v>714000</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>10724000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>80</v>
       </c>
@@ -6000,8 +6140,12 @@
       <c r="K23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>81</v>
       </c>
@@ -6035,8 +6179,12 @@
       <c r="K24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>82</v>
       </c>
@@ -6067,8 +6215,12 @@
       <c r="K25">
         <v>399892</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>22972101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>285</v>
       </c>
@@ -6099,8 +6251,12 @@
       <c r="K26">
         <v>114050</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>3314047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>268</v>
       </c>
@@ -6134,8 +6290,12 @@
       <c r="K27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>273</v>
       </c>
@@ -6164,13 +6324,17 @@
         <v>177</v>
       </c>
       <c r="J28">
-        <v>239255</v>
+        <v>575509</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>265</v>
       </c>
@@ -6204,8 +6368,12 @@
       <c r="K29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>271</v>
       </c>
@@ -6239,8 +6407,12 @@
       <c r="K30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>83</v>
       </c>
@@ -6271,8 +6443,12 @@
       <c r="K31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>84</v>
       </c>
@@ -6303,8 +6479,12 @@
       <c r="K32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>85</v>
       </c>
@@ -6335,8 +6515,12 @@
       <c r="K33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>86</v>
       </c>
@@ -6370,8 +6554,12 @@
       <c r="K34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>87</v>
       </c>
@@ -6399,11 +6587,18 @@
       <c r="I35" t="s">
         <v>177</v>
       </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
       <c r="K35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>88</v>
       </c>
@@ -6437,8 +6632,12 @@
       <c r="K36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>261</v>
       </c>
@@ -6472,8 +6671,12 @@
       <c r="K37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>89</v>
       </c>
@@ -6507,8 +6710,12 @@
       <c r="K38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>256</v>
       </c>
@@ -6539,8 +6746,12 @@
       <c r="K39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>3095.73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>258</v>
       </c>
@@ -6574,8 +6785,12 @@
       <c r="K40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>5835.8600000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>292</v>
       </c>
@@ -6609,8 +6824,12 @@
       <c r="K41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>17176678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>288</v>
       </c>
@@ -6641,8 +6860,12 @@
       <c r="K42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>10043166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>151</v>
       </c>
@@ -6673,8 +6896,12 @@
       <c r="K43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>154</v>
       </c>
@@ -6705,8 +6932,12 @@
       <c r="K44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>1484900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>156</v>
       </c>
@@ -6740,8 +6971,12 @@
       <c r="K45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>277</v>
       </c>
@@ -6772,8 +7007,12 @@
       <c r="K46">
         <v>164000</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>1120000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>275</v>
       </c>
@@ -6804,8 +7043,12 @@
       <c r="K47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>1049029</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>227</v>
       </c>
@@ -6839,8 +7082,12 @@
       <c r="K48">
         <v>-2674</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>356979</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>199</v>
       </c>
@@ -6871,8 +7118,12 @@
       <c r="K49">
         <v>57600</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>2990400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>202</v>
       </c>
@@ -6906,8 +7157,12 @@
       <c r="K50">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>2867.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
         <v>280</v>
       </c>
@@ -6941,8 +7196,12 @@
       <c r="K51">
         <v>57570</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>3072420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
         <v>286</v>
       </c>
@@ -6973,8 +7232,12 @@
       <c r="K52">
         <v>183365</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>5168475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
         <v>278</v>
       </c>
@@ -7008,8 +7271,12 @@
       <c r="K53">
         <v>11520</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>2004480</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>238</v>
       </c>
@@ -7043,8 +7310,12 @@
       <c r="K54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>1956.13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>242</v>
       </c>
@@ -7070,13 +7341,17 @@
         <v>72</v>
       </c>
       <c r="J55">
-        <v>2318700</v>
+        <v>4983240</v>
       </c>
       <c r="K55">
-        <v>-206500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-443800</v>
+      </c>
+      <c r="L55">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>4539440</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
         <v>279</v>
       </c>
@@ -7110,8 +7385,12 @@
       <c r="K56">
         <v>20615</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>3033660</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
         <v>281</v>
       </c>
@@ -7140,10 +7419,50 @@
         <v>247</v>
       </c>
       <c r="J57">
-        <v>2999220</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>127380</v>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
+        <v>359210</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>315</v>
+      </c>
+      <c r="E58" t="s">
+        <v>316</v>
+      </c>
+      <c r="F58" t="s">
+        <v>317</v>
+      </c>
+      <c r="G58" t="s">
+        <v>318</v>
+      </c>
+      <c r="H58" t="s">
+        <v>319</v>
+      </c>
+      <c r="J58" s="5">
+        <v>0</v>
+      </c>
+      <c r="K58" s="5">
+        <v>0</v>
+      </c>
+      <c r="L58" s="5">
+        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7157,276 +7476,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" customWidth="1"/>
-    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>한투ISA예수금</v>
-      </c>
-      <c r="D2" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 ISA 원화예수금</v>
-      </c>
-      <c r="E2" s="40">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>8994</v>
-      </c>
-      <c r="R2">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>8994</v>
-      </c>
-      <c r="S2">
-        <f>SUM($R$2:R2)</f>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>삼척블루파워9</v>
-      </c>
-      <c r="D3" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>삼척블루파워9</v>
-      </c>
-      <c r="E3" s="40">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1484900</v>
-      </c>
-      <c r="G3">
-        <v>1484900</v>
-      </c>
-      <c r="H3">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1484900</v>
-      </c>
-      <c r="R3">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>SUM($R$2:R3)</f>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>메리츠캐피탈235-1</v>
-      </c>
-      <c r="D4" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>메리츠캐피탈235-1</v>
-      </c>
-      <c r="E4" s="40">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1049029</v>
-      </c>
-      <c r="G4">
-        <v>1049029</v>
-      </c>
-      <c r="H4">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1049029</v>
-      </c>
-      <c r="R4">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>SUM($R$2:R4)</f>
-        <v>8994</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="I2" sqref="I2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7537,8 +7590,18 @@
         <f>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="K2" s="7"/>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0</v>
+      </c>
+      <c r="K2" s="7">
+        <v>0</v>
+      </c>
+      <c r="L2" s="7">
+        <v>0</v>
+      </c>
       <c r="M2" s="7">
         <v>0</v>
       </c>
@@ -7576,12 +7639,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M340"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F11:F12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12055,7 +12118,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -12393,7 +12456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -12422,12 +12485,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15927,6 +15990,1330 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S22"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="13.625" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투예수금</v>
+      </c>
+      <c r="D2" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>575509</v>
+      </c>
+      <c r="R2">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>575509</v>
+      </c>
+      <c r="S2">
+        <f>SUM($R$2:R2)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>17176678</v>
+      </c>
+      <c r="G3">
+        <v>17176678</v>
+      </c>
+      <c r="H3">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>17176678</v>
+      </c>
+      <c r="R3">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUM($R$2:R3)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(약정)한투원화발행어음</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10043166</v>
+      </c>
+      <c r="G4">
+        <v>10043166</v>
+      </c>
+      <c r="H4">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10043166</v>
+      </c>
+      <c r="R4">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUM($R$2:R4)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>NAVER</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>NAVER</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1120000</v>
+      </c>
+      <c r="G5">
+        <v>1120000</v>
+      </c>
+      <c r="H5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1120000</v>
+      </c>
+      <c r="R5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>SUM($R$2:R5)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B6" t="s">
+        <v>199</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>E1</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>E1</v>
+      </c>
+      <c r="E6">
+        <v>48</v>
+      </c>
+      <c r="F6">
+        <v>2990400</v>
+      </c>
+      <c r="G6">
+        <v>2990400</v>
+      </c>
+      <c r="H6">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>2990400</v>
+      </c>
+      <c r="R6">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>SUM($R$2:R6)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국하이일드</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ACE 미국하이일드액티브(H)</v>
+      </c>
+      <c r="E7">
+        <v>303</v>
+      </c>
+      <c r="F7">
+        <v>3072420</v>
+      </c>
+      <c r="G7">
+        <v>3072420</v>
+      </c>
+      <c r="H7">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3072420</v>
+      </c>
+      <c r="R7">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>SUM($R$2:R7)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>코스피 IT TR</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>KODEX 200IT TR</v>
+      </c>
+      <c r="E8">
+        <v>403</v>
+      </c>
+      <c r="F8">
+        <v>5168475</v>
+      </c>
+      <c r="G8">
+        <v>5168475</v>
+      </c>
+      <c r="H8">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5168475</v>
+      </c>
+      <c r="R8">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>SUM($R$2:R8)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국나스닥</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIGER 미국나스닥100TR(H)</v>
+      </c>
+      <c r="E9">
+        <v>144</v>
+      </c>
+      <c r="F9">
+        <v>2004480</v>
+      </c>
+      <c r="G9">
+        <v>2004480</v>
+      </c>
+      <c r="H9">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2004480</v>
+      </c>
+      <c r="R9">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>SUM($R$2:R9)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="E10">
+        <v>634</v>
+      </c>
+      <c r="F10">
+        <v>4539440</v>
+      </c>
+      <c r="G10">
+        <v>4539440</v>
+      </c>
+      <c r="H10">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>4539440</v>
+      </c>
+      <c r="R10">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>SUM($R$2:R10)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>원유선물</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>KODEX WTI 원유선물(H)</v>
+      </c>
+      <c r="E11">
+        <v>217</v>
+      </c>
+      <c r="F11">
+        <v>3033660</v>
+      </c>
+      <c r="G11">
+        <v>3033660</v>
+      </c>
+      <c r="H11">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>3033660</v>
+      </c>
+      <c r="R11">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>SUM($R$2:R11)</f>
+        <v>575509</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>중국테크주식</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIGER 차이나항셍테크</v>
+      </c>
+      <c r="E12">
+        <v>579</v>
+      </c>
+      <c r="F12">
+        <v>2999220</v>
+      </c>
+      <c r="G12">
+        <v>2999650</v>
+      </c>
+      <c r="H12">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>430</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-430</v>
+      </c>
+      <c r="Q12"/>
+      <c r="R12">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2999650</v>
+      </c>
+      <c r="S12">
+        <f>SUM($R$2:R12)</f>
+        <v>-2424141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>45293</v>
+      </c>
+      <c r="B13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="D13" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="H13" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="35">
+        <v>200</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1572000</v>
+      </c>
+      <c r="K13">
+        <v>1446000</v>
+      </c>
+      <c r="M13">
+        <f>1446000-200-2601</f>
+        <v>1443199</v>
+      </c>
+      <c r="N13">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>-126000</v>
+      </c>
+      <c r="O13" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>2801</v>
+      </c>
+      <c r="P13">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-128801</v>
+      </c>
+      <c r="R13" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>1443199</v>
+      </c>
+      <c r="S13">
+        <f>SUM($R$2:R13)</f>
+        <v>-980942</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>45293</v>
+      </c>
+      <c r="B14" t="s">
+        <v>292</v>
+      </c>
+      <c r="C14" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D14" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="H14" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1988333</v>
+      </c>
+      <c r="K14">
+        <v>1989286</v>
+      </c>
+      <c r="M14">
+        <f>1989286-140</f>
+        <v>1989146</v>
+      </c>
+      <c r="N14">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>953</v>
+      </c>
+      <c r="O14" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>140</v>
+      </c>
+      <c r="P14">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>813</v>
+      </c>
+      <c r="R14" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>1989146</v>
+      </c>
+      <c r="S14">
+        <f>SUM($R$2:R14)</f>
+        <v>1008204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="C15" s="64" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="D15" s="65" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>넥스틸</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="67">
+        <v>139</v>
+      </c>
+      <c r="J15" s="66">
+        <f>7860*139</f>
+        <v>1092540</v>
+      </c>
+      <c r="K15" s="68">
+        <v>995240</v>
+      </c>
+      <c r="L15" s="66"/>
+      <c r="M15" s="69">
+        <v>993332</v>
+      </c>
+      <c r="N15" s="69">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>-97300</v>
+      </c>
+      <c r="O15" s="63">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>1908</v>
+      </c>
+      <c r="P15" s="69">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-99208</v>
+      </c>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="63">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>993332</v>
+      </c>
+      <c r="S15">
+        <f>SUM($R$2:R15)</f>
+        <v>2001536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>45294</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="C16" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국하이일드</v>
+      </c>
+      <c r="D16" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ACE 미국하이일드액티브(H)</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="H16" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>15756</v>
+      </c>
+      <c r="M16">
+        <v>13336</v>
+      </c>
+      <c r="N16">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>2420</v>
+      </c>
+      <c r="P16">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>13336</v>
+      </c>
+      <c r="R16" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>13336</v>
+      </c>
+      <c r="S16">
+        <f>SUM($R$2:R16)</f>
+        <v>2014872</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>45295</v>
+      </c>
+      <c r="B17" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D17" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="7">
+        <v>1019062</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1019062</v>
+      </c>
+      <c r="H17" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-1019062</v>
+      </c>
+      <c r="S17">
+        <f>SUM($R$2:R17)</f>
+        <v>995810</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>45296</v>
+      </c>
+      <c r="B18" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투예수금</v>
+      </c>
+      <c r="D18" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="H18" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1000000</v>
+      </c>
+      <c r="R18" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>1000000</v>
+      </c>
+      <c r="S18">
+        <f>SUM($R$2:R18)</f>
+        <v>1995810</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45299</v>
+      </c>
+      <c r="B19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C19" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국나스닥</v>
+      </c>
+      <c r="D19" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIGER 미국나스닥100TR(H)</v>
+      </c>
+      <c r="E19" s="40">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7">
+        <v>995670</v>
+      </c>
+      <c r="G19" s="5">
+        <v>995810</v>
+      </c>
+      <c r="H19" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>140</v>
+      </c>
+      <c r="N19">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-140</v>
+      </c>
+      <c r="R19" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-995810</v>
+      </c>
+      <c r="S19">
+        <f>SUM($R$2:R19)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>45312</v>
+      </c>
+      <c r="B20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투예수금</v>
+      </c>
+      <c r="D20" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="H20" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>2500000</v>
+      </c>
+      <c r="R20" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>2500000</v>
+      </c>
+      <c r="S20">
+        <f>SUM($R$2:R20)</f>
+        <v>3500000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>45313</v>
+      </c>
+      <c r="B21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(약정)한투원화발행어음</v>
+      </c>
+      <c r="D21" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="7">
+        <v>300000</v>
+      </c>
+      <c r="G21" s="5">
+        <v>300000</v>
+      </c>
+      <c r="H21" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-300000</v>
+      </c>
+      <c r="S21">
+        <f>SUM($R$2:R21)</f>
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>45315</v>
+      </c>
+      <c r="B22" s="31">
+        <v>359210</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>코스피 TR</v>
+      </c>
+      <c r="D22" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>KODEX 코스피 TR</v>
+      </c>
+      <c r="E22" s="40">
+        <v>261</v>
+      </c>
+      <c r="F22" s="7">
+        <v>3172455</v>
+      </c>
+      <c r="G22" s="5">
+        <v>3172915</v>
+      </c>
+      <c r="H22" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>460</v>
+      </c>
+      <c r="N22">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-460</v>
+      </c>
+      <c r="R22" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-3172915</v>
+      </c>
+      <c r="S22">
+        <f>SUM($R$2:R22)</f>
+        <v>27085</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
@@ -15936,7 +17323,7 @@
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16051,11 +17438,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="6"/>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
       <c r="N2" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16108,11 +17505,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="6"/>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
       <c r="N3" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16165,11 +17572,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="6"/>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
       <c r="N4" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16222,11 +17639,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="6"/>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
       <c r="N5" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16279,11 +17706,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="6"/>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
       <c r="N6" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16336,11 +17773,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="6"/>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
       <c r="N7" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16393,11 +17840,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="6"/>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
       <c r="N8" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16450,11 +17907,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="6"/>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
       <c r="N9" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16507,11 +17974,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="6"/>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0</v>
+      </c>
       <c r="N10" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16564,11 +18041,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="6"/>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0</v>
+      </c>
       <c r="N11" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16621,11 +18108,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="6"/>
+      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
       <c r="N12" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16678,11 +18175,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="6"/>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
       <c r="N13" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16735,11 +18242,21 @@
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="6"/>
+      <c r="I14" s="12">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11">
+        <v>0</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0</v>
+      </c>
       <c r="N14" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16782,17 +18299,31 @@
       <c r="E15" s="39">
         <v>1</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0</v>
+      </c>
       <c r="H15" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="6"/>
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
       <c r="N15" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -16836,7 +18367,7 @@
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16947,7 +18478,21 @@
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I2"/>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
       <c r="N2">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17000,7 +18545,21 @@
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I3"/>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
       <c r="N3">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17053,7 +18612,21 @@
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I4"/>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
       <c r="N4">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17106,7 +18679,21 @@
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I5"/>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
       <c r="N5">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17149,7 +18736,7 @@
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17250,17 +18837,31 @@
       <c r="E2" s="40">
         <v>1</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
+      <c r="F2" s="23">
+        <v>0</v>
+      </c>
+      <c r="G2" s="24">
+        <v>0</v>
+      </c>
       <c r="H2" s="24">
         <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I2" s="44"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="I2" s="44">
+        <v>0</v>
+      </c>
+      <c r="J2" s="23">
+        <v>0</v>
+      </c>
+      <c r="K2" s="23">
+        <v>0</v>
+      </c>
+      <c r="L2" s="23">
+        <v>0</v>
+      </c>
+      <c r="M2" s="23">
+        <v>0</v>
+      </c>
       <c r="N2" s="23">
         <f>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17313,11 +18914,21 @@
         <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="27">
+        <v>0</v>
+      </c>
+      <c r="K3" s="27">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
+        <v>0</v>
+      </c>
       <c r="N3" s="27">
         <f>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17356,7 +18967,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I2" sqref="I2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17472,14 +19083,21 @@
         <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I2"/>
-      <c r="J2"/>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
       <c r="K2">
-        <f>CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="L2"/>
-      <c r="M2"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
       <c r="N2">
         <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17533,14 +19151,21 @@
         <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I3"/>
-      <c r="J3"/>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
       <c r="K3">
-        <f>CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="L3"/>
-      <c r="M3"/>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
       <c r="N3">
         <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -17580,8 +19205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17691,732 +19316,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" customWidth="1"/>
-    <col min="18" max="18" width="13.625" customWidth="1"/>
-    <col min="19" max="19" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>한투예수금</v>
-      </c>
-      <c r="D2" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 직접투자 원화예수금</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>239255</v>
-      </c>
-      <c r="R2">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>239255</v>
-      </c>
-      <c r="S2">
-        <f>SUM($R$2:R2)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C3" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>(수시)한투원화발행어음</v>
-      </c>
-      <c r="D3" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>17176678</v>
-      </c>
-      <c r="G3">
-        <v>17176678</v>
-      </c>
-      <c r="H3">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>17176678</v>
-      </c>
-      <c r="R3">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>SUM($R$2:R3)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B4" t="s">
-        <v>288</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>(약정)한투원화발행어음</v>
-      </c>
-      <c r="D4" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>10043166</v>
-      </c>
-      <c r="G4">
-        <v>10043166</v>
-      </c>
-      <c r="H4">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>10043166</v>
-      </c>
-      <c r="R4">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>SUM($R$2:R4)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C5" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>NAVER</v>
-      </c>
-      <c r="D5" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>NAVER</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1120000</v>
-      </c>
-      <c r="G5">
-        <v>1120000</v>
-      </c>
-      <c r="H5">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>1120000</v>
-      </c>
-      <c r="R5">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>SUM($R$2:R5)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C6" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>E1</v>
-      </c>
-      <c r="D6" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>E1</v>
-      </c>
-      <c r="E6">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>2990400</v>
-      </c>
-      <c r="G6">
-        <v>2990400</v>
-      </c>
-      <c r="H6">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2990400</v>
-      </c>
-      <c r="R6">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>SUM($R$2:R6)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>미국하이일드</v>
-      </c>
-      <c r="D7" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>ACE 미국하이일드액티브(H)</v>
-      </c>
-      <c r="E7">
-        <v>303</v>
-      </c>
-      <c r="F7">
-        <v>3072420</v>
-      </c>
-      <c r="G7">
-        <v>3072420</v>
-      </c>
-      <c r="H7">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3072420</v>
-      </c>
-      <c r="R7">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>SUM($R$2:R7)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>코스피 IT TR</v>
-      </c>
-      <c r="D8" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>KODEX 200IT TR</v>
-      </c>
-      <c r="E8">
-        <v>403</v>
-      </c>
-      <c r="F8">
-        <v>5168475</v>
-      </c>
-      <c r="G8">
-        <v>5168475</v>
-      </c>
-      <c r="H8">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>5168475</v>
-      </c>
-      <c r="R8">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>SUM($R$2:R8)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>미국나스닥</v>
-      </c>
-      <c r="D9" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>TIGER 미국나스닥100TR(H)</v>
-      </c>
-      <c r="E9">
-        <v>144</v>
-      </c>
-      <c r="F9">
-        <v>2004480</v>
-      </c>
-      <c r="G9">
-        <v>2004480</v>
-      </c>
-      <c r="H9">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>2004480</v>
-      </c>
-      <c r="R9">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>SUM($R$2:R9)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B10" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>넥스틸</v>
-      </c>
-      <c r="D10" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>넥스틸</v>
-      </c>
-      <c r="E10">
-        <v>295</v>
-      </c>
-      <c r="F10">
-        <v>2112200</v>
-      </c>
-      <c r="G10">
-        <v>2112200</v>
-      </c>
-      <c r="H10">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2112200</v>
-      </c>
-      <c r="R10">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f>SUM($R$2:R10)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B11" t="s">
-        <v>279</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>원유선물</v>
-      </c>
-      <c r="D11" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>KODEX WTI 원유선물(H)</v>
-      </c>
-      <c r="E11">
-        <v>217</v>
-      </c>
-      <c r="F11">
-        <v>3033660</v>
-      </c>
-      <c r="G11">
-        <v>3033660</v>
-      </c>
-      <c r="H11">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3033660</v>
-      </c>
-      <c r="R11">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <f>SUM($R$2:R11)</f>
-        <v>239255</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>중국테크주식</v>
-      </c>
-      <c r="D12" t="str">
-        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>TIGER 차이나항셍테크</v>
-      </c>
-      <c r="E12">
-        <v>579</v>
-      </c>
-      <c r="F12">
-        <v>3126600</v>
-      </c>
-      <c r="G12">
-        <v>3126600</v>
-      </c>
-      <c r="H12">
-        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12">
-        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3126600</v>
-      </c>
-      <c r="R12">
-        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>SUM($R$2:R12)</f>
-        <v>239255</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18523,4 +19426,351 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투ISA예수금</v>
+      </c>
+      <c r="D2" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 ISA 원화예수금</v>
+      </c>
+      <c r="E2" s="40">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>8994</v>
+      </c>
+      <c r="R2">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>8994</v>
+      </c>
+      <c r="S2">
+        <f>SUM($R$2:R2)</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="D3" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1484900</v>
+      </c>
+      <c r="G3">
+        <v>1484900</v>
+      </c>
+      <c r="H3">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1484900</v>
+      </c>
+      <c r="R3">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUM($R$2:R3)</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>메리츠캐피탈235-1</v>
+      </c>
+      <c r="D4" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>메리츠캐피탈235-1</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1049029</v>
+      </c>
+      <c r="G4">
+        <v>1049029</v>
+      </c>
+      <c r="H4">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1049029</v>
+      </c>
+      <c r="R4">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUM($R$2:R4)</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45306</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="D5" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="H5" s="5">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>8994</v>
+      </c>
+      <c r="M5">
+        <v>8994</v>
+      </c>
+      <c r="N5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>8994</v>
+      </c>
+      <c r="R5" s="5">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>8994</v>
+      </c>
+      <c r="S5">
+        <f>SUM($R$2:R5)</f>
+        <v>17988</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/trade.xlsx
+++ b/trade.xlsx
@@ -9,23 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="646"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
-    <sheet name="한투원화" sheetId="11" r:id="rId2"/>
-    <sheet name="불리오달러" sheetId="1" r:id="rId3"/>
-    <sheet name="한투달러" sheetId="4" r:id="rId4"/>
-    <sheet name="한투엔화" sheetId="10" r:id="rId5"/>
-    <sheet name="외화자산평가" sheetId="6" r:id="rId6"/>
-    <sheet name="나무원화" sheetId="7" r:id="rId7"/>
-    <sheet name="한투CMA" sheetId="5" r:id="rId8"/>
-    <sheet name="한투ISA" sheetId="12" r:id="rId9"/>
-    <sheet name="별도원화" sheetId="3" r:id="rId10"/>
-    <sheet name="현금흐름" sheetId="9" r:id="rId11"/>
-    <sheet name="급여및지출" sheetId="13" r:id="rId12"/>
-    <sheet name="각종정보" sheetId="8" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId14"/>
+    <sheet name="연금종목정보" sheetId="15" r:id="rId2"/>
+    <sheet name="농협IRP" sheetId="18" r:id="rId3"/>
+    <sheet name="삼성DC" sheetId="17" r:id="rId4"/>
+    <sheet name="연금거래내역" sheetId="16" r:id="rId5"/>
+    <sheet name="한투원화" sheetId="11" r:id="rId6"/>
+    <sheet name="불리오달러" sheetId="1" r:id="rId7"/>
+    <sheet name="한투달러" sheetId="4" r:id="rId8"/>
+    <sheet name="한투엔화" sheetId="10" r:id="rId9"/>
+    <sheet name="외화자산평가" sheetId="6" r:id="rId10"/>
+    <sheet name="나무원화" sheetId="7" r:id="rId11"/>
+    <sheet name="한투CMA" sheetId="5" r:id="rId12"/>
+    <sheet name="한투ISA" sheetId="12" r:id="rId13"/>
+    <sheet name="별도원화" sheetId="3" r:id="rId14"/>
+    <sheet name="현금흐름" sheetId="9" r:id="rId15"/>
+    <sheet name="급여및지출" sheetId="13" r:id="rId16"/>
+    <sheet name="각종정보" sheetId="8" r:id="rId17"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -48,122 +52,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="404">
   <si>
     <t>거래일자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>종목명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>신협</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>해외투자</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>외화자산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>계좌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>나무</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한증금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>국내주식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>롯데케미칼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>불리오</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>상품</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>외환</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>해외주식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>해외채권</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>통화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>원화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>달러</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>자산군</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>세부자산군</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>현금성</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>단기자금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>채권</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>주식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>대체자산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>상품명</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>매입비용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>순수익</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ISHARES INC MSCI GERMANY ETF</t>
@@ -218,91 +222,91 @@
   </si>
   <si>
     <t>나무증권 CMA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 CMA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>나무증권 발행어음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>신협 정기예금 6개월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>신협 정기예금 1년</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>우리사주 롯데케미칼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 불리오계좌 달러예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>매도원금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>현금수입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>현금지출</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>매입액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>매도액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>이자배당액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>매도비용</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>매매수익</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>순현금수입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>누적</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계좌 달러예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계좌 외화RP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>입출금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>달러자산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>달러자산 원화평가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>전년도 투자주식 배당기록 계정</t>
@@ -582,159 +586,159 @@
   </si>
   <si>
     <t>NAVER</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>메리츠캐피탈235-1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>(약정)한투원화발행어음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>(약정)한투외화발행어음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>(수시)한투외화발행어음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>(수시)한투원화발행어음</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계좌 외화발행어음(약정)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계좌 외화발행어음(수시)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계좌 원화발행어음(수시)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계좌 원화발행어음(약정)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>세부자산군2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>선진국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>신흥국</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>하이일드</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>물가연동</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>원자재</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>에너지</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>현금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>나무예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>나무증권 원화예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>엔화자산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>엔화자산 원화평가</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>엔화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>직접운용엔</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>MYWN_KOIN</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자계화 엔화예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>일본리츠</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ISHARES JAPAN REIT ETF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>부동산</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>외화입출금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>CASH_KOIN1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투CMA예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투ISA예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 직접투자 원화예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 CMA 원화예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한국투자증권 ISA 원화예수금</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투CMA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투ISA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>017940</t>
@@ -768,23 +772,23 @@
   </si>
   <si>
     <t>1월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>2월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>4월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>5월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>6월</t>
@@ -806,38 +810,38 @@
   </si>
   <si>
     <t>12월</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>급여</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>지출</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>순수입</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>합계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>비중</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>예상순수입분배</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1476</t>
   </si>
   <si>
     <t>원화투자지출</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>미국하이일드</t>
@@ -898,7 +902,7 @@
   </si>
   <si>
     <t>매입장부금액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>장부금액</t>
@@ -1088,39 +1092,361 @@
   </si>
   <si>
     <t>기초평가손익</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>평가금액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>기초장부금액</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>코스피 TR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>KODEX 코스피 TR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>한투</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>원화</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>주식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>국내주식</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>종목명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품명</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>계좌</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산군</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부자산군</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASH_NHB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협현금성자산</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협IRP</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내채권</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한정기예금1Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>다올정기예금1Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1Y_SHB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1Y_DOB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 코스피</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성 KODEX 코스피증권상장지수투자신탁(주식)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내주식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>장부금액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가금액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가손익</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익률</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성화재 금리연동형</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성화재 이율보증형 1Y</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성퇴직연금Active채권종합증권자투자신탁 제1호(채권)_Ce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래에셋퇴직플랜KRX100인덱스안정형40증권자투자신탁1호(채권혼합)_C-P2e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신영퇴직연금배당40증권자투자신탁(채권혼합)_C-E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신영퇴직연금배당주식증권자투자신탁(주식)_C-E</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국투자TDF알아서2045증권투자신탁(주식혼합-재간접형)_C-Re</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB미국대표성장주증권자투자신탁(주식)(H)C-퇴직e</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성미국인덱스증권자투자신탁H(주식)_Cpe(퇴직연금)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성DC</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성화재신탁 대기자금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성퇴직연금인덱스증권투자신탁제1호(주식)_Ce</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내주식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼합</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외주식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUND1</t>
+  </si>
+  <si>
+    <t>FUND1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUND2</t>
+  </si>
+  <si>
+    <t>FUND2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUND3</t>
+  </si>
+  <si>
+    <t>FUND3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUND4</t>
+  </si>
+  <si>
+    <t>FUND5</t>
+  </si>
+  <si>
+    <t>FUND6</t>
+  </si>
+  <si>
+    <t>FUND7</t>
+  </si>
+  <si>
+    <t>FUND8</t>
+  </si>
+  <si>
+    <t>CASH_SHI</t>
+  </si>
+  <si>
+    <t>CASH_SHI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF_SHI</t>
+  </si>
+  <si>
+    <t>DF_SHI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1Y_SHI</t>
+  </si>
+  <si>
+    <t>D1Y_SHI</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성정기예금1년</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성변동예금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성주가지수펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성채권혼합펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래채권혼합펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신영채권혼합펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>신영주식혼합펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>한투TDF</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>KB미국성장주펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성미국주가지수펀드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성현금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>농협현금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASH_NHB</t>
+  </si>
+  <si>
+    <t>D1Y_SHB</t>
+  </si>
+  <si>
+    <t>D1Y_DOB</t>
+  </si>
+  <si>
+    <t>다올</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예금1년</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>금리연동형</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>만기일</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>원금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가금</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1133,13 +1459,20 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1202,7 +1535,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1213,6 +1546,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1304,16 +1649,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1338,7 +1686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1350,34 +1698,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -1386,10 +1734,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -1398,10 +1746,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1422,10 +1770,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1437,19 +1785,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1473,7 +1821,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1482,16 +1830,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1518,15 +1866,1604 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="195">
+  <dxfs count="245">
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1852,52 +3789,6 @@
         <name val="맑은 고딕"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -4451,11 +6342,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -4465,21 +6381,14 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4510,8 +6419,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:L58" totalsRowShown="0">
   <autoFilter ref="A1:L58"/>
   <tableColumns count="12">
-    <tableColumn id="8" name="종목코드" dataDxfId="194"/>
-    <tableColumn id="9" name="종목명" dataDxfId="193">
+    <tableColumn id="8" name="종목코드" dataDxfId="244"/>
+    <tableColumn id="9" name="종목명" dataDxfId="243">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="평가금액"/>
@@ -4521,9 +6430,9 @@
     <tableColumn id="6" name="자산군"/>
     <tableColumn id="4" name="세부자산군"/>
     <tableColumn id="5" name="세부자산군2"/>
-    <tableColumn id="1" name="매입장부금액" dataDxfId="192"/>
-    <tableColumn id="10" name="기초평가손익" dataDxfId="191"/>
-    <tableColumn id="11" name="기초장부금액" dataDxfId="0">
+    <tableColumn id="1" name="매입장부금액" dataDxfId="242"/>
+    <tableColumn id="10" name="기초평가손익" dataDxfId="241"/>
+    <tableColumn id="11" name="기초장부금액" dataDxfId="240">
       <calculatedColumnFormula>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4532,42 +6441,42 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="120" dataDxfId="119" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="26"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="25"/>
-    <tableColumn id="9" name="종목명" dataDxfId="24">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" name="거래일자" dataDxfId="118"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="117"/>
+    <tableColumn id="9" name="종목명" dataDxfId="116">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="23">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" name="상품명" dataDxfId="115">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="22"/>
-    <tableColumn id="2" name="매입액" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="19" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="6" name="매입수량" dataDxfId="114"/>
+    <tableColumn id="2" name="매입액" dataDxfId="113" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="112" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="111" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="13" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="7" name="매도수량" dataDxfId="110" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="109" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="108" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="107" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="106" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="105" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="12" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="18" name="매도비용" dataDxfId="104" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="11" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="19" name="순수익" dataDxfId="103" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="10" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="9" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="4" name="입출금" dataDxfId="102" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="101" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="8" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="100" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4576,28 +6485,160 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="99" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="98"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="97"/>
+    <tableColumn id="9" name="종목명" dataDxfId="96">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="95">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="매입수량" dataDxfId="94"/>
+    <tableColumn id="2" name="매입액"/>
+    <tableColumn id="12" name="현금지출"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="93">
+      <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매도수량" dataDxfId="92"/>
+    <tableColumn id="3" name="매도원금"/>
+    <tableColumn id="15" name="매도액"/>
+    <tableColumn id="14" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="17" name="매매수익">
+      <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]-CMA_한투1836[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매도비용">
+      <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="순수익">
+      <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="입출금"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="91">
+      <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="누적" dataDxfId="90">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="89" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="88"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="87"/>
+    <tableColumn id="9" name="종목명" dataDxfId="86">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="85">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="매입수량" dataDxfId="84"/>
+    <tableColumn id="2" name="매입액"/>
+    <tableColumn id="12" name="현금지출"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="83">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매도수량" dataDxfId="82"/>
+    <tableColumn id="3" name="매도원금"/>
+    <tableColumn id="15" name="매도액"/>
+    <tableColumn id="14" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="17" name="매매수익">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매도비용">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="순수익">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="입출금"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="81">
+      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="누적" dataDxfId="80">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="77"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="76"/>
+    <tableColumn id="9" name="종목명" dataDxfId="75">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="상품명" dataDxfId="74">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="매입수량" dataDxfId="73"/>
+    <tableColumn id="2" name="매입액" dataDxfId="72" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="71" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="70" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="매도수량" dataDxfId="69" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="68" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="67" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="66" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="65" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="64" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" name="매도비용" dataDxfId="63" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="순수익" dataDxfId="62" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="입출금" dataDxfId="61" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="60" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="22" name="누적" dataDxfId="59" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="58">
   <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="6"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="5"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="3" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="57"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="56"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="54" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="190">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="51">
   <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
     <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="189"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="50"/>
     <tableColumn id="4" name="종목명"/>
     <tableColumn id="5" name="통화"/>
     <tableColumn id="6" name="계좌"/>
@@ -4622,24 +6663,135 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S22" totalsRowShown="0" headerRowDxfId="58" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J16" totalsRowShown="0">
+  <autoFilter ref="A1:J16"/>
+  <tableColumns count="10">
+    <tableColumn id="1" name="종목코드"/>
+    <tableColumn id="2" name="종목명"/>
+    <tableColumn id="3" name="상품명"/>
+    <tableColumn id="4" name="계좌"/>
+    <tableColumn id="5" name="자산군"/>
+    <tableColumn id="6" name="세부자산군"/>
+    <tableColumn id="7" name="장부금액" dataDxfId="49" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>H2/(1+J2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" name="평가금액" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="평가손익" dataDxfId="47">
+      <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" name="수익률" dataDxfId="46" dataCellStyle="백분율"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S12" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S12"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="18"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="17"/>
+    <tableColumn id="3" name="종목명" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="상품명" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="매입수량" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="13" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="매도수량" dataDxfId="12" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="10" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="7" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="매도비용" dataDxfId="6" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="순수익" dataDxfId="5" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="입출금" dataDxfId="4"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="3" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="누적" dataDxfId="2" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R12)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="44" tableBorderDxfId="45" totalsRowBorderDxfId="43" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S12"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="42"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="41"/>
+    <tableColumn id="3" name="종목명" dataDxfId="40">
+      <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="상품명" dataDxfId="23">
+      <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="매입수량" dataDxfId="39" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="38" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="37" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="36" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="매도수량" dataDxfId="35" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="34" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="33" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="32" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="31" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="30" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="매도비용" dataDxfId="29" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="순수익" dataDxfId="28" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="17" name="입출금" dataDxfId="27"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="26" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="누적" dataDxfId="25" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R12)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S22" totalsRowShown="0" headerRowDxfId="239" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S22"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="57"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="56"/>
-    <tableColumn id="9" name="종목명" dataDxfId="55">
+    <tableColumn id="1" name="거래일자" dataDxfId="238"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="237"/>
+    <tableColumn id="9" name="종목명" dataDxfId="236">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="54">
+    <tableColumn id="10" name="상품명" dataDxfId="235">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="53"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="234"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="52">
+    <tableColumn id="16" name="매입비용" dataDxfId="233">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="51"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="232"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -4654,140 +6806,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="50">
+    <tableColumn id="21" name="순현금수입" dataDxfId="231">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="49">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S15" totalsRowShown="0" headerRowDxfId="188" dataDxfId="187" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S15"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="186"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="185"/>
-    <tableColumn id="9" name="종목명" dataDxfId="184">
-      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="183">
-      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="182"/>
-    <tableColumn id="2" name="매입액" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="179" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="174" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="173" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="172" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="171" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="170" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="169" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="168" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="167" dataDxfId="165" headerRowBorderDxfId="166" tableBorderDxfId="164" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="163"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="162"/>
-    <tableColumn id="2" name="종목명" dataDxfId="161"/>
-    <tableColumn id="3" name="상품명" dataDxfId="160">
-      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="159"/>
-    <tableColumn id="4" name="매입액" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="156" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="153" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="152" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="151" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="150" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="149" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="148" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="147"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="146">
-      <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="145" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="144" dataDxfId="142" headerRowBorderDxfId="143" tableBorderDxfId="141" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S3"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="140"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="139"/>
-    <tableColumn id="2" name="종목명" dataDxfId="138">
-      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="137">
-      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="136"/>
-    <tableColumn id="4" name="매입액" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="133" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="130" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="129" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="128" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="127" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="126" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="125" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="124"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="123">
-      <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="122">
+    <tableColumn id="22" name="누적" dataDxfId="230">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4796,87 +6818,84 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:T3"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="119" totalsRowDxfId="118"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="117" totalsRowDxfId="116"/>
-    <tableColumn id="9" name="종목명" dataDxfId="115" totalsRowDxfId="114">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S15" totalsRowShown="0" headerRowDxfId="229" dataDxfId="228" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S15"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="거래일자" dataDxfId="227"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="226"/>
+    <tableColumn id="9" name="종목명" dataDxfId="225">
+      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="113" totalsRowDxfId="112">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" name="상품명" dataDxfId="224">
+      <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="111" totalsRowDxfId="110"/>
-    <tableColumn id="2" name="매입액" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="6" name="매입수량" dataDxfId="223"/>
+    <tableColumn id="2" name="매입액" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="220" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="7" name="매도수량" dataDxfId="219" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="218" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="217" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="216" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="215" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="214" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="15" name="매도비용" dataDxfId="213" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="89" totalsRowDxfId="88" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="13" name="순수익" dataDxfId="212" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="87" totalsRowDxfId="86" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="85" totalsRowDxfId="84" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="5" name="입출금" dataDxfId="211" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="210" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="83" totalsRowDxfId="82" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" name="누적" dataDxfId="209" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="81" totalsRowDxfId="80" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="208" dataDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="205" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="77"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="76"/>
-    <tableColumn id="9" name="종목명" dataDxfId="75">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" name="거래일자" dataDxfId="204"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="203"/>
+    <tableColumn id="2" name="종목명" dataDxfId="202"/>
+    <tableColumn id="3" name="상품명" dataDxfId="201">
+      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="74">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="18" name="매입수량" dataDxfId="200"/>
+    <tableColumn id="4" name="매입액" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="197" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="73"/>
-    <tableColumn id="2" name="매입액" dataDxfId="72" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="71" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="70" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="19" name="매도수량" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="194" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="192" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="191" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="69" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="68" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="67" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="66" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="65" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="64" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="12" name="매도비용" dataDxfId="190" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="63" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="13" name="순수익" dataDxfId="189" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="62" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="14" name="입출금" dataDxfId="188"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="187">
+      <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="61" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="60" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="59" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="누적" dataDxfId="186" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4885,42 +6904,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="185" dataDxfId="183" headerRowBorderDxfId="184" tableBorderDxfId="182" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S3"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="47"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="46"/>
-    <tableColumn id="9" name="종목명" dataDxfId="45">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" name="거래일자" dataDxfId="181"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="180"/>
+    <tableColumn id="2" name="종목명" dataDxfId="179">
+      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="44">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="3" name="상품명" dataDxfId="178">
+      <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="43"/>
-    <tableColumn id="2" name="매입액"/>
-    <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="42">
-      <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="18" name="매입수량" dataDxfId="177"/>
+    <tableColumn id="4" name="매입액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="174" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="41"/>
-    <tableColumn id="3" name="매도원금"/>
-    <tableColumn id="15" name="매도액"/>
-    <tableColumn id="14" name="이자배당액"/>
-    <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="17" name="매매수익">
-      <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]-CMA_한투1836[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="19" name="매도수량" dataDxfId="173" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="172" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="171" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="170" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="169" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="168" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용">
-      <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="12" name="매도비용" dataDxfId="167" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익">
-      <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="13" name="순수익" dataDxfId="166" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="40">
-      <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="14" name="입출금" dataDxfId="165"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="164">
+      <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="39">
+    <tableColumn id="16" name="누적" dataDxfId="163">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4929,44 +6948,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="38" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
-  <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="37"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="36"/>
-    <tableColumn id="9" name="종목명" dataDxfId="35">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="162" dataDxfId="161" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:T3"/>
+  <tableColumns count="20">
+    <tableColumn id="1" name="거래일자" dataDxfId="160" totalsRowDxfId="159"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="158" totalsRowDxfId="157"/>
+    <tableColumn id="9" name="종목명" dataDxfId="156" totalsRowDxfId="155">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="34">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    <tableColumn id="10" name="상품명" dataDxfId="154" totalsRowDxfId="153">
+      <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="33"/>
-    <tableColumn id="2" name="매입액"/>
-    <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="32">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="7" name="매입수량" dataDxfId="152" totalsRowDxfId="151"/>
+    <tableColumn id="2" name="매입액" dataDxfId="150" totalsRowDxfId="149" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="148" totalsRowDxfId="147" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="146" totalsRowDxfId="145" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="31"/>
-    <tableColumn id="3" name="매도원금"/>
-    <tableColumn id="15" name="매도액"/>
-    <tableColumn id="14" name="이자배당액"/>
-    <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="17" name="매매수익">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="8" name="매도수량" dataDxfId="144" totalsRowDxfId="143" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="142" totalsRowDxfId="141" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="140" totalsRowDxfId="139" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="138" totalsRowDxfId="137" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="136" totalsRowDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="134" totalsRowDxfId="133" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="18" name="매도비용" dataDxfId="132" totalsRowDxfId="131" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="19" name="순수익" dataDxfId="130" totalsRowDxfId="129" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="30">
-      <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="4" name="입출금" dataDxfId="128" totalsRowDxfId="127" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="126" totalsRowDxfId="125" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="29">
+    <tableColumn id="22" name="누적" dataDxfId="124" totalsRowDxfId="123" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="12" name="외화입출금" dataDxfId="122" totalsRowDxfId="121" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5237,9 +7257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7466,7 +9484,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -7476,10 +9494,823 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="35" customWidth="1"/>
+    <col min="20" max="20" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>달러자산</v>
+      </c>
+      <c r="D2" s="9" t="str">
+        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>달러자산 원화평가</v>
+      </c>
+      <c r="E2" s="62">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>22972101</v>
+      </c>
+      <c r="G2">
+        <v>22972101</v>
+      </c>
+      <c r="H2">
+        <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>22972101</v>
+      </c>
+      <c r="R2">
+        <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>SUM($R$2:R2)</f>
+        <v>0</v>
+      </c>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>엔화자산</v>
+      </c>
+      <c r="D3" s="9" t="str">
+        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>엔화자산 원화평가</v>
+      </c>
+      <c r="E3" s="62">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>3314047</v>
+      </c>
+      <c r="G3">
+        <v>3314047</v>
+      </c>
+      <c r="H3">
+        <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3314047</v>
+      </c>
+      <c r="R3">
+        <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUM($R$3:R3)</f>
+        <v>0</v>
+      </c>
+      <c r="T3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:L2"/>
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="34" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.125" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="46"/>
+      <c r="E2" s="40"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="35" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="16" max="16" width="11.875" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" customWidth="1"/>
+    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
+    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="49"/>
+      <c r="D2"/>
+      <c r="E2" s="40"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2" s="35"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="M2"/>
+      <c r="P2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.375" customWidth="1"/>
+    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" customWidth="1"/>
+    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투ISA예수금</v>
+      </c>
+      <c r="D2" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 ISA 원화예수금</v>
+      </c>
+      <c r="E2" s="40">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>8994</v>
+      </c>
+      <c r="R2">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>8994</v>
+      </c>
+      <c r="S2">
+        <f>SUM($R$2:R2)</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="D3" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="E3" s="40">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1484900</v>
+      </c>
+      <c r="G3">
+        <v>1484900</v>
+      </c>
+      <c r="H3">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1484900</v>
+      </c>
+      <c r="R3">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <f>SUM($R$2:R3)</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>275</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>메리츠캐피탈235-1</v>
+      </c>
+      <c r="D4" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>메리츠캐피탈235-1</v>
+      </c>
+      <c r="E4" s="40">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1049029</v>
+      </c>
+      <c r="G4">
+        <v>1049029</v>
+      </c>
+      <c r="H4">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1049029</v>
+      </c>
+      <c r="R4">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUM($R$2:R4)</f>
+        <v>8994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>45306</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="D5" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="H5" s="5">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>8994</v>
+      </c>
+      <c r="M5">
+        <v>8994</v>
+      </c>
+      <c r="N5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>8994</v>
+      </c>
+      <c r="R5" s="5">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>8994</v>
+      </c>
+      <c r="S5">
+        <f>SUM($R$2:R5)</f>
+        <v>17988</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7630,7 +10461,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -7639,12 +10470,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12110,7 +14941,7 @@
       <c r="F340" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -12118,7 +14949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
@@ -12451,12 +15282,12 @@
       <c r="D15" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -12480,17 +15311,17 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15982,7 +18813,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -15991,6 +18822,2628 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.625" customWidth="1"/>
+    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="50" customWidth="1"/>
+    <col min="9" max="9" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="50">
+        <v>547863</v>
+      </c>
+      <c r="H2" s="50">
+        <v>548019</v>
+      </c>
+      <c r="I2">
+        <f>H2-G2</f>
+        <v>156</v>
+      </c>
+      <c r="J2" s="70">
+        <f>I2/G2</f>
+        <v>2.8474271852634692E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="50">
+        <v>9523204</v>
+      </c>
+      <c r="H3" s="50">
+        <v>9732471</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I5" si="0">H3-G3</f>
+        <v>209267</v>
+      </c>
+      <c r="J3" s="70">
+        <f t="shared" ref="J3:J5" si="1">I3/G3</f>
+        <v>2.1974432134395105E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="50">
+        <v>6123103</v>
+      </c>
+      <c r="H4" s="50">
+        <v>6199116</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>76013</v>
+      </c>
+      <c r="J4" s="70">
+        <f t="shared" si="1"/>
+        <v>1.241413054786111E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>226490</v>
+      </c>
+      <c r="B5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="50">
+        <v>3390170</v>
+      </c>
+      <c r="H5" s="50">
+        <v>3575705</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>185535</v>
+      </c>
+      <c r="J5" s="70">
+        <f t="shared" si="1"/>
+        <v>5.4727344056492745E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F6" t="s">
+        <v>331</v>
+      </c>
+      <c r="G6" s="50">
+        <f>H6/(1+J6)</f>
+        <v>15151735.479356194</v>
+      </c>
+      <c r="H6" s="50">
+        <v>15156281</v>
+      </c>
+      <c r="I6" s="55">
+        <f>H6-G6</f>
+        <v>4545.520643806085</v>
+      </c>
+      <c r="J6" s="70">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" t="s">
+        <v>345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="50">
+        <f t="shared" ref="G7:G16" si="2">H7/(1+J7)</f>
+        <v>9946038.5845661741</v>
+      </c>
+      <c r="H7" s="50">
+        <v>9950017</v>
+      </c>
+      <c r="I7" s="55">
+        <f t="shared" ref="I7:I17" si="3">H7-G7</f>
+        <v>3978.415433825925</v>
+      </c>
+      <c r="J7" s="70">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" t="s">
+        <v>356</v>
+      </c>
+      <c r="F8" t="s">
+        <v>357</v>
+      </c>
+      <c r="G8" s="50">
+        <f t="shared" si="2"/>
+        <v>4195470.0601755939</v>
+      </c>
+      <c r="H8" s="50">
+        <v>4252948</v>
+      </c>
+      <c r="I8" s="55">
+        <f t="shared" si="3"/>
+        <v>57477.939824406058</v>
+      </c>
+      <c r="J8" s="70">
+        <v>1.37E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" t="s">
+        <v>346</v>
+      </c>
+      <c r="D9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" t="s">
+        <v>330</v>
+      </c>
+      <c r="F9" t="s">
+        <v>331</v>
+      </c>
+      <c r="G9" s="50">
+        <f t="shared" si="2"/>
+        <v>4195432.4810227724</v>
+      </c>
+      <c r="H9" s="50">
+        <v>4200467</v>
+      </c>
+      <c r="I9" s="55">
+        <f t="shared" si="3"/>
+        <v>5034.5189772276208</v>
+      </c>
+      <c r="J9" s="70">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C10" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" s="50">
+        <f t="shared" si="2"/>
+        <v>2097774.9055478224</v>
+      </c>
+      <c r="H10" s="50">
+        <v>2109942</v>
+      </c>
+      <c r="I10" s="55">
+        <f t="shared" si="3"/>
+        <v>12167.09445217764</v>
+      </c>
+      <c r="J10" s="70">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>384</v>
+      </c>
+      <c r="C11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F11" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="50">
+        <f t="shared" si="2"/>
+        <v>2097691.312568415</v>
+      </c>
+      <c r="H11" s="50">
+        <v>2107970</v>
+      </c>
+      <c r="I11" s="55">
+        <f t="shared" si="3"/>
+        <v>10278.687431585044</v>
+      </c>
+      <c r="J11" s="70">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="50">
+        <f t="shared" si="2"/>
+        <v>4195230.2371541504</v>
+      </c>
+      <c r="H12" s="50">
+        <v>4245573</v>
+      </c>
+      <c r="I12" s="55">
+        <f t="shared" si="3"/>
+        <v>50342.762845849618</v>
+      </c>
+      <c r="J12" s="70">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" t="s">
+        <v>350</v>
+      </c>
+      <c r="D13" t="s">
+        <v>353</v>
+      </c>
+      <c r="E13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" t="s">
+        <v>359</v>
+      </c>
+      <c r="G13" s="50">
+        <f t="shared" si="2"/>
+        <v>6843270</v>
+      </c>
+      <c r="H13" s="50">
+        <v>6843270</v>
+      </c>
+      <c r="I13" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B14" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" t="s">
+        <v>361</v>
+      </c>
+      <c r="G14" s="50">
+        <f t="shared" si="2"/>
+        <v>2097632.3574415995</v>
+      </c>
+      <c r="H14" s="50">
+        <v>2056309</v>
+      </c>
+      <c r="I14" s="55">
+        <f t="shared" si="3"/>
+        <v>-41323.357441599481</v>
+      </c>
+      <c r="J14" s="70">
+        <v>-1.9699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+      <c r="B15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" t="s">
+        <v>360</v>
+      </c>
+      <c r="F15" t="s">
+        <v>361</v>
+      </c>
+      <c r="G15" s="50">
+        <f t="shared" si="2"/>
+        <v>2097617.3065204145</v>
+      </c>
+      <c r="H15" s="50">
+        <v>2065314</v>
+      </c>
+      <c r="I15" s="55">
+        <f t="shared" si="3"/>
+        <v>-32303.306520414539</v>
+      </c>
+      <c r="J15" s="70">
+        <v>-1.54E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C16" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="50">
+        <f t="shared" si="2"/>
+        <v>3086</v>
+      </c>
+      <c r="H16" s="50">
+        <v>3086</v>
+      </c>
+      <c r="I16" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="70"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="15" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="72" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>농협현금</v>
+      </c>
+      <c r="D2" s="74" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>농협현금성자산</v>
+      </c>
+      <c r="E2" s="75">
+        <v>1</v>
+      </c>
+      <c r="F2" s="76">
+        <v>547863</v>
+      </c>
+      <c r="G2" s="76">
+        <v>547863</v>
+      </c>
+      <c r="H2" s="77">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="79">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="79">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="79">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="76">
+        <v>547863</v>
+      </c>
+      <c r="R2" s="78">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="79">
+        <f>SUM($R$2:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>392</v>
+      </c>
+      <c r="C3" s="72" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>신한정기예금1Y</v>
+      </c>
+      <c r="D3" s="74" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>신한정기예금1Y</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76">
+        <v>9523204</v>
+      </c>
+      <c r="G3" s="76">
+        <v>9523204</v>
+      </c>
+      <c r="H3" s="77">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="79">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="79">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="79">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="76">
+        <v>9523204</v>
+      </c>
+      <c r="R3" s="78">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="78">
+        <f>SUM($R$2:R3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="81" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>다올정기예금1Y</v>
+      </c>
+      <c r="D4" s="84" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>다올정기예금1Y</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86">
+        <v>6123103</v>
+      </c>
+      <c r="G4" s="86">
+        <v>6123103</v>
+      </c>
+      <c r="H4" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="86">
+        <v>6123103</v>
+      </c>
+      <c r="R4" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="88">
+        <f>SUM($R$2:R4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="82">
+        <v>226490</v>
+      </c>
+      <c r="C5" s="81" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>KODEX 코스피</v>
+      </c>
+      <c r="D5" s="84" t="str">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성 KODEX 코스피증권상장지수투자신탁(주식)</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86">
+        <v>3390170</v>
+      </c>
+      <c r="G5" s="87">
+        <v>3390170</v>
+      </c>
+      <c r="H5" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="87">
+        <v>3390170</v>
+      </c>
+      <c r="R5" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="88">
+        <f>SUM($R$2:R5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="82"/>
+      <c r="C6" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D6" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="88">
+        <f>SUM($R$2:R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D7" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="88">
+        <f>SUM($R$2:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="82"/>
+      <c r="C8" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D8" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="88">
+        <f>SUM($R$2:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D9" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="88">
+        <f>SUM($R$2:R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B10" s="82"/>
+      <c r="C10" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="88"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="88">
+        <f>SUM($R$2:R10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="88">
+        <f>SUM($R$2:R11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B12" s="82"/>
+      <c r="C12" s="81" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" s="84" t="e">
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="88"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="88">
+        <f>SUM($R$2:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>547863</v>
+      </c>
+      <c r="D16">
+        <v>548019</v>
+      </c>
+      <c r="E16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="91">
+        <v>44979</v>
+      </c>
+      <c r="B17" s="91">
+        <f t="shared" ref="B17:B36" si="0">EDATE(A17,12)</f>
+        <v>45344</v>
+      </c>
+      <c r="C17" s="92">
+        <v>212400</v>
+      </c>
+      <c r="D17" s="92">
+        <v>219265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="91">
+        <v>44979</v>
+      </c>
+      <c r="B18" s="91">
+        <f t="shared" si="0"/>
+        <v>45344</v>
+      </c>
+      <c r="C18" s="92">
+        <v>389501</v>
+      </c>
+      <c r="D18" s="92">
+        <v>402090</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="91">
+        <v>44979</v>
+      </c>
+      <c r="B19" s="91">
+        <f t="shared" si="0"/>
+        <v>45344</v>
+      </c>
+      <c r="C19" s="92">
+        <v>254275</v>
+      </c>
+      <c r="D19" s="92">
+        <v>262494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="91">
+        <v>44979</v>
+      </c>
+      <c r="B20" s="91">
+        <f t="shared" si="0"/>
+        <v>45344</v>
+      </c>
+      <c r="C20" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D20" s="92">
+        <v>351919</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="91">
+        <v>44981</v>
+      </c>
+      <c r="B21" s="91">
+        <f t="shared" si="0"/>
+        <v>45346</v>
+      </c>
+      <c r="C21" s="92">
+        <v>212483</v>
+      </c>
+      <c r="D21" s="92">
+        <v>219311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="91">
+        <v>45007</v>
+      </c>
+      <c r="B22" s="91">
+        <f t="shared" si="0"/>
+        <v>45373</v>
+      </c>
+      <c r="C22" s="92">
+        <v>212212</v>
+      </c>
+      <c r="D22" s="92">
+        <v>218517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="91">
+        <v>45007</v>
+      </c>
+      <c r="B23" s="91">
+        <f t="shared" si="0"/>
+        <v>45373</v>
+      </c>
+      <c r="C23" s="92">
+        <v>389614</v>
+      </c>
+      <c r="D23" s="92">
+        <v>401191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="91">
+        <v>45007</v>
+      </c>
+      <c r="B24" s="91">
+        <f t="shared" si="0"/>
+        <v>45373</v>
+      </c>
+      <c r="C24" s="92">
+        <v>254450</v>
+      </c>
+      <c r="D24" s="92">
+        <v>262010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="91">
+        <v>45007</v>
+      </c>
+      <c r="B25" s="91">
+        <f t="shared" si="0"/>
+        <v>45373</v>
+      </c>
+      <c r="C25" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D25" s="92">
+        <v>351029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="91">
+        <v>45008</v>
+      </c>
+      <c r="B26" s="91">
+        <f t="shared" si="0"/>
+        <v>45374</v>
+      </c>
+      <c r="C26" s="92">
+        <v>212160</v>
+      </c>
+      <c r="D26" s="92">
+        <v>218444</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="91">
+        <v>45038</v>
+      </c>
+      <c r="B27" s="91">
+        <f t="shared" si="0"/>
+        <v>45404</v>
+      </c>
+      <c r="C27" s="92">
+        <v>216264</v>
+      </c>
+      <c r="D27" s="92">
+        <v>221639</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="91">
+        <v>45038</v>
+      </c>
+      <c r="B28" s="91">
+        <f t="shared" si="0"/>
+        <v>45404</v>
+      </c>
+      <c r="C28" s="92">
+        <v>212180</v>
+      </c>
+      <c r="D28" s="92">
+        <v>217453</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="91">
+        <v>45038</v>
+      </c>
+      <c r="B29" s="91">
+        <f t="shared" si="0"/>
+        <v>45404</v>
+      </c>
+      <c r="C29" s="92">
+        <v>390036</v>
+      </c>
+      <c r="D29" s="92">
+        <v>399730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="91">
+        <v>45038</v>
+      </c>
+      <c r="B30" s="91">
+        <f t="shared" si="0"/>
+        <v>45404</v>
+      </c>
+      <c r="C30" s="92">
+        <v>254675</v>
+      </c>
+      <c r="D30" s="92">
+        <v>261004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="91">
+        <v>45040</v>
+      </c>
+      <c r="B31" s="91">
+        <f t="shared" si="0"/>
+        <v>45406</v>
+      </c>
+      <c r="C31" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D31" s="92">
+        <v>349314</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="91">
+        <v>45068</v>
+      </c>
+      <c r="B32" s="91">
+        <f t="shared" si="0"/>
+        <v>45434</v>
+      </c>
+      <c r="C32" s="92">
+        <v>216196</v>
+      </c>
+      <c r="D32" s="92">
+        <v>220979</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="91">
+        <v>45068</v>
+      </c>
+      <c r="B33" s="91">
+        <f t="shared" si="0"/>
+        <v>45434</v>
+      </c>
+      <c r="C33" s="92">
+        <v>212154</v>
+      </c>
+      <c r="D33" s="92">
+        <v>216847</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="91">
+        <v>45068</v>
+      </c>
+      <c r="B34" s="91">
+        <f t="shared" si="0"/>
+        <v>45434</v>
+      </c>
+      <c r="C34" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D34" s="92">
+        <v>348442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="91">
+        <v>45069</v>
+      </c>
+      <c r="B35" s="91">
+        <f t="shared" si="0"/>
+        <v>45435</v>
+      </c>
+      <c r="C35" s="92">
+        <v>255275</v>
+      </c>
+      <c r="D35" s="92">
+        <v>260900</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="91">
+        <v>45070</v>
+      </c>
+      <c r="B36" s="91">
+        <f t="shared" si="0"/>
+        <v>45436</v>
+      </c>
+      <c r="C36" s="92">
+        <v>257342</v>
+      </c>
+      <c r="D36" s="92">
+        <v>262991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="91">
+        <v>45099</v>
+      </c>
+      <c r="B37" s="91">
+        <f>EDATE(A37,12)</f>
+        <v>45465</v>
+      </c>
+      <c r="C37" s="92">
+        <v>396945</v>
+      </c>
+      <c r="D37" s="92">
+        <v>405338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="91">
+        <v>45099</v>
+      </c>
+      <c r="B38" s="91">
+        <f t="shared" ref="B38:B50" si="1">EDATE(A38,12)</f>
+        <v>45465</v>
+      </c>
+      <c r="C38" s="92">
+        <v>154520</v>
+      </c>
+      <c r="D38" s="92">
+        <v>157787</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="91">
+        <v>45099</v>
+      </c>
+      <c r="B39" s="91">
+        <f t="shared" si="1"/>
+        <v>45465</v>
+      </c>
+      <c r="C39" s="92">
+        <v>257719</v>
+      </c>
+      <c r="D39" s="92">
+        <v>263168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="91">
+        <v>45099</v>
+      </c>
+      <c r="B40" s="91">
+        <f t="shared" si="1"/>
+        <v>45465</v>
+      </c>
+      <c r="C40" s="92">
+        <v>255725</v>
+      </c>
+      <c r="D40" s="92">
+        <v>261132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="91">
+        <v>45099</v>
+      </c>
+      <c r="B41" s="91">
+        <f t="shared" si="1"/>
+        <v>45465</v>
+      </c>
+      <c r="C41" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D41" s="92">
+        <v>348108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="91">
+        <v>45101</v>
+      </c>
+      <c r="B42" s="91">
+        <f t="shared" si="1"/>
+        <v>45467</v>
+      </c>
+      <c r="C42" s="92">
+        <v>216278</v>
+      </c>
+      <c r="D42" s="92">
+        <v>220810</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45131</v>
+      </c>
+      <c r="B43" s="91">
+        <f t="shared" si="1"/>
+        <v>45497</v>
+      </c>
+      <c r="C43" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D43" s="92">
+        <v>347183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>45160</v>
+      </c>
+      <c r="B44" s="91">
+        <f t="shared" si="1"/>
+        <v>45526</v>
+      </c>
+      <c r="C44" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D44" s="92">
+        <v>346279</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45191</v>
+      </c>
+      <c r="B45" s="91">
+        <f t="shared" si="1"/>
+        <v>45557</v>
+      </c>
+      <c r="C45" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D45" s="92">
+        <v>345313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45222</v>
+      </c>
+      <c r="B46" s="91">
+        <f t="shared" si="1"/>
+        <v>45588</v>
+      </c>
+      <c r="C46" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D46" s="92">
+        <v>344493</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>45225</v>
+      </c>
+      <c r="B47" s="91">
+        <f t="shared" si="1"/>
+        <v>45591</v>
+      </c>
+      <c r="C47" s="92">
+        <v>6123103</v>
+      </c>
+      <c r="D47" s="92">
+        <v>6199116</v>
+      </c>
+      <c r="E47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>45252</v>
+      </c>
+      <c r="B48" s="91">
+        <f t="shared" si="1"/>
+        <v>45618</v>
+      </c>
+      <c r="C48" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D48" s="92">
+        <v>343526</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B49" s="91">
+        <f t="shared" si="1"/>
+        <v>45648</v>
+      </c>
+      <c r="C49" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D49" s="92">
+        <v>342441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>45313</v>
+      </c>
+      <c r="B50" s="91">
+        <f t="shared" si="1"/>
+        <v>45679</v>
+      </c>
+      <c r="C50" s="92">
+        <v>340900</v>
+      </c>
+      <c r="D50" s="92">
+        <v>341324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="7" max="10" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="15" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="72" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성변동예금</v>
+      </c>
+      <c r="D2" s="74" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성화재 금리연동형</v>
+      </c>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="79">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="79">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="79">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="78">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="79">
+        <f>SUM($R$2:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="72" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성정기예금1년</v>
+      </c>
+      <c r="D3" s="74" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성화재 이율보증형 1Y</v>
+      </c>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="79">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="79">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="79">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="78">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="78">
+        <f>SUM($R$2:R3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성주가지수펀드</v>
+      </c>
+      <c r="D4" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성퇴직연금인덱스증권투자신탁제1호(주식)_Ce</v>
+      </c>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="88"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="88">
+        <f>SUM($R$2:R4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성채권혼합펀드</v>
+      </c>
+      <c r="D5" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성퇴직연금Active채권종합증권자투자신탁 제1호(채권)_Ce</v>
+      </c>
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="88"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="88">
+        <f>SUM($R$2:R5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>미래채권혼합펀드</v>
+      </c>
+      <c r="D6" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>미래에셋퇴직플랜KRX100인덱스안정형40증권자투자신탁1호(채권혼합)_C-P2e</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="88"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="90"/>
+      <c r="R6" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="88">
+        <f>SUM($R$2:R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>신영채권혼합펀드</v>
+      </c>
+      <c r="D7" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>신영퇴직연금배당40증권자투자신탁(채권혼합)_C-E</v>
+      </c>
+      <c r="E7" s="85"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="88"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="90"/>
+      <c r="R7" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="88">
+        <f>SUM($R$2:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>신영주식혼합펀드</v>
+      </c>
+      <c r="D8" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>신영퇴직연금배당주식증권자투자신탁(주식)_C-E</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="89"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="88">
+        <f>SUM($R$2:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>한투TDF</v>
+      </c>
+      <c r="D9" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>한국투자TDF알아서2045증권투자신탁(주식혼합-재간접형)_C-Re</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="90"/>
+      <c r="R9" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="88">
+        <f>SUM($R$2:R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>KB미국성장주펀드</v>
+      </c>
+      <c r="D10" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>KB미국대표성장주증권자투자신탁(주식)(H)C-퇴직e</v>
+      </c>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="88"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="90"/>
+      <c r="R10" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="88">
+        <f>SUM($R$2:R10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성미국주가지수펀드</v>
+      </c>
+      <c r="D11" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성미국인덱스증권자투자신탁H(주식)_Cpe(퇴직연금)</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="89"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="88">
+        <f>SUM($R$2:R11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성현금</v>
+      </c>
+      <c r="D12" s="84" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <v>삼성화재신탁 대기자금</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="88"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="89"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="89">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="89">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="89">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="88">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="88">
+        <f>SUM($R$2:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>43524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>43868</v>
+      </c>
+      <c r="C19">
+        <v>6432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>44244</v>
+      </c>
+      <c r="C20">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>44609</v>
+      </c>
+      <c r="C21">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B27" t="s">
+        <v>396</v>
+      </c>
+      <c r="C27">
+        <v>1313340</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B28" t="s">
+        <v>396</v>
+      </c>
+      <c r="C28">
+        <v>6470</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29">
+        <v>-5064619</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45314</v>
+      </c>
+      <c r="B30" t="s">
+        <v>399</v>
+      </c>
+      <c r="C30" s="50">
+        <v>5064619</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45320</v>
+      </c>
+      <c r="B31" t="s">
+        <v>396</v>
+      </c>
+      <c r="C31">
+        <v>-20976729</v>
+      </c>
+      <c r="D31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31">
+        <f>19770400</f>
+        <v>19770400</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45321</v>
+      </c>
+      <c r="B32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C32">
+        <v>-6843270</v>
+      </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B33" t="s">
+        <v>396</v>
+      </c>
+      <c r="C33">
+        <v>9915590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B34" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34">
+        <v>4195346</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B35" s="83" t="s">
+        <v>368</v>
+      </c>
+      <c r="C35">
+        <v>2097673</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B36" s="83" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36">
+        <v>2097673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B37" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="C37">
+        <v>4195346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>45322</v>
+      </c>
+      <c r="B38" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="C38">
+        <v>4195346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C39">
+        <v>-10087835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B40" t="s">
+        <v>399</v>
+      </c>
+      <c r="C40" s="50">
+        <v>10087835</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>372</v>
+      </c>
+      <c r="C41">
+        <v>2097672</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>371</v>
+      </c>
+      <c r="C42">
+        <v>2097673</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>45324</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C43">
+        <v>6843270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S22"/>
   <sheetViews>
@@ -17305,7 +22758,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
@@ -17314,7 +22767,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
@@ -17323,7 +22776,7 @@
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" sqref="A1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18349,7 +23802,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -18358,7 +23811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
@@ -18719,7 +24172,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -18727,7 +24180,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -18954,823 +24407,10 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" style="38" customWidth="1"/>
-    <col min="6" max="7" width="10.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="35" customWidth="1"/>
-    <col min="20" max="20" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>달러자산</v>
-      </c>
-      <c r="D2" s="9" t="str">
-        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>달러자산 원화평가</v>
-      </c>
-      <c r="E2" s="62">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>22972101</v>
-      </c>
-      <c r="G2">
-        <v>22972101</v>
-      </c>
-      <c r="H2">
-        <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>22972101</v>
-      </c>
-      <c r="R2">
-        <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>SUM($R$2:R2)</f>
-        <v>0</v>
-      </c>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>엔화자산</v>
-      </c>
-      <c r="D3" s="9" t="str">
-        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>엔화자산 원화평가</v>
-      </c>
-      <c r="E3" s="62">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>3314047</v>
-      </c>
-      <c r="G3">
-        <v>3314047</v>
-      </c>
-      <c r="H3">
-        <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>3314047</v>
-      </c>
-      <c r="R3">
-        <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>SUM($R$3:R3)</f>
-        <v>0</v>
-      </c>
-      <c r="T3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="34" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.125" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="46"/>
-      <c r="E2" s="40"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="35" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="13.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="16" max="16" width="11.875" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.875" customWidth="1"/>
-    <col min="19" max="19" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" customWidth="1"/>
-    <col min="22" max="22" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="49"/>
-      <c r="D2"/>
-      <c r="E2" s="40"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2" s="35"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="M2"/>
-      <c r="P2"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="13.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="15" max="15" width="11.875" style="5" customWidth="1"/>
-    <col min="16" max="16" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" customWidth="1"/>
-    <col min="18" max="18" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.25" customWidth="1"/>
-    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>한투ISA예수금</v>
-      </c>
-      <c r="D2" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 ISA 원화예수금</v>
-      </c>
-      <c r="E2" s="40">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>8994</v>
-      </c>
-      <c r="R2">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>8994</v>
-      </c>
-      <c r="S2">
-        <f>SUM($R$2:R2)</f>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>삼척블루파워9</v>
-      </c>
-      <c r="D3" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>삼척블루파워9</v>
-      </c>
-      <c r="E3" s="40">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1484900</v>
-      </c>
-      <c r="G3">
-        <v>1484900</v>
-      </c>
-      <c r="H3">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1484900</v>
-      </c>
-      <c r="R3">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>SUM($R$2:R3)</f>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45292</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>메리츠캐피탈235-1</v>
-      </c>
-      <c r="D4" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>메리츠캐피탈235-1</v>
-      </c>
-      <c r="E4" s="40">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1049029</v>
-      </c>
-      <c r="G4">
-        <v>1049029</v>
-      </c>
-      <c r="H4">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1049029</v>
-      </c>
-      <c r="R4">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>SUM($R$2:R4)</f>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>45306</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" s="9" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>삼척블루파워9</v>
-      </c>
-      <c r="D5" s="33" t="str">
-        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>삼척블루파워9</v>
-      </c>
-      <c r="E5" s="40"/>
-      <c r="H5" s="5">
-        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>8994</v>
-      </c>
-      <c r="M5">
-        <v>8994</v>
-      </c>
-      <c r="N5">
-        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5">
-        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
-        <v>8994</v>
-      </c>
-      <c r="R5" s="5">
-        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
-        <v>8994</v>
-      </c>
-      <c r="S5">
-        <f>SUM($R$2:R5)</f>
-        <v>17988</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/trade.xlsx
+++ b/trade.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\OneDrive\1. 프로젝트\my_asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" firstSheet="7" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <sheet name="각종정보" sheetId="8" r:id="rId19"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId20"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId21"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -57,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="415">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1476,9 +1473,6 @@
   <si>
     <t>누적</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CASH_NHI</t>
   </si>
   <si>
     <t>매입일</t>
@@ -2009,832 +2003,6 @@
   </cellStyles>
   <dxfs count="268">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
     <dxf>
@@ -3098,7 +2266,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general"/>
     </dxf>
     <dxf>
       <font>
@@ -3167,7 +2334,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3255,15 +2422,256 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3271,16 +2679,36 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -3301,112 +2729,32 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
       <font>
@@ -3424,132 +2772,18 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -3557,36 +2791,16 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -5462,6 +4676,25 @@
         <name val="맑은 고딕"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5679,6 +4912,14 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6381,30 +5622,30 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </bottom>
       </border>
     </dxf>
@@ -6480,6 +5721,41 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
@@ -7064,30 +6340,30 @@
     <dxf>
       <border outline="0">
         <top style="thin">
-          <color rgb="FF9BC2E6"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color rgb="FF9BC2E6"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </left>
         <right style="thin">
-          <color rgb="FF9BC2E6"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </right>
         <top style="thin">
-          <color rgb="FF9BC2E6"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
+          <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
     </dxf>
@@ -7128,14 +6404,63 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="맑은 고딕"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7153,6 +6478,22 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7170,6 +6511,659 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7197,55 +7191,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="자산정보"/>
-      <sheetName val="연금종목정보"/>
-      <sheetName val="삼성DC"/>
-      <sheetName val="농협IRP"/>
-      <sheetName val="엔투저축연금"/>
-      <sheetName val="연금거래내역"/>
-      <sheetName val="한투원화"/>
-      <sheetName val="불리오달러"/>
-      <sheetName val="한투달러"/>
-      <sheetName val="한투엔화"/>
-      <sheetName val="외화자산평가"/>
-      <sheetName val="나무원화"/>
-      <sheetName val="한투CMA"/>
-      <sheetName val="한투ISA"/>
-      <sheetName val="별도원화"/>
-      <sheetName val="현금흐름"/>
-      <sheetName val="급여및지출"/>
-      <sheetName val="각종정보"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7274,24 +7219,24 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="33" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="80" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S25"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="32"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="31"/>
-    <tableColumn id="9" name="종목명" dataDxfId="30">
+    <tableColumn id="1" name="거래일자" dataDxfId="79"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="78"/>
+    <tableColumn id="9" name="종목명" dataDxfId="77">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="29">
+    <tableColumn id="10" name="상품명" dataDxfId="76">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="28"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="75"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="27">
+    <tableColumn id="16" name="매입비용" dataDxfId="74">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="26"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="73"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7306,10 +7251,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="25">
+    <tableColumn id="21" name="순현금수입" dataDxfId="72">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="24">
+    <tableColumn id="22" name="누적" dataDxfId="71">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7318,24 +7263,24 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="76" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="70" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="75"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="74"/>
-    <tableColumn id="9" name="종목명" dataDxfId="73">
+    <tableColumn id="1" name="거래일자" dataDxfId="69"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="68"/>
+    <tableColumn id="9" name="종목명" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="72">
+    <tableColumn id="10" name="상품명" dataDxfId="66">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="71"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="65"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="70">
+    <tableColumn id="16" name="매입비용" dataDxfId="64">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="69"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="63"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7350,10 +7295,10 @@
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="68">
+    <tableColumn id="21" name="순현금수입" dataDxfId="62">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="67">
+    <tableColumn id="22" name="누적" dataDxfId="61">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7362,42 +7307,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="64"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="63"/>
-    <tableColumn id="9" name="종목명" dataDxfId="62">
+    <tableColumn id="1" name="거래일자" dataDxfId="58"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="57"/>
+    <tableColumn id="9" name="종목명" dataDxfId="56">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="61">
+    <tableColumn id="10" name="상품명" dataDxfId="55">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="60"/>
-    <tableColumn id="2" name="매입액" dataDxfId="59" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="58" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="57" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="54"/>
+    <tableColumn id="2" name="매입액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="51" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="54" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="51" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="47" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="46" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="45" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="50" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="44" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="49" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="43" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="47" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="42" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="41" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="46" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="40" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7406,24 +7351,24 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="86" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="39" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="85"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="84"/>
-    <tableColumn id="9" name="종목명" dataDxfId="83">
+    <tableColumn id="1" name="거래일자" dataDxfId="38"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="37"/>
+    <tableColumn id="9" name="종목명" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="82">
+    <tableColumn id="10" name="상품명" dataDxfId="35">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="81"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="34"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="80">
+    <tableColumn id="16" name="매입비용" dataDxfId="33">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="79"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="32"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7438,10 +7383,10 @@
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="78">
+    <tableColumn id="21" name="순현금수입" dataDxfId="31">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="77">
+    <tableColumn id="22" name="누적" dataDxfId="30">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7450,42 +7395,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="105"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="104"/>
-    <tableColumn id="9" name="종목명" dataDxfId="103">
+    <tableColumn id="1" name="거래일자" dataDxfId="27"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="26"/>
+    <tableColumn id="9" name="종목명" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="102">
+    <tableColumn id="10" name="상품명" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="101"/>
-    <tableColumn id="2" name="매입액" dataDxfId="100" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="99" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="98" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="23"/>
+    <tableColumn id="2" name="매입액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="20" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="97" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="96" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="95" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="94" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="93" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="92" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="91" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="13" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="90" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="12" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="89" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="88" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="10" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="87" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="9" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7494,28 +7439,28 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="44"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="43"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="42" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="41" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="7"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="6"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="4" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="40" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="39" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
     <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="37"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="0"/>
     <tableColumn id="4" name="종목명"/>
     <tableColumn id="5" name="통화"/>
     <tableColumn id="6" name="계좌"/>
@@ -7598,7 +7543,7 @@
     <tableColumn id="18" name="순현금수입" dataDxfId="237" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="23" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="236" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7607,42 +7552,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="236" headerRowBorderDxfId="235" tableBorderDxfId="234" totalsRowBorderDxfId="233" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="235" headerRowBorderDxfId="234" tableBorderDxfId="233" totalsRowBorderDxfId="232" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S12"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="232"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="231"/>
-    <tableColumn id="3" name="종목명" dataDxfId="230">
+    <tableColumn id="1" name="거래일자" dataDxfId="231"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="230"/>
+    <tableColumn id="3" name="종목명" dataDxfId="229">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="229">
+    <tableColumn id="4" name="상품명" dataDxfId="228">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="225" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="224" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="220" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="219" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="220" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="219" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="218" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="218" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="217" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="217" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="216" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="216"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="215" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="215"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="214" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="214" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="213" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7651,86 +7596,70 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="22" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="212" headerRowBorderDxfId="211" tableBorderDxfId="210" totalsRowBorderDxfId="209" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="18"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="17"/>
-    <tableColumn id="3" name="종목명" dataDxfId="16">
-      <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],[1]!연금종목정보[#Data],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="15">
-      <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],[1]!연금종목정보[#Data],3,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="12" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="11" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>[1]!불리오[[#This Row],[현금지출]]-[1]!불리오[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="10" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="7" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="5" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>[1]!불리오[[#This Row],[매도액]]-[1]!불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="4" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>[1]!불리오[[#This Row],[매도액]]+[1]!불리오[[#This Row],[이자배당액]]-[1]!불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="3" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>[1]!불리오[[#This Row],[매매수익]]+[1]!불리오[[#This Row],[이자배당액]]-[1]!불리오[[#This Row],[매도비용]]-[1]!불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="2"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="1" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>[1]!불리오[[#This Row],[입출금]]+[1]!불리오[[#This Row],[현금수입]]-[1]!불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="0" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="거래일자" dataDxfId="208"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="207"/>
+    <tableColumn id="3" name="종목명" dataDxfId="206"/>
+    <tableColumn id="4" name="상품명" dataDxfId="205"/>
+    <tableColumn id="5" name="매입수량" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="매도수량" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도비용" dataDxfId="194" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="순수익" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="입출금" dataDxfId="192"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="191" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="누적" dataDxfId="190" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S28"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="35"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="36"/>
-    <tableColumn id="9" name="종목명" dataDxfId="211">
+    <tableColumn id="1" name="거래일자" dataDxfId="187"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="186"/>
+    <tableColumn id="9" name="종목명" dataDxfId="185">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="210">
+    <tableColumn id="10" name="상품명" dataDxfId="184">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="209"/>
-    <tableColumn id="2" name="매입액" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="206" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="183"/>
+    <tableColumn id="2" name="매입액" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="180" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="200" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="199" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="173" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="198" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="172" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="196" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="입출금" dataDxfId="171" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="170" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="34" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" name="누적" dataDxfId="169" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7739,40 +7668,40 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="195" dataDxfId="193" headerRowBorderDxfId="194" tableBorderDxfId="192" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="191"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="190"/>
-    <tableColumn id="2" name="종목명" dataDxfId="189"/>
-    <tableColumn id="3" name="상품명" dataDxfId="188">
+    <tableColumn id="1" name="거래일자" dataDxfId="164"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="163"/>
+    <tableColumn id="2" name="종목명" dataDxfId="162"/>
+    <tableColumn id="3" name="상품명" dataDxfId="161">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="187"/>
-    <tableColumn id="4" name="매입액" dataDxfId="186" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="184" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="160"/>
+    <tableColumn id="4" name="매입액" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="157" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="178" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="153" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="152" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="151" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="177" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="150" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="149" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="175"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="174">
+    <tableColumn id="14" name="입출금" dataDxfId="148"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="147">
       <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="173" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="누적" dataDxfId="146" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7781,42 +7710,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S3"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="168"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="167"/>
-    <tableColumn id="2" name="종목명" dataDxfId="166">
+    <tableColumn id="1" name="거래일자" dataDxfId="141"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="140"/>
+    <tableColumn id="2" name="종목명" dataDxfId="139">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="165">
+    <tableColumn id="3" name="상품명" dataDxfId="138">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="164"/>
-    <tableColumn id="4" name="매입액" dataDxfId="163" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="161" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="137"/>
+    <tableColumn id="4" name="매입액" dataDxfId="136" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="134" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="155" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="130" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="129" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="128" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="154" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="127" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="126" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="152"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="151">
+    <tableColumn id="14" name="입출금" dataDxfId="125"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="124">
       <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="150">
+    <tableColumn id="16" name="누적" dataDxfId="123">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7825,45 +7754,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="147" totalsRowDxfId="146"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="145" totalsRowDxfId="144"/>
-    <tableColumn id="9" name="종목명" dataDxfId="143" totalsRowDxfId="142">
+    <tableColumn id="1" name="거래일자" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="9" name="종목명" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="141" totalsRowDxfId="140">
+    <tableColumn id="10" name="상품명" dataDxfId="114" totalsRowDxfId="113">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="139" totalsRowDxfId="138"/>
-    <tableColumn id="2" name="매입액" dataDxfId="137" totalsRowDxfId="136" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="135" totalsRowDxfId="134" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="133" totalsRowDxfId="132" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매입수량" dataDxfId="112" totalsRowDxfId="111"/>
+    <tableColumn id="2" name="매입액" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="131" totalsRowDxfId="130" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="129" totalsRowDxfId="128" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="127" totalsRowDxfId="126" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="125" totalsRowDxfId="124" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="123" totalsRowDxfId="122" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="121" totalsRowDxfId="120" dataCellStyle="쉼표 [0]">
+    <tableColumn id="8" name="매도수량" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="117" totalsRowDxfId="116" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="115" totalsRowDxfId="114" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="외화입출금" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8134,8 +8063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17900,7 +17829,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21979,7 +21908,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD43"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23590,13 +23519,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B1" t="s">
         <v>411</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>412</v>
-      </c>
-      <c r="D1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -23607,7 +23536,7 @@
         <v>45351</v>
       </c>
       <c r="C2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D2">
         <v>5600</v>
@@ -23621,7 +23550,7 @@
         <v>45329</v>
       </c>
       <c r="C3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D3">
         <v>6070</v>
@@ -23635,7 +23564,7 @@
         <v>45339</v>
       </c>
       <c r="C4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D4">
         <v>6510</v>
@@ -23649,7 +23578,7 @@
         <v>45339</v>
       </c>
       <c r="C5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D5">
         <v>6260</v>
@@ -23663,7 +23592,7 @@
         <v>45331</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D6" s="91">
         <v>6470</v>
@@ -23677,7 +23606,7 @@
         <v>45688</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D7" s="91">
         <v>9915590</v>
@@ -23689,7 +23618,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" s="50">
         <v>5064619</v>
@@ -23701,7 +23630,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D9" s="50">
         <v>10087835</v>
@@ -23814,7 +23743,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="A24:E26"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23879,61 +23808,25 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72">
-        <v>45327</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="C2" s="72" t="str">
-        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],[1]!연금종목정보[#Data],2,FALSE)</f>
-        <v>엔투현금</v>
-      </c>
-      <c r="D2" s="74" t="str">
-        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],[1]!연금종목정보[#Data],3,FALSE)</f>
-        <v>엔투연금저축펀드 예수금</v>
-      </c>
-      <c r="E2" s="75">
-        <v>1</v>
-      </c>
-      <c r="F2" s="76">
-        <v>12709251</v>
-      </c>
-      <c r="G2" s="76">
-        <v>12709251</v>
-      </c>
-      <c r="H2" s="77">
-        <f>[1]!불리오[[#This Row],[현금지출]]-[1]!불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
       <c r="I2" s="78"/>
       <c r="J2" s="76"/>
       <c r="K2" s="76"/>
       <c r="L2" s="79"/>
       <c r="M2" s="76"/>
-      <c r="N2" s="79">
-        <f>[1]!불리오[[#This Row],[매도액]]-[1]!불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="79">
-        <f>[1]!불리오[[#This Row],[매도액]]+[1]!불리오[[#This Row],[이자배당액]]-[1]!불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="79">
-        <f>[1]!불리오[[#This Row],[매매수익]]+[1]!불리오[[#This Row],[이자배당액]]-[1]!불리오[[#This Row],[매도비용]]-[1]!불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="76">
-        <v>12709251</v>
-      </c>
-      <c r="R2" s="78">
-        <f>[1]!불리오[[#This Row],[입출금]]+[1]!불리오[[#This Row],[현금수입]]-[1]!불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="79">
-        <f>SUM($R$2:R2)</f>
-        <v>0</v>
-      </c>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -23949,11 +23842,11 @@
   <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25010,7 +24903,7 @@
         <v>6</v>
       </c>
       <c r="J16" s="7">
-        <v>0</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="K16" s="7">
         <v>143.52000000000001</v>
@@ -25023,7 +24916,7 @@
       </c>
       <c r="N16" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>143.52000000000001</v>
+        <v>-1.6799999999999784</v>
       </c>
       <c r="O16" s="11">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
@@ -25031,7 +24924,7 @@
       </c>
       <c r="P16" s="11">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>143.28</v>
+        <v>-1.9199999999999875</v>
       </c>
       <c r="Q16" s="92">
         <v>0</v>
@@ -25077,7 +24970,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="7">
-        <v>0</v>
+        <v>258.32</v>
       </c>
       <c r="K17" s="7">
         <v>278.10000000000002</v>
@@ -25090,7 +24983,7 @@
       </c>
       <c r="N17" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>278.10000000000002</v>
+        <v>19.78000000000003</v>
       </c>
       <c r="O17" s="11">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
@@ -25098,7 +24991,7 @@
       </c>
       <c r="P17" s="11">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>277.63</v>
+        <v>19.310000000000002</v>
       </c>
       <c r="Q17" s="92">
         <v>0</v>
@@ -25144,7 +25037,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="7">
-        <v>0</v>
+        <v>261.44</v>
       </c>
       <c r="K18" s="7">
         <v>285.13</v>
@@ -25157,7 +25050,7 @@
       </c>
       <c r="N18" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>285.13</v>
+        <v>23.689999999999998</v>
       </c>
       <c r="O18" s="11">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
@@ -25165,7 +25058,7 @@
       </c>
       <c r="P18" s="11">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>284.64999999999998</v>
+        <v>23.20999999999998</v>
       </c>
       <c r="Q18" s="92">
         <v>0</v>
@@ -25211,7 +25104,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="7">
-        <v>0</v>
+        <v>316.89999999999998</v>
       </c>
       <c r="K19" s="7">
         <v>314.45</v>
@@ -25224,7 +25117,7 @@
       </c>
       <c r="N19" s="11">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>314.45</v>
+        <v>-2.4499999999999886</v>
       </c>
       <c r="O19" s="11">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
@@ -25232,7 +25125,7 @@
       </c>
       <c r="P19" s="11">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>313.92</v>
+        <v>-2.9799999999999613</v>
       </c>
       <c r="Q19" s="92">
         <v>0</v>
@@ -25586,15 +25479,15 @@
         <v>45329</v>
       </c>
       <c r="B25" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C25" s="1" t="str">
         <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>브라질주식</v>
+        <v>중국주식</v>
       </c>
       <c r="D25" s="9" t="str">
         <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>ISHARES INC MSCI Brazil ETF</v>
+        <v>ISHARES CHINA LARGE-CAP ETF</v>
       </c>
       <c r="E25" s="38">
         <v>2</v>
@@ -25868,7 +25761,7 @@
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
     <sheet name="연금종목정보" sheetId="15" r:id="rId2"/>
     <sheet name="농협IRP" sheetId="18" r:id="rId3"/>
-    <sheet name="농협IRP (2)" sheetId="19" r:id="rId4"/>
-    <sheet name="삼성DC" sheetId="17" r:id="rId5"/>
-    <sheet name="삼성DC (2)" sheetId="20" r:id="rId6"/>
-    <sheet name="엔투저축연금" sheetId="16" r:id="rId7"/>
+    <sheet name="삼성DC" sheetId="17" r:id="rId4"/>
+    <sheet name="엔투저축연금" sheetId="16" r:id="rId5"/>
+    <sheet name="농협IRP (2)" sheetId="19" r:id="rId6"/>
+    <sheet name="삼성DC (2)" sheetId="20" r:id="rId7"/>
     <sheet name="불리오달러" sheetId="1" r:id="rId8"/>
     <sheet name="한투달러" sheetId="4" r:id="rId9"/>
     <sheet name="한투엔화" sheetId="10" r:id="rId10"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="421">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1492,6 +1492,30 @@
   </si>
   <si>
     <t>금리연동형</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔투저축연금</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금성</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASH_NHI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔투현금</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NH투자증권 예수금</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1714,7 +1738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1994,6 +2018,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="백분율" xfId="3" builtinId="5"/>
@@ -2002,6 +2029,192 @@
     <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
   <dxfs count="268">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
@@ -5460,49 +5673,14 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5550,6 +5728,269 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5600,7 +6041,42 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -5620,38 +6096,8 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -5661,18 +6107,28 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="0"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5732,6 +6188,341 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -6220,7 +7011,42 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6268,102 +7094,32 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </bottom>
       </border>
     </dxf>
@@ -6404,724 +7160,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
@@ -7130,23 +7168,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7219,24 +7240,24 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="80" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="86" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S25"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="79"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="78"/>
-    <tableColumn id="9" name="종목명" dataDxfId="77">
+    <tableColumn id="1" name="거래일자" dataDxfId="85"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="84"/>
+    <tableColumn id="9" name="종목명" dataDxfId="83">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="76">
+    <tableColumn id="10" name="상품명" dataDxfId="82">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="75"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="81"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="74">
+    <tableColumn id="16" name="매입비용" dataDxfId="80">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="73"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="79"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7251,10 +7272,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="72">
+    <tableColumn id="21" name="순현금수입" dataDxfId="78">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="71">
+    <tableColumn id="22" name="누적" dataDxfId="77">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7263,24 +7284,24 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="70" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="76" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="69"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="68"/>
-    <tableColumn id="9" name="종목명" dataDxfId="67">
+    <tableColumn id="1" name="거래일자" dataDxfId="75"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="74"/>
+    <tableColumn id="9" name="종목명" dataDxfId="73">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="66">
+    <tableColumn id="10" name="상품명" dataDxfId="72">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="65"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="71"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="64">
+    <tableColumn id="16" name="매입비용" dataDxfId="70">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="63"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="69"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7295,10 +7316,10 @@
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="62">
+    <tableColumn id="21" name="순현금수입" dataDxfId="68">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="61">
+    <tableColumn id="22" name="누적" dataDxfId="67">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7307,42 +7328,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="58"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="57"/>
-    <tableColumn id="9" name="종목명" dataDxfId="56">
+    <tableColumn id="1" name="거래일자" dataDxfId="64"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="63"/>
+    <tableColumn id="9" name="종목명" dataDxfId="62">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="55">
+    <tableColumn id="10" name="상품명" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="54"/>
-    <tableColumn id="2" name="매입액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="51" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="60"/>
+    <tableColumn id="2" name="매입액" dataDxfId="59" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="58" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="57" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="47" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="46" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="45" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="54" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="51" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="44" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="50" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="43" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="49" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="42" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="41" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="47" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="40" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="46" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7351,24 +7372,24 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="39" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="38"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="37"/>
-    <tableColumn id="9" name="종목명" dataDxfId="36">
+    <tableColumn id="1" name="거래일자" dataDxfId="44"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="43"/>
+    <tableColumn id="9" name="종목명" dataDxfId="42">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="35">
+    <tableColumn id="10" name="상품명" dataDxfId="41">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="34"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="40"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="33">
+    <tableColumn id="16" name="매입비용" dataDxfId="39">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="32"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="38"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7383,10 +7404,10 @@
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="31">
+    <tableColumn id="21" name="순현금수입" dataDxfId="37">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="30">
+    <tableColumn id="22" name="누적" dataDxfId="36">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7395,42 +7416,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="27"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="26"/>
-    <tableColumn id="9" name="종목명" dataDxfId="25">
+    <tableColumn id="1" name="거래일자" dataDxfId="33"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="32"/>
+    <tableColumn id="9" name="종목명" dataDxfId="31">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="24">
+    <tableColumn id="10" name="상품명" dataDxfId="30">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="23"/>
-    <tableColumn id="2" name="매입액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="20" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="29"/>
+    <tableColumn id="2" name="매입액" dataDxfId="28" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="27" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="26" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="25" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="23" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="20" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="13" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="19" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="12" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="18" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="10" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="16" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="9" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="15" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7439,28 +7460,28 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="14">
   <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="7"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="6"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="4" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="13"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="12"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="10" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
     <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="0"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="6"/>
     <tableColumn id="4" name="종목명"/>
     <tableColumn id="5" name="통화"/>
     <tableColumn id="6" name="계좌"/>
@@ -7485,65 +7506,65 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J16" totalsRowShown="0">
-  <autoFilter ref="A1:J16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17"/>
   <tableColumns count="10">
     <tableColumn id="1" name="종목코드"/>
     <tableColumn id="2" name="종목명"/>
+    <tableColumn id="8" name="평가금액" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
     <tableColumn id="3" name="상품명"/>
     <tableColumn id="4" name="계좌"/>
     <tableColumn id="5" name="자산군"/>
     <tableColumn id="6" name="세부자산군"/>
     <tableColumn id="7" name="장부금액" dataDxfId="262" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>H2/(1+J2)</calculatedColumnFormula>
+      <calculatedColumnFormula>C2/(1+J2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="평가금액" dataDxfId="261" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="평가손익" dataDxfId="260">
-      <calculatedColumnFormula>H2-G2</calculatedColumnFormula>
+    <tableColumn id="9" name="평가손익" dataDxfId="261">
+      <calculatedColumnFormula>C2-H2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="수익률" dataDxfId="259" dataCellStyle="백분율"/>
+    <tableColumn id="10" name="수익률" dataDxfId="260" dataCellStyle="백분율"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="258" headerRowBorderDxfId="257" tableBorderDxfId="256" totalsRowBorderDxfId="255" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="259" headerRowBorderDxfId="258" tableBorderDxfId="257" totalsRowBorderDxfId="256" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="254"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="253"/>
-    <tableColumn id="3" name="종목명" dataDxfId="252">
+    <tableColumn id="1" name="거래일자" dataDxfId="255"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="254"/>
+    <tableColumn id="3" name="종목명" dataDxfId="253">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="251">
-      <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</calculatedColumnFormula>
+    <tableColumn id="4" name="상품명" dataDxfId="4">
+      <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="249" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="247" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="252" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="251" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="249" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="243" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="242" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="247" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="243" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="240" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="242" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="239" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="238"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="237" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="240"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="239" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="236" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="238" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7552,42 +7573,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="235" headerRowBorderDxfId="234" tableBorderDxfId="233" totalsRowBorderDxfId="232" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="237" headerRowBorderDxfId="236" tableBorderDxfId="235" totalsRowBorderDxfId="234" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S12"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="231"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="230"/>
-    <tableColumn id="3" name="종목명" dataDxfId="229">
+    <tableColumn id="1" name="거래일자" dataDxfId="233"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="232"/>
+    <tableColumn id="3" name="종목명" dataDxfId="231">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="228">
-      <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</calculatedColumnFormula>
+    <tableColumn id="4" name="상품명" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="224" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="230" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="229" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="227" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="220" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="219" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="218" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="221" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="217" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="220" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="216" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="219" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="215"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="214" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="218"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="217" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="213" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="216" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R12)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7596,70 +7617,74 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="212" headerRowBorderDxfId="211" tableBorderDxfId="210" totalsRowBorderDxfId="209" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="215" headerRowBorderDxfId="214" tableBorderDxfId="213" totalsRowBorderDxfId="212" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="208"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="207"/>
-    <tableColumn id="3" name="종목명" dataDxfId="206"/>
-    <tableColumn id="4" name="상품명" dataDxfId="205"/>
-    <tableColumn id="5" name="매입수량" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="매도수량" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도비용" dataDxfId="194" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="순수익" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="입출금" dataDxfId="192"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="191" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="누적" dataDxfId="190" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="거래일자" dataDxfId="211"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="210"/>
+    <tableColumn id="3" name="종목명" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="상품명" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="매입수량" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="209" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="매도수량" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도비용" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="순수익" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="입출금" dataDxfId="198"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="누적" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S28"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="187"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="186"/>
-    <tableColumn id="9" name="종목명" dataDxfId="185">
+    <tableColumn id="1" name="거래일자" dataDxfId="193"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="192"/>
+    <tableColumn id="9" name="종목명" dataDxfId="191">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="184">
+    <tableColumn id="10" name="상품명" dataDxfId="190">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="183"/>
-    <tableColumn id="2" name="매입액" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="180" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="189"/>
+    <tableColumn id="2" name="매입액" dataDxfId="188" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="187" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="186" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="180" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="173" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="179" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="172" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="178" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="171" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="170" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="입출금" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="176" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="169" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" name="누적" dataDxfId="175" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7668,40 +7693,40 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="174" dataDxfId="172" headerRowBorderDxfId="173" tableBorderDxfId="171" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="164"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="163"/>
-    <tableColumn id="2" name="종목명" dataDxfId="162"/>
-    <tableColumn id="3" name="상품명" dataDxfId="161">
+    <tableColumn id="1" name="거래일자" dataDxfId="170"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="169"/>
+    <tableColumn id="2" name="종목명" dataDxfId="168"/>
+    <tableColumn id="3" name="상품명" dataDxfId="167">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="160"/>
-    <tableColumn id="4" name="매입액" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="157" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="166"/>
+    <tableColumn id="4" name="매입액" dataDxfId="165" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="164" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="163" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="153" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="152" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="151" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="157" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="150" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="156" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="149" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="155" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="148"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="147">
+    <tableColumn id="14" name="입출금" dataDxfId="154"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="153">
       <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="146" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="누적" dataDxfId="152" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7710,42 +7735,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="145" dataDxfId="143" headerRowBorderDxfId="144" tableBorderDxfId="142" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S3"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="141"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="140"/>
-    <tableColumn id="2" name="종목명" dataDxfId="139">
+    <tableColumn id="1" name="거래일자" dataDxfId="147"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="146"/>
+    <tableColumn id="2" name="종목명" dataDxfId="145">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="138">
+    <tableColumn id="3" name="상품명" dataDxfId="144">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="137"/>
-    <tableColumn id="4" name="매입액" dataDxfId="136" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="134" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="143"/>
+    <tableColumn id="4" name="매입액" dataDxfId="142" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="141" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="140" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="130" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="129" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="128" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="139" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="136" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="134" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="127" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="133" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="126" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="132" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="125"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="124">
+    <tableColumn id="14" name="입출금" dataDxfId="131"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="130">
       <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="123">
+    <tableColumn id="16" name="누적" dataDxfId="129">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7754,45 +7779,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="9" name="종목명" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="1" name="거래일자" dataDxfId="126" totalsRowDxfId="125"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="9" name="종목명" dataDxfId="122" totalsRowDxfId="121">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="114" totalsRowDxfId="113">
+    <tableColumn id="10" name="상품명" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="112" totalsRowDxfId="111"/>
-    <tableColumn id="2" name="매입액" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매입수량" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" name="매입액" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
+    <tableColumn id="8" name="매도수량" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="82" totalsRowDxfId="81" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="외화입출금" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8063,8 +8088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17828,20 +17853,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.625" customWidth="1"/>
-    <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="50" customWidth="1"/>
-    <col min="9" max="9" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="50" customWidth="1"/>
+    <col min="4" max="4" width="46.625" customWidth="1"/>
+    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="11.875" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -17851,23 +17876,23 @@
       <c r="B1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" t="s">
         <v>322</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>323</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>324</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>325</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="H1" s="50" t="s">
         <v>340</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>341</v>
       </c>
       <c r="I1" t="s">
         <v>342</v>
@@ -17883,30 +17908,30 @@
       <c r="B2" t="s">
         <v>390</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="50">
+        <v>548019</v>
+      </c>
+      <c r="D2" t="s">
         <v>327</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>328</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="50">
+      <c r="H2" s="50">
         <v>547863</v>
       </c>
-      <c r="H2" s="50">
-        <v>548019</v>
-      </c>
       <c r="I2">
-        <f>H2-G2</f>
+        <f>C2-H2</f>
         <v>156</v>
       </c>
       <c r="J2" s="70">
-        <f>I2/G2</f>
+        <f>I2/H2</f>
         <v>2.8474271852634692E-4</v>
       </c>
     </row>
@@ -17917,30 +17942,30 @@
       <c r="B3" t="s">
         <v>332</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="50">
+        <v>9732471</v>
+      </c>
+      <c r="D3" t="s">
         <v>332</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>328</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>330</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>331</v>
       </c>
-      <c r="G3" s="50">
+      <c r="H3" s="50">
         <v>9523204</v>
       </c>
-      <c r="H3" s="50">
-        <v>9732471</v>
-      </c>
       <c r="I3">
-        <f t="shared" ref="I3:I5" si="0">H3-G3</f>
+        <f>C3-H3</f>
         <v>209267</v>
       </c>
       <c r="J3" s="70">
-        <f t="shared" ref="J3:J5" si="1">I3/G3</f>
+        <f>I3/H3</f>
         <v>2.1974432134395105E-2</v>
       </c>
     </row>
@@ -17951,30 +17976,30 @@
       <c r="B4" t="s">
         <v>333</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="50">
+        <v>6199116</v>
+      </c>
+      <c r="D4" t="s">
         <v>333</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>328</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>330</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>331</v>
       </c>
-      <c r="G4" s="50">
+      <c r="H4" s="50">
         <v>6123103</v>
       </c>
-      <c r="H4" s="50">
-        <v>6199116</v>
-      </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f>C4-H4</f>
         <v>76013</v>
       </c>
       <c r="J4" s="70">
-        <f t="shared" si="1"/>
+        <f>I4/H4</f>
         <v>1.241413054786111E-2</v>
       </c>
     </row>
@@ -17985,30 +18010,30 @@
       <c r="B5" t="s">
         <v>336</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="50">
+        <v>3575705</v>
+      </c>
+      <c r="D5" t="s">
         <v>337</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>328</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>338</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>339</v>
       </c>
-      <c r="G5" s="50">
+      <c r="H5" s="50">
         <v>3390170</v>
       </c>
-      <c r="H5" s="50">
-        <v>3575705</v>
-      </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f>C5-H5</f>
         <v>185535</v>
       </c>
       <c r="J5" s="70">
-        <f t="shared" si="1"/>
+        <f>I5/H5</f>
         <v>5.4727344056492745E-2</v>
       </c>
     </row>
@@ -18019,27 +18044,27 @@
       <c r="B6" t="s">
         <v>380</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="50">
+        <v>15156281</v>
+      </c>
+      <c r="D6" t="s">
         <v>344</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>353</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>330</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="50">
-        <f>H6/(1+J6)</f>
+      <c r="H6" s="50">
+        <f>C6/(1+J6)</f>
         <v>15151735.479356194</v>
       </c>
-      <c r="H6" s="50">
-        <v>15156281</v>
-      </c>
       <c r="I6" s="55">
-        <f>H6-G6</f>
+        <f>C6-H6</f>
         <v>4545.520643806085</v>
       </c>
       <c r="J6" s="70">
@@ -18053,27 +18078,27 @@
       <c r="B7" t="s">
         <v>379</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="50">
+        <v>9950017</v>
+      </c>
+      <c r="D7" t="s">
         <v>345</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>353</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>330</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>331</v>
       </c>
-      <c r="G7" s="50">
-        <f t="shared" ref="G7:G16" si="2">H7/(1+J7)</f>
+      <c r="H7" s="50">
+        <f>C7/(1+J7)</f>
         <v>9946038.5845661741</v>
       </c>
-      <c r="H7" s="50">
-        <v>9950017</v>
-      </c>
       <c r="I7" s="55">
-        <f t="shared" ref="I7:I16" si="3">H7-G7</f>
+        <f>C7-H7</f>
         <v>3978.415433825925</v>
       </c>
       <c r="J7" s="70">
@@ -18087,27 +18112,27 @@
       <c r="B8" t="s">
         <v>381</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="50">
+        <v>4252948</v>
+      </c>
+      <c r="D8" t="s">
         <v>355</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>353</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>356</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>357</v>
       </c>
-      <c r="G8" s="50">
-        <f t="shared" si="2"/>
+      <c r="H8" s="50">
+        <f>C8/(1+J8)</f>
         <v>4195470.0601755939</v>
       </c>
-      <c r="H8" s="50">
-        <v>4252948</v>
-      </c>
       <c r="I8" s="55">
-        <f t="shared" si="3"/>
+        <f>C8-H8</f>
         <v>57477.939824406058</v>
       </c>
       <c r="J8" s="70">
@@ -18121,27 +18146,27 @@
       <c r="B9" t="s">
         <v>382</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="50">
+        <v>4200467</v>
+      </c>
+      <c r="D9" t="s">
         <v>346</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>353</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>330</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>331</v>
       </c>
-      <c r="G9" s="50">
-        <f t="shared" si="2"/>
+      <c r="H9" s="50">
+        <f>C9/(1+J9)</f>
         <v>4195432.4810227724</v>
       </c>
-      <c r="H9" s="50">
-        <v>4200467</v>
-      </c>
       <c r="I9" s="55">
-        <f t="shared" si="3"/>
+        <f>C9-H9</f>
         <v>5034.5189772276208</v>
       </c>
       <c r="J9" s="70">
@@ -18155,27 +18180,27 @@
       <c r="B10" t="s">
         <v>383</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="50">
+        <v>2109942</v>
+      </c>
+      <c r="D10" t="s">
         <v>347</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>353</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>330</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>331</v>
       </c>
-      <c r="G10" s="50">
-        <f t="shared" si="2"/>
+      <c r="H10" s="50">
+        <f>C10/(1+J10)</f>
         <v>2097774.9055478224</v>
       </c>
-      <c r="H10" s="50">
-        <v>2109942</v>
-      </c>
       <c r="I10" s="55">
-        <f t="shared" si="3"/>
+        <f>C10-H10</f>
         <v>12167.09445217764</v>
       </c>
       <c r="J10" s="70">
@@ -18189,27 +18214,27 @@
       <c r="B11" t="s">
         <v>384</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="50">
+        <v>2107970</v>
+      </c>
+      <c r="D11" t="s">
         <v>348</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>353</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>330</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>331</v>
       </c>
-      <c r="G11" s="50">
-        <f t="shared" si="2"/>
+      <c r="H11" s="50">
+        <f>C11/(1+J11)</f>
         <v>2097691.312568415</v>
       </c>
-      <c r="H11" s="50">
-        <v>2107970</v>
-      </c>
       <c r="I11" s="55">
-        <f t="shared" si="3"/>
+        <f>C11-H11</f>
         <v>10278.687431585044</v>
       </c>
       <c r="J11" s="70">
@@ -18223,27 +18248,27 @@
       <c r="B12" t="s">
         <v>385</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="50">
+        <v>4245573</v>
+      </c>
+      <c r="D12" t="s">
         <v>349</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>353</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>356</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>357</v>
       </c>
-      <c r="G12" s="50">
-        <f t="shared" si="2"/>
+      <c r="H12" s="50">
+        <f>C12/(1+J12)</f>
         <v>4195230.2371541504</v>
       </c>
-      <c r="H12" s="50">
-        <v>4245573</v>
-      </c>
       <c r="I12" s="55">
-        <f t="shared" si="3"/>
+        <f>C12-H12</f>
         <v>50342.762845849618</v>
       </c>
       <c r="J12" s="70">
@@ -18257,27 +18282,27 @@
       <c r="B13" t="s">
         <v>386</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="50">
+        <v>6843270</v>
+      </c>
+      <c r="D13" t="s">
         <v>350</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>353</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>358</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>359</v>
       </c>
-      <c r="G13" s="50">
-        <f t="shared" si="2"/>
+      <c r="H13" s="50">
+        <f>C13/(1+J13)</f>
         <v>6843270</v>
       </c>
-      <c r="H13" s="50">
-        <v>6843270</v>
-      </c>
       <c r="I13" s="55">
-        <f t="shared" si="3"/>
+        <f>C13-H13</f>
         <v>0</v>
       </c>
       <c r="J13" s="70">
@@ -18291,27 +18316,27 @@
       <c r="B14" t="s">
         <v>387</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="50">
+        <v>2056309</v>
+      </c>
+      <c r="D14" t="s">
         <v>351</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>353</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>360</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>361</v>
       </c>
-      <c r="G14" s="50">
-        <f t="shared" si="2"/>
+      <c r="H14" s="50">
+        <f>C14/(1+J14)</f>
         <v>2097632.3574415995</v>
       </c>
-      <c r="H14" s="50">
-        <v>2056309</v>
-      </c>
       <c r="I14" s="55">
-        <f t="shared" si="3"/>
+        <f>C14-H14</f>
         <v>-41323.357441599481</v>
       </c>
       <c r="J14" s="70">
@@ -18325,27 +18350,27 @@
       <c r="B15" t="s">
         <v>388</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="50">
+        <v>2065314</v>
+      </c>
+      <c r="D15" t="s">
         <v>352</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>353</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>360</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>361</v>
       </c>
-      <c r="G15" s="50">
-        <f t="shared" si="2"/>
+      <c r="H15" s="50">
+        <f>C15/(1+J15)</f>
         <v>2097617.3065204145</v>
       </c>
-      <c r="H15" s="50">
-        <v>2065314</v>
-      </c>
       <c r="I15" s="55">
-        <f t="shared" si="3"/>
+        <f>C15-H15</f>
         <v>-32303.306520414539</v>
       </c>
       <c r="J15" s="70">
@@ -18359,34 +18384,60 @@
       <c r="B16" t="s">
         <v>389</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="50">
+        <v>3086</v>
+      </c>
+      <c r="D16" t="s">
         <v>354</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>353</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="50">
-        <f t="shared" si="2"/>
+      <c r="H16" s="50">
+        <f>C16/(1+J16)</f>
         <v>3086</v>
       </c>
-      <c r="H16" s="50">
-        <v>3086</v>
-      </c>
       <c r="I16" s="55">
-        <f t="shared" si="3"/>
+        <f>C16-H16</f>
         <v>0</v>
       </c>
       <c r="J16" s="70">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>418</v>
+      </c>
+      <c r="B17" t="s">
+        <v>419</v>
+      </c>
+      <c r="D17" t="s">
+        <v>420</v>
+      </c>
+      <c r="E17" t="s">
+        <v>415</v>
+      </c>
+      <c r="F17" t="s">
+        <v>416</v>
+      </c>
+      <c r="G17" t="s">
+        <v>417</v>
+      </c>
+      <c r="H17" s="50">
+        <f>C17/(1+J17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="55">
+        <f>C17-H17</f>
+        <v>0</v>
+      </c>
       <c r="J17" s="70"/>
     </row>
   </sheetData>
@@ -21908,12 +21959,13 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="10.25" customWidth="1"/>
@@ -21994,7 +22046,7 @@
         <v>농협현금</v>
       </c>
       <c r="D2" s="74" t="str">
-        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>농협현금성자산</v>
       </c>
       <c r="E2" s="75">
@@ -22051,7 +22103,7 @@
         <v>신한정기예금1Y</v>
       </c>
       <c r="D3" s="74" t="str">
-        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>신한정기예금1Y</v>
       </c>
       <c r="E3" s="75">
@@ -22108,7 +22160,7 @@
         <v>다올정기예금1Y</v>
       </c>
       <c r="D4" s="83" t="str">
-        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>다올정기예금1Y</v>
       </c>
       <c r="E4" s="84">
@@ -22165,7 +22217,7 @@
         <v>KODEX 코스피</v>
       </c>
       <c r="D5" s="83" t="str">
-        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
+        <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성 KODEX 코스피증권상장지수투자신탁(주식)</v>
       </c>
       <c r="E5" s="84">
@@ -22221,10 +22273,845 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="10.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="7" max="10" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="13" max="15" width="10.25" customWidth="1"/>
+    <col min="17" max="17" width="9.625" customWidth="1"/>
+    <col min="18" max="18" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="72" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성변동예금</v>
+      </c>
+      <c r="D2" s="74" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>삼성화재 금리연동형</v>
+      </c>
+      <c r="E2" s="75">
+        <v>1</v>
+      </c>
+      <c r="F2" s="76">
+        <v>15152454</v>
+      </c>
+      <c r="G2" s="77">
+        <v>15152454</v>
+      </c>
+      <c r="H2" s="77">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="79">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="79">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="79">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="80">
+        <v>15152454</v>
+      </c>
+      <c r="R2" s="78">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="79">
+        <f>SUM($R$2:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="72" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성정기예금1년</v>
+      </c>
+      <c r="D3" s="74" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>삼성화재 이율보증형 1Y</v>
+      </c>
+      <c r="E3" s="75">
+        <v>1</v>
+      </c>
+      <c r="F3" s="76">
+        <v>9946500</v>
+      </c>
+      <c r="G3" s="77">
+        <v>9946500</v>
+      </c>
+      <c r="H3" s="77">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="78"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="79">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="79">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="79">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="80">
+        <v>9946500</v>
+      </c>
+      <c r="R3" s="78">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="78">
+        <f>SUM($R$2:R3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성주가지수펀드</v>
+      </c>
+      <c r="D4" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>삼성퇴직연금인덱스증권투자신탁제1호(주식)_Ce</v>
+      </c>
+      <c r="E4" s="84">
+        <v>1</v>
+      </c>
+      <c r="F4" s="85">
+        <v>4195346</v>
+      </c>
+      <c r="G4" s="86">
+        <v>4195346</v>
+      </c>
+      <c r="H4" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="87"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="89">
+        <v>4195346</v>
+      </c>
+      <c r="R4" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="87">
+        <f>SUM($R$2:R4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성채권혼합펀드</v>
+      </c>
+      <c r="D5" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>삼성퇴직연금Active채권종합증권자투자신탁 제1호(채권)_Ce</v>
+      </c>
+      <c r="E5" s="84">
+        <v>1</v>
+      </c>
+      <c r="F5" s="85">
+        <v>4195346</v>
+      </c>
+      <c r="G5" s="86">
+        <v>4195346</v>
+      </c>
+      <c r="H5" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="87"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="89">
+        <v>4195346</v>
+      </c>
+      <c r="R5" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="87">
+        <f>SUM($R$2:R5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="82" t="s">
+        <v>366</v>
+      </c>
+      <c r="C6" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>미래채권혼합펀드</v>
+      </c>
+      <c r="D6" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>미래에셋퇴직플랜KRX100인덱스안정형40증권자투자신탁1호(채권혼합)_C-P2e</v>
+      </c>
+      <c r="E6" s="84">
+        <v>1</v>
+      </c>
+      <c r="F6" s="85">
+        <v>2097673</v>
+      </c>
+      <c r="G6" s="86">
+        <v>2097673</v>
+      </c>
+      <c r="H6" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="87"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="89">
+        <v>2097673</v>
+      </c>
+      <c r="R6" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="87">
+        <f>SUM($R$2:R6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>368</v>
+      </c>
+      <c r="C7" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>신영채권혼합펀드</v>
+      </c>
+      <c r="D7" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>신영퇴직연금배당40증권자투자신탁(채권혼합)_C-E</v>
+      </c>
+      <c r="E7" s="84">
+        <v>1</v>
+      </c>
+      <c r="F7" s="85">
+        <v>2097673</v>
+      </c>
+      <c r="G7" s="86">
+        <v>2097673</v>
+      </c>
+      <c r="H7" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="87"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="89">
+        <v>2097673</v>
+      </c>
+      <c r="R7" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="87">
+        <f>SUM($R$2:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>신영주식혼합펀드</v>
+      </c>
+      <c r="D8" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>신영퇴직연금배당주식증권자투자신탁(주식)_C-E</v>
+      </c>
+      <c r="E8" s="84">
+        <v>1</v>
+      </c>
+      <c r="F8" s="85">
+        <v>4195346</v>
+      </c>
+      <c r="G8" s="86">
+        <v>4195346</v>
+      </c>
+      <c r="H8" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="87"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="88"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="89">
+        <v>4195346</v>
+      </c>
+      <c r="R8" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="87">
+        <f>SUM($R$2:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B9" s="82" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>한투TDF</v>
+      </c>
+      <c r="D9" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>한국투자TDF알아서2045증권투자신탁(주식혼합-재간접형)_C-Re</v>
+      </c>
+      <c r="E9" s="84">
+        <v>1</v>
+      </c>
+      <c r="F9" s="85">
+        <v>6843270</v>
+      </c>
+      <c r="G9" s="86">
+        <v>6843270</v>
+      </c>
+      <c r="H9" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="87"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="89">
+        <v>6843270</v>
+      </c>
+      <c r="R9" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="87">
+        <f>SUM($R$2:R9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>KB미국성장주펀드</v>
+      </c>
+      <c r="D10" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>KB미국대표성장주증권자투자신탁(주식)(H)C-퇴직e</v>
+      </c>
+      <c r="E10" s="84">
+        <v>1</v>
+      </c>
+      <c r="F10" s="85">
+        <v>2097673</v>
+      </c>
+      <c r="G10" s="86">
+        <v>2097673</v>
+      </c>
+      <c r="H10" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="87"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="88"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="89">
+        <v>2097673</v>
+      </c>
+      <c r="R10" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="87">
+        <f>SUM($R$2:R10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B11" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성미국주가지수펀드</v>
+      </c>
+      <c r="D11" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>삼성미국인덱스증권자투자신탁H(주식)_Cpe(퇴직연금)</v>
+      </c>
+      <c r="E11" s="84">
+        <v>1</v>
+      </c>
+      <c r="F11" s="85">
+        <v>2097672</v>
+      </c>
+      <c r="G11" s="86">
+        <v>2097672</v>
+      </c>
+      <c r="H11" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="87"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="88"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="89">
+        <v>2097672</v>
+      </c>
+      <c r="R11" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="87">
+        <f>SUM($R$2:R11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="72">
+        <v>45292</v>
+      </c>
+      <c r="B12" s="82" t="s">
+        <v>373</v>
+      </c>
+      <c r="C12" s="81" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>삼성현금</v>
+      </c>
+      <c r="D12" s="83" t="str">
+        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>삼성화재신탁 대기자금</v>
+      </c>
+      <c r="E12" s="84">
+        <v>1</v>
+      </c>
+      <c r="F12" s="85">
+        <v>3086</v>
+      </c>
+      <c r="G12" s="86">
+        <v>3086</v>
+      </c>
+      <c r="H12" s="86">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="88">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="88">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="88">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="89">
+        <v>3086</v>
+      </c>
+      <c r="R12" s="87">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="87">
+        <f>SUM($R$2:R12)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="72">
+        <v>45327</v>
+      </c>
+      <c r="B2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C2" s="72" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>엔투현금</v>
+      </c>
+      <c r="D2" s="95" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>NH투자증권 예수금</v>
+      </c>
+      <c r="E2" s="75">
+        <v>1</v>
+      </c>
+      <c r="F2" s="76">
+        <v>12709251</v>
+      </c>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="79"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22783,733 +23670,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="10.25" customWidth="1"/>
     <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="7" max="10" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="12.125" customWidth="1"/>
-    <col min="13" max="15" width="10.25" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
-    <col min="18" max="18" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="72" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>삼성변동예금</v>
-      </c>
-      <c r="D2" s="74" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>삼성화재 금리연동형</v>
-      </c>
-      <c r="E2" s="75">
-        <v>1</v>
-      </c>
-      <c r="F2" s="76">
-        <v>15152454</v>
-      </c>
-      <c r="G2" s="77">
-        <v>15152454</v>
-      </c>
-      <c r="H2" s="77">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="79">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="79">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="79">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="80">
-        <v>15152454</v>
-      </c>
-      <c r="R2" s="78">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="79">
-        <f>SUM($R$2:R12)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B3" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="72" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>삼성정기예금1년</v>
-      </c>
-      <c r="D3" s="74" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>삼성화재 이율보증형 1Y</v>
-      </c>
-      <c r="E3" s="75">
-        <v>1</v>
-      </c>
-      <c r="F3" s="76">
-        <v>9946500</v>
-      </c>
-      <c r="G3" s="77">
-        <v>9946500</v>
-      </c>
-      <c r="H3" s="77">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="79">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="79">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="79">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="80">
-        <v>9946500</v>
-      </c>
-      <c r="R3" s="78">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="78">
-        <f>SUM($R$2:R3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>삼성주가지수펀드</v>
-      </c>
-      <c r="D4" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>삼성퇴직연금인덱스증권투자신탁제1호(주식)_Ce</v>
-      </c>
-      <c r="E4" s="84">
-        <v>1</v>
-      </c>
-      <c r="F4" s="85">
-        <v>4195346</v>
-      </c>
-      <c r="G4" s="86">
-        <v>4195346</v>
-      </c>
-      <c r="H4" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="89">
-        <v>4195346</v>
-      </c>
-      <c r="R4" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="87">
-        <f>SUM($R$2:R4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>삼성채권혼합펀드</v>
-      </c>
-      <c r="D5" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>삼성퇴직연금Active채권종합증권자투자신탁 제1호(채권)_Ce</v>
-      </c>
-      <c r="E5" s="84">
-        <v>1</v>
-      </c>
-      <c r="F5" s="85">
-        <v>4195346</v>
-      </c>
-      <c r="G5" s="86">
-        <v>4195346</v>
-      </c>
-      <c r="H5" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="89">
-        <v>4195346</v>
-      </c>
-      <c r="R5" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="87">
-        <f>SUM($R$2:R5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="C6" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>미래채권혼합펀드</v>
-      </c>
-      <c r="D6" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>미래에셋퇴직플랜KRX100인덱스안정형40증권자투자신탁1호(채권혼합)_C-P2e</v>
-      </c>
-      <c r="E6" s="84">
-        <v>1</v>
-      </c>
-      <c r="F6" s="85">
-        <v>2097673</v>
-      </c>
-      <c r="G6" s="86">
-        <v>2097673</v>
-      </c>
-      <c r="H6" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="89">
-        <v>2097673</v>
-      </c>
-      <c r="R6" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="87">
-        <f>SUM($R$2:R6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>신영채권혼합펀드</v>
-      </c>
-      <c r="D7" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>신영퇴직연금배당40증권자투자신탁(채권혼합)_C-E</v>
-      </c>
-      <c r="E7" s="84">
-        <v>1</v>
-      </c>
-      <c r="F7" s="85">
-        <v>2097673</v>
-      </c>
-      <c r="G7" s="86">
-        <v>2097673</v>
-      </c>
-      <c r="H7" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="89">
-        <v>2097673</v>
-      </c>
-      <c r="R7" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="87">
-        <f>SUM($R$2:R7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>신영주식혼합펀드</v>
-      </c>
-      <c r="D8" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>신영퇴직연금배당주식증권자투자신탁(주식)_C-E</v>
-      </c>
-      <c r="E8" s="84">
-        <v>1</v>
-      </c>
-      <c r="F8" s="85">
-        <v>4195346</v>
-      </c>
-      <c r="G8" s="86">
-        <v>4195346</v>
-      </c>
-      <c r="H8" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="89">
-        <v>4195346</v>
-      </c>
-      <c r="R8" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="87">
-        <f>SUM($R$2:R8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>한투TDF</v>
-      </c>
-      <c r="D9" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>한국투자TDF알아서2045증권투자신탁(주식혼합-재간접형)_C-Re</v>
-      </c>
-      <c r="E9" s="84">
-        <v>1</v>
-      </c>
-      <c r="F9" s="85">
-        <v>6843270</v>
-      </c>
-      <c r="G9" s="86">
-        <v>6843270</v>
-      </c>
-      <c r="H9" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="89">
-        <v>6843270</v>
-      </c>
-      <c r="R9" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="87">
-        <f>SUM($R$2:R9)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>KB미국성장주펀드</v>
-      </c>
-      <c r="D10" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>KB미국대표성장주증권자투자신탁(주식)(H)C-퇴직e</v>
-      </c>
-      <c r="E10" s="84">
-        <v>1</v>
-      </c>
-      <c r="F10" s="85">
-        <v>2097673</v>
-      </c>
-      <c r="G10" s="86">
-        <v>2097673</v>
-      </c>
-      <c r="H10" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="89">
-        <v>2097673</v>
-      </c>
-      <c r="R10" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="87">
-        <f>SUM($R$2:R10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>삼성미국주가지수펀드</v>
-      </c>
-      <c r="D11" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>삼성미국인덱스증권자투자신탁H(주식)_Cpe(퇴직연금)</v>
-      </c>
-      <c r="E11" s="84">
-        <v>1</v>
-      </c>
-      <c r="F11" s="85">
-        <v>2097672</v>
-      </c>
-      <c r="G11" s="86">
-        <v>2097672</v>
-      </c>
-      <c r="H11" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="89">
-        <v>2097672</v>
-      </c>
-      <c r="R11" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="87">
-        <f>SUM($R$2:R11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="72">
-        <v>45292</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="81" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
-        <v>삼성현금</v>
-      </c>
-      <c r="D12" s="83" t="str">
-        <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],3,FALSE)</f>
-        <v>삼성화재신탁 대기자금</v>
-      </c>
-      <c r="E12" s="84">
-        <v>1</v>
-      </c>
-      <c r="F12" s="85">
-        <v>3086</v>
-      </c>
-      <c r="G12" s="86">
-        <v>3086</v>
-      </c>
-      <c r="H12" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="89">
-        <v>3086</v>
-      </c>
-      <c r="R12" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="87">
-        <f>SUM($R$2:R12)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
     <col min="6" max="9" width="10.25" customWidth="1"/>
     <col min="11" max="11" width="12.125" customWidth="1"/>
     <col min="12" max="14" width="10.25" customWidth="1"/>
@@ -23735,105 +23908,6 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="I1" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\OneDrive\1. 프로젝트\my_asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Desktop\python\my_asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="422">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -903,10 +903,6 @@
     <t>신흥국</t>
   </si>
   <si>
-    <t>매입장부금액</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>장부금액</t>
   </si>
   <si>
@@ -1101,10 +1097,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>기초장부금액</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>코스피 TR</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1209,22 +1201,10 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>장부금액</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>평가금액</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>평가손익</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익률</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>삼성화재 금리연동형</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1516,6 +1496,30 @@
   </si>
   <si>
     <t>NH투자증권 예수금</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>통화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>원화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>기초평가손익</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부자산군2</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1726,7 +1730,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1734,11 +1738,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1943,9 +1944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="9" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2022,13 +2020,167 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+  <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="268">
+  <dxfs count="264">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2052,14 +2204,16 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2078,7 +2232,7 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
@@ -2086,13 +2240,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2111,21 +2267,23 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2140,18 +2298,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <name val="맑은 고딕"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2162,58 +2320,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -5181,9 +5287,42 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
+        <color theme="1"/>
         <name val="맑은 고딕"/>
-        <scheme val="none"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -5193,6 +5332,216 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5251,6 +5600,335 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF9BC2E6"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9BC2E6"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9BC2E6"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF9BC2E6"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
@@ -5261,6 +5939,41 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5330,7 +6043,480 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5400,7 +6586,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5505,6 +6691,76 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -5673,14 +6929,49 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor theme="4" tint="0.79998168889431442"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -5728,269 +7019,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -6041,286 +7069,6 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <fill>
         <patternFill patternType="solid">
@@ -6341,102 +7089,32 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </left>
         <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </right>
         <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </top>
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
+          <color rgb="FF9BC2E6"/>
         </bottom>
       </border>
     </dxf>
@@ -6477,720 +7155,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF9BC2E6"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9BC2E6"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9BC2E6"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF9BC2E6"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="33" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7215,11 +7183,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:L58" totalsRowShown="0">
-  <autoFilter ref="A1:L58"/>
-  <tableColumns count="12">
-    <tableColumn id="8" name="종목코드" dataDxfId="267"/>
-    <tableColumn id="9" name="종목명" dataDxfId="266">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:J58" totalsRowShown="0">
+  <autoFilter ref="A1:J58"/>
+  <tableColumns count="10">
+    <tableColumn id="8" name="종목코드" dataDxfId="263"/>
+    <tableColumn id="9" name="종목명" dataDxfId="262">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="평가금액"/>
@@ -7229,35 +7197,31 @@
     <tableColumn id="6" name="자산군"/>
     <tableColumn id="4" name="세부자산군"/>
     <tableColumn id="5" name="세부자산군2"/>
-    <tableColumn id="1" name="매입장부금액" dataDxfId="265"/>
-    <tableColumn id="10" name="기초평가손익" dataDxfId="264"/>
-    <tableColumn id="11" name="기초장부금액" dataDxfId="263">
-      <calculatedColumnFormula>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="10" name="기초평가손익" dataDxfId="261"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="86" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="89" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S25"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="85"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="84"/>
-    <tableColumn id="9" name="종목명" dataDxfId="83">
+    <tableColumn id="1" name="거래일자" dataDxfId="88"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="87"/>
+    <tableColumn id="9" name="종목명" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="82">
+    <tableColumn id="10" name="상품명" dataDxfId="85">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="81"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="84"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="80">
+    <tableColumn id="16" name="매입비용" dataDxfId="83">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="79"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="82"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7272,10 +7236,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="78">
+    <tableColumn id="21" name="순현금수입" dataDxfId="81">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="77">
+    <tableColumn id="22" name="누적" dataDxfId="80">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7284,24 +7248,24 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="76" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="79" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="75"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="74"/>
-    <tableColumn id="9" name="종목명" dataDxfId="73">
+    <tableColumn id="1" name="거래일자" dataDxfId="78"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="77"/>
+    <tableColumn id="9" name="종목명" dataDxfId="76">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="72">
+    <tableColumn id="10" name="상품명" dataDxfId="75">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="71"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="74"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="70">
+    <tableColumn id="16" name="매입비용" dataDxfId="73">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="69"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="72"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7316,10 +7280,10 @@
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="68">
+    <tableColumn id="21" name="순현금수입" dataDxfId="71">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="67">
+    <tableColumn id="22" name="누적" dataDxfId="70">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7328,42 +7292,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="64"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="63"/>
-    <tableColumn id="9" name="종목명" dataDxfId="62">
+    <tableColumn id="1" name="거래일자" dataDxfId="67"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="66"/>
+    <tableColumn id="9" name="종목명" dataDxfId="65">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="61">
+    <tableColumn id="10" name="상품명" dataDxfId="64">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="60"/>
-    <tableColumn id="2" name="매입액" dataDxfId="59" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="58" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="57" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="63"/>
+    <tableColumn id="2" name="매입액" dataDxfId="62" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="61" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="60" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="54" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="51" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="59" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="58" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="57" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="54" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="50" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="53" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="49" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="52" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="47" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="50" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="46" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="49" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7372,24 +7336,24 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="45" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="44"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="43"/>
-    <tableColumn id="9" name="종목명" dataDxfId="42">
+    <tableColumn id="1" name="거래일자" dataDxfId="47"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="46"/>
+    <tableColumn id="9" name="종목명" dataDxfId="45">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="41">
+    <tableColumn id="10" name="상품명" dataDxfId="44">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="40"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="43"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="39">
+    <tableColumn id="16" name="매입비용" dataDxfId="42">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="38"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="41"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7404,10 +7368,10 @@
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="37">
+    <tableColumn id="21" name="순현금수입" dataDxfId="40">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="36">
+    <tableColumn id="22" name="누적" dataDxfId="39">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7416,42 +7380,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="33"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="32"/>
-    <tableColumn id="9" name="종목명" dataDxfId="31">
+    <tableColumn id="1" name="거래일자" dataDxfId="36"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="35"/>
+    <tableColumn id="9" name="종목명" dataDxfId="34">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="30">
+    <tableColumn id="10" name="상품명" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="29"/>
-    <tableColumn id="2" name="매입액" dataDxfId="28" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="27" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="26" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="32"/>
+    <tableColumn id="2" name="매입액" dataDxfId="31" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="30" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="29" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="25" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="23" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="20" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="28" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="27" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="26" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="25" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="23" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="19" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="22" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="18" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="21" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="16" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="19" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="15" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="18" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7460,28 +7424,28 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="13"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="12"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="10" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="16"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="15"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="13" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="9" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="12" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
     <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="6"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="9"/>
     <tableColumn id="4" name="종목명"/>
     <tableColumn id="5" name="통화"/>
     <tableColumn id="6" name="계좌"/>
@@ -7511,18 +7475,14 @@
   <tableColumns count="10">
     <tableColumn id="1" name="종목코드"/>
     <tableColumn id="2" name="종목명"/>
-    <tableColumn id="8" name="평가금액" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="평가금액" dataDxfId="260" dataCellStyle="쉼표 [0]"/>
     <tableColumn id="3" name="상품명"/>
     <tableColumn id="4" name="계좌"/>
+    <tableColumn id="11" name="통화"/>
     <tableColumn id="5" name="자산군"/>
     <tableColumn id="6" name="세부자산군"/>
-    <tableColumn id="7" name="장부금액" dataDxfId="262" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>C2/(1+J2)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="9" name="평가손익" dataDxfId="261">
-      <calculatedColumnFormula>C2-H2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="수익률" dataDxfId="260" dataCellStyle="백분율"/>
+    <tableColumn id="13" name="세부자산군2"/>
+    <tableColumn id="12" name="기초평가손익" dataDxfId="0" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7537,34 +7497,34 @@
     <tableColumn id="3" name="종목명" dataDxfId="253">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="4">
+    <tableColumn id="4" name="상품명" dataDxfId="252">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="252" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="251" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="249" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="5" name="매입수량" dataDxfId="251" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="249" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="248" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="247" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="243" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="9" name="매도수량" dataDxfId="247" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="243" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="242" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="242" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="15" name="매도비용" dataDxfId="241" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="16" name="순수익" dataDxfId="240" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="240"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="239" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="17" name="입출금" dataDxfId="239"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="238" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="238" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="237" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7573,43 +7533,43 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="237" headerRowBorderDxfId="236" tableBorderDxfId="235" totalsRowBorderDxfId="234" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="236" headerRowBorderDxfId="235" tableBorderDxfId="234" totalsRowBorderDxfId="233" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S12"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="233"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="232"/>
-    <tableColumn id="3" name="종목명" dataDxfId="231">
+    <tableColumn id="1" name="거래일자" dataDxfId="232"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="231"/>
+    <tableColumn id="3" name="종목명" dataDxfId="230">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="3">
+    <tableColumn id="4" name="상품명" dataDxfId="229">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="230" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="229" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="227" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
+    <tableColumn id="5" name="매입수량" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="8" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="221" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
+    <tableColumn id="9" name="매도수량" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="7" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="220" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
+    <tableColumn id="15" name="매도비용" dataDxfId="6" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="219" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
+    <tableColumn id="16" name="순수익" dataDxfId="5" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="218"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="217" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
+    <tableColumn id="17" name="입출금" dataDxfId="220"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="4" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="216" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R12)</calculatedColumnFormula>
+    <tableColumn id="19" name="누적" dataDxfId="3" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7617,74 +7577,76 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="215" headerRowBorderDxfId="214" tableBorderDxfId="213" totalsRowBorderDxfId="212" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="219" headerRowBorderDxfId="218" tableBorderDxfId="217" totalsRowBorderDxfId="216" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="211"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="210"/>
-    <tableColumn id="3" name="종목명" dataDxfId="2">
+    <tableColumn id="1" name="거래일자" dataDxfId="215"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="214"/>
+    <tableColumn id="3" name="종목명" dataDxfId="213">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="0">
+    <tableColumn id="4" name="상품명" dataDxfId="212">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="1" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="209" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="매도수량" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도비용" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="순수익" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="입출금" dataDxfId="198"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="누적" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="매입수량" dataDxfId="211" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="210" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="209" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="매도수량" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도비용" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="순수익" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="입출금" dataDxfId="199"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="누적" dataDxfId="1" dataCellStyle="쉼표 [0]">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="195" dataDxfId="194" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S28"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="193"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="192"/>
-    <tableColumn id="9" name="종목명" dataDxfId="191">
+    <tableColumn id="1" name="거래일자" dataDxfId="196"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="195"/>
+    <tableColumn id="9" name="종목명" dataDxfId="194">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="190">
+    <tableColumn id="10" name="상품명" dataDxfId="193">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="189"/>
-    <tableColumn id="2" name="매입액" dataDxfId="188" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="187" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="186" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="192"/>
+    <tableColumn id="2" name="매입액" dataDxfId="191" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="190" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="189" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="180" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="188" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="187" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="186" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="183" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="179" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="182" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="178" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="181" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="176" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="입출금" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="179" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="175" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" name="누적" dataDxfId="178" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7693,40 +7655,40 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="174" dataDxfId="172" headerRowBorderDxfId="173" tableBorderDxfId="171" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="177" dataDxfId="175" headerRowBorderDxfId="176" tableBorderDxfId="174" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="170"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="169"/>
-    <tableColumn id="2" name="종목명" dataDxfId="168"/>
-    <tableColumn id="3" name="상품명" dataDxfId="167">
+    <tableColumn id="1" name="거래일자" dataDxfId="173"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="172"/>
+    <tableColumn id="2" name="종목명" dataDxfId="171"/>
+    <tableColumn id="3" name="상품명" dataDxfId="170">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="166"/>
-    <tableColumn id="4" name="매입액" dataDxfId="165" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="164" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="163" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="169"/>
+    <tableColumn id="4" name="매입액" dataDxfId="168" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="167" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="166" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="157" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="165" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="164" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="163" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="160" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="156" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="159" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="155" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="158" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="154"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="153">
+    <tableColumn id="14" name="입출금" dataDxfId="157"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="156">
       <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="152" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="누적" dataDxfId="155" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7735,42 +7697,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="151" dataDxfId="149" headerRowBorderDxfId="150" tableBorderDxfId="148" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S3"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="147"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="146"/>
-    <tableColumn id="2" name="종목명" dataDxfId="145">
+    <tableColumn id="1" name="거래일자" dataDxfId="150"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="149"/>
+    <tableColumn id="2" name="종목명" dataDxfId="148">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="144">
+    <tableColumn id="3" name="상품명" dataDxfId="147">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="143"/>
-    <tableColumn id="4" name="매입액" dataDxfId="142" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="141" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="140" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="146"/>
+    <tableColumn id="4" name="매입액" dataDxfId="145" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="144" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="143" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="139" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="136" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="134" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="142" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="141" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="140" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="139" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="137" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="133" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="136" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="132" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="135" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="131"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="130">
+    <tableColumn id="14" name="입출금" dataDxfId="134"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="133">
       <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="129">
+    <tableColumn id="16" name="누적" dataDxfId="132">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7779,45 +7741,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="128" dataDxfId="127" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:T3"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="9" name="종목명" dataDxfId="122" totalsRowDxfId="121">
+    <tableColumn id="1" name="거래일자" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="127" totalsRowDxfId="126"/>
+    <tableColumn id="9" name="종목명" dataDxfId="125" totalsRowDxfId="124">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="10" name="상품명" dataDxfId="123" totalsRowDxfId="122">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="2" name="매입액" dataDxfId="116" totalsRowDxfId="115" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매입수량" dataDxfId="121" totalsRowDxfId="120"/>
+    <tableColumn id="2" name="매입액" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="117" totalsRowDxfId="116" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="115" totalsRowDxfId="114" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]">
+    <tableColumn id="8" name="매도수량" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="외화입출금" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8086,10 +8048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8103,10 +8065,10 @@
     <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -8114,7 +8076,7 @@
         <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>26</v>
@@ -8135,16 +8097,10 @@
         <v>170</v>
       </c>
       <c r="J1" t="s">
-        <v>248</v>
-      </c>
-      <c r="K1" t="s">
-        <v>311</v>
-      </c>
-      <c r="L1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>113</v>
       </c>
@@ -8173,17 +8129,10 @@
         <v>175</v>
       </c>
       <c r="J2">
-        <v>150.4</v>
-      </c>
-      <c r="K2">
         <v>7.5199999999999818</v>
       </c>
-      <c r="L2">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>157.91999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>114</v>
       </c>
@@ -8212,17 +8161,10 @@
         <v>175</v>
       </c>
       <c r="J3">
-        <v>79.960000000000008</v>
-      </c>
-      <c r="K3">
         <v>-0.1600000000000108</v>
       </c>
-      <c r="L3">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>79.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>115</v>
       </c>
@@ -8251,17 +8193,10 @@
         <v>172</v>
       </c>
       <c r="J4">
-        <v>233</v>
-      </c>
-      <c r="K4">
         <v>-16.72999999999999</v>
       </c>
-      <c r="L4">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>216.27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>116</v>
       </c>
@@ -8290,17 +8225,10 @@
         <v>172</v>
       </c>
       <c r="J5">
-        <v>213.54</v>
-      </c>
-      <c r="K5">
         <v>-3.7800000000000011</v>
       </c>
-      <c r="L5">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>209.76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>117</v>
       </c>
@@ -8329,17 +8257,10 @@
         <v>172</v>
       </c>
       <c r="J6">
-        <v>241.01</v>
-      </c>
-      <c r="K6">
         <v>-15.199999999999989</v>
       </c>
-      <c r="L6">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>225.81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>118</v>
       </c>
@@ -8368,17 +8289,10 @@
         <v>171</v>
       </c>
       <c r="J7">
-        <v>120.1099999999999</v>
-      </c>
-      <c r="K7">
         <v>8.1700000000001012</v>
       </c>
-      <c r="L7">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>128.28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>119</v>
       </c>
@@ -8407,17 +8321,10 @@
         <v>172</v>
       </c>
       <c r="J8">
-        <v>69.140000000000015</v>
-      </c>
-      <c r="K8">
         <v>-1.2900000000000205</v>
       </c>
-      <c r="L8">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>67.849999999999994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>120</v>
       </c>
@@ -8448,15 +8355,8 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>121</v>
       </c>
@@ -8485,17 +8385,10 @@
         <v>172</v>
       </c>
       <c r="J10">
-        <v>228.99</v>
-      </c>
-      <c r="K10">
         <v>21.75</v>
       </c>
-      <c r="L10">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>250.74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>122</v>
       </c>
@@ -8524,17 +8417,10 @@
         <v>172</v>
       </c>
       <c r="J11">
-        <v>387.21</v>
-      </c>
-      <c r="K11">
         <v>9.4300000000000068</v>
       </c>
-      <c r="L11">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>396.64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>123</v>
       </c>
@@ -8563,17 +8449,10 @@
         <v>171</v>
       </c>
       <c r="J12">
-        <v>516.64</v>
-      </c>
-      <c r="K12">
         <v>36.759999999999991</v>
       </c>
-      <c r="L12">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>553.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>124</v>
       </c>
@@ -8602,17 +8481,10 @@
         <v>171</v>
       </c>
       <c r="J13">
-        <v>386.09</v>
-      </c>
-      <c r="K13">
         <v>-8.8299999999999841</v>
       </c>
-      <c r="L13">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>377.26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>125</v>
       </c>
@@ -8641,17 +8513,10 @@
         <v>171</v>
       </c>
       <c r="J14">
-        <v>627.46</v>
-      </c>
-      <c r="K14">
         <v>43.339999999999918</v>
       </c>
-      <c r="L14">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>670.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>126</v>
       </c>
@@ -8682,15 +8547,8 @@
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>127</v>
       </c>
@@ -8721,15 +8579,8 @@
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>128</v>
       </c>
@@ -8758,17 +8609,10 @@
         <v>172</v>
       </c>
       <c r="J17">
-        <v>380.28</v>
-      </c>
-      <c r="K17">
         <v>2.2200000000000273</v>
       </c>
-      <c r="L17">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>382.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>141</v>
       </c>
@@ -8799,15 +8643,8 @@
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>129</v>
       </c>
@@ -8838,15 +8675,8 @@
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>130</v>
       </c>
@@ -8877,15 +8707,8 @@
       <c r="J20">
         <v>0</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>140</v>
       </c>
@@ -8916,15 +8739,8 @@
       <c r="J21">
         <v>0</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>79</v>
       </c>
@@ -8950,17 +8766,10 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <v>10010000</v>
-      </c>
-      <c r="K22">
         <v>714000</v>
       </c>
-      <c r="L22">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>10724000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>80</v>
       </c>
@@ -8988,15 +8797,8 @@
       <c r="J23">
         <v>0</v>
       </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>81</v>
       </c>
@@ -9027,15 +8829,8 @@
       <c r="J24">
         <v>0</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>82</v>
       </c>
@@ -9061,19 +8856,12 @@
         <v>4</v>
       </c>
       <c r="J25">
-        <v>22572209</v>
-      </c>
-      <c r="K25">
         <v>399892</v>
       </c>
-      <c r="L25">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>22972101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>181</v>
@@ -9097,19 +8885,12 @@
         <v>4</v>
       </c>
       <c r="J26">
-        <v>3199997</v>
-      </c>
-      <c r="K26">
         <v>114050</v>
       </c>
-      <c r="L26">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>3314047</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>179</v>
@@ -9138,17 +8919,10 @@
       <c r="J27">
         <v>0</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>178</v>
@@ -9175,19 +8949,12 @@
         <v>177</v>
       </c>
       <c r="J28">
-        <v>575509</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>575509</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>192</v>
@@ -9216,17 +8983,10 @@
       <c r="J29">
         <v>0</v>
       </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>193</v>
@@ -9253,17 +9013,10 @@
         <v>177</v>
       </c>
       <c r="J30">
-        <v>8994</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>8994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>83</v>
       </c>
@@ -9291,15 +9044,8 @@
       <c r="J31">
         <v>0</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>84</v>
       </c>
@@ -9327,15 +9073,8 @@
       <c r="J32">
         <v>0</v>
       </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>85</v>
       </c>
@@ -9363,15 +9102,8 @@
       <c r="J33">
         <v>0</v>
       </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>86</v>
       </c>
@@ -9402,15 +9134,8 @@
       <c r="J34">
         <v>0</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>87</v>
       </c>
@@ -9441,15 +9166,8 @@
       <c r="J35">
         <v>0</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>88</v>
       </c>
@@ -9480,17 +9198,10 @@
       <c r="J36">
         <v>0</v>
       </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>184</v>
@@ -9517,17 +9228,10 @@
         <v>177</v>
       </c>
       <c r="J37">
-        <v>2911</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>2911</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>89</v>
       </c>
@@ -9558,17 +9262,10 @@
       <c r="J38">
         <v>0</v>
       </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B39" t="s">
         <v>163</v>
@@ -9592,19 +9289,12 @@
         <v>138</v>
       </c>
       <c r="J39">
-        <v>3095.73</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>3095.73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>164</v>
@@ -9631,19 +9321,12 @@
         <v>22</v>
       </c>
       <c r="J40">
-        <v>5835.8600000000006</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>5835.8600000000006</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>165</v>
@@ -9670,19 +9353,12 @@
         <v>22</v>
       </c>
       <c r="J41">
-        <v>17176678</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>17176678</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>162</v>
@@ -9706,17 +9382,10 @@
         <v>139</v>
       </c>
       <c r="J42">
-        <v>10043166</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>10043166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>151</v>
       </c>
@@ -9744,15 +9413,8 @@
       <c r="J43">
         <v>0</v>
       </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>154</v>
       </c>
@@ -9778,17 +9440,10 @@
         <v>139</v>
       </c>
       <c r="J44">
-        <v>1484900</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>1484900</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>156</v>
       </c>
@@ -9819,17 +9474,10 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>160</v>
@@ -9853,19 +9501,12 @@
         <v>9</v>
       </c>
       <c r="J46">
-        <v>956000</v>
-      </c>
-      <c r="K46">
         <v>164000</v>
       </c>
-      <c r="L46">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>1120000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>161</v>
@@ -9889,17 +9530,10 @@
         <v>139</v>
       </c>
       <c r="J47">
-        <v>1049029</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>1049029</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>227</v>
       </c>
@@ -9928,17 +9562,10 @@
         <v>189</v>
       </c>
       <c r="J48">
-        <v>359653</v>
-      </c>
-      <c r="K48">
         <v>-2674</v>
       </c>
-      <c r="L48">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>356979</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>199</v>
       </c>
@@ -9964,17 +9591,10 @@
         <v>72</v>
       </c>
       <c r="J49">
-        <v>2932800</v>
-      </c>
-      <c r="K49">
         <v>57600</v>
       </c>
-      <c r="L49">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>2990400</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>202</v>
       </c>
@@ -10003,19 +9623,12 @@
         <v>91</v>
       </c>
       <c r="J50">
-        <v>2837.55</v>
-      </c>
-      <c r="K50">
         <v>30</v>
       </c>
-      <c r="L50">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>2867.55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>229</v>
@@ -10042,19 +9655,12 @@
         <v>103</v>
       </c>
       <c r="J51">
-        <v>3014850</v>
-      </c>
-      <c r="K51">
         <v>57570</v>
       </c>
-      <c r="L51">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>3072420</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="31" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>231</v>
@@ -10078,19 +9684,12 @@
         <v>72</v>
       </c>
       <c r="J52">
-        <v>4985110</v>
-      </c>
-      <c r="K52">
         <v>183365</v>
       </c>
-      <c r="L52">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>5168475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>233</v>
@@ -10117,17 +9716,10 @@
         <v>236</v>
       </c>
       <c r="J53">
-        <v>1992960</v>
-      </c>
-      <c r="K53">
         <v>11520</v>
       </c>
-      <c r="L53">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>2004480</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
         <v>238</v>
       </c>
@@ -10156,17 +9748,10 @@
         <v>236</v>
       </c>
       <c r="J54">
-        <v>1956.13</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>1956.13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="31" t="s">
         <v>242</v>
       </c>
@@ -10192,19 +9777,12 @@
         <v>72</v>
       </c>
       <c r="J55">
-        <v>4983240</v>
-      </c>
-      <c r="K55">
         <v>-443800</v>
       </c>
-      <c r="L55">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>4539440</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>243</v>
@@ -10231,19 +9809,12 @@
         <v>244</v>
       </c>
       <c r="J56">
-        <v>3013045</v>
-      </c>
-      <c r="K56">
         <v>20615</v>
       </c>
-      <c r="L56">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>3033660</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>245</v>
@@ -10272,47 +9843,33 @@
       <c r="J57">
         <v>0</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <v>359210</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58" t="s">
+        <v>313</v>
+      </c>
+      <c r="E58" t="s">
         <v>314</v>
       </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>315</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>316</v>
       </c>
-      <c r="F58" t="s">
+      <c r="H58" t="s">
         <v>317</v>
       </c>
-      <c r="G58" t="s">
-        <v>318</v>
-      </c>
-      <c r="H58" t="s">
-        <v>319</v>
-      </c>
       <c r="J58" s="5">
-        <v>0</v>
-      </c>
-      <c r="K58" s="5">
-        <v>0</v>
-      </c>
-      <c r="L58" s="5">
-        <f>표3[[#This Row],[매입장부금액]]+표3[[#This Row],[기초평가손익]]</f>
         <v>0</v>
       </c>
     </row>
@@ -10726,7 +10283,7 @@
         <v>45292</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -10893,7 +10450,7 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -10960,7 +10517,7 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11027,7 +10584,7 @@
         <v>45292</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11094,7 +10651,7 @@
         <v>45292</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11228,7 +10785,7 @@
         <v>45292</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11295,7 +10852,7 @@
         <v>45292</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11362,7 +10919,7 @@
         <v>45292</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11496,7 +11053,7 @@
         <v>45292</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C11" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11563,7 +11120,7 @@
         <v>45293</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11682,7 +11239,7 @@
         <v>45293</v>
       </c>
       <c r="B14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C14" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11791,7 +11348,7 @@
         <v>45294</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11838,7 +11395,7 @@
         <v>45295</v>
       </c>
       <c r="B17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C17" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11885,7 +11442,7 @@
         <v>45296</v>
       </c>
       <c r="B18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C18" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11929,7 +11486,7 @@
         <v>45299</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11978,7 +11535,7 @@
         <v>45312</v>
       </c>
       <c r="B20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12022,7 +11579,7 @@
         <v>45313</v>
       </c>
       <c r="B21" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12118,7 +11675,7 @@
         <v>45324</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12165,7 +11722,7 @@
         <v>45327</v>
       </c>
       <c r="B24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12215,7 +11772,7 @@
         <v>45328</v>
       </c>
       <c r="B25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12358,7 +11915,7 @@
         <v>45292</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="9" t="str">
         <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12492,7 +12049,7 @@
         <v>45292</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C4" s="9" t="str">
         <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -17853,8 +17410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17863,144 +17420,128 @@
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="46.625" customWidth="1"/>
-    <col min="6" max="6" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="11.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="D1" t="s">
         <v>320</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="50" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" t="s">
         <v>322</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>323</v>
       </c>
-      <c r="F1" t="s">
-        <v>324</v>
-      </c>
-      <c r="G1" t="s">
-        <v>325</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>340</v>
-      </c>
       <c r="I1" t="s">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="J1" t="s">
-        <v>343</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="C2" s="50">
         <v>548019</v>
       </c>
       <c r="D2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
         <v>327</v>
       </c>
-      <c r="E2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="50">
-        <v>547863</v>
-      </c>
-      <c r="I2">
-        <f>C2-H2</f>
-        <v>156</v>
-      </c>
-      <c r="J2" s="70">
-        <f>I2/H2</f>
-        <v>2.8474271852634692E-4</v>
+      <c r="J2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C3" s="50">
         <v>9732471</v>
       </c>
       <c r="D3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" t="s">
         <v>328</v>
       </c>
-      <c r="F3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" t="s">
-        <v>331</v>
-      </c>
-      <c r="H3" s="50">
-        <v>9523204</v>
-      </c>
-      <c r="I3">
-        <f>C3-H3</f>
-        <v>209267</v>
-      </c>
-      <c r="J3" s="70">
-        <f>I3/H3</f>
-        <v>2.1974432134395105E-2</v>
+      <c r="H3" t="s">
+        <v>329</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C4" s="50">
         <v>6199116</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G4" t="s">
         <v>328</v>
       </c>
-      <c r="F4" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" t="s">
-        <v>331</v>
-      </c>
-      <c r="H4" s="50">
-        <v>6123103</v>
-      </c>
-      <c r="I4">
-        <f>C4-H4</f>
-        <v>76013</v>
-      </c>
-      <c r="J4" s="70">
-        <f>I4/H4</f>
-        <v>1.241413054786111E-2</v>
+      <c r="H4" t="s">
+        <v>329</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -18008,437 +17549,377 @@
         <v>226490</v>
       </c>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C5" s="50">
         <v>3575705</v>
       </c>
       <c r="D5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="s">
+        <v>417</v>
+      </c>
+      <c r="G5" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" t="s">
         <v>337</v>
       </c>
-      <c r="E5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F5" t="s">
-        <v>338</v>
-      </c>
-      <c r="G5" t="s">
-        <v>339</v>
-      </c>
-      <c r="H5" s="50">
-        <v>3390170</v>
-      </c>
-      <c r="I5">
-        <f>C5-H5</f>
-        <v>185535</v>
-      </c>
-      <c r="J5" s="70">
-        <f>I5/H5</f>
-        <v>5.4727344056492745E-2</v>
+      <c r="J5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B6" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C6" s="50">
         <v>15156281</v>
       </c>
       <c r="D6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="G6" t="s">
-        <v>331</v>
-      </c>
-      <c r="H6" s="50">
-        <f>C6/(1+J6)</f>
-        <v>15151735.479356194</v>
-      </c>
-      <c r="I6" s="55">
-        <f>C6-H6</f>
-        <v>4545.520643806085</v>
-      </c>
-      <c r="J6" s="70">
-        <v>2.9999999999999997E-4</v>
+        <v>328</v>
+      </c>
+      <c r="H6" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C7" s="50">
         <v>9950017</v>
       </c>
       <c r="D7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F7" t="s">
-        <v>330</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H7" s="50">
-        <f>C7/(1+J7)</f>
-        <v>9946038.5845661741</v>
-      </c>
-      <c r="I7" s="55">
-        <f>C7-H7</f>
-        <v>3978.415433825925</v>
-      </c>
-      <c r="J7" s="70">
-        <v>4.0000000000000002E-4</v>
+        <v>328</v>
+      </c>
+      <c r="H7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C8" s="50">
         <v>4252948</v>
       </c>
       <c r="D8" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E8" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F8" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="G8" t="s">
-        <v>357</v>
-      </c>
-      <c r="H8" s="50">
-        <f>C8/(1+J8)</f>
-        <v>4195470.0601755939</v>
-      </c>
-      <c r="I8" s="55">
-        <f>C8-H8</f>
-        <v>57477.939824406058</v>
-      </c>
-      <c r="J8" s="70">
-        <v>1.37E-2</v>
+        <v>351</v>
+      </c>
+      <c r="H8" t="s">
+        <v>352</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C9" s="50">
         <v>4200467</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F9" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="G9" t="s">
-        <v>331</v>
-      </c>
-      <c r="H9" s="50">
-        <f>C9/(1+J9)</f>
-        <v>4195432.4810227724</v>
-      </c>
-      <c r="I9" s="55">
-        <f>C9-H9</f>
-        <v>5034.5189772276208</v>
-      </c>
-      <c r="J9" s="70">
-        <v>1.1999999999999999E-3</v>
+        <v>328</v>
+      </c>
+      <c r="H9" t="s">
+        <v>329</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C10" s="50">
         <v>2109942</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F10" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="G10" t="s">
-        <v>331</v>
-      </c>
-      <c r="H10" s="50">
-        <f>C10/(1+J10)</f>
-        <v>2097774.9055478224</v>
-      </c>
-      <c r="I10" s="55">
-        <f>C10-H10</f>
-        <v>12167.09445217764</v>
-      </c>
-      <c r="J10" s="70">
-        <v>5.7999999999999996E-3</v>
+        <v>328</v>
+      </c>
+      <c r="H10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="C11" s="50">
         <v>2107970</v>
       </c>
       <c r="D11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" t="s">
         <v>348</v>
       </c>
-      <c r="E11" t="s">
-        <v>353</v>
-      </c>
       <c r="F11" t="s">
-        <v>330</v>
+        <v>418</v>
       </c>
       <c r="G11" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="50">
-        <f>C11/(1+J11)</f>
-        <v>2097691.312568415</v>
-      </c>
-      <c r="I11" s="55">
-        <f>C11-H11</f>
-        <v>10278.687431585044</v>
-      </c>
-      <c r="J11" s="70">
-        <v>4.8999999999999998E-3</v>
+        <v>328</v>
+      </c>
+      <c r="H11" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C12" s="50">
         <v>4245573</v>
       </c>
       <c r="D12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E12" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>356</v>
+        <v>417</v>
       </c>
       <c r="G12" t="s">
-        <v>357</v>
-      </c>
-      <c r="H12" s="50">
-        <f>C12/(1+J12)</f>
-        <v>4195230.2371541504</v>
-      </c>
-      <c r="I12" s="55">
-        <f>C12-H12</f>
-        <v>50342.762845849618</v>
-      </c>
-      <c r="J12" s="70">
-        <v>1.2E-2</v>
+        <v>351</v>
+      </c>
+      <c r="H12" t="s">
+        <v>352</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C13" s="50">
         <v>6843270</v>
       </c>
       <c r="D13" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="E13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" t="s">
+        <v>417</v>
+      </c>
+      <c r="G13" t="s">
         <v>353</v>
       </c>
-      <c r="F13" t="s">
-        <v>358</v>
-      </c>
-      <c r="G13" t="s">
-        <v>359</v>
-      </c>
-      <c r="H13" s="50">
-        <f>C13/(1+J13)</f>
-        <v>6843270</v>
-      </c>
-      <c r="I13" s="55">
-        <f>C13-H13</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="70">
+      <c r="H13" t="s">
+        <v>354</v>
+      </c>
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C14" s="50">
         <v>2056309</v>
       </c>
       <c r="D14" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E14" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="G14" t="s">
-        <v>361</v>
-      </c>
-      <c r="H14" s="50">
-        <f>C14/(1+J14)</f>
-        <v>2097632.3574415995</v>
-      </c>
-      <c r="I14" s="55">
-        <f>C14-H14</f>
-        <v>-41323.357441599481</v>
-      </c>
-      <c r="J14" s="70">
-        <v>-1.9699999999999999E-2</v>
+        <v>355</v>
+      </c>
+      <c r="H14" t="s">
+        <v>356</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C15" s="50">
         <v>2065314</v>
       </c>
       <c r="D15" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E15" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F15" t="s">
-        <v>360</v>
+        <v>417</v>
       </c>
       <c r="G15" t="s">
-        <v>361</v>
-      </c>
-      <c r="H15" s="50">
-        <f>C15/(1+J15)</f>
-        <v>2097617.3065204145</v>
-      </c>
-      <c r="I15" s="55">
-        <f>C15-H15</f>
-        <v>-32303.306520414539</v>
-      </c>
-      <c r="J15" s="70">
-        <v>-1.54E-2</v>
+        <v>355</v>
+      </c>
+      <c r="H15" t="s">
+        <v>356</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C16" s="50">
         <v>3086</v>
       </c>
       <c r="D16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F16" t="s">
+        <v>417</v>
+      </c>
+      <c r="G16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="50">
-        <f>C16/(1+J16)</f>
-        <v>3086</v>
-      </c>
-      <c r="I16" s="55">
-        <f>C16-H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="70">
+      <c r="J16">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>419</v>
+        <v>414</v>
+      </c>
+      <c r="C17" s="50">
+        <v>12709251</v>
       </c>
       <c r="D17" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E17" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G17" t="s">
-        <v>417</v>
-      </c>
-      <c r="H17" s="50">
-        <f>C17/(1+J17)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="55">
-        <f>C17-H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="70"/>
+        <v>411</v>
+      </c>
+      <c r="H17" t="s">
+        <v>412</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -18482,61 +17963,61 @@
         <v>77</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C1" s="58" t="s">
         <v>78</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F1" s="58" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G1" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H1" s="58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I1" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J1" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K1" s="58" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L1" s="58" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M1" s="58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N1" s="58" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O1" s="58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P1" s="58" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q1" s="58" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="R1" s="58" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S1" s="58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T1" s="58" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -18547,7 +18028,7 @@
         <v>45291</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>70</v>
@@ -18577,10 +18058,10 @@
         <v>0.7414309743934242</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P2" s="56">
         <v>22972101</v>
@@ -18600,13 +18081,13 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="57">
         <v>45291</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>70</v>
@@ -18636,13 +18117,13 @@
         <v>2.0188571829900952</v>
       </c>
       <c r="M3" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N3" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O3" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P3" s="56">
         <v>17176678</v>
@@ -18668,13 +18149,13 @@
         <v>45291</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F4" s="56">
         <v>70</v>
@@ -18721,13 +18202,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="60" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B5" s="57">
         <v>45291</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D5" s="56" t="s">
         <v>70</v>
@@ -18780,7 +18261,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="60" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B6" s="57">
         <v>45291</v>
@@ -18839,13 +18320,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="60" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="57">
         <v>45291</v>
       </c>
       <c r="C7" s="56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="56" t="s">
         <v>70</v>
@@ -18875,10 +18356,10 @@
         <v>0</v>
       </c>
       <c r="M7" s="56" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N7" s="56" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="P7" s="56">
         <v>3314047</v>
@@ -18898,7 +18379,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="60" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B8" s="57">
         <v>45291</v>
@@ -18960,7 +18441,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="60" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="57">
         <v>45291</v>
@@ -19022,7 +18503,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B10" s="57">
         <v>45291</v>
@@ -19202,7 +18683,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B13" s="57">
         <v>45291</v>
@@ -19276,7 +18757,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F14" s="56">
         <v>1</v>
@@ -19323,13 +18804,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B15" s="57">
         <v>45291</v>
       </c>
       <c r="C15" s="56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D15" s="56" t="s">
         <v>70</v>
@@ -19382,19 +18863,19 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="60" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B16" s="57">
         <v>45291</v>
       </c>
       <c r="C16" s="56" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="56" t="s">
         <v>70</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F16" s="56">
         <v>1</v>
@@ -19447,7 +18928,7 @@
         <v>45291</v>
       </c>
       <c r="C17" s="56" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="56" t="s">
         <v>70</v>
@@ -19477,13 +18958,13 @@
         <v>0.20900493904229189</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N17" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O17" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P17" s="56">
         <v>239255</v>
@@ -19503,19 +18984,19 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="60" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B18" s="57">
         <v>45291</v>
       </c>
       <c r="C18" s="56" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D18" s="56" t="s">
         <v>70</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F18" s="56">
         <v>0</v>
@@ -19539,13 +19020,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N18" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O18" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P18" s="56">
         <v>8994</v>
@@ -19601,13 +19082,13 @@
         <v>2.789894354724165</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N19" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O19" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P19" s="56">
         <v>0</v>
@@ -19627,13 +19108,13 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" s="57">
         <v>45291</v>
       </c>
       <c r="C20" s="56" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D20" s="56" t="s">
         <v>70</v>
@@ -19663,13 +19144,13 @@
         <v>0</v>
       </c>
       <c r="M20" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N20" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O20" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P20" s="56">
         <v>0</v>
@@ -19760,7 +19241,7 @@
         <v>70</v>
       </c>
       <c r="E22" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F22" s="56">
         <v>0</v>
@@ -19819,7 +19300,7 @@
         <v>70</v>
       </c>
       <c r="E23" s="56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F23" s="56">
         <v>0</v>
@@ -19952,13 +19433,13 @@
         <v>3.0851634206044229</v>
       </c>
       <c r="M25" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N25" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O25" s="56" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P25" s="56">
         <v>0</v>
@@ -19978,13 +19459,13 @@
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="60" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" s="57">
         <v>45291</v>
       </c>
       <c r="C26" s="56" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D26" s="56" t="s">
         <v>70</v>
@@ -20011,13 +19492,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N26" s="56" t="s">
         <v>70</v>
       </c>
       <c r="O26" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P26" s="56">
         <v>0</v>
@@ -20037,10 +19518,10 @@
         <v>45291</v>
       </c>
       <c r="C27" s="56" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D27" s="56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E27" s="56" t="s">
         <v>201</v>
@@ -20070,10 +19551,10 @@
         <v>75</v>
       </c>
       <c r="N27" s="56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O27" s="56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P27" s="56">
         <v>356979</v>
@@ -20093,16 +19574,16 @@
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="57">
         <v>45291</v>
       </c>
       <c r="C28" s="56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" s="56" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E28" s="56" t="s">
         <v>201</v>
@@ -20129,13 +19610,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N28" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O28" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P28" s="56">
         <v>2911</v>
@@ -20155,13 +19636,13 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B29" s="57">
         <v>45291</v>
       </c>
       <c r="C29" s="56" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="56" t="s">
         <v>147</v>
@@ -20191,13 +19672,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="N29" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" s="56" t="s">
         <v>253</v>
-      </c>
-      <c r="N29" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="O29" s="56" t="s">
-        <v>254</v>
       </c>
       <c r="P29" s="56">
         <v>5835.8600000000006</v>
@@ -20217,13 +19698,13 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="60" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B30" s="57">
         <v>45291</v>
       </c>
       <c r="C30" s="56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D30" s="56" t="s">
         <v>147</v>
@@ -20932,13 +20413,13 @@
         <v>0</v>
       </c>
       <c r="M41" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N41" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O41" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P41" s="56">
         <v>212.15999999999991</v>
@@ -21558,7 +21039,7 @@
         <v>148</v>
       </c>
       <c r="O51" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P51" s="56">
         <v>0</v>
@@ -21738,13 +21219,13 @@
         <v>2.7421127162004271</v>
       </c>
       <c r="M54" s="56" t="s">
+        <v>252</v>
+      </c>
+      <c r="N54" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="O54" s="56" t="s">
         <v>253</v>
-      </c>
-      <c r="N54" s="56" t="s">
-        <v>252</v>
-      </c>
-      <c r="O54" s="56" t="s">
-        <v>254</v>
       </c>
       <c r="P54" s="56">
         <v>0</v>
@@ -21859,13 +21340,13 @@
         <v>0</v>
       </c>
       <c r="M56" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="N56" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O56" s="56" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P56" s="56">
         <v>-9.0949470177292824E-13</v>
@@ -21927,7 +21408,7 @@
         <v>138</v>
       </c>
       <c r="O57" s="56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P57" s="56">
         <v>-9.9999999999909051E-3</v>
@@ -21959,7 +21440,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21988,7 +21469,7 @@
       <c r="D1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -22035,229 +21516,229 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>45292</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>391</v>
-      </c>
-      <c r="C2" s="72" t="str">
+      <c r="B2" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="71" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>농협현금</v>
       </c>
-      <c r="D2" s="74" t="str">
+      <c r="D2" s="73" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>농협현금성자산</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="74">
         <v>1</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="75">
         <v>547863</v>
       </c>
-      <c r="G2" s="76">
+      <c r="G2" s="75">
         <v>547863</v>
       </c>
-      <c r="H2" s="77">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="79">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="79">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="79">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="76">
+      <c r="H2" s="76">
+        <f>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="78">
+        <f>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="78">
+        <f>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="78">
+        <f>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="75">
         <v>547863</v>
       </c>
-      <c r="R2" s="78">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="79">
+      <c r="R2" s="77">
+        <f>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="78">
         <f>SUM($R$2:R2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="72">
+      <c r="A3" s="71">
         <v>45292</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>392</v>
-      </c>
-      <c r="C3" s="72" t="str">
+      <c r="B3" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="C3" s="71" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>신한정기예금1Y</v>
       </c>
-      <c r="D3" s="74" t="str">
+      <c r="D3" s="73" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>신한정기예금1Y</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="74">
         <v>1</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="75">
         <v>9523204</v>
       </c>
-      <c r="G3" s="76">
+      <c r="G3" s="75">
         <v>9523204</v>
       </c>
-      <c r="H3" s="77">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="79">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="79">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="79">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="76">
+      <c r="H3" s="76">
+        <f>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="77"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="78">
+        <f>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="78">
+        <f>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="78">
+        <f>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="75">
         <v>9523204</v>
       </c>
-      <c r="R3" s="78">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="78">
+      <c r="R3" s="77">
+        <f>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="77">
         <f>SUM($R$2:R3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="72">
+      <c r="A4" s="71">
         <v>45292</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>393</v>
-      </c>
-      <c r="C4" s="81" t="str">
+      <c r="B4" s="81" t="s">
+        <v>388</v>
+      </c>
+      <c r="C4" s="80" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>다올정기예금1Y</v>
       </c>
-      <c r="D4" s="83" t="str">
+      <c r="D4" s="82" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>다올정기예금1Y</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="83">
         <v>1</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="84">
         <v>6123103</v>
       </c>
-      <c r="G4" s="85">
+      <c r="G4" s="84">
         <v>6123103</v>
       </c>
-      <c r="H4" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="85">
+      <c r="H4" s="85">
+        <f>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="86"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="87">
+        <f>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="87">
+        <f>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="87">
+        <f>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="84">
         <v>6123103</v>
       </c>
-      <c r="R4" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="87">
+      <c r="R4" s="86">
+        <f>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="86">
         <f>SUM($R$2:R4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="72">
+      <c r="A5" s="71">
         <v>45292</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="81">
         <v>226490</v>
       </c>
-      <c r="C5" s="81" t="str">
+      <c r="C5" s="80" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>KODEX 코스피</v>
       </c>
-      <c r="D5" s="83" t="str">
+      <c r="D5" s="82" t="str">
         <f>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성 KODEX 코스피증권상장지수투자신탁(주식)</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="83">
         <v>1</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="84">
         <v>3390170</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="85">
         <v>3390170</v>
       </c>
-      <c r="H5" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="86">
+      <c r="H5" s="85">
+        <f>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="87">
+        <f>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="87">
+        <f>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="87">
+        <f>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="85">
         <v>3390170</v>
       </c>
-      <c r="R5" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="87">
+      <c r="R5" s="86">
+        <f>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="86">
         <f>SUM($R$2:R5)</f>
         <v>0</v>
       </c>
@@ -22276,7 +21757,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22305,7 +21786,7 @@
       <c r="D1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -22352,628 +21833,628 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>45292</v>
       </c>
-      <c r="B2" s="73" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="72" t="str">
+      <c r="B2" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" s="71" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>삼성변동예금</v>
       </c>
-      <c r="D2" s="74" t="str">
+      <c r="D2" s="73" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성화재 금리연동형</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="74">
         <v>1</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="75">
         <v>15152454</v>
       </c>
-      <c r="G2" s="77">
+      <c r="G2" s="76">
         <v>15152454</v>
       </c>
-      <c r="H2" s="77">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="79">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="79">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="79">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="80">
+      <c r="H2" s="76">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="77"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="78">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O2" s="78">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="78">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="79">
         <v>15152454</v>
       </c>
-      <c r="R2" s="78">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="79">
-        <f>SUM($R$2:R12)</f>
+      <c r="R2" s="77">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="78">
+        <f>SUM($R$2:R2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="72">
+      <c r="A3" s="71">
         <v>45292</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>377</v>
-      </c>
-      <c r="C3" s="72" t="str">
+      <c r="B3" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3" s="71" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>삼성정기예금1년</v>
       </c>
-      <c r="D3" s="74" t="str">
+      <c r="D3" s="73" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성화재 이율보증형 1Y</v>
       </c>
-      <c r="E3" s="75">
+      <c r="E3" s="74">
         <v>1</v>
       </c>
-      <c r="F3" s="76">
+      <c r="F3" s="75">
         <v>9946500</v>
       </c>
-      <c r="G3" s="77">
+      <c r="G3" s="76">
         <v>9946500</v>
       </c>
-      <c r="H3" s="77">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="78"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="79">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="79">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="79">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="80">
+      <c r="H3" s="76">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="77"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="78">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="78">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="78">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="79">
         <v>9946500</v>
       </c>
-      <c r="R3" s="78">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="78">
+      <c r="R3" s="77">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="77">
         <f>SUM($R$2:R3)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="72">
+      <c r="A4" s="71">
         <v>45292</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>362</v>
-      </c>
-      <c r="C4" s="81" t="str">
+      <c r="B4" s="81" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>삼성주가지수펀드</v>
       </c>
-      <c r="D4" s="83" t="str">
+      <c r="D4" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성퇴직연금인덱스증권투자신탁제1호(주식)_Ce</v>
       </c>
-      <c r="E4" s="84">
+      <c r="E4" s="83">
         <v>1</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="84">
         <v>4195346</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="85">
         <v>4195346</v>
       </c>
-      <c r="H4" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="87"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O4" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="89">
+      <c r="H4" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="86"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="88">
         <v>4195346</v>
       </c>
-      <c r="R4" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="87">
+      <c r="R4" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="86">
         <f>SUM($R$2:R4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="72">
+      <c r="A5" s="71">
         <v>45292</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>364</v>
-      </c>
-      <c r="C5" s="81" t="str">
+      <c r="B5" s="81" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>삼성채권혼합펀드</v>
       </c>
-      <c r="D5" s="83" t="str">
+      <c r="D5" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성퇴직연금Active채권종합증권자투자신탁 제1호(채권)_Ce</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="83">
         <v>1</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="84">
         <v>4195346</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="85">
         <v>4195346</v>
       </c>
-      <c r="H5" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="89">
+      <c r="H5" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="86"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="88">
         <v>4195346</v>
       </c>
-      <c r="R5" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="87">
+      <c r="R5" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="86">
         <f>SUM($R$2:R5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="72">
+      <c r="A6" s="71">
         <v>45292</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>366</v>
-      </c>
-      <c r="C6" s="81" t="str">
+      <c r="B6" s="81" t="s">
+        <v>361</v>
+      </c>
+      <c r="C6" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>미래채권혼합펀드</v>
       </c>
-      <c r="D6" s="83" t="str">
+      <c r="D6" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>미래에셋퇴직플랜KRX100인덱스안정형40증권자투자신탁1호(채권혼합)_C-P2e</v>
       </c>
-      <c r="E6" s="84">
+      <c r="E6" s="83">
         <v>1</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="84">
         <v>2097673</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="85">
         <v>2097673</v>
       </c>
-      <c r="H6" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="89">
+      <c r="H6" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="86"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="88">
         <v>2097673</v>
       </c>
-      <c r="R6" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="87">
+      <c r="R6" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="86">
         <f>SUM($R$2:R6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="72">
+      <c r="A7" s="71">
         <v>45292</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>368</v>
-      </c>
-      <c r="C7" s="81" t="str">
+      <c r="B7" s="81" t="s">
+        <v>363</v>
+      </c>
+      <c r="C7" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>신영채권혼합펀드</v>
       </c>
-      <c r="D7" s="83" t="str">
+      <c r="D7" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>신영퇴직연금배당40증권자투자신탁(채권혼합)_C-E</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="83">
         <v>1</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="84">
         <v>2097673</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="85">
         <v>2097673</v>
       </c>
-      <c r="H7" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="88"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="89">
+      <c r="H7" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="86"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="88">
         <v>2097673</v>
       </c>
-      <c r="R7" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="87">
+      <c r="R7" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="86">
         <f>SUM($R$2:R7)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="72">
+      <c r="A8" s="71">
         <v>45292</v>
       </c>
-      <c r="B8" s="82" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" s="81" t="str">
+      <c r="B8" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>신영주식혼합펀드</v>
       </c>
-      <c r="D8" s="83" t="str">
+      <c r="D8" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>신영퇴직연금배당주식증권자투자신탁(주식)_C-E</v>
       </c>
-      <c r="E8" s="84">
+      <c r="E8" s="83">
         <v>1</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="84">
         <v>4195346</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="85">
         <v>4195346</v>
       </c>
-      <c r="H8" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="88"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="89">
+      <c r="H8" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="86"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="88">
         <v>4195346</v>
       </c>
-      <c r="R8" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="87">
+      <c r="R8" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="86">
         <f>SUM($R$2:R8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="72">
+      <c r="A9" s="71">
         <v>45292</v>
       </c>
-      <c r="B9" s="82" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="81" t="str">
+      <c r="B9" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="C9" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>한투TDF</v>
       </c>
-      <c r="D9" s="83" t="str">
+      <c r="D9" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>한국투자TDF알아서2045증권투자신탁(주식혼합-재간접형)_C-Re</v>
       </c>
-      <c r="E9" s="84">
+      <c r="E9" s="83">
         <v>1</v>
       </c>
-      <c r="F9" s="85">
+      <c r="F9" s="84">
         <v>6843270</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <v>6843270</v>
       </c>
-      <c r="H9" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="89">
+      <c r="H9" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="86"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="88">
         <v>6843270</v>
       </c>
-      <c r="R9" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="87">
+      <c r="R9" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="86">
         <f>SUM($R$2:R9)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="72">
+      <c r="A10" s="71">
         <v>45292</v>
       </c>
-      <c r="B10" s="82" t="s">
-        <v>371</v>
-      </c>
-      <c r="C10" s="81" t="str">
+      <c r="B10" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>KB미국성장주펀드</v>
       </c>
-      <c r="D10" s="83" t="str">
+      <c r="D10" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>KB미국대표성장주증권자투자신탁(주식)(H)C-퇴직e</v>
       </c>
-      <c r="E10" s="84">
+      <c r="E10" s="83">
         <v>1</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="84">
         <v>2097673</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <v>2097673</v>
       </c>
-      <c r="H10" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="87"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="88"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="89">
+      <c r="H10" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="86"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="88">
         <v>2097673</v>
       </c>
-      <c r="R10" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="87">
+      <c r="R10" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="86">
         <f>SUM($R$2:R10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="72">
+      <c r="A11" s="71">
         <v>45292</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>372</v>
-      </c>
-      <c r="C11" s="81" t="str">
+      <c r="B11" s="81" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>삼성미국주가지수펀드</v>
       </c>
-      <c r="D11" s="83" t="str">
+      <c r="D11" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성미국인덱스증권자투자신탁H(주식)_Cpe(퇴직연금)</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="83">
         <v>1</v>
       </c>
-      <c r="F11" s="85">
+      <c r="F11" s="84">
         <v>2097672</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="85">
         <v>2097672</v>
       </c>
-      <c r="H11" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="88"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="89">
+      <c r="H11" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="86"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="84"/>
+      <c r="N11" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="88">
         <v>2097672</v>
       </c>
-      <c r="R11" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="87">
+      <c r="R11" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="86">
         <f>SUM($R$2:R11)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="72">
+      <c r="A12" s="71">
         <v>45292</v>
       </c>
-      <c r="B12" s="82" t="s">
-        <v>373</v>
-      </c>
-      <c r="C12" s="81" t="str">
+      <c r="B12" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="C12" s="80" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>삼성현금</v>
       </c>
-      <c r="D12" s="83" t="str">
+      <c r="D12" s="82" t="str">
         <f>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>삼성화재신탁 대기자금</v>
       </c>
-      <c r="E12" s="84">
+      <c r="E12" s="83">
         <v>1</v>
       </c>
-      <c r="F12" s="85">
+      <c r="F12" s="84">
         <v>3086</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <v>3086</v>
       </c>
-      <c r="H12" s="86">
-        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="87"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="88"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="88">
-        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="88">
-        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="88">
-        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="89">
+      <c r="H12" s="85">
+        <f>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="86"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="87">
+        <f>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="87">
+        <f>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="87">
+        <f>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="88">
         <v>3086</v>
       </c>
-      <c r="R12" s="87">
-        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="87">
+      <c r="R12" s="86">
+        <f>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="86">
         <f>SUM($R$2:R12)</f>
         <v>0</v>
       </c>
@@ -22991,8 +22472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23005,18 +22486,18 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>77</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="70" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="15" t="s">
@@ -23026,7 +22507,7 @@
         <v>55</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I1" s="41" t="s">
         <v>134</v>
@@ -23035,67 +22516,74 @@
         <v>53</v>
       </c>
       <c r="K1" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="P1" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="Q1" s="16" t="s">
         <v>403</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>408</v>
       </c>
       <c r="R1" s="16" t="s">
         <v>61</v>
       </c>
       <c r="S1" s="16" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="72">
+      <c r="A2" s="71">
         <v>45327</v>
       </c>
       <c r="B2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C2" s="72" t="str">
+        <v>413</v>
+      </c>
+      <c r="C2" s="71" t="str">
         <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>엔투현금</v>
       </c>
-      <c r="D2" s="95" t="str">
+      <c r="D2" s="94" t="str">
         <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>NH투자증권 예수금</v>
       </c>
-      <c r="E2" s="75">
+      <c r="E2" s="74">
         <v>1</v>
       </c>
-      <c r="F2" s="76">
+      <c r="F2" s="75">
         <v>12709251</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="79"/>
+      <c r="G2" s="75">
+        <v>12709251</v>
+      </c>
+      <c r="H2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="75">
+        <v>12709251</v>
+      </c>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78">
+        <f>SUM($R$2:R2)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -23128,16 +22616,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -23152,392 +22640,392 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="90">
+      <c r="A3" s="89">
         <v>44979</v>
       </c>
-      <c r="B3" s="90">
+      <c r="B3" s="89">
         <f t="shared" ref="B3:B22" si="0">EDATE(A3,12)</f>
         <v>45344</v>
       </c>
-      <c r="C3" s="91">
+      <c r="C3" s="90">
         <v>212400</v>
       </c>
-      <c r="D3" s="91">
+      <c r="D3" s="90">
         <v>219265</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="90">
+      <c r="A4" s="89">
         <v>44979</v>
       </c>
-      <c r="B4" s="90">
+      <c r="B4" s="89">
         <f t="shared" si="0"/>
         <v>45344</v>
       </c>
-      <c r="C4" s="91">
+      <c r="C4" s="90">
         <v>389501</v>
       </c>
-      <c r="D4" s="91">
+      <c r="D4" s="90">
         <v>402090</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="90">
+      <c r="A5" s="89">
         <v>44979</v>
       </c>
-      <c r="B5" s="90">
+      <c r="B5" s="89">
         <f t="shared" si="0"/>
         <v>45344</v>
       </c>
-      <c r="C5" s="91">
+      <c r="C5" s="90">
         <v>254275</v>
       </c>
-      <c r="D5" s="91">
+      <c r="D5" s="90">
         <v>262494</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="90">
+      <c r="A6" s="89">
         <v>44979</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="89">
         <f t="shared" si="0"/>
         <v>45344</v>
       </c>
-      <c r="C6" s="91">
+      <c r="C6" s="90">
         <v>340900</v>
       </c>
-      <c r="D6" s="91">
+      <c r="D6" s="90">
         <v>351919</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="90">
+      <c r="A7" s="89">
         <v>44981</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="89">
         <f t="shared" si="0"/>
         <v>45346</v>
       </c>
-      <c r="C7" s="91">
+      <c r="C7" s="90">
         <v>212483</v>
       </c>
-      <c r="D7" s="91">
+      <c r="D7" s="90">
         <v>219311</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="90">
+      <c r="A8" s="89">
         <v>45007</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="89">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="C8" s="91">
+      <c r="C8" s="90">
         <v>212212</v>
       </c>
-      <c r="D8" s="91">
+      <c r="D8" s="90">
         <v>218517</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="90">
+      <c r="A9" s="89">
         <v>45007</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="89">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="C9" s="91">
+      <c r="C9" s="90">
         <v>389614</v>
       </c>
-      <c r="D9" s="91">
+      <c r="D9" s="90">
         <v>401191</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="90">
+      <c r="A10" s="89">
         <v>45007</v>
       </c>
-      <c r="B10" s="90">
+      <c r="B10" s="89">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="C10" s="91">
+      <c r="C10" s="90">
         <v>254450</v>
       </c>
-      <c r="D10" s="91">
+      <c r="D10" s="90">
         <v>262010</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="90">
+      <c r="A11" s="89">
         <v>45007</v>
       </c>
-      <c r="B11" s="90">
+      <c r="B11" s="89">
         <f t="shared" si="0"/>
         <v>45373</v>
       </c>
-      <c r="C11" s="91">
+      <c r="C11" s="90">
         <v>340900</v>
       </c>
-      <c r="D11" s="91">
+      <c r="D11" s="90">
         <v>351029</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="90">
+      <c r="A12" s="89">
         <v>45008</v>
       </c>
-      <c r="B12" s="90">
+      <c r="B12" s="89">
         <f t="shared" si="0"/>
         <v>45374</v>
       </c>
-      <c r="C12" s="91">
+      <c r="C12" s="90">
         <v>212160</v>
       </c>
-      <c r="D12" s="91">
+      <c r="D12" s="90">
         <v>218444</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="90">
+      <c r="A13" s="89">
         <v>45038</v>
       </c>
-      <c r="B13" s="90">
+      <c r="B13" s="89">
         <f t="shared" si="0"/>
         <v>45404</v>
       </c>
-      <c r="C13" s="91">
+      <c r="C13" s="90">
         <v>216264</v>
       </c>
-      <c r="D13" s="91">
+      <c r="D13" s="90">
         <v>221639</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="90">
+      <c r="A14" s="89">
         <v>45038</v>
       </c>
-      <c r="B14" s="90">
+      <c r="B14" s="89">
         <f t="shared" si="0"/>
         <v>45404</v>
       </c>
-      <c r="C14" s="91">
+      <c r="C14" s="90">
         <v>212180</v>
       </c>
-      <c r="D14" s="91">
+      <c r="D14" s="90">
         <v>217453</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="90">
+      <c r="A15" s="89">
         <v>45038</v>
       </c>
-      <c r="B15" s="90">
+      <c r="B15" s="89">
         <f t="shared" si="0"/>
         <v>45404</v>
       </c>
-      <c r="C15" s="91">
+      <c r="C15" s="90">
         <v>390036</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="90">
         <v>399730</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="90">
+      <c r="A16" s="89">
         <v>45038</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="89">
         <f t="shared" si="0"/>
         <v>45404</v>
       </c>
-      <c r="C16" s="91">
+      <c r="C16" s="90">
         <v>254675</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="90">
         <v>261004</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="90">
+      <c r="A17" s="89">
         <v>45040</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="89">
         <f t="shared" si="0"/>
         <v>45406</v>
       </c>
-      <c r="C17" s="91">
+      <c r="C17" s="90">
         <v>340900</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="90">
         <v>349314</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="90">
+      <c r="A18" s="89">
         <v>45068</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="89">
         <f t="shared" si="0"/>
         <v>45434</v>
       </c>
-      <c r="C18" s="91">
+      <c r="C18" s="90">
         <v>216196</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="90">
         <v>220979</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="90">
+      <c r="A19" s="89">
         <v>45068</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="89">
         <f t="shared" si="0"/>
         <v>45434</v>
       </c>
-      <c r="C19" s="91">
+      <c r="C19" s="90">
         <v>212154</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="90">
         <v>216847</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="90">
+      <c r="A20" s="89">
         <v>45068</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="89">
         <f t="shared" si="0"/>
         <v>45434</v>
       </c>
-      <c r="C20" s="91">
+      <c r="C20" s="90">
         <v>340900</v>
       </c>
-      <c r="D20" s="91">
+      <c r="D20" s="90">
         <v>348442</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="90">
+      <c r="A21" s="89">
         <v>45069</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="89">
         <f t="shared" si="0"/>
         <v>45435</v>
       </c>
-      <c r="C21" s="91">
+      <c r="C21" s="90">
         <v>255275</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="90">
         <v>260900</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="90">
+      <c r="A22" s="89">
         <v>45070</v>
       </c>
-      <c r="B22" s="90">
+      <c r="B22" s="89">
         <f t="shared" si="0"/>
         <v>45436</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C22" s="90">
         <v>257342</v>
       </c>
-      <c r="D22" s="91">
+      <c r="D22" s="90">
         <v>262991</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="90">
+      <c r="A23" s="89">
         <v>45099</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="89">
         <f>EDATE(A23,12)</f>
         <v>45465</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C23" s="90">
         <v>396945</v>
       </c>
-      <c r="D23" s="91">
+      <c r="D23" s="90">
         <v>405338</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="90">
+      <c r="A24" s="89">
         <v>45099</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="89">
         <f t="shared" ref="B24:B36" si="1">EDATE(A24,12)</f>
         <v>45465</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C24" s="90">
         <v>154520</v>
       </c>
-      <c r="D24" s="91">
+      <c r="D24" s="90">
         <v>157787</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="90">
+      <c r="A25" s="89">
         <v>45099</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="89">
         <f t="shared" si="1"/>
         <v>45465</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C25" s="90">
         <v>257719</v>
       </c>
-      <c r="D25" s="91">
+      <c r="D25" s="90">
         <v>263168</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="90">
+      <c r="A26" s="89">
         <v>45099</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="89">
         <f t="shared" si="1"/>
         <v>45465</v>
       </c>
-      <c r="C26" s="91">
+      <c r="C26" s="90">
         <v>255725</v>
       </c>
-      <c r="D26" s="91">
+      <c r="D26" s="90">
         <v>261132</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="90">
+      <c r="A27" s="89">
         <v>45099</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="89">
         <f t="shared" si="1"/>
         <v>45465</v>
       </c>
-      <c r="C27" s="91">
+      <c r="C27" s="90">
         <v>340900</v>
       </c>
-      <c r="D27" s="91">
+      <c r="D27" s="90">
         <v>348108</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="90">
+      <c r="A28" s="89">
         <v>45101</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="89">
         <f t="shared" si="1"/>
         <v>45467</v>
       </c>
-      <c r="C28" s="91">
+      <c r="C28" s="90">
         <v>216278</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="90">
         <v>220810</v>
       </c>
     </row>
@@ -23545,14 +23033,14 @@
       <c r="A29" s="3">
         <v>45131</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="89">
         <f t="shared" si="1"/>
         <v>45497</v>
       </c>
-      <c r="C29" s="91">
+      <c r="C29" s="90">
         <v>340900</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="90">
         <v>347183</v>
       </c>
     </row>
@@ -23560,14 +23048,14 @@
       <c r="A30" s="3">
         <v>45160</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="89">
         <f t="shared" si="1"/>
         <v>45526</v>
       </c>
-      <c r="C30" s="91">
+      <c r="C30" s="90">
         <v>340900</v>
       </c>
-      <c r="D30" s="91">
+      <c r="D30" s="90">
         <v>346279</v>
       </c>
     </row>
@@ -23575,14 +23063,14 @@
       <c r="A31" s="3">
         <v>45191</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="89">
         <f t="shared" si="1"/>
         <v>45557</v>
       </c>
-      <c r="C31" s="91">
+      <c r="C31" s="90">
         <v>340900</v>
       </c>
-      <c r="D31" s="91">
+      <c r="D31" s="90">
         <v>345313</v>
       </c>
     </row>
@@ -23590,14 +23078,14 @@
       <c r="A32" s="3">
         <v>45222</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="89">
         <f t="shared" si="1"/>
         <v>45588</v>
       </c>
-      <c r="C32" s="91">
+      <c r="C32" s="90">
         <v>340900</v>
       </c>
-      <c r="D32" s="91">
+      <c r="D32" s="90">
         <v>344493</v>
       </c>
     </row>
@@ -23605,32 +23093,32 @@
       <c r="A33" s="3">
         <v>45225</v>
       </c>
-      <c r="B33" s="90">
+      <c r="B33" s="89">
         <f t="shared" si="1"/>
         <v>45591</v>
       </c>
-      <c r="C33" s="91">
+      <c r="C33" s="90">
         <v>6123103</v>
       </c>
-      <c r="D33" s="91">
+      <c r="D33" s="90">
         <v>6199116</v>
       </c>
       <c r="E33" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>45252</v>
       </c>
-      <c r="B34" s="90">
+      <c r="B34" s="89">
         <f t="shared" si="1"/>
         <v>45618</v>
       </c>
-      <c r="C34" s="91">
+      <c r="C34" s="90">
         <v>340900</v>
       </c>
-      <c r="D34" s="91">
+      <c r="D34" s="90">
         <v>343526</v>
       </c>
     </row>
@@ -23638,14 +23126,14 @@
       <c r="A35" s="3">
         <v>45282</v>
       </c>
-      <c r="B35" s="90">
+      <c r="B35" s="89">
         <f t="shared" si="1"/>
         <v>45648</v>
       </c>
-      <c r="C35" s="91">
+      <c r="C35" s="90">
         <v>340900</v>
       </c>
-      <c r="D35" s="91">
+      <c r="D35" s="90">
         <v>342441</v>
       </c>
     </row>
@@ -23653,14 +23141,14 @@
       <c r="A36" s="3">
         <v>45313</v>
       </c>
-      <c r="B36" s="90">
+      <c r="B36" s="89">
         <f t="shared" si="1"/>
         <v>45679</v>
       </c>
-      <c r="C36" s="91">
+      <c r="C36" s="90">
         <v>340900</v>
       </c>
-      <c r="D36" s="91">
+      <c r="D36" s="90">
         <v>341324</v>
       </c>
     </row>
@@ -23692,13 +23180,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -23709,7 +23197,7 @@
         <v>45351</v>
       </c>
       <c r="C2" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D2">
         <v>5600</v>
@@ -23723,7 +23211,7 @@
         <v>45329</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D3">
         <v>6070</v>
@@ -23737,7 +23225,7 @@
         <v>45339</v>
       </c>
       <c r="C4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D4">
         <v>6510</v>
@@ -23751,7 +23239,7 @@
         <v>45339</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D5">
         <v>6260</v>
@@ -23765,9 +23253,9 @@
         <v>45331</v>
       </c>
       <c r="C6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D6" s="91">
+        <v>408</v>
+      </c>
+      <c r="D6" s="90">
         <v>6470</v>
       </c>
     </row>
@@ -23779,9 +23267,9 @@
         <v>45688</v>
       </c>
       <c r="C7" t="s">
-        <v>413</v>
-      </c>
-      <c r="D7" s="91">
+        <v>408</v>
+      </c>
+      <c r="D7" s="90">
         <v>9915590</v>
       </c>
     </row>
@@ -23791,7 +23279,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D8" s="50">
         <v>5064619</v>
@@ -23803,7 +23291,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D9" s="50">
         <v>10087835</v>
@@ -23814,8 +23302,8 @@
         <v>45322</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="94" t="s">
-        <v>369</v>
+      <c r="C10" s="93" t="s">
+        <v>364</v>
       </c>
       <c r="D10">
         <v>4195346</v>
@@ -23826,8 +23314,8 @@
         <v>45322</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="94" t="s">
-        <v>368</v>
+      <c r="C11" s="93" t="s">
+        <v>363</v>
       </c>
       <c r="D11">
         <v>2097673</v>
@@ -23838,8 +23326,8 @@
         <v>45322</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="94" t="s">
-        <v>366</v>
+      <c r="C12" s="93" t="s">
+        <v>361</v>
       </c>
       <c r="D12">
         <v>2097673</v>
@@ -23850,8 +23338,8 @@
         <v>45322</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="94" t="s">
-        <v>364</v>
+      <c r="C13" s="93" t="s">
+        <v>359</v>
       </c>
       <c r="D13">
         <v>4195346</v>
@@ -23862,8 +23350,8 @@
         <v>45322</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="94" t="s">
-        <v>362</v>
+      <c r="C14" s="93" t="s">
+        <v>357</v>
       </c>
       <c r="D14">
         <v>4195346</v>
@@ -23874,8 +23362,8 @@
         <v>45323</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="94" t="s">
-        <v>372</v>
+      <c r="C15" s="93" t="s">
+        <v>367</v>
       </c>
       <c r="D15">
         <v>2097672</v>
@@ -23886,8 +23374,8 @@
         <v>45323</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="94" t="s">
-        <v>371</v>
+      <c r="C16" s="93" t="s">
+        <v>366</v>
       </c>
       <c r="D16">
         <v>2097673</v>
@@ -23898,8 +23386,8 @@
         <v>45324</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="94" t="s">
-        <v>370</v>
+      <c r="C17" s="93" t="s">
+        <v>365</v>
       </c>
       <c r="D17">
         <v>6843270</v>
@@ -23920,12 +23408,12 @@
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="J20" sqref="J20"/>
+      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="93" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="92" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="9" customWidth="1"/>
@@ -23949,7 +23437,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -24008,7 +23496,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93">
+      <c r="A2" s="92">
         <v>45292</v>
       </c>
       <c r="B2" s="46" t="s">
@@ -24075,7 +23563,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93">
+      <c r="A3" s="92">
         <v>45292</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -24142,7 +23630,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="93">
+      <c r="A4" s="92">
         <v>45292</v>
       </c>
       <c r="B4" s="46" t="s">
@@ -24209,7 +23697,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="93">
+      <c r="A5" s="92">
         <v>45292</v>
       </c>
       <c r="B5" s="46" t="s">
@@ -24276,7 +23764,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="93">
+      <c r="A6" s="92">
         <v>45292</v>
       </c>
       <c r="B6" s="46" t="s">
@@ -24343,7 +23831,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="93">
+      <c r="A7" s="92">
         <v>45292</v>
       </c>
       <c r="B7" s="46" t="s">
@@ -24410,7 +23898,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="93">
+      <c r="A8" s="92">
         <v>45292</v>
       </c>
       <c r="B8" s="46" t="s">
@@ -24477,7 +23965,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="93">
+      <c r="A9" s="92">
         <v>45292</v>
       </c>
       <c r="B9" s="46" t="s">
@@ -24544,7 +24032,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="93">
+      <c r="A10" s="92">
         <v>45292</v>
       </c>
       <c r="B10" s="46" t="s">
@@ -24611,7 +24099,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93">
+      <c r="A11" s="92">
         <v>45292</v>
       </c>
       <c r="B11" s="46" t="s">
@@ -24678,7 +24166,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="93">
+      <c r="A12" s="92">
         <v>45292</v>
       </c>
       <c r="B12" s="46" t="s">
@@ -24745,7 +24233,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93">
+      <c r="A13" s="92">
         <v>45292</v>
       </c>
       <c r="B13" s="46" t="s">
@@ -24812,7 +24300,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="93">
+      <c r="A14" s="92">
         <v>45292</v>
       </c>
       <c r="B14" s="46" t="s">
@@ -24879,7 +24367,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="93">
+      <c r="A15" s="92">
         <v>45292</v>
       </c>
       <c r="B15" s="46" t="s">
@@ -24946,7 +24434,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="93">
+      <c r="A16" s="92">
         <v>45328</v>
       </c>
       <c r="B16" s="46" t="s">
@@ -25000,7 +24488,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-1.9199999999999875</v>
       </c>
-      <c r="Q16" s="92">
+      <c r="Q16" s="91">
         <v>0</v>
       </c>
       <c r="R16" s="12">
@@ -25013,7 +24501,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="93">
+      <c r="A17" s="92">
         <v>45328</v>
       </c>
       <c r="B17" s="46" t="s">
@@ -25067,7 +24555,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>19.310000000000002</v>
       </c>
-      <c r="Q17" s="92">
+      <c r="Q17" s="91">
         <v>0</v>
       </c>
       <c r="R17" s="12">
@@ -25080,7 +24568,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="93">
+      <c r="A18" s="92">
         <v>45328</v>
       </c>
       <c r="B18" s="46" t="s">
@@ -25134,7 +24622,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>23.20999999999998</v>
       </c>
-      <c r="Q18" s="92">
+      <c r="Q18" s="91">
         <v>0</v>
       </c>
       <c r="R18" s="12">
@@ -25147,7 +24635,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="93">
+      <c r="A19" s="92">
         <v>45328</v>
       </c>
       <c r="B19" s="46" t="s">
@@ -25201,7 +24689,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-2.9799999999999613</v>
       </c>
-      <c r="Q19" s="92">
+      <c r="Q19" s="91">
         <v>0</v>
       </c>
       <c r="R19" s="12">
@@ -25214,7 +24702,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="93">
+      <c r="A20" s="92">
         <v>45328</v>
       </c>
       <c r="B20" s="46" t="s">
@@ -25268,7 +24756,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>1.41</v>
       </c>
-      <c r="Q20" s="92">
+      <c r="Q20" s="91">
         <v>0</v>
       </c>
       <c r="R20" s="12">
@@ -25281,7 +24769,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="93">
+      <c r="A21" s="92">
         <v>45329</v>
       </c>
       <c r="B21" s="46" t="s">
@@ -25335,7 +24823,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="Q21" s="92">
+      <c r="Q21" s="91">
         <v>0</v>
       </c>
       <c r="R21" s="12">
@@ -25348,7 +24836,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="93">
+      <c r="A22" s="92">
         <v>45329</v>
       </c>
       <c r="B22" s="46" t="s">
@@ -25402,7 +24890,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-3.9999999999999147E-2</v>
       </c>
-      <c r="Q22" s="92">
+      <c r="Q22" s="91">
         <v>0</v>
       </c>
       <c r="R22" s="12">
@@ -25415,7 +24903,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="93">
+      <c r="A23" s="92">
         <v>45329</v>
       </c>
       <c r="B23" s="46" t="s">
@@ -25469,7 +24957,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.43000000000000682</v>
       </c>
-      <c r="Q23" s="92">
+      <c r="Q23" s="91">
         <v>0</v>
       </c>
       <c r="R23" s="12">
@@ -25482,7 +24970,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="93">
+      <c r="A24" s="92">
         <v>45329</v>
       </c>
       <c r="B24" s="46" t="s">
@@ -25536,7 +25024,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="Q24" s="92">
+      <c r="Q24" s="91">
         <v>0</v>
       </c>
       <c r="R24" s="12">
@@ -25549,7 +25037,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="93">
+      <c r="A25" s="92">
         <v>45329</v>
       </c>
       <c r="B25" s="46" t="s">
@@ -25603,7 +25091,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-7.0000000000000284E-2</v>
       </c>
-      <c r="Q25" s="92">
+      <c r="Q25" s="91">
         <v>0</v>
       </c>
       <c r="R25" s="12">
@@ -25616,7 +25104,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="93">
+      <c r="A26" s="92">
         <v>45329</v>
       </c>
       <c r="B26" s="46" t="s">
@@ -25670,7 +25158,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.77000000000003865</v>
       </c>
-      <c r="Q26" s="92">
+      <c r="Q26" s="91">
         <v>0</v>
       </c>
       <c r="R26" s="12">
@@ -25683,7 +25171,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="93">
+      <c r="A27" s="92">
         <v>45329</v>
       </c>
       <c r="B27" s="46" t="s">
@@ -25737,7 +25225,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.37999999999999545</v>
       </c>
-      <c r="Q27" s="92">
+      <c r="Q27" s="91">
         <v>0</v>
       </c>
       <c r="R27" s="12">
@@ -25750,7 +25238,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="93">
+      <c r="A28" s="92">
         <v>45329</v>
       </c>
       <c r="B28" s="46" t="s">
@@ -25804,7 +25292,7 @@
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>0.99</v>
       </c>
-      <c r="Q28" s="92">
+      <c r="Q28" s="91">
         <v>0</v>
       </c>
       <c r="R28" s="12">
@@ -25923,7 +25411,7 @@
         <v>45292</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -25990,7 +25478,7 @@
         <v>45292</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Desktop\python\my_asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infomax\Desktop\programming\my_asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A145F-6E05-4B57-9DE9-F943934084C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -33,28 +34,17 @@
     <sheet name="각종정보" sheetId="8" r:id="rId19"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="445">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1520,20 +1510,107 @@
   </si>
   <si>
     <t>세부자산군2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2084</t>
+  </si>
+  <si>
+    <t>2084</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본배당주</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEXT FUNDS JAPAN HIGH DIVIDEND EQUITY ACTIVE EXCHANGE TRADED</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>한투</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔화</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>359210</t>
+  </si>
+  <si>
+    <t>KBSTAR 미국단기투자등급회사채액티비</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국단기회사채</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌AI주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEFOLIO 글로벌AI인공지능액티브</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국배당주</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 미국배당다우존스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>437350</t>
+  </si>
+  <si>
+    <t>456600</t>
+  </si>
+  <si>
+    <t>458730</t>
+  </si>
+  <si>
+    <t>EWH</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWZ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>FXI</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPHY</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1613,6 +1690,21 @@
       <sz val="11"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1739,7 +1831,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2019,11 +2111,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="264">
     <dxf>
@@ -2042,143 +2188,23 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
+        <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2197,116 +2223,11 @@
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2316,10 +2237,13 @@
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
@@ -3092,9 +3016,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4790,76 +4711,6 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
@@ -5274,6 +5125,74 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -5929,6 +5848,76 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="맑은 고딕"/>
         <scheme val="minor"/>
@@ -5939,6 +5928,111 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -6114,6 +6208,41 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="맑은 고딕"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -7161,6 +7290,23 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -7183,63 +7329,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:J58" totalsRowShown="0">
-  <autoFilter ref="A1:J58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표3" displayName="표3" ref="A1:J62" totalsRowShown="0">
+  <autoFilter ref="A1:J62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="8" name="종목코드" dataDxfId="263"/>
-    <tableColumn id="9" name="종목명" dataDxfId="262">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="종목코드" dataDxfId="263"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="종목명" dataDxfId="262">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="평가금액"/>
-    <tableColumn id="7" name="상품명"/>
-    <tableColumn id="2" name="계좌"/>
-    <tableColumn id="3" name="통화"/>
-    <tableColumn id="6" name="자산군"/>
-    <tableColumn id="4" name="세부자산군"/>
-    <tableColumn id="5" name="세부자산군2"/>
-    <tableColumn id="10" name="기초평가손익" dataDxfId="261"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="평가금액"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="상품명"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="계좌"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="통화"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="자산군"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="세부자산군"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="세부자산군2"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="기초평가손익" dataDxfId="261"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S25" totalsRowShown="0" headerRowDxfId="89" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S32" totalsRowShown="0" headerRowDxfId="82" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S32" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="88"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="87"/>
-    <tableColumn id="9" name="종목명" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="거래일자" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="종목코드" dataDxfId="80"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="종목명" dataDxfId="79">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="85">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="상품명" dataDxfId="78">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="84"/>
-    <tableColumn id="2" name="매입액"/>
-    <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="83">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="매입수량" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="매입액"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="현금지출"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="매입비용" dataDxfId="76">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="82"/>
-    <tableColumn id="3" name="매도원금"/>
-    <tableColumn id="15" name="매도액"/>
-    <tableColumn id="14" name="이자배당액"/>
-    <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="17" name="매매수익">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="매도수량" dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="매도원금"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="매도액"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="이자배당액"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="현금수입"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="매매수익">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="매도비용">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="순수익">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="81">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="입출금"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="순현금수입" dataDxfId="74">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="80">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="누적" dataDxfId="2">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7248,42 +7394,42 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="79" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="73" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="78"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="77"/>
-    <tableColumn id="9" name="종목명" dataDxfId="76">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="거래일자" dataDxfId="72"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="종목코드" dataDxfId="71"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="종목명" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="75">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="상품명" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="74"/>
-    <tableColumn id="2" name="매입액"/>
-    <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="73">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="매입수량" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="매입액"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="현금지출"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="매입비용" dataDxfId="67">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="72"/>
-    <tableColumn id="3" name="매도원금"/>
-    <tableColumn id="15" name="매도액"/>
-    <tableColumn id="14" name="이자배당액"/>
-    <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="17" name="매매수익">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="매도수량" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="매도원금"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="매도액"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="이자배당액"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="현금수입"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="매매수익">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="매도비용">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="순수익">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="입출금"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="순현금수입" dataDxfId="65">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="70">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="누적" dataDxfId="64">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7292,42 +7438,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="67"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="66"/>
-    <tableColumn id="9" name="종목명" dataDxfId="65">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="거래일자" dataDxfId="61"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="종목코드" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="종목명" dataDxfId="59">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="64">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="상품명" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="63"/>
-    <tableColumn id="2" name="매입액" dataDxfId="62" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="61" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="60" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="매입수량" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="매입액" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="현금지출" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="매입비용" dataDxfId="54" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="59" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="58" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="57" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="54" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="매도수량" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="매도원금" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="매도액" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="이자배당액" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="현금수입" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="매매수익" dataDxfId="48" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="53" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="매도비용" dataDxfId="47" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="52" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="순수익" dataDxfId="46" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="50" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="입출금" dataDxfId="45" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="순현금수입" dataDxfId="44" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="49" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="누적" dataDxfId="43" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7336,42 +7482,42 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="48" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="42" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="47"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="46"/>
-    <tableColumn id="9" name="종목명" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="거래일자" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="종목코드" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="종목명" dataDxfId="39">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="44">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="상품명" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="43"/>
-    <tableColumn id="2" name="매입액"/>
-    <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="매입수량" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="매입액"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="현금지출"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="매입비용" dataDxfId="36">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="41"/>
-    <tableColumn id="3" name="매도원금"/>
-    <tableColumn id="15" name="매도액"/>
-    <tableColumn id="14" name="이자배당액"/>
-    <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="17" name="매매수익">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="매도수량" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="매도원금"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" name="매도액"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" name="이자배당액"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="현금수입"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" name="매매수익">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]-CMA_한투1836[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="매도비용">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" name="순수익">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="40">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="입출금"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="순현금수입" dataDxfId="34">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="39">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="누적" dataDxfId="33">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7380,42 +7526,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="36"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="35"/>
-    <tableColumn id="9" name="종목명" dataDxfId="34">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="거래일자" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="종목코드" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="종목명" dataDxfId="28">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="33">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="상품명" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="32"/>
-    <tableColumn id="2" name="매입액" dataDxfId="31" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="30" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="29" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="매입수량" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="매입액" dataDxfId="25" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="현금지출" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="매입비용" dataDxfId="23" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="28" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="27" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="26" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="25" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="23" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="매도수량" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="매도원금" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="매도액" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="이자배당액" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="현금수입" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="매매수익" dataDxfId="17" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="22" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="매도비용" dataDxfId="16" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="21" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="순수익" dataDxfId="15" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="19" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="입출금" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="순현금수입" dataDxfId="13" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="18" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="누적" dataDxfId="12" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7424,107 +7570,107 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:F340"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:F340" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="16"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="15"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="13" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="거래일자" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="원화자금유입" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="원화투자회수" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="원화투자지출" dataDxfId="7" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="12" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="원화자금유출" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="달러투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A1:T57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:T57" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="20">
-    <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="9"/>
-    <tableColumn id="4" name="종목명"/>
-    <tableColumn id="5" name="통화"/>
-    <tableColumn id="6" name="계좌"/>
-    <tableColumn id="7" name="보유수량"/>
-    <tableColumn id="8" name="장부금액"/>
-    <tableColumn id="9" name="평잔"/>
-    <tableColumn id="10" name="수익"/>
-    <tableColumn id="11" name="비용"/>
-    <tableColumn id="12" name="실현손익"/>
-    <tableColumn id="13" name="실현수익률"/>
-    <tableColumn id="14" name="자산군"/>
-    <tableColumn id="15" name="세부자산군"/>
-    <tableColumn id="16" name="세부자산군2"/>
-    <tableColumn id="17" name="평가금액"/>
-    <tableColumn id="18" name="평가손익"/>
-    <tableColumn id="19" name="평가수익률"/>
-    <tableColumn id="20" name="총손익"/>
-    <tableColumn id="21" name="운용수익률"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="종목코드"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="거래일자" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="종목명"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="통화"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="계좌"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="보유수량"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="장부금액"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="평잔"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="수익"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="비용"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="실현손익"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="실현수익률"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0F00-00000E000000}" name="자산군"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0F00-00000F000000}" name="세부자산군"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0F00-000010000000}" name="세부자산군2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0F00-000011000000}" name="평가금액"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0F00-000012000000}" name="평가손익"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0F00-000013000000}" name="평가수익률"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0F00-000014000000}" name="총손익"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0F00-000015000000}" name="운용수익률"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="연금종목정보" displayName="연금종목정보" ref="A1:J17" totalsRowShown="0">
+  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="종목코드"/>
-    <tableColumn id="2" name="종목명"/>
-    <tableColumn id="8" name="평가금액" dataDxfId="260" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="상품명"/>
-    <tableColumn id="4" name="계좌"/>
-    <tableColumn id="11" name="통화"/>
-    <tableColumn id="5" name="자산군"/>
-    <tableColumn id="6" name="세부자산군"/>
-    <tableColumn id="13" name="세부자산군2"/>
-    <tableColumn id="12" name="기초평가손익" dataDxfId="0" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="종목코드"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="종목명"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="평가금액" dataDxfId="260" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="상품명"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="계좌"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="통화"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="자산군"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="세부자산군"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="세부자산군2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="기초평가손익" dataDxfId="259" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="259" headerRowBorderDxfId="258" tableBorderDxfId="257" totalsRowBorderDxfId="256" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="258" headerRowBorderDxfId="257" tableBorderDxfId="256" totalsRowBorderDxfId="255" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="255"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="254"/>
-    <tableColumn id="3" name="종목명" dataDxfId="253">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="거래일자" dataDxfId="254"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="종목코드" dataDxfId="253"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="종목명" dataDxfId="252">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="252">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="상품명" dataDxfId="251">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="251" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="249" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="248" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="매입수량" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="매입액" dataDxfId="249" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="현금지출" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="매입비용" dataDxfId="247" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="247" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="243" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="242" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="매도수량" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="매도원금" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="매도액" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="이자배당액" dataDxfId="243" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="현금수입" dataDxfId="242" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="매매수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="241" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="매도비용" dataDxfId="240" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="240" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="순수익" dataDxfId="239" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="239"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="238" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="입출금" dataDxfId="238"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="순현금수입" dataDxfId="237" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="237" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="누적" dataDxfId="236" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7533,42 +7679,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="236" headerRowBorderDxfId="235" tableBorderDxfId="234" totalsRowBorderDxfId="233" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="235" headerRowBorderDxfId="234" tableBorderDxfId="233" totalsRowBorderDxfId="232" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S12" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="232"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="231"/>
-    <tableColumn id="3" name="종목명" dataDxfId="230">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="거래일자" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="종목코드" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="종목명" dataDxfId="229">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="229">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="상품명" dataDxfId="228">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="8" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="매입수량" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="매입액" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="현금지출" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="매입비용" dataDxfId="224" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="7" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="매도수량" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="매도원금" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="매도액" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="이자배당액" dataDxfId="220" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="현금수입" dataDxfId="219" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="매매수익" dataDxfId="218" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="6" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="매도비용" dataDxfId="217" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="5" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="순수익" dataDxfId="216" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="220"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="4" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="입출금" dataDxfId="215"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="순현금수입" dataDxfId="214" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="3" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="누적" dataDxfId="213" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7577,32 +7723,32 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="219" headerRowBorderDxfId="218" tableBorderDxfId="217" totalsRowBorderDxfId="216" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="212" headerRowBorderDxfId="211" tableBorderDxfId="210" totalsRowBorderDxfId="209" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="215"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="214"/>
-    <tableColumn id="3" name="종목명" dataDxfId="213">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="거래일자" dataDxfId="208"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="종목코드" dataDxfId="207"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="종목명" dataDxfId="206">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="212">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="상품명" dataDxfId="205">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="211" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="210" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="209" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="매도수량" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도비용" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="순수익" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="입출금" dataDxfId="199"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="누적" dataDxfId="1" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="매입수량" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="매입액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="현금지출" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="매입비용" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="매도수량" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="매도원금" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="매도액" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="이자배당액" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="현금수입" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="매매수익" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="매도비용" dataDxfId="194" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="순수익" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="입출금" dataDxfId="192"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="순현금수입" dataDxfId="191" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="누적" dataDxfId="190" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7611,42 +7757,42 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S28" totalsRowShown="0" headerRowDxfId="198" dataDxfId="197" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="불리오" displayName="불리오" ref="A1:S33" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="196"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="195"/>
-    <tableColumn id="9" name="종목명" dataDxfId="194">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="거래일자" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="종목코드" dataDxfId="186"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="종목명" dataDxfId="185">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="193">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="상품명" dataDxfId="184">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="192"/>
-    <tableColumn id="2" name="매입액" dataDxfId="191" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="190" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="189" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="매입수량" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="매입액" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="현금지출" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="매입비용" dataDxfId="180" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="188" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="187" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="186" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="183" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="매도수량" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="매도원금" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="매도액" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="이자배당액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="현금수입" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="매매수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="182" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="매도비용" dataDxfId="173" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="181" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="순수익" dataDxfId="172" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="179" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="입출금" dataDxfId="171" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="순현금수입" dataDxfId="170" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="178" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="누적" dataDxfId="169" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7655,40 +7801,42 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S5" totalsRowShown="0" headerRowDxfId="177" dataDxfId="175" headerRowBorderDxfId="176" tableBorderDxfId="174" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표4" displayName="표4" ref="A1:S7" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="173"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="172"/>
-    <tableColumn id="2" name="종목명" dataDxfId="171"/>
-    <tableColumn id="3" name="상품명" dataDxfId="170">
-      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목명]],표3[],3,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="거래일자" dataDxfId="164"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="종목코드" dataDxfId="163"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="종목명" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="169"/>
-    <tableColumn id="4" name="매입액" dataDxfId="168" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="167" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="166" dataCellStyle="쉼표 [0]">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="상품명" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="매입수량" dataDxfId="162"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="매입액" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="현금지출" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="매입비용" dataDxfId="159" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="165" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="164" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="163" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="160" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="매도수량" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="매도원금" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="매도액" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="이자배당액" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="현금수입" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="매매수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="159" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="매도비용" dataDxfId="152" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="158" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="순수익" dataDxfId="151" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="157"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="156">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="입출금" dataDxfId="150"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="순현금수입" dataDxfId="149">
       <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="155" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="누적" dataDxfId="148" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7697,42 +7845,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S3" totalsRowShown="0" headerRowDxfId="154" dataDxfId="152" headerRowBorderDxfId="153" tableBorderDxfId="151" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="표4_10" displayName="표4_10" ref="A1:S4" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="150"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="149"/>
-    <tableColumn id="2" name="종목명" dataDxfId="148">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="거래일자" dataDxfId="143"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="종목코드" dataDxfId="142"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="종목명" dataDxfId="141">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="147">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="상품명" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="146"/>
-    <tableColumn id="4" name="매입액" dataDxfId="145" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="144" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="143" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="매입수량" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="매입액" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="현금지출" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="매입비용" dataDxfId="136" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="142" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="141" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="140" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="139" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="137" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="매도수량" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="매도원금" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="매도액" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="이자배당액" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="현금수입" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="매매수익" dataDxfId="130" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="136" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="매도비용" dataDxfId="129" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="135" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="순수익" dataDxfId="128" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="134"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="133">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="입출금" dataDxfId="127"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="순현금수입" dataDxfId="126">
       <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="132">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="누적" dataDxfId="125">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7741,45 +7889,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T3" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:T3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:T4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="127" totalsRowDxfId="126"/>
-    <tableColumn id="9" name="종목명" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="거래일자" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="종목코드" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="종목명" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="상품명" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="121" totalsRowDxfId="120"/>
-    <tableColumn id="2" name="매입액" dataDxfId="119" totalsRowDxfId="118" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="117" totalsRowDxfId="116" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="115" totalsRowDxfId="114" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="매입수량" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="매입액" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="현금지출" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="매입비용" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="113" totalsRowDxfId="112" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="111" totalsRowDxfId="110" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="109" totalsRowDxfId="108" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="107" totalsRowDxfId="106" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="105" totalsRowDxfId="104" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="103" totalsRowDxfId="102" dataCellStyle="쉼표 [0]">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="매도수량" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="매도원금" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="매도액" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="이자배당액" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="현금수입" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="매매수익" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="101" totalsRowDxfId="100" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="매도비용" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="99" totalsRowDxfId="98" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="순수익" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="97" totalsRowDxfId="96" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="95" totalsRowDxfId="94" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="입출금" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="순현금수입" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="93" totalsRowDxfId="92" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="누적" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="91" totalsRowDxfId="90" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="외화입출금" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8047,11 +8195,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9845,8 +9993,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
-        <v>359210</v>
+      <c r="A58" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>312</v>
@@ -9870,6 +10018,122 @@
         <v>317</v>
       </c>
       <c r="J58" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>422</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>425</v>
+      </c>
+      <c r="E59" t="s">
+        <v>426</v>
+      </c>
+      <c r="F59" t="s">
+        <v>427</v>
+      </c>
+      <c r="G59" t="s">
+        <v>428</v>
+      </c>
+      <c r="H59" t="s">
+        <v>429</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>431</v>
+      </c>
+      <c r="E60" t="s">
+        <v>426</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>428</v>
+      </c>
+      <c r="H60" t="s">
+        <v>429</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
+        <v>434</v>
+      </c>
+      <c r="E61" t="s">
+        <v>426</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>428</v>
+      </c>
+      <c r="H61" t="s">
+        <v>429</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>436</v>
+      </c>
+      <c r="E62" t="s">
+        <v>426</v>
+      </c>
+      <c r="F62" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>428</v>
+      </c>
+      <c r="H62" t="s">
+        <v>429</v>
+      </c>
+      <c r="J62" s="5">
         <v>0</v>
       </c>
     </row>
@@ -9883,15 +10147,15 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10108,6 +10372,73 @@
         <v>2911</v>
       </c>
     </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="101">
+        <v>45341</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>423</v>
+      </c>
+      <c r="C4" s="99" t="str">
+        <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>일본배당주</v>
+      </c>
+      <c r="D4" s="102" t="str">
+        <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>NEXT FUNDS JAPAN HIGH DIVIDEND EQUITY ACTIVE EXCHANGE TRADED</v>
+      </c>
+      <c r="E4" s="43">
+        <v>151</v>
+      </c>
+      <c r="F4" s="103">
+        <v>335069</v>
+      </c>
+      <c r="G4" s="104">
+        <v>335069</v>
+      </c>
+      <c r="H4" s="104">
+        <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="100">
+        <v>0</v>
+      </c>
+      <c r="J4" s="103">
+        <v>0</v>
+      </c>
+      <c r="K4" s="103">
+        <v>0</v>
+      </c>
+      <c r="L4" s="103">
+        <v>0</v>
+      </c>
+      <c r="M4" s="103">
+        <v>0</v>
+      </c>
+      <c r="N4" s="103">
+        <f>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="103">
+        <f>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="105">
+        <f>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>336258</v>
+      </c>
+      <c r="R4" s="30">
+        <f>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</f>
+        <v>1189</v>
+      </c>
+      <c r="S4" s="26">
+        <f>SUM($R$2:R4)</f>
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10118,11 +10449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:M3"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10341,10 +10672,80 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <f>SUM($R$3:R3)</f>
+        <f>SUM($R$2:R3)</f>
         <v>0</v>
       </c>
       <c r="T3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>엔화자산</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>엔화자산 원화평가</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="95">
+        <v>2999992</v>
+      </c>
+      <c r="G4" s="95">
+        <v>2999992</v>
+      </c>
+      <c r="H4" s="96">
+        <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="96">
+        <v>0</v>
+      </c>
+      <c r="J4" s="95">
+        <v>0</v>
+      </c>
+      <c r="K4" s="95">
+        <v>0</v>
+      </c>
+      <c r="L4" s="95">
+        <v>0</v>
+      </c>
+      <c r="M4" s="95">
+        <v>0</v>
+      </c>
+      <c r="N4" s="96">
+        <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="96">
+        <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="96">
+        <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="98">
+        <v>2999992</v>
+      </c>
+      <c r="R4" s="96">
+        <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="96">
+        <f>SUM($R$2:R4)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="97">
+        <v>-336258</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -10357,11 +10758,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10449,7 +10850,7 @@
       <c r="A2" s="1">
         <v>45292</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C2" t="str">
@@ -10516,7 +10917,7 @@
       <c r="A3" s="1">
         <v>45292</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C3" t="str">
@@ -10583,7 +10984,7 @@
       <c r="A4" s="1">
         <v>45292</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="31" t="s">
         <v>287</v>
       </c>
       <c r="C4" t="str">
@@ -10650,7 +11051,7 @@
       <c r="A5" s="1">
         <v>45292</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="31" t="s">
         <v>276</v>
       </c>
       <c r="C5" t="str">
@@ -10717,7 +11118,7 @@
       <c r="A6" s="1">
         <v>45292</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="31" t="s">
         <v>199</v>
       </c>
       <c r="C6" t="str">
@@ -10784,7 +11185,7 @@
       <c r="A7" s="1">
         <v>45292</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="31" t="s">
         <v>279</v>
       </c>
       <c r="C7" t="str">
@@ -10851,7 +11252,7 @@
       <c r="A8" s="1">
         <v>45292</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="31" t="s">
         <v>285</v>
       </c>
       <c r="C8" t="str">
@@ -10918,7 +11319,7 @@
       <c r="A9" s="1">
         <v>45292</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="31" t="s">
         <v>277</v>
       </c>
       <c r="C9" t="str">
@@ -10985,7 +11386,7 @@
       <c r="A10" s="1">
         <v>45292</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="31" t="s">
         <v>242</v>
       </c>
       <c r="C10" t="str">
@@ -11052,7 +11453,7 @@
       <c r="A11" s="1">
         <v>45292</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="31" t="s">
         <v>278</v>
       </c>
       <c r="C11" t="str">
@@ -11119,7 +11520,7 @@
       <c r="A12" s="1">
         <v>45293</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="31" t="s">
         <v>280</v>
       </c>
       <c r="C12" t="str">
@@ -11170,7 +11571,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>-430</v>
       </c>
-      <c r="Q12"/>
+      <c r="Q12">
+        <v>0</v>
+      </c>
       <c r="R12">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>-2999650</v>
@@ -11184,7 +11587,7 @@
       <c r="A13" s="3">
         <v>45293</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="31" t="s">
         <v>242</v>
       </c>
       <c r="C13" s="9" t="str">
@@ -11195,7 +11598,15 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>넥스틸</v>
       </c>
-      <c r="E13" s="40"/>
+      <c r="E13" s="40">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
       <c r="H13" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -11208,6 +11619,9 @@
       </c>
       <c r="K13">
         <v>1446000</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
       </c>
       <c r="M13">
         <f>1446000-200-2601</f>
@@ -11225,6 +11639,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>-128801</v>
       </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
       <c r="R13" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>1443199</v>
@@ -11238,7 +11655,7 @@
       <c r="A14" s="3">
         <v>45293</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C14" s="9" t="str">
@@ -11249,16 +11666,30 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="40">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
       <c r="H14" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
+      <c r="I14" s="35">
+        <v>0</v>
+      </c>
       <c r="J14" s="7">
         <v>1988333</v>
       </c>
       <c r="K14">
         <v>1989286</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0</v>
       </c>
       <c r="M14">
         <f>1989286-140</f>
@@ -11276,6 +11707,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>813</v>
       </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
       <c r="R14" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>1989146</v>
@@ -11289,7 +11723,7 @@
       <c r="A15" s="3">
         <v>45294</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="109" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="64" t="str">
@@ -11300,9 +11734,15 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>넥스틸</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="63"/>
+      <c r="E15" s="43">
+        <v>0</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0</v>
+      </c>
+      <c r="G15" s="63">
+        <v>0</v>
+      </c>
       <c r="H15" s="63">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -11317,7 +11757,9 @@
       <c r="K15" s="68">
         <v>995240</v>
       </c>
-      <c r="L15" s="66"/>
+      <c r="L15" s="66">
+        <v>0</v>
+      </c>
       <c r="M15" s="69">
         <v>993332</v>
       </c>
@@ -11333,7 +11775,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>-99208</v>
       </c>
-      <c r="Q15" s="69"/>
+      <c r="Q15" s="69">
+        <v>0</v>
+      </c>
       <c r="R15" s="63">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>993332</v>
@@ -11347,7 +11791,7 @@
       <c r="A16" s="3">
         <v>45294</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="110" t="s">
         <v>279</v>
       </c>
       <c r="C16" s="9" t="str">
@@ -11358,9 +11802,26 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>ACE 미국하이일드액티브(H)</v>
       </c>
-      <c r="E16" s="40"/>
+      <c r="E16" s="40">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
       <c r="H16" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="35">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" s="7">
@@ -11381,6 +11842,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>13336</v>
       </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
       <c r="R16" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>13336</v>
@@ -11394,7 +11858,7 @@
       <c r="A17" s="3">
         <v>45295</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C17" s="9" t="str">
@@ -11405,7 +11869,9 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
       </c>
-      <c r="E17" s="40"/>
+      <c r="E17" s="40">
+        <v>0</v>
+      </c>
       <c r="F17" s="7">
         <v>1019062</v>
       </c>
@@ -11416,6 +11882,21 @@
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
+      <c r="I17" s="35">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
       <c r="N17">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -11426,6 +11907,9 @@
       </c>
       <c r="P17">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>0</v>
       </c>
       <c r="R17" s="5">
@@ -11441,7 +11925,7 @@
       <c r="A18" s="3">
         <v>45296</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C18" s="9" t="str">
@@ -11452,9 +11936,32 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E18" s="40"/>
+      <c r="E18" s="40">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
       <c r="H18" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="35">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
@@ -11485,7 +11992,7 @@
       <c r="A19" s="1">
         <v>45299</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="31" t="s">
         <v>277</v>
       </c>
       <c r="C19" s="9" t="str">
@@ -11509,6 +12016,21 @@
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>140</v>
       </c>
+      <c r="I19" s="35">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
       <c r="N19">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -11521,6 +12043,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>-140</v>
       </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
       <c r="R19" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>-995810</v>
@@ -11534,7 +12059,7 @@
       <c r="A20" s="3">
         <v>45312</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C20" s="9" t="str">
@@ -11545,9 +12070,32 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E20" s="40"/>
+      <c r="E20" s="40">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
       <c r="H20" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="35">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
@@ -11578,7 +12126,7 @@
       <c r="A21" s="3">
         <v>45313</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="31" t="s">
         <v>287</v>
       </c>
       <c r="C21" s="9" t="str">
@@ -11589,7 +12137,9 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="40">
+        <v>0</v>
+      </c>
       <c r="F21" s="7">
         <v>300000</v>
       </c>
@@ -11600,6 +12150,21 @@
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
+      <c r="I21" s="35">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
       <c r="N21">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -11610,6 +12175,9 @@
       </c>
       <c r="P21">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21" s="5">
@@ -11625,8 +12193,8 @@
       <c r="A22" s="3">
         <v>45315</v>
       </c>
-      <c r="B22" s="31">
-        <v>359210</v>
+      <c r="B22" s="31" t="s">
+        <v>430</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11649,6 +12217,21 @@
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>460</v>
       </c>
+      <c r="I22" s="35">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
       <c r="N22">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -11661,6 +12244,9 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>-460</v>
       </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
       <c r="R22" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>-3172915</v>
@@ -11674,7 +12260,7 @@
       <c r="A23" s="3">
         <v>45324</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="110" t="s">
         <v>279</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -11685,9 +12271,26 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>ACE 미국하이일드액티브(H)</v>
       </c>
-      <c r="E23" s="40"/>
+      <c r="E23" s="40">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
       <c r="H23" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="35">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>0</v>
       </c>
       <c r="L23" s="7">
@@ -11708,11 +12311,14 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>13336</v>
       </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
       <c r="R23" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>13336</v>
       </c>
-      <c r="S23" s="5">
+      <c r="S23">
         <f>SUM($R$2:R23)</f>
         <v>40421</v>
       </c>
@@ -11721,7 +12327,7 @@
       <c r="A24" s="3">
         <v>45327</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="31" t="s">
         <v>291</v>
       </c>
       <c r="C24" s="9" t="str">
@@ -11732,16 +12338,30 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
       </c>
-      <c r="E24" s="40"/>
+      <c r="E24" s="40">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0</v>
+      </c>
       <c r="H24" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
+      <c r="I24" s="35">
+        <v>0</v>
+      </c>
       <c r="J24" s="7">
         <v>1019062</v>
       </c>
       <c r="K24">
         <v>1022188</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0</v>
       </c>
       <c r="M24">
         <v>1021718</v>
@@ -11758,20 +12378,23 @@
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
         <v>2656</v>
       </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
       <c r="R24" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>1021718</v>
       </c>
-      <c r="S24" s="5">
+      <c r="S24">
         <f>SUM($R$2:R24)</f>
         <v>1062139</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>45328</v>
-      </c>
-      <c r="B25" t="s">
+        <v>45327</v>
+      </c>
+      <c r="B25" s="31" t="s">
         <v>272</v>
       </c>
       <c r="C25" s="9" t="str">
@@ -11782,9 +12405,32 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="40">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0</v>
+      </c>
       <c r="H25" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="35">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
@@ -11806,9 +12452,478 @@
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>-600250</v>
       </c>
-      <c r="S25" s="5">
+      <c r="S25">
         <f>SUM($R$2:R25)</f>
         <v>461889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>45336</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C26" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투예수금</v>
+      </c>
+      <c r="D26" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E26" s="40">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="35">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="7">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1000000</v>
+      </c>
+      <c r="R26" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>1000000</v>
+      </c>
+      <c r="S26">
+        <f>SUM($R$2:R26)</f>
+        <v>1461889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D27" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E27" s="40">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="35">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7">
+        <v>5000000</v>
+      </c>
+      <c r="K27">
+        <v>5044383</v>
+      </c>
+      <c r="L27" s="7">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>5037553</v>
+      </c>
+      <c r="N27">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>44383</v>
+      </c>
+      <c r="O27" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>6830</v>
+      </c>
+      <c r="P27">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>37553</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>5037553</v>
+      </c>
+      <c r="S27">
+        <f>SUM($R$2:R27)</f>
+        <v>6499442</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투원화발행어음</v>
+      </c>
+      <c r="D28" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
+      </c>
+      <c r="E28" s="40">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="35">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <v>5188345</v>
+      </c>
+      <c r="K28">
+        <v>5215210</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>5211080</v>
+      </c>
+      <c r="N28">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>26865</v>
+      </c>
+      <c r="O28" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>4130</v>
+      </c>
+      <c r="P28">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>22735</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>5211080</v>
+      </c>
+      <c r="S28">
+        <f>SUM($R$2:R28)</f>
+        <v>11710522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>45336</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투예수금</v>
+      </c>
+      <c r="D29" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E29" s="40">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="35">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>-2999992</v>
+      </c>
+      <c r="R29" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2999992</v>
+      </c>
+      <c r="S29">
+        <f>SUM($R$2:R29)</f>
+        <v>8710530</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="C30" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국단기회사채</v>
+      </c>
+      <c r="D30" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>KBSTAR 미국단기투자등급회사채액티비</v>
+      </c>
+      <c r="E30" s="40">
+        <v>330</v>
+      </c>
+      <c r="F30" s="7">
+        <v>3507900</v>
+      </c>
+      <c r="G30" s="5">
+        <v>3508190</v>
+      </c>
+      <c r="H30" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>290</v>
+      </c>
+      <c r="I30" s="35">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-290</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-3508190</v>
+      </c>
+      <c r="S30">
+        <f>SUM($R$2:R30)</f>
+        <v>5202340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>438</v>
+      </c>
+      <c r="C31" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>글로벌AI주식</v>
+      </c>
+      <c r="D31" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIMEFOLIO 글로벌AI인공지능액티브</v>
+      </c>
+      <c r="E31" s="40">
+        <v>116</v>
+      </c>
+      <c r="F31" s="7">
+        <v>2013760</v>
+      </c>
+      <c r="G31" s="5">
+        <v>2014050</v>
+      </c>
+      <c r="H31" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>290</v>
+      </c>
+      <c r="I31" s="35">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" s="7">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-290</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2014050</v>
+      </c>
+      <c r="S31">
+        <f>SUM($R$2:R31)</f>
+        <v>3188290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>45341</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="C32" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국배당주</v>
+      </c>
+      <c r="D32" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>TIGER 미국배당다우존스</v>
+      </c>
+      <c r="E32" s="40">
+        <v>183</v>
+      </c>
+      <c r="F32" s="7">
+        <v>2009340</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2009850</v>
+      </c>
+      <c r="H32" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>510</v>
+      </c>
+      <c r="I32" s="35">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" s="7">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>-510</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-2009850</v>
+      </c>
+      <c r="S32">
+        <f>SUM($R$2:R32)</f>
+        <v>1178440</v>
       </c>
     </row>
   </sheetData>
@@ -11822,7 +12937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12169,7 +13284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12334,7 +13449,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -12448,7 +13563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12561,7 +13676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -17033,14 +18148,15 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17378,7 +18494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -17395,9 +18511,9 @@
       <c r="A1" t="s">
         <v>158</v>
       </c>
-      <c r="B1" t="e">
+      <c r="B1">
         <f>SUM(외화자산평가!$F:$F)/-SUMIF(외화자산평가!$T:$T,"&lt;0",외화자산평가!$T:$T)</f>
-        <v>#DIV/0!</v>
+        <v>87.09425500657234</v>
       </c>
     </row>
   </sheetData>
@@ -17407,10 +18523,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -17931,7 +19047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21436,7 +22552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21753,7 +22869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22469,7 +23585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22595,7 +23711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23159,7 +24275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23400,15 +24516,15 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="S18" sqref="S18"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25304,6 +26420,341 @@
         <v>56.09999999999976</v>
       </c>
     </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="92">
+        <v>45341</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>440</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>홍콩주식</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI HONG KONG ETF</v>
+      </c>
+      <c r="E29" s="38">
+        <v>0</v>
+      </c>
+      <c r="F29" s="95">
+        <v>0</v>
+      </c>
+      <c r="G29" s="96">
+        <v>0</v>
+      </c>
+      <c r="H29" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="111">
+        <v>1</v>
+      </c>
+      <c r="J29" s="95">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="K29" s="95">
+        <v>16.36</v>
+      </c>
+      <c r="L29" s="112">
+        <v>0</v>
+      </c>
+      <c r="M29" s="95">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="N29" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>-1.7899999999999991</v>
+      </c>
+      <c r="O29" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>9.9999999999980105E-3</v>
+      </c>
+      <c r="P29" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-1.7999999999999972</v>
+      </c>
+      <c r="Q29" s="91">
+        <v>0</v>
+      </c>
+      <c r="R29" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>16.350000000000001</v>
+      </c>
+      <c r="S29" s="12">
+        <f>SUM($R$2:R29)</f>
+        <v>72.449999999999761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="92">
+        <v>45341</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>브라질주식</v>
+      </c>
+      <c r="D30" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI Brazil ETF</v>
+      </c>
+      <c r="E30" s="38">
+        <v>0</v>
+      </c>
+      <c r="F30" s="95">
+        <v>0</v>
+      </c>
+      <c r="G30" s="96">
+        <v>0</v>
+      </c>
+      <c r="H30" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="111">
+        <v>1</v>
+      </c>
+      <c r="J30" s="95">
+        <v>35.590000000000003</v>
+      </c>
+      <c r="K30" s="95">
+        <v>32.86</v>
+      </c>
+      <c r="L30" s="112">
+        <v>0</v>
+      </c>
+      <c r="M30" s="95">
+        <v>32.82</v>
+      </c>
+      <c r="N30" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>-2.730000000000004</v>
+      </c>
+      <c r="O30" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="P30" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-2.7700000000000031</v>
+      </c>
+      <c r="Q30" s="91">
+        <v>0</v>
+      </c>
+      <c r="R30" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>32.82</v>
+      </c>
+      <c r="S30" s="12">
+        <f>SUM($R$2:R30)</f>
+        <v>105.26999999999975</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="92">
+        <v>45341</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>442</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>중국주식</v>
+      </c>
+      <c r="D31" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES CHINA LARGE-CAP ETF</v>
+      </c>
+      <c r="E31" s="38">
+        <v>0</v>
+      </c>
+      <c r="F31" s="95">
+        <v>0</v>
+      </c>
+      <c r="G31" s="96">
+        <v>0</v>
+      </c>
+      <c r="H31" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="111">
+        <v>1</v>
+      </c>
+      <c r="J31" s="95">
+        <v>25.08</v>
+      </c>
+      <c r="K31" s="95">
+        <v>23.23</v>
+      </c>
+      <c r="L31" s="112">
+        <v>0</v>
+      </c>
+      <c r="M31" s="95">
+        <v>23.21</v>
+      </c>
+      <c r="N31" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>-1.8499999999999979</v>
+      </c>
+      <c r="O31" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="P31" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-1.8699999999999974</v>
+      </c>
+      <c r="Q31" s="91">
+        <v>0</v>
+      </c>
+      <c r="R31" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>23.21</v>
+      </c>
+      <c r="S31" s="12">
+        <f>SUM($R$2:R31)</f>
+        <v>128.47999999999976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="92">
+        <v>45341</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>신흥국주식</v>
+      </c>
+      <c r="D32" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SCHWAB EMERGING MARKETS EQUITY ETF</v>
+      </c>
+      <c r="E32" s="38">
+        <v>0</v>
+      </c>
+      <c r="F32" s="95">
+        <v>0</v>
+      </c>
+      <c r="G32" s="96">
+        <v>0</v>
+      </c>
+      <c r="H32" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="111">
+        <v>1</v>
+      </c>
+      <c r="J32" s="95">
+        <v>24.2</v>
+      </c>
+      <c r="K32" s="95">
+        <v>24.65</v>
+      </c>
+      <c r="L32" s="112">
+        <v>0</v>
+      </c>
+      <c r="M32" s="95">
+        <v>24.62</v>
+      </c>
+      <c r="N32" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0.44999999999999929</v>
+      </c>
+      <c r="O32" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>2.9999999999997584E-2</v>
+      </c>
+      <c r="P32" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="Q32" s="91">
+        <v>0</v>
+      </c>
+      <c r="R32" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>24.62</v>
+      </c>
+      <c r="S32" s="12">
+        <f>SUM($R$2:R32)</f>
+        <v>153.09999999999977</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="92">
+        <v>45341</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>하이일드</v>
+      </c>
+      <c r="D33" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR SERIES TRUST Portfolio High Yield Bond ETF</v>
+      </c>
+      <c r="E33" s="38">
+        <v>0</v>
+      </c>
+      <c r="F33" s="95">
+        <v>0</v>
+      </c>
+      <c r="G33" s="96">
+        <v>0</v>
+      </c>
+      <c r="H33" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="111">
+        <v>17</v>
+      </c>
+      <c r="J33" s="95">
+        <v>395.59</v>
+      </c>
+      <c r="K33" s="95">
+        <v>394.91</v>
+      </c>
+      <c r="L33" s="112">
+        <v>0</v>
+      </c>
+      <c r="M33" s="95">
+        <v>394.25</v>
+      </c>
+      <c r="N33" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>-0.67999999999994998</v>
+      </c>
+      <c r="O33" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0.66000000000002501</v>
+      </c>
+      <c r="P33" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-1.339999999999975</v>
+      </c>
+      <c r="Q33" s="91">
+        <v>0</v>
+      </c>
+      <c r="R33" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>394.25</v>
+      </c>
+      <c r="S33" s="12">
+        <f>SUM($R$2:R33)</f>
+        <v>547.3499999999998</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25315,15 +26766,15 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25674,6 +27125,142 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="101">
+        <v>45341</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투외화발행어음</v>
+      </c>
+      <c r="D6" s="9" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 외화발행어음(수시)</v>
+      </c>
+      <c r="E6" s="43">
+        <v>0</v>
+      </c>
+      <c r="F6" s="103">
+        <v>0</v>
+      </c>
+      <c r="G6" s="104">
+        <v>0</v>
+      </c>
+      <c r="H6" s="104">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="100">
+        <v>1</v>
+      </c>
+      <c r="J6" s="103">
+        <v>5835.86</v>
+      </c>
+      <c r="K6" s="103">
+        <f>3884.79+2023.91</f>
+        <v>5908.7</v>
+      </c>
+      <c r="L6" s="103">
+        <v>0</v>
+      </c>
+      <c r="M6" s="103">
+        <f>3877.26+2020.24</f>
+        <v>5897.5</v>
+      </c>
+      <c r="N6" s="103">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>72.840000000000146</v>
+      </c>
+      <c r="O6" s="103">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>11.199999999999818</v>
+      </c>
+      <c r="P6" s="105">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>61.640000000000327</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>5897.5</v>
+      </c>
+      <c r="S6">
+        <f>SUM($R$2:R6)</f>
+        <v>5897.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="101">
+        <v>45341</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="106" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투외화RP</v>
+      </c>
+      <c r="D7" s="107" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 외화RP</v>
+      </c>
+      <c r="E7" s="43">
+        <v>1</v>
+      </c>
+      <c r="F7" s="103">
+        <v>5897.5</v>
+      </c>
+      <c r="G7" s="103">
+        <v>5897.5</v>
+      </c>
+      <c r="H7" s="104">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="100">
+        <v>0</v>
+      </c>
+      <c r="J7" s="103">
+        <v>0</v>
+      </c>
+      <c r="K7" s="103">
+        <v>0</v>
+      </c>
+      <c r="L7" s="103">
+        <v>0</v>
+      </c>
+      <c r="M7" s="103">
+        <v>0</v>
+      </c>
+      <c r="N7" s="103">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="103">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="105">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>0</v>
+      </c>
+      <c r="R7" s="30">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>-5897.5</v>
+      </c>
+      <c r="S7">
+        <f>SUM($R$2:R7)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infomax\Desktop\programming\my_asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884A145F-6E05-4B57-9DE9-F943934084C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3883C-D871-466A-8D89-78082BAED090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="461">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1597,6 +1597,70 @@
   </si>
   <si>
     <t>SPHY</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWW</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPTL</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EWC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EZU</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAVE</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNQ</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국부동산</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>VANGUARD REAL ESTATE ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>한투</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체자산</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLOBAL X US INFRASTRUCTURE DEVELOPMENT ETF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국인프라</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>US91282CCG4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYDO_KOIN</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1822,7 +1886,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1830,8 +1894,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2165,86 +2234,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="쉼표 [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
-  <dxfs count="264">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="266">
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
@@ -3021,7 +3059,16 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4690,6 +4737,76 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="맑은 고딕"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -7329,11 +7446,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표3" displayName="표3" ref="A1:J62" totalsRowShown="0">
-  <autoFilter ref="A1:J62" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표3" displayName="표3" ref="A1:J64" totalsRowShown="0">
+  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="종목코드" dataDxfId="263"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="종목명" dataDxfId="262">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="종목코드" dataDxfId="265"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="종목명" dataDxfId="264">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="평가금액"/>
@@ -7343,7 +7460,7 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="자산군"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="세부자산군"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="세부자산군2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="기초평가손익" dataDxfId="261"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="기초평가손익" dataDxfId="263"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7362,12 +7479,12 @@
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="매입수량" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="매입액"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="현금지출"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="매입비용" dataDxfId="76">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="매입액" dataDxfId="76" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="현금지출" dataDxfId="75" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="매입비용" dataDxfId="74">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="매도수량" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="매도수량" dataDxfId="73"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="매도원금"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="매도액"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="이자배당액"/>
@@ -7382,10 +7499,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="입출금"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="순현금수입" dataDxfId="74">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="순현금수입" dataDxfId="72">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="누적" dataDxfId="2">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="누적" dataDxfId="71">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7394,24 +7511,24 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="73" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="70" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="거래일자" dataDxfId="72"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="종목코드" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="종목명" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="거래일자" dataDxfId="69"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="종목코드" dataDxfId="68"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="종목명" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="상품명" dataDxfId="69">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="상품명" dataDxfId="66">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="매입수량" dataDxfId="68"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="매입수량" dataDxfId="65"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="매입액"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="현금지출"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="매입비용" dataDxfId="67">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="매입비용" dataDxfId="64">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="매도수량" dataDxfId="66"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="매도수량" dataDxfId="63"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="매도원금"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="매도액"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="이자배당액"/>
@@ -7426,10 +7543,10 @@
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="입출금"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="순현금수입" dataDxfId="65">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="순현금수입" dataDxfId="62">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="누적" dataDxfId="64">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="누적" dataDxfId="61">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7438,42 +7555,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="거래일자" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="종목코드" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="종목명" dataDxfId="59">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="거래일자" dataDxfId="58"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="종목코드" dataDxfId="57"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="종목명" dataDxfId="56">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="상품명" dataDxfId="58">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="상품명" dataDxfId="55">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="매입수량" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="매입액" dataDxfId="56" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="현금지출" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="매입비용" dataDxfId="54" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="매입수량" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="매입액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="현금지출" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="매입비용" dataDxfId="51" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="매도수량" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="매도원금" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="매도액" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="이자배당액" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="현금수입" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="매매수익" dataDxfId="48" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="매도수량" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="매도원금" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="매도액" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="이자배당액" dataDxfId="47" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="현금수입" dataDxfId="46" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="매매수익" dataDxfId="45" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="매도비용" dataDxfId="47" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="매도비용" dataDxfId="44" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="순수익" dataDxfId="46" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="순수익" dataDxfId="43" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="입출금" dataDxfId="45" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="순현금수입" dataDxfId="44" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="입출금" dataDxfId="42" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="순현금수입" dataDxfId="41" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="누적" dataDxfId="43" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="누적" dataDxfId="40" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7482,24 +7599,24 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="42" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="39" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="거래일자" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="종목코드" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="종목명" dataDxfId="39">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="거래일자" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="종목코드" dataDxfId="37"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="종목명" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="상품명" dataDxfId="38">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="상품명" dataDxfId="35">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="매입수량" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="매입수량" dataDxfId="34"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="매입액"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="현금지출"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="매입비용" dataDxfId="36">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="매입비용" dataDxfId="33">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="매도수량" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="매도수량" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="매도원금"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" name="매도액"/>
     <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" name="이자배당액"/>
@@ -7514,10 +7631,10 @@
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="입출금"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="순현금수입" dataDxfId="34">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="순현금수입" dataDxfId="31">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="누적" dataDxfId="33">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="누적" dataDxfId="30">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7526,42 +7643,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="거래일자" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="종목코드" dataDxfId="29"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="종목명" dataDxfId="28">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="거래일자" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="종목코드" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="종목명" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="상품명" dataDxfId="27">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="상품명" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="매입수량" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="매입액" dataDxfId="25" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="현금지출" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="매입비용" dataDxfId="23" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="매입수량" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="매입액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="현금지출" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="매입비용" dataDxfId="20" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="매도수량" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="매도원금" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="매도액" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="이자배당액" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="현금수입" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="매매수익" dataDxfId="17" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="매도수량" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="매도원금" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="매도액" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="이자배당액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="현금수입" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="매매수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="매도비용" dataDxfId="16" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="매도비용" dataDxfId="13" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="순수익" dataDxfId="15" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="순수익" dataDxfId="12" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="입출금" dataDxfId="14" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="순현금수입" dataDxfId="13" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="입출금" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="순현금수입" dataDxfId="10" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="누적" dataDxfId="12" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="누적" dataDxfId="9" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7570,28 +7687,28 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F340" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="거래일자" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="원화자금유입" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="원화투자회수" dataDxfId="8" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="원화투자지출" dataDxfId="7" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="거래일자" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="원화자금유입" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="원화투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="원화투자지출" dataDxfId="4" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="원화자금유출" dataDxfId="6" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="달러투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="원화자금유출" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="달러투자회수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:T57" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="20">
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="종목코드"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="거래일자" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="거래일자" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="종목명"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="통화"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="계좌"/>
@@ -7621,56 +7738,56 @@
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="종목코드"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="종목명"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="평가금액" dataDxfId="260" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="평가금액" dataDxfId="262" dataCellStyle="쉼표 [0]"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="상품명"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="계좌"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="통화"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="자산군"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="세부자산군"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="세부자산군2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="기초평가손익" dataDxfId="259" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="기초평가손익" dataDxfId="261" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="258" headerRowBorderDxfId="257" tableBorderDxfId="256" totalsRowBorderDxfId="255" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="260" headerRowBorderDxfId="259" tableBorderDxfId="258" totalsRowBorderDxfId="257" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="거래일자" dataDxfId="254"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="종목코드" dataDxfId="253"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="종목명" dataDxfId="252">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="거래일자" dataDxfId="256"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="종목코드" dataDxfId="255"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="종목명" dataDxfId="254">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="상품명" dataDxfId="251">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="상품명" dataDxfId="253">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="매입수량" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="매입액" dataDxfId="249" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="현금지출" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="매입비용" dataDxfId="247" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="매입수량" dataDxfId="252" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="매입액" dataDxfId="251" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="현금지출" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="매입비용" dataDxfId="249" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="매도수량" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="매도원금" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="매도액" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="이자배당액" dataDxfId="243" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="현금수입" dataDxfId="242" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="매매수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="매도수량" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="매도원금" dataDxfId="247" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="매도액" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="이자배당액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="현금수입" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="매매수익" dataDxfId="243" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="매도비용" dataDxfId="240" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="매도비용" dataDxfId="242" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="순수익" dataDxfId="239" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="순수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="입출금" dataDxfId="238"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="순현금수입" dataDxfId="237" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="입출금" dataDxfId="240"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="순현금수입" dataDxfId="239" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="누적" dataDxfId="236" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="누적" dataDxfId="238" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7679,42 +7796,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="235" headerRowBorderDxfId="234" tableBorderDxfId="233" totalsRowBorderDxfId="232" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="237" headerRowBorderDxfId="236" tableBorderDxfId="235" totalsRowBorderDxfId="234" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S12" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="거래일자" dataDxfId="231"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="종목코드" dataDxfId="230"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="종목명" dataDxfId="229">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="거래일자" dataDxfId="233"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="종목코드" dataDxfId="232"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="종목명" dataDxfId="231">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="상품명" dataDxfId="228">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="상품명" dataDxfId="230">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="매입수량" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="매입액" dataDxfId="226" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="현금지출" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="매입비용" dataDxfId="224" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="매입수량" dataDxfId="229" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="매입액" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="현금지출" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="매입비용" dataDxfId="226" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="매도수량" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="매도원금" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="매도액" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="이자배당액" dataDxfId="220" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="현금수입" dataDxfId="219" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="매매수익" dataDxfId="218" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="매도수량" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="매도원금" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="매도액" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="이자배당액" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="현금수입" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="매매수익" dataDxfId="220" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="매도비용" dataDxfId="217" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="매도비용" dataDxfId="219" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="순수익" dataDxfId="216" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="순수익" dataDxfId="218" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="입출금" dataDxfId="215"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="순현금수입" dataDxfId="214" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="입출금" dataDxfId="217"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="순현금수입" dataDxfId="216" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="누적" dataDxfId="213" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="누적" dataDxfId="215" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7723,32 +7840,32 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="212" headerRowBorderDxfId="211" tableBorderDxfId="210" totalsRowBorderDxfId="209" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="거래일자" dataDxfId="208"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="종목코드" dataDxfId="207"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="종목명" dataDxfId="206">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="거래일자" dataDxfId="210"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="종목코드" dataDxfId="209"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="종목명" dataDxfId="208">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="상품명" dataDxfId="205">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="상품명" dataDxfId="207">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="매입수량" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="매입액" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="현금지출" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="매입비용" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="매도수량" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="매도원금" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="매도액" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="이자배당액" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="현금수입" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="매매수익" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="매도비용" dataDxfId="194" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="순수익" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="입출금" dataDxfId="192"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="순현금수입" dataDxfId="191" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="누적" dataDxfId="190" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="매입수량" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="매입액" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="현금지출" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="매입비용" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="매도수량" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="매도원금" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="매도액" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="이자배당액" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="현금수입" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="매매수익" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="매도비용" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="순수익" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="입출금" dataDxfId="194"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="순현금수입" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="누적" dataDxfId="192" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7757,42 +7874,42 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="불리오" displayName="불리오" ref="A1:S33" totalsRowShown="0" headerRowDxfId="189" dataDxfId="188" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="불리오" displayName="불리오" ref="A1:S37" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="거래일자" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="종목코드" dataDxfId="186"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="종목명" dataDxfId="185">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="거래일자" dataDxfId="189"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="종목코드" dataDxfId="188"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="종목명" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="상품명" dataDxfId="184">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="상품명" dataDxfId="186">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="매입수량" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="매입액" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="현금지출" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="매입비용" dataDxfId="180" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="매입수량" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="매입액" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="현금지출" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="매입비용" dataDxfId="182" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="매도수량" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="매도원금" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="매도액" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="이자배당액" dataDxfId="176" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="현금수입" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="매매수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="매도수량" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="매도원금" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="매도액" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="이자배당액" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="현금수입" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="매매수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="매도비용" dataDxfId="173" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="매도비용" dataDxfId="175" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="순수익" dataDxfId="172" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="순수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="입출금" dataDxfId="171" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="순현금수입" dataDxfId="170" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="입출금" dataDxfId="173" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="순현금수입" dataDxfId="172" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="누적" dataDxfId="169" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="누적" dataDxfId="171" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7801,15 +7918,15 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표4" displayName="표4" ref="A1:S7" totalsRowShown="0" headerRowDxfId="168" dataDxfId="166" headerRowBorderDxfId="167" tableBorderDxfId="165" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표4" displayName="표4" ref="A1:S11" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="거래일자" dataDxfId="164"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="종목코드" dataDxfId="163"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="종목명" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="거래일자" dataDxfId="166"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="종목코드" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="종목명" dataDxfId="164">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="상품명" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="상품명" dataDxfId="163">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="매입수량" dataDxfId="162"/>
@@ -8196,10 +8313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:A62"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8213,7 +8330,7 @@
     <col min="7" max="7" width="9.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -9419,7 +9536,7 @@
         <v>163</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>3118.02</v>
       </c>
       <c r="D39" t="s">
         <v>166</v>
@@ -9480,7 +9597,7 @@
         <v>165</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>5045369</v>
       </c>
       <c r="D41" t="s">
         <v>168</v>
@@ -9512,7 +9629,8 @@
         <v>162</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <f>5056743+4774227+604108</f>
+        <v>10435078</v>
       </c>
       <c r="D42" t="s">
         <v>169</v>
@@ -9570,7 +9688,7 @@
         <v>153</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1497062</v>
       </c>
       <c r="D44" t="s">
         <v>153</v>
@@ -9660,7 +9778,7 @@
         <v>161</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1054767</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>161</v>
@@ -9869,13 +9987,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
-        <v>238</v>
+        <v>459</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>237</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1969.4</v>
       </c>
       <c r="D54" t="s">
         <v>239</v>
@@ -10134,6 +10252,64 @@
         <v>429</v>
       </c>
       <c r="J62" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>456</v>
+      </c>
+      <c r="E63" t="s">
+        <v>453</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>454</v>
+      </c>
+      <c r="H63" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>452</v>
+      </c>
+      <c r="E64" t="s">
+        <v>453</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>454</v>
+      </c>
+      <c r="H64" t="s">
+        <v>455</v>
+      </c>
+      <c r="J64" s="5">
         <v>0</v>
       </c>
     </row>
@@ -10151,11 +10327,11 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10324,10 +10500,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="27">
-        <v>356979</v>
+        <v>359653</v>
       </c>
       <c r="G3" s="28">
-        <v>356979</v>
+        <v>359653</v>
       </c>
       <c r="H3" s="28">
         <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
@@ -10361,7 +10537,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="30">
-        <v>356979</v>
+        <v>359653</v>
       </c>
       <c r="R3" s="30">
         <f>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</f>
@@ -10394,11 +10570,11 @@
         <v>335069</v>
       </c>
       <c r="G4" s="104">
-        <v>335069</v>
+        <v>336007</v>
       </c>
       <c r="H4" s="104">
         <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
-        <v>0</v>
+        <v>938</v>
       </c>
       <c r="I4" s="100">
         <v>0</v>
@@ -10425,18 +10601,18 @@
       </c>
       <c r="P4" s="105">
         <f>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</f>
-        <v>0</v>
+        <v>-938</v>
       </c>
       <c r="Q4" s="30">
         <v>336258</v>
       </c>
       <c r="R4" s="30">
         <f>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</f>
-        <v>1189</v>
+        <v>251</v>
       </c>
       <c r="S4" s="26">
         <f>SUM($R$2:R4)</f>
-        <v>4100</v>
+        <v>3162</v>
       </c>
     </row>
   </sheetData>
@@ -10452,8 +10628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10560,10 +10736,10 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>22972101</v>
+        <v>22572209</v>
       </c>
       <c r="G2">
-        <v>22972101</v>
+        <v>22572209</v>
       </c>
       <c r="H2">
         <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
@@ -10597,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>22972101</v>
+        <v>22572209</v>
       </c>
       <c r="R2">
         <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
@@ -10628,10 +10804,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>3314047</v>
+        <v>3199997</v>
       </c>
       <c r="G3">
-        <v>3314047</v>
+        <v>3199997</v>
       </c>
       <c r="H3">
         <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
@@ -10665,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3314047</v>
+        <v>3199997</v>
       </c>
       <c r="R3">
         <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
@@ -10679,7 +10855,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>45292</v>
+        <v>45336</v>
       </c>
       <c r="B4" s="46" t="s">
         <v>284</v>
@@ -10759,10 +10935,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:S32"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10773,7 +10949,8 @@
     <col min="4" max="4" width="44.75" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
     <col min="6" max="6" width="16.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="5" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="35" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.375" customWidth="1"/>
@@ -10864,10 +11041,10 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2">
@@ -10931,10 +11108,10 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>17176678</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>17176678</v>
       </c>
       <c r="H3">
@@ -10998,10 +11175,10 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>10043166</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>10043166</v>
       </c>
       <c r="H4">
@@ -11065,11 +11242,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-      <c r="F5">
-        <v>1120000</v>
-      </c>
-      <c r="G5">
-        <v>1120000</v>
+      <c r="F5" s="7">
+        <v>956000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>956000</v>
       </c>
       <c r="H5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11103,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1120000</v>
+        <v>956000</v>
       </c>
       <c r="R5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11132,11 +11309,11 @@
       <c r="E6">
         <v>48</v>
       </c>
-      <c r="F6">
-        <v>2990400</v>
-      </c>
-      <c r="G6">
-        <v>2990400</v>
+      <c r="F6" s="7">
+        <v>2932800</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2932800</v>
       </c>
       <c r="H6">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11170,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2990400</v>
+        <v>2932800</v>
       </c>
       <c r="R6">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11199,11 +11376,11 @@
       <c r="E7">
         <v>303</v>
       </c>
-      <c r="F7">
-        <v>3072420</v>
-      </c>
-      <c r="G7">
-        <v>3072420</v>
+      <c r="F7" s="7">
+        <v>3014850</v>
+      </c>
+      <c r="G7" s="7">
+        <v>3014850</v>
       </c>
       <c r="H7">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11237,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3072420</v>
+        <v>3014850</v>
       </c>
       <c r="R7">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11266,11 +11443,11 @@
       <c r="E8">
         <v>403</v>
       </c>
-      <c r="F8">
-        <v>5168475</v>
-      </c>
-      <c r="G8">
-        <v>5168475</v>
+      <c r="F8" s="7">
+        <v>4985110</v>
+      </c>
+      <c r="G8" s="7">
+        <v>4985110</v>
       </c>
       <c r="H8">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11304,7 +11481,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5168475</v>
+        <v>4985110</v>
       </c>
       <c r="R8">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11333,11 +11510,11 @@
       <c r="E9">
         <v>144</v>
       </c>
-      <c r="F9">
-        <v>2004480</v>
-      </c>
-      <c r="G9">
-        <v>2004480</v>
+      <c r="F9" s="7">
+        <v>1992960</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1992960</v>
       </c>
       <c r="H9">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11371,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>2004480</v>
+        <v>1992960</v>
       </c>
       <c r="R9">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11397,14 +11574,14 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>넥스틸</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="113">
         <v>634</v>
       </c>
-      <c r="F10">
-        <v>4539440</v>
-      </c>
-      <c r="G10">
-        <v>4539440</v>
+      <c r="F10" s="7">
+        <v>4983240</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4983240</v>
       </c>
       <c r="H10">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11438,7 +11615,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4539440</v>
+        <v>4983240</v>
       </c>
       <c r="R10">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11467,11 +11644,11 @@
       <c r="E11">
         <v>217</v>
       </c>
-      <c r="F11">
-        <v>3033660</v>
-      </c>
-      <c r="G11">
-        <v>3033660</v>
+      <c r="F11" s="7">
+        <v>3013045</v>
+      </c>
+      <c r="G11" s="7">
+        <v>3013045</v>
       </c>
       <c r="H11">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -11505,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3033660</v>
+        <v>3013045</v>
       </c>
       <c r="R11">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
@@ -11534,10 +11711,10 @@
       <c r="E12">
         <v>579</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>2999220</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>2999650</v>
       </c>
       <c r="H12">
@@ -11604,7 +11781,7 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="7">
         <v>0</v>
       </c>
       <c r="H13" s="5">
@@ -11672,7 +11849,7 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="7">
         <v>0</v>
       </c>
       <c r="H14" s="5">
@@ -11682,7 +11859,7 @@
       <c r="I14" s="35">
         <v>0</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="50">
         <v>1988333</v>
       </c>
       <c r="K14">
@@ -11740,7 +11917,7 @@
       <c r="F15" s="66">
         <v>0</v>
       </c>
-      <c r="G15" s="63">
+      <c r="G15" s="66">
         <v>0</v>
       </c>
       <c r="H15" s="63">
@@ -11808,7 +11985,7 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="7">
         <v>0</v>
       </c>
       <c r="H16" s="5">
@@ -11875,7 +12052,7 @@
       <c r="F17" s="7">
         <v>1019062</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="7">
         <v>1019062</v>
       </c>
       <c r="H17" s="5">
@@ -11885,7 +12062,7 @@
       <c r="I17" s="35">
         <v>0</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="50">
         <v>0</v>
       </c>
       <c r="K17">
@@ -11942,7 +12119,7 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="7">
         <v>0</v>
       </c>
       <c r="H18" s="5">
@@ -12009,7 +12186,7 @@
       <c r="F19" s="7">
         <v>995670</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="7">
         <v>995810</v>
       </c>
       <c r="H19" s="5">
@@ -12076,7 +12253,7 @@
       <c r="F20" s="7">
         <v>0</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="7">
         <v>0</v>
       </c>
       <c r="H20" s="5">
@@ -12143,7 +12320,7 @@
       <c r="F21" s="7">
         <v>300000</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="7">
         <v>300000</v>
       </c>
       <c r="H21" s="5">
@@ -12210,7 +12387,7 @@
       <c r="F22" s="7">
         <v>3172455</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="7">
         <v>3172915</v>
       </c>
       <c r="H22" s="5">
@@ -12277,7 +12454,7 @@
       <c r="F23" s="7">
         <v>0</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="7">
         <v>0</v>
       </c>
       <c r="H23" s="5">
@@ -12344,7 +12521,7 @@
       <c r="F24" s="7">
         <v>0</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="7">
         <v>0</v>
       </c>
       <c r="H24" s="5">
@@ -12354,7 +12531,7 @@
       <c r="I24" s="35">
         <v>0</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="50">
         <v>1019062</v>
       </c>
       <c r="K24">
@@ -12411,7 +12588,7 @@
       <c r="F25" s="7">
         <v>0</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="7">
         <v>0</v>
       </c>
       <c r="H25" s="5">
@@ -12478,7 +12655,7 @@
       <c r="F26" s="7">
         <v>0</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="7">
         <v>0</v>
       </c>
       <c r="H26" s="5">
@@ -12513,15 +12690,16 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>1000000</v>
+        <f>-2999992+1000000</f>
+        <v>-1999992</v>
       </c>
       <c r="R26" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>1000000</v>
+        <v>-1999992</v>
       </c>
       <c r="S26">
-        <f>SUM($R$2:R26)</f>
-        <v>1461889</v>
+        <f>SUM($R$2:R27)</f>
+        <v>8710530</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -12545,7 +12723,7 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="7">
         <v>0</v>
       </c>
       <c r="H27" s="5">
@@ -12555,112 +12733,90 @@
       <c r="I27" s="35">
         <v>0</v>
       </c>
-      <c r="J27" s="7">
-        <v>5000000</v>
+      <c r="J27" s="50">
+        <v>10188345</v>
       </c>
       <c r="K27">
-        <v>5044383</v>
+        <v>10259593</v>
       </c>
       <c r="L27" s="7">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>5037553</v>
+        <v>10248633</v>
       </c>
       <c r="N27">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>44383</v>
+        <v>71248</v>
       </c>
       <c r="O27" s="5">
         <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>6830</v>
+        <v>10960</v>
       </c>
       <c r="P27">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>37553</v>
+        <v>60288</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>5037553</v>
+        <v>10248633</v>
       </c>
       <c r="S27">
         <f>SUM($R$2:R27)</f>
-        <v>6499442</v>
+        <v>8710530</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>45341</v>
+        <v>45342</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C28" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>(수시)한투원화발행어음</v>
+        <v>한투예수금</v>
       </c>
       <c r="D28" s="33" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 직접투자계좌 원화발행어음(수시)</v>
-      </c>
-      <c r="E28" s="40">
-        <v>0</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="5">
-        <v>0</v>
-      </c>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E28" s="113"/>
       <c r="H28" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I28" s="35">
-        <v>0</v>
-      </c>
-      <c r="J28" s="7">
-        <v>5188345</v>
-      </c>
-      <c r="K28">
-        <v>5215210</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>5211080</v>
-      </c>
+      <c r="J28" s="50"/>
       <c r="N28">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
-        <v>26865</v>
+        <v>0</v>
       </c>
       <c r="O28" s="5">
         <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
-        <v>4130</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>22735</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-178410</v>
       </c>
       <c r="R28" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>5211080</v>
-      </c>
-      <c r="S28">
+        <v>-178410</v>
+      </c>
+      <c r="S28" s="5">
         <f>SUM($R$2:R28)</f>
-        <v>11710522</v>
+        <v>8532120</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>45336</v>
+        <v>45343</v>
       </c>
       <c r="B29" s="31" t="s">
         <v>272</v>
@@ -12673,34 +12829,12 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E29" s="40">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="5">
-        <v>0</v>
-      </c>
+      <c r="E29" s="113"/>
       <c r="H29" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="35">
-        <v>0</v>
-      </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="7">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
+      <c r="J29" s="50"/>
       <c r="N29">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -12714,20 +12848,20 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>-2999992</v>
+        <v>8000000</v>
       </c>
       <c r="R29" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>-2999992</v>
-      </c>
-      <c r="S29">
+        <v>8000000</v>
+      </c>
+      <c r="S29" s="5">
         <f>SUM($R$2:R29)</f>
-        <v>8710530</v>
+        <v>16532120</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B30" s="31" t="s">
         <v>437</v>
@@ -12746,7 +12880,7 @@
       <c r="F30" s="7">
         <v>3507900</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="7">
         <v>3508190</v>
       </c>
       <c r="H30" s="5">
@@ -12789,12 +12923,12 @@
       </c>
       <c r="S30">
         <f>SUM($R$2:R30)</f>
-        <v>5202340</v>
+        <v>13023930</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>438</v>
@@ -12813,7 +12947,7 @@
       <c r="F31" s="7">
         <v>2013760</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="7">
         <v>2014050</v>
       </c>
       <c r="H31" s="5">
@@ -12856,12 +12990,12 @@
       </c>
       <c r="S31">
         <f>SUM($R$2:R31)</f>
-        <v>3188290</v>
+        <v>11009880</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B32" s="31" t="s">
         <v>439</v>
@@ -12880,7 +13014,7 @@
       <c r="F32" s="7">
         <v>2009340</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="7">
         <v>2009850</v>
       </c>
       <c r="H32" s="5">
@@ -12923,8 +13057,13 @@
       </c>
       <c r="S32">
         <f>SUM($R$2:R32)</f>
-        <v>1178440</v>
-      </c>
+        <v>9000030</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15" x14ac:dyDescent="0.3">
+      <c r="J35"/>
+      <c r="L35"/>
+      <c r="O35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -12940,8 +13079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13288,7 +13427,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13298,7 +13437,7 @@
     <col min="3" max="3" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="9" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="40" customWidth="1"/>
-    <col min="6" max="6" width="9" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="10.625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="40" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="7" bestFit="1" customWidth="1"/>
@@ -13390,10 +13529,10 @@
         <v>70</v>
       </c>
       <c r="F2" s="7">
-        <v>10724000</v>
+        <v>10010000</v>
       </c>
       <c r="G2" s="8">
-        <v>10724000</v>
+        <v>10010000</v>
       </c>
       <c r="H2" s="8">
         <f>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</f>
@@ -13427,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="8">
-        <v>10724000</v>
+        <v>10010000</v>
       </c>
       <c r="R2" s="8">
         <f>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</f>
@@ -13452,9 +13591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -18513,7 +18650,7 @@
       </c>
       <c r="B1">
         <f>SUM(외화자산평가!$F:$F)/-SUMIF(외화자산평가!$T:$T,"&lt;0",외화자산평가!$T:$T)</f>
-        <v>87.09425500657234</v>
+        <v>85.565839325755817</v>
       </c>
     </row>
   </sheetData>
@@ -18526,8 +18663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22556,7 +22693,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22873,7 +23010,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24517,14 +24654,14 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
+      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24630,10 +24767,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="6">
-        <v>157.91999999999999</v>
+        <v>150.4</v>
       </c>
       <c r="G2" s="61">
-        <v>157.91999999999999</v>
+        <v>150.4</v>
       </c>
       <c r="H2" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -24667,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>157.91999999999999</v>
+        <v>150.4</v>
       </c>
       <c r="R2" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -24697,10 +24834,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="6">
-        <v>79.8</v>
+        <v>79.960000000000008</v>
       </c>
       <c r="G3" s="61">
-        <v>79.8</v>
+        <v>79.960000000000008</v>
       </c>
       <c r="H3" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -24734,7 +24871,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>79.8</v>
+        <v>79.960000000000008</v>
       </c>
       <c r="R3" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -24764,10 +24901,10 @@
         <v>9</v>
       </c>
       <c r="F4" s="6">
-        <v>216.27</v>
+        <v>233</v>
       </c>
       <c r="G4" s="61">
-        <v>216.27</v>
+        <v>233</v>
       </c>
       <c r="H4" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -24801,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>216.27</v>
+        <v>233</v>
       </c>
       <c r="R4" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -24831,10 +24968,10 @@
         <v>6</v>
       </c>
       <c r="F5" s="6">
-        <v>209.76</v>
+        <v>213.54</v>
       </c>
       <c r="G5" s="61">
-        <v>209.76</v>
+        <v>213.54</v>
       </c>
       <c r="H5" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -24868,7 +25005,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>209.76</v>
+        <v>213.54</v>
       </c>
       <c r="R5" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -24898,10 +25035,10 @@
         <v>13</v>
       </c>
       <c r="F6" s="6">
-        <v>225.81</v>
+        <v>241.01</v>
       </c>
       <c r="G6" s="61">
-        <v>225.81</v>
+        <v>241.01</v>
       </c>
       <c r="H6" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -24935,7 +25072,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>225.81</v>
+        <v>241.01</v>
       </c>
       <c r="R6" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -24965,10 +25102,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="6">
-        <v>128.28</v>
+        <v>120.1099999999999</v>
       </c>
       <c r="G7" s="61">
-        <v>128.28</v>
+        <v>120.1099999999999</v>
       </c>
       <c r="H7" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25002,7 +25139,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>128.28</v>
+        <v>120.1099999999999</v>
       </c>
       <c r="R7" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25032,10 +25169,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="6">
-        <v>67.849999999999994</v>
+        <v>69.140000000000015</v>
       </c>
       <c r="G8" s="61">
-        <v>67.849999999999994</v>
+        <v>69.140000000000015</v>
       </c>
       <c r="H8" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25069,7 +25206,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>67.849999999999994</v>
+        <v>69.140000000000015</v>
       </c>
       <c r="R8" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25099,10 +25236,10 @@
         <v>6</v>
       </c>
       <c r="F9" s="6">
-        <v>250.74</v>
+        <v>228.99</v>
       </c>
       <c r="G9" s="61">
-        <v>250.74</v>
+        <v>228.99</v>
       </c>
       <c r="H9" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25136,7 +25273,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>250.74</v>
+        <v>228.99</v>
       </c>
       <c r="R9" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25166,10 +25303,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="6">
-        <v>396.64</v>
+        <v>387.21</v>
       </c>
       <c r="G10" s="61">
-        <v>396.64</v>
+        <v>387.21</v>
       </c>
       <c r="H10" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25203,7 +25340,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>396.64</v>
+        <v>387.21</v>
       </c>
       <c r="R10" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25233,10 +25370,10 @@
         <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>553.4</v>
+        <v>516.64</v>
       </c>
       <c r="G11" s="61">
-        <v>553.4</v>
+        <v>516.64</v>
       </c>
       <c r="H11" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25270,7 +25407,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>553.4</v>
+        <v>516.64</v>
       </c>
       <c r="R11" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25300,10 +25437,10 @@
         <v>13</v>
       </c>
       <c r="F12" s="6">
-        <v>377.26</v>
+        <v>386.09</v>
       </c>
       <c r="G12" s="61">
-        <v>377.26</v>
+        <v>386.09</v>
       </c>
       <c r="H12" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25337,7 +25474,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>377.26</v>
+        <v>386.09</v>
       </c>
       <c r="R12" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25367,10 +25504,10 @@
         <v>12</v>
       </c>
       <c r="F13" s="6">
-        <v>670.8</v>
+        <v>627.46</v>
       </c>
       <c r="G13" s="61">
-        <v>670.8</v>
+        <v>627.46</v>
       </c>
       <c r="H13" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25404,7 +25541,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>670.8</v>
+        <v>627.46</v>
       </c>
       <c r="R13" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -25434,10 +25571,10 @@
         <v>6</v>
       </c>
       <c r="F14" s="6">
-        <v>382.5</v>
+        <v>380.28</v>
       </c>
       <c r="G14" s="61">
-        <v>382.5</v>
+        <v>380.28</v>
       </c>
       <c r="H14" s="61">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
@@ -25471,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>382.5</v>
+        <v>380.28</v>
       </c>
       <c r="R14" s="12">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
@@ -26013,7 +26150,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-31.22</v>
       </c>
-      <c r="S22" s="12">
+      <c r="S22" s="11">
         <f>SUM($R$2:R22)</f>
         <v>1128.8799999999999</v>
       </c>
@@ -26080,7 +26217,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-265.67</v>
       </c>
-      <c r="S23" s="12">
+      <c r="S23" s="11">
         <f>SUM($R$2:R23)</f>
         <v>863.20999999999981</v>
       </c>
@@ -26147,7 +26284,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-67.47</v>
       </c>
-      <c r="S24" s="12">
+      <c r="S24" s="11">
         <f>SUM($R$2:R24)</f>
         <v>795.73999999999978</v>
       </c>
@@ -26214,7 +26351,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-43</v>
       </c>
-      <c r="S25" s="12">
+      <c r="S25" s="11">
         <f>SUM($R$2:R25)</f>
         <v>752.73999999999978</v>
       </c>
@@ -26281,7 +26418,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-466.17</v>
       </c>
-      <c r="S26" s="12">
+      <c r="S26" s="11">
         <f>SUM($R$2:R26)</f>
         <v>286.56999999999977</v>
       </c>
@@ -26348,7 +26485,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-231.46</v>
       </c>
-      <c r="S27" s="12">
+      <c r="S27" s="11">
         <f>SUM($R$2:R27)</f>
         <v>55.109999999999758</v>
       </c>
@@ -26415,7 +26552,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>0.99</v>
       </c>
-      <c r="S28" s="12">
+      <c r="S28" s="11">
         <f>SUM($R$2:R28)</f>
         <v>56.09999999999976</v>
       </c>
@@ -26482,7 +26619,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>16.350000000000001</v>
       </c>
-      <c r="S29" s="12">
+      <c r="S29" s="11">
         <f>SUM($R$2:R29)</f>
         <v>72.449999999999761</v>
       </c>
@@ -26549,7 +26686,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>32.82</v>
       </c>
-      <c r="S30" s="12">
+      <c r="S30" s="11">
         <f>SUM($R$2:R30)</f>
         <v>105.26999999999975</v>
       </c>
@@ -26616,7 +26753,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>23.21</v>
       </c>
-      <c r="S31" s="12">
+      <c r="S31" s="11">
         <f>SUM($R$2:R31)</f>
         <v>128.47999999999976</v>
       </c>
@@ -26683,7 +26820,7 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>24.62</v>
       </c>
-      <c r="S32" s="12">
+      <c r="S32" s="11">
         <f>SUM($R$2:R32)</f>
         <v>153.09999999999977</v>
       </c>
@@ -26750,9 +26887,278 @@
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>394.25</v>
       </c>
-      <c r="S33" s="12">
+      <c r="S33" s="11">
         <f>SUM($R$2:R33)</f>
         <v>547.3499999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="92">
+        <v>45343</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>445</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>멕시코주식</v>
+      </c>
+      <c r="D34" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES INC MSCI MEXICO ETF</v>
+      </c>
+      <c r="E34" s="38">
+        <v>1</v>
+      </c>
+      <c r="F34" s="95">
+        <v>67.81</v>
+      </c>
+      <c r="G34" s="96">
+        <v>67.92</v>
+      </c>
+      <c r="H34" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.10999999999999943</v>
+      </c>
+      <c r="I34" s="111">
+        <v>0</v>
+      </c>
+      <c r="J34" s="95">
+        <v>0</v>
+      </c>
+      <c r="K34" s="95">
+        <v>0</v>
+      </c>
+      <c r="L34" s="112">
+        <v>0</v>
+      </c>
+      <c r="M34" s="95">
+        <v>0</v>
+      </c>
+      <c r="N34" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.10999999999999943</v>
+      </c>
+      <c r="Q34" s="114">
+        <v>0</v>
+      </c>
+      <c r="R34" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-67.92</v>
+      </c>
+      <c r="S34" s="11">
+        <f>SUM($R$2:R34)</f>
+        <v>479.42999999999978</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="92">
+        <v>45343</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>446</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국장기채</v>
+      </c>
+      <c r="D35" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>SPDR LONG TERM TREASURY ETF</v>
+      </c>
+      <c r="E35" s="38">
+        <v>1</v>
+      </c>
+      <c r="F35" s="95">
+        <v>27.4</v>
+      </c>
+      <c r="G35" s="96">
+        <v>27.439999999999998</v>
+      </c>
+      <c r="H35" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>3.9999999999999147E-2</v>
+      </c>
+      <c r="I35" s="111">
+        <v>0</v>
+      </c>
+      <c r="J35" s="95">
+        <v>0</v>
+      </c>
+      <c r="K35" s="95">
+        <v>0</v>
+      </c>
+      <c r="L35" s="112">
+        <v>0</v>
+      </c>
+      <c r="M35" s="95">
+        <v>0</v>
+      </c>
+      <c r="N35" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-3.9999999999999147E-2</v>
+      </c>
+      <c r="Q35" s="114">
+        <v>0</v>
+      </c>
+      <c r="R35" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-27.439999999999998</v>
+      </c>
+      <c r="S35" s="11">
+        <f>SUM($R$2:R35)</f>
+        <v>451.98999999999978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="92">
+        <v>45343</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>447</v>
+      </c>
+      <c r="C36" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>캐나다주식</v>
+      </c>
+      <c r="D36" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES MSCI CANADA FUND</v>
+      </c>
+      <c r="E36" s="38">
+        <v>1</v>
+      </c>
+      <c r="F36" s="95">
+        <v>36.68</v>
+      </c>
+      <c r="G36" s="96">
+        <v>36.74</v>
+      </c>
+      <c r="H36" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>6.0000000000002274E-2</v>
+      </c>
+      <c r="I36" s="111">
+        <v>0</v>
+      </c>
+      <c r="J36" s="95">
+        <v>0</v>
+      </c>
+      <c r="K36" s="95">
+        <v>0</v>
+      </c>
+      <c r="L36" s="112">
+        <v>0</v>
+      </c>
+      <c r="M36" s="95">
+        <v>0</v>
+      </c>
+      <c r="N36" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-6.0000000000002274E-2</v>
+      </c>
+      <c r="Q36" s="114">
+        <v>0</v>
+      </c>
+      <c r="R36" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-36.74</v>
+      </c>
+      <c r="S36" s="11">
+        <f>SUM($R$2:R36)</f>
+        <v>415.24999999999977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="92">
+        <v>45343</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>448</v>
+      </c>
+      <c r="C37" s="1" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>유로존주식</v>
+      </c>
+      <c r="D37" s="9" t="str">
+        <f>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>ISHARES MSCI EUROZONE ETF</v>
+      </c>
+      <c r="E37" s="38">
+        <v>8</v>
+      </c>
+      <c r="F37" s="95">
+        <f>8*48.05</f>
+        <v>384.4</v>
+      </c>
+      <c r="G37" s="96">
+        <v>385.04999999999995</v>
+      </c>
+      <c r="H37" s="96">
+        <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
+        <v>0.64999999999997726</v>
+      </c>
+      <c r="I37" s="111">
+        <v>0</v>
+      </c>
+      <c r="J37" s="95">
+        <v>0</v>
+      </c>
+      <c r="K37" s="95">
+        <v>0</v>
+      </c>
+      <c r="L37" s="112">
+        <v>0</v>
+      </c>
+      <c r="M37" s="95">
+        <v>0</v>
+      </c>
+      <c r="N37" s="112">
+        <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="112">
+        <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="112">
+        <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
+        <v>-0.64999999999997726</v>
+      </c>
+      <c r="Q37" s="114">
+        <v>0</v>
+      </c>
+      <c r="R37" s="111">
+        <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
+        <v>-385.04999999999995</v>
+      </c>
+      <c r="S37" s="11">
+        <f>SUM($R$2:R37)</f>
+        <v>30.199999999999818</v>
       </c>
     </row>
   </sheetData>
@@ -26767,14 +27173,14 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27010,10 +27416,10 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>2867.55</v>
+        <v>2837.55</v>
       </c>
       <c r="G4">
-        <v>2867.55</v>
+        <v>2837.55</v>
       </c>
       <c r="H4">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
@@ -27047,7 +27453,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2867.55</v>
+        <v>2837.55</v>
       </c>
       <c r="R4">
         <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
@@ -27062,8 +27468,8 @@
       <c r="A5" s="3">
         <v>45292</v>
       </c>
-      <c r="B5" t="s">
-        <v>238</v>
+      <c r="B5" s="31" t="s">
+        <v>459</v>
       </c>
       <c r="C5" s="1" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -27126,139 +27532,390 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="101">
-        <v>45341</v>
-      </c>
-      <c r="B6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C6" s="1" t="str">
+      <c r="A6" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>460</v>
+      </c>
+      <c r="C6" s="117" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>(수시)한투외화발행어음</v>
-      </c>
-      <c r="D6" s="9" t="str">
+        <v>직접운용달러</v>
+      </c>
+      <c r="D6" s="118" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 직접투자계좌 외화발행어음(수시)</v>
-      </c>
-      <c r="E6" s="43">
-        <v>0</v>
-      </c>
-      <c r="F6" s="103">
-        <v>0</v>
-      </c>
-      <c r="G6" s="104">
-        <v>0</v>
-      </c>
-      <c r="H6" s="104">
+        <v>한국투자증권 직접투자계좌 달러예수금</v>
+      </c>
+      <c r="E6" s="113"/>
+      <c r="F6" s="119"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="120">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="100">
-        <v>1</v>
-      </c>
-      <c r="J6" s="103">
-        <v>5835.86</v>
-      </c>
-      <c r="K6" s="103">
-        <f>3884.79+2023.91</f>
-        <v>5908.7</v>
-      </c>
-      <c r="L6" s="103">
-        <v>0</v>
-      </c>
-      <c r="M6" s="103">
-        <f>3877.26+2020.24</f>
-        <v>5897.5</v>
-      </c>
-      <c r="N6" s="103">
+      <c r="I6" s="100"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="119"/>
+      <c r="N6" s="119">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
-        <v>72.840000000000146</v>
-      </c>
-      <c r="O6" s="103">
+        <v>0</v>
+      </c>
+      <c r="O6" s="119">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
-        <v>11.199999999999818</v>
-      </c>
-      <c r="P6" s="105">
+        <v>0</v>
+      </c>
+      <c r="P6" s="122">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
-        <v>61.640000000000327</v>
-      </c>
-      <c r="Q6" s="30">
-        <v>0</v>
-      </c>
-      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26">
         <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
-        <v>5897.5</v>
-      </c>
-      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="S6" s="125">
         <f>SUM($R$2:R6)</f>
-        <v>5897.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="101">
         <v>45341</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(수시)한투외화발행어음</v>
+      </c>
+      <c r="D7" s="9" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 외화발행어음(수시)</v>
+      </c>
+      <c r="E7" s="43">
+        <v>0</v>
+      </c>
+      <c r="F7" s="103">
+        <v>0</v>
+      </c>
+      <c r="G7" s="104">
+        <v>0</v>
+      </c>
+      <c r="H7" s="104">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="100">
+        <v>1</v>
+      </c>
+      <c r="J7" s="103">
+        <v>5835.86</v>
+      </c>
+      <c r="K7" s="103">
+        <f>3884.79+2023.91</f>
+        <v>5908.7</v>
+      </c>
+      <c r="L7" s="103">
+        <v>0</v>
+      </c>
+      <c r="M7" s="103">
+        <v>5897.5</v>
+      </c>
+      <c r="N7" s="103">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>72.840000000000146</v>
+      </c>
+      <c r="O7" s="103">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>11.199999999999818</v>
+      </c>
+      <c r="P7" s="105">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>61.640000000000327</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>0</v>
+      </c>
+      <c r="R7" s="30">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>5897.5</v>
+      </c>
+      <c r="S7">
+        <f>SUM($R$2:R7)</f>
+        <v>5897.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="101">
+        <v>45341</v>
+      </c>
+      <c r="B8" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="106" t="str">
+      <c r="C8" s="106" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>한투외화RP</v>
       </c>
-      <c r="D7" s="107" t="str">
+      <c r="D8" s="107" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 외화RP</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E8" s="43">
         <v>1</v>
       </c>
-      <c r="F7" s="103">
+      <c r="F8" s="103">
         <v>5897.5</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G8" s="103">
         <v>5897.5</v>
       </c>
-      <c r="H7" s="104">
+      <c r="H8" s="104">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="100">
-        <v>0</v>
-      </c>
-      <c r="J7" s="103">
-        <v>0</v>
-      </c>
-      <c r="K7" s="103">
-        <v>0</v>
-      </c>
-      <c r="L7" s="103">
-        <v>0</v>
-      </c>
-      <c r="M7" s="103">
-        <v>0</v>
-      </c>
-      <c r="N7" s="103">
+      <c r="I8" s="100">
+        <v>0</v>
+      </c>
+      <c r="J8" s="103">
+        <v>0</v>
+      </c>
+      <c r="K8" s="103">
+        <v>0</v>
+      </c>
+      <c r="L8" s="103">
+        <v>0</v>
+      </c>
+      <c r="M8" s="103">
+        <v>0</v>
+      </c>
+      <c r="N8" s="103">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O7" s="103">
+      <c r="O8" s="103">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P7" s="105">
+      <c r="P8" s="105">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="30">
-        <v>0</v>
-      </c>
-      <c r="R7" s="30">
+      <c r="Q8" s="30">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
         <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
         <v>-5897.5</v>
       </c>
-      <c r="S7">
-        <f>SUM($R$2:R7)</f>
-        <v>0</v>
+      <c r="S8">
+        <f>SUM($R$2:R8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="124">
+        <v>45342</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="117" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>한투외화RP</v>
+      </c>
+      <c r="D9" s="118" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 외화RP</v>
+      </c>
+      <c r="E9" s="43">
+        <v>0</v>
+      </c>
+      <c r="F9" s="119">
+        <v>0</v>
+      </c>
+      <c r="G9" s="120">
+        <v>0</v>
+      </c>
+      <c r="H9" s="120">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="100">
+        <v>1</v>
+      </c>
+      <c r="J9" s="119">
+        <v>5897.5</v>
+      </c>
+      <c r="K9" s="119">
+        <v>5898.02</v>
+      </c>
+      <c r="L9" s="119">
+        <v>0</v>
+      </c>
+      <c r="M9" s="119">
+        <v>5897.95</v>
+      </c>
+      <c r="N9" s="119">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>0.52000000000043656</v>
+      </c>
+      <c r="O9" s="119">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>7.0000000000618456E-2</v>
+      </c>
+      <c r="P9" s="122">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>0.4499999999998181</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>0</v>
+      </c>
+      <c r="R9" s="30">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>5897.95</v>
+      </c>
+      <c r="S9">
+        <f>SUM($R$2:R9)</f>
+        <v>5897.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="115">
+        <v>45343</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>449</v>
+      </c>
+      <c r="C10" s="117" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국인프라</v>
+      </c>
+      <c r="D10" s="118" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>GLOBAL X US INFRASTRUCTURE DEVELOPMENT ETF</v>
+      </c>
+      <c r="E10" s="43">
+        <v>89</v>
+      </c>
+      <c r="F10" s="119">
+        <v>3220.02</v>
+      </c>
+      <c r="G10" s="120">
+        <v>3228.06</v>
+      </c>
+      <c r="H10" s="120">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>8.0399999999999636</v>
+      </c>
+      <c r="I10" s="100">
+        <v>0</v>
+      </c>
+      <c r="J10" s="119">
+        <v>0</v>
+      </c>
+      <c r="K10" s="119">
+        <v>0</v>
+      </c>
+      <c r="L10" s="119">
+        <v>0</v>
+      </c>
+      <c r="M10" s="119">
+        <v>0</v>
+      </c>
+      <c r="N10" s="119">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="119">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="122">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>-8.0399999999999636</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>0</v>
+      </c>
+      <c r="R10" s="30">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>-3228.06</v>
+      </c>
+      <c r="S10">
+        <f>SUM($R$2:R10)</f>
+        <v>2669.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="123">
+        <v>45343</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>450</v>
+      </c>
+      <c r="C11" s="106" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>미국부동산</v>
+      </c>
+      <c r="D11" s="107" t="str">
+        <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>VANGUARD REAL ESTATE ETF</v>
+      </c>
+      <c r="E11" s="43">
+        <v>31</v>
+      </c>
+      <c r="F11" s="103">
+        <v>2607.7200000000003</v>
+      </c>
+      <c r="G11" s="104">
+        <v>2614.2300000000005</v>
+      </c>
+      <c r="H11" s="104">
+        <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
+        <v>6.5100000000002183</v>
+      </c>
+      <c r="I11" s="121">
+        <v>0</v>
+      </c>
+      <c r="J11" s="103">
+        <v>0</v>
+      </c>
+      <c r="K11" s="103">
+        <v>0</v>
+      </c>
+      <c r="L11" s="103">
+        <v>0</v>
+      </c>
+      <c r="M11" s="103">
+        <v>0</v>
+      </c>
+      <c r="N11" s="103">
+        <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="103">
+        <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="105">
+        <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
+        <v>-6.5100000000002183</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>0</v>
+      </c>
+      <c r="R11" s="30">
+        <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
+        <v>-2614.2300000000005</v>
+      </c>
+      <c r="S11">
+        <f>SUM($R$2:R11)</f>
+        <v>55.6599999999994</v>
       </c>
     </row>
   </sheetData>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\infomax\Desktop\programming\my_asset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maeng-gun\Desktop\python\my_asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE3883C-D871-466A-8D89-78082BAED090}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -34,7 +33,7 @@
     <sheet name="각종정보" sheetId="8" r:id="rId19"/>
     <sheet name="Sheet1" sheetId="14" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="507">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1661,13 +1660,197 @@
   </si>
   <si>
     <t>MYDO_KOIN</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 국고채3년</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>153130</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>437080</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>411060</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>329200</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>182480</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>310960</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>455850</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>437350</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>456600</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>458730</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 단기채권</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국종합채권ESG액티브(H)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACE KRX 금현물</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 리츠부동산인프라</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOL 반도체소부장루</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KBSTAR 미국단기투자등급회사채액티브</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>KODEX 미국S&amp;P500(H)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMEFOLIO 글로벌AI인공지능액티브</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 미국배당다우존스</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIGER 200TR</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>금</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>리츠</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내주식 반도체</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내주식 대형주</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내채권 중기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내채권 단기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국채권 종합</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국채권 투자등급</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국주식 S&amp;P</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 인공지능</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국배당주</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>채권</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>대체자산</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내채권</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외채권</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>국내주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>해외주식</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>부동산</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
@@ -1900,7 +2083,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2177,9 +2360,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -2276,13 +2456,19 @@
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="4"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="표준 2" xfId="2"/>
+    <cellStyle name="표준 2 2" xfId="5"/>
+    <cellStyle name="표준 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="266">
+  <dxfs count="249">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
@@ -5244,661 +5430,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="맑은 고딕"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="맑은 고딕"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF9BC2E6"/>
@@ -7446,63 +6977,63 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="표3" displayName="표3" ref="A1:J64" totalsRowShown="0">
-  <autoFilter ref="A1:J64" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:J64" totalsRowShown="0">
+  <autoFilter ref="A1:J64"/>
   <tableColumns count="10">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="종목코드" dataDxfId="265"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="종목명" dataDxfId="264">
+    <tableColumn id="8" name="종목코드" dataDxfId="248"/>
+    <tableColumn id="9" name="종목명" dataDxfId="247">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="평가금액"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="상품명"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="계좌"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="통화"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="자산군"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="세부자산군"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="세부자산군2"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="기초평가손익" dataDxfId="263"/>
+    <tableColumn id="14" name="평가금액"/>
+    <tableColumn id="7" name="상품명"/>
+    <tableColumn id="2" name="계좌"/>
+    <tableColumn id="3" name="통화"/>
+    <tableColumn id="6" name="자산군"/>
+    <tableColumn id="4" name="세부자산군"/>
+    <tableColumn id="5" name="세부자산군2"/>
+    <tableColumn id="10" name="기초평가손익" dataDxfId="246"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S32" totalsRowShown="0" headerRowDxfId="82" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S32" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S32" totalsRowShown="0" headerRowDxfId="84" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S32"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="거래일자" dataDxfId="81"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="종목코드" dataDxfId="80"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0900-000009000000}" name="종목명" dataDxfId="79">
+    <tableColumn id="1" name="거래일자" dataDxfId="83"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="82"/>
+    <tableColumn id="9" name="종목명" dataDxfId="81">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0900-00000A000000}" name="상품명" dataDxfId="78">
+    <tableColumn id="10" name="상품명" dataDxfId="80">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="매입수량" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="매입액" dataDxfId="76" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0900-00000C000000}" name="현금지출" dataDxfId="75" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0900-000010000000}" name="매입비용" dataDxfId="74">
+    <tableColumn id="6" name="매입수량" dataDxfId="79"/>
+    <tableColumn id="2" name="매입액" dataDxfId="78" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="77" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="76">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="매도수량" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="매도원금"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="매도액"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0900-00000E000000}" name="이자배당액"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0900-00000D000000}" name="현금수입"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0900-000011000000}" name="매매수익">
+    <tableColumn id="7" name="매도수량" dataDxfId="75"/>
+    <tableColumn id="3" name="매도원금"/>
+    <tableColumn id="15" name="매도액"/>
+    <tableColumn id="14" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="17" name="매매수익">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0900-000012000000}" name="매도비용">
+    <tableColumn id="18" name="매도비용">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0900-000013000000}" name="순수익">
+    <tableColumn id="19" name="순수익">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="입출금"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0900-000015000000}" name="순현금수입" dataDxfId="72">
+    <tableColumn id="4" name="입출금"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="74">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0900-000016000000}" name="누적" dataDxfId="71">
+    <tableColumn id="22" name="누적" dataDxfId="73">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7511,42 +7042,42 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="70" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="72" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="거래일자" dataDxfId="69"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="종목코드" dataDxfId="68"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0A00-000009000000}" name="종목명" dataDxfId="67">
+    <tableColumn id="1" name="거래일자" dataDxfId="71"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="70"/>
+    <tableColumn id="9" name="종목명" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0A00-00000A000000}" name="상품명" dataDxfId="66">
+    <tableColumn id="10" name="상품명" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0A00-000006000000}" name="매입수량" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="매입액"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0A00-00000C000000}" name="현금지출"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0A00-000010000000}" name="매입비용" dataDxfId="64">
+    <tableColumn id="6" name="매입수량" dataDxfId="67"/>
+    <tableColumn id="2" name="매입액"/>
+    <tableColumn id="12" name="현금지출"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="66">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0A00-000007000000}" name="매도수량" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="매도원금"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0A00-00000F000000}" name="매도액"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0A00-00000E000000}" name="이자배당액"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0A00-00000D000000}" name="현금수입"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0A00-000011000000}" name="매매수익">
+    <tableColumn id="7" name="매도수량" dataDxfId="65"/>
+    <tableColumn id="3" name="매도원금"/>
+    <tableColumn id="15" name="매도액"/>
+    <tableColumn id="14" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="17" name="매매수익">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0A00-000012000000}" name="매도비용">
+    <tableColumn id="18" name="매도비용">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0A00-000013000000}" name="순수익">
+    <tableColumn id="19" name="순수익">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="입출금"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0A00-000015000000}" name="순현금수입" dataDxfId="62">
+    <tableColumn id="4" name="입출금"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="64">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0A00-000016000000}" name="누적" dataDxfId="61">
+    <tableColumn id="22" name="누적" dataDxfId="63">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7555,42 +7086,42 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="거래일자" dataDxfId="58"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="종목코드" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0B00-000009000000}" name="종목명" dataDxfId="56">
+    <tableColumn id="1" name="거래일자" dataDxfId="60"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="59"/>
+    <tableColumn id="9" name="종목명" dataDxfId="58">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0B00-00000A000000}" name="상품명" dataDxfId="55">
+    <tableColumn id="10" name="상품명" dataDxfId="57">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="매입수량" dataDxfId="54"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="매입액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="현금지출" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0B00-000010000000}" name="매입비용" dataDxfId="51" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="56"/>
+    <tableColumn id="2" name="매입액" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="54" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="53" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0B00-000007000000}" name="매도수량" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="매도원금" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0B00-00000F000000}" name="매도액" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0B00-00000E000000}" name="이자배당액" dataDxfId="47" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0B00-00000D000000}" name="현금수입" dataDxfId="46" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0B00-000011000000}" name="매매수익" dataDxfId="45" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="47" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0B00-000012000000}" name="매도비용" dataDxfId="44" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="46" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0B00-000013000000}" name="순수익" dataDxfId="43" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="45" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="입출금" dataDxfId="42" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0B00-000015000000}" name="순현금수입" dataDxfId="41" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="44" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="43" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0B00-000016000000}" name="누적" dataDxfId="40" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="42" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7599,42 +7130,42 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="39" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="41" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="거래일자" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="종목코드" dataDxfId="37"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0C00-000009000000}" name="종목명" dataDxfId="36">
+    <tableColumn id="1" name="거래일자" dataDxfId="40"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="39"/>
+    <tableColumn id="9" name="종목명" dataDxfId="38">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0C00-00000A000000}" name="상품명" dataDxfId="35">
+    <tableColumn id="10" name="상품명" dataDxfId="37">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0C00-000006000000}" name="매입수량" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="매입액"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0C00-00000C000000}" name="현금지출"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0C00-000010000000}" name="매입비용" dataDxfId="33">
+    <tableColumn id="6" name="매입수량" dataDxfId="36"/>
+    <tableColumn id="2" name="매입액"/>
+    <tableColumn id="12" name="현금지출"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="35">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0C00-000007000000}" name="매도수량" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="매도원금"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0C00-00000F000000}" name="매도액"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0C00-00000E000000}" name="이자배당액"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0C00-00000D000000}" name="현금수입"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0C00-000011000000}" name="매매수익">
+    <tableColumn id="7" name="매도수량" dataDxfId="34"/>
+    <tableColumn id="3" name="매도원금"/>
+    <tableColumn id="15" name="매도액"/>
+    <tableColumn id="14" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="17" name="매매수익">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]-CMA_한투1836[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0C00-000012000000}" name="매도비용">
+    <tableColumn id="18" name="매도비용">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매도액]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0C00-000013000000}" name="순수익">
+    <tableColumn id="19" name="순수익">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="입출금"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0C00-000015000000}" name="순현금수입" dataDxfId="31">
+    <tableColumn id="4" name="입출금"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="33">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0C00-000016000000}" name="누적" dataDxfId="30">
+    <tableColumn id="22" name="누적" dataDxfId="32">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7643,42 +7174,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="거래일자" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0D00-000005000000}" name="종목코드" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0D00-000009000000}" name="종목명" dataDxfId="25">
+    <tableColumn id="1" name="거래일자" dataDxfId="29"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="28"/>
+    <tableColumn id="9" name="종목명" dataDxfId="27">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0D00-00000A000000}" name="상품명" dataDxfId="24">
+    <tableColumn id="10" name="상품명" dataDxfId="26">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0D00-000006000000}" name="매입수량" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="매입액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="현금지출" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0D00-000010000000}" name="매입비용" dataDxfId="20" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="25"/>
+    <tableColumn id="2" name="매입액" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="23" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="22" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0D00-000007000000}" name="매도수량" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0D00-000003000000}" name="매도원금" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0D00-00000F000000}" name="매도액" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0D00-00000E000000}" name="이자배당액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0D00-00000D000000}" name="현금수입" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0D00-000011000000}" name="매매수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="16" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0D00-000012000000}" name="매도비용" dataDxfId="13" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="15" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0D00-000013000000}" name="순수익" dataDxfId="12" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0D00-000004000000}" name="입출금" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0D00-000015000000}" name="순현금수입" dataDxfId="10" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="12" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0D00-000016000000}" name="누적" dataDxfId="9" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="11" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7687,107 +7218,107 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:F340" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="거래일자" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0E00-000004000000}" name="원화자금유입" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="원화투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0E00-000006000000}" name="원화투자지출" dataDxfId="4" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="9"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="8"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="7" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="6" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0E00-000003000000}" name="원화자금유출" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0E00-000005000000}" name="달러투자회수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0F000000}" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:T57" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0F00-000002000000}" name="종목코드"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0F00-000003000000}" name="거래일자" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0F00-000004000000}" name="종목명"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0F00-000005000000}" name="통화"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0F00-000006000000}" name="계좌"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0F00-000007000000}" name="보유수량"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0F00-000008000000}" name="장부금액"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0F00-000009000000}" name="평잔"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0F00-00000A000000}" name="수익"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0F00-00000B000000}" name="비용"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0F00-00000C000000}" name="실현손익"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0F00-00000D000000}" name="실현수익률"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0F00-00000E000000}" name="자산군"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0F00-00000F000000}" name="세부자산군"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0F00-000010000000}" name="세부자산군2"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0F00-000011000000}" name="평가금액"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0F00-000012000000}" name="평가손익"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0F00-000013000000}" name="평가수익률"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0F00-000014000000}" name="총손익"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0F00-000015000000}" name="운용수익률"/>
+    <tableColumn id="2" name="종목코드"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="2"/>
+    <tableColumn id="4" name="종목명"/>
+    <tableColumn id="5" name="통화"/>
+    <tableColumn id="6" name="계좌"/>
+    <tableColumn id="7" name="보유수량"/>
+    <tableColumn id="8" name="장부금액"/>
+    <tableColumn id="9" name="평잔"/>
+    <tableColumn id="10" name="수익"/>
+    <tableColumn id="11" name="비용"/>
+    <tableColumn id="12" name="실현손익"/>
+    <tableColumn id="13" name="실현수익률"/>
+    <tableColumn id="14" name="자산군"/>
+    <tableColumn id="15" name="세부자산군"/>
+    <tableColumn id="16" name="세부자산군2"/>
+    <tableColumn id="17" name="평가금액"/>
+    <tableColumn id="18" name="평가손익"/>
+    <tableColumn id="19" name="평가수익률"/>
+    <tableColumn id="20" name="총손익"/>
+    <tableColumn id="21" name="운용수익률"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="연금종목정보" displayName="연금종목정보" ref="A1:J17" totalsRowShown="0">
-  <autoFilter ref="A1:J17" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J28" totalsRowShown="0">
+  <autoFilter ref="A1:J28"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="종목코드"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="종목명"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="평가금액" dataDxfId="262" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="상품명"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="계좌"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="통화"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="자산군"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="세부자산군"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="세부자산군2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="기초평가손익" dataDxfId="261" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="1" name="종목코드" dataDxfId="1"/>
+    <tableColumn id="2" name="종목명"/>
+    <tableColumn id="8" name="평가금액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="상품명"/>
+    <tableColumn id="4" name="계좌"/>
+    <tableColumn id="11" name="통화"/>
+    <tableColumn id="5" name="자산군"/>
+    <tableColumn id="6" name="세부자산군"/>
+    <tableColumn id="13" name="세부자산군2"/>
+    <tableColumn id="12" name="기초평가손익" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="260" headerRowBorderDxfId="259" tableBorderDxfId="258" totalsRowBorderDxfId="257" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="243" headerRowBorderDxfId="242" tableBorderDxfId="241" totalsRowBorderDxfId="240" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S5"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="거래일자" dataDxfId="256"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="종목코드" dataDxfId="255"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="종목명" dataDxfId="254">
+    <tableColumn id="1" name="거래일자" dataDxfId="239"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="238"/>
+    <tableColumn id="3" name="종목명" dataDxfId="237">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="상품명" dataDxfId="253">
+    <tableColumn id="4" name="상품명" dataDxfId="236">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="매입수량" dataDxfId="252" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="매입액" dataDxfId="251" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="현금지출" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="매입비용" dataDxfId="249" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="235" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="234" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="233" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="232" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="매도수량" dataDxfId="248" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="매도원금" dataDxfId="247" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="매도액" dataDxfId="246" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="이자배당액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="현금수입" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="매매수익" dataDxfId="243" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="231" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="230" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="229" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="226" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="매도비용" dataDxfId="242" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="225" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="순수익" dataDxfId="241" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="224" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="입출금" dataDxfId="240"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0200-000012000000}" name="순현금수입" dataDxfId="239" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="223"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="222" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0200-000013000000}" name="누적" dataDxfId="238" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="221" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7796,42 +7327,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="237" headerRowBorderDxfId="236" tableBorderDxfId="235" totalsRowBorderDxfId="234" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S12" xr:uid="{00000000-0009-0000-0100-00000E000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="220" headerRowBorderDxfId="219" tableBorderDxfId="218" totalsRowBorderDxfId="217" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S12"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="거래일자" dataDxfId="233"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="종목코드" dataDxfId="232"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="종목명" dataDxfId="231">
+    <tableColumn id="1" name="거래일자" dataDxfId="216"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="215"/>
+    <tableColumn id="3" name="종목명" dataDxfId="214">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="상품명" dataDxfId="230">
+    <tableColumn id="4" name="상품명" dataDxfId="213">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="매입수량" dataDxfId="229" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="매입액" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="현금지출" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0300-000008000000}" name="매입비용" dataDxfId="226" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="212" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="211" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="210" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="209" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0300-000009000000}" name="매도수량" dataDxfId="225" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0300-00000A000000}" name="매도원금" dataDxfId="224" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0300-00000B000000}" name="매도액" dataDxfId="223" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="이자배당액" dataDxfId="222" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0300-00000D000000}" name="현금수입" dataDxfId="221" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0300-00000E000000}" name="매매수익" dataDxfId="220" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="203" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0300-00000F000000}" name="매도비용" dataDxfId="219" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="202" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="순수익" dataDxfId="218" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="201" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0300-000011000000}" name="입출금" dataDxfId="217"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0300-000012000000}" name="순현금수입" dataDxfId="216" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="200"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="199" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0300-000013000000}" name="누적" dataDxfId="215" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="198" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7840,33 +7371,35 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="농협IRP17" displayName="농협IRP17" ref="A1:S2" totalsRowShown="0" headerRowDxfId="214" headerRowBorderDxfId="213" tableBorderDxfId="212" totalsRowBorderDxfId="211" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S2" xr:uid="{00000000-0009-0000-0100-000012000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S13" totalsRowShown="0" headerRowDxfId="197" headerRowBorderDxfId="196" tableBorderDxfId="195" totalsRowBorderDxfId="194" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S13"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="거래일자" dataDxfId="210"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="종목코드" dataDxfId="209"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="종목명" dataDxfId="208">
+    <tableColumn id="1" name="거래일자"/>
+    <tableColumn id="2" name="종목코드"/>
+    <tableColumn id="3" name="종목명">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="상품명" dataDxfId="207">
+    <tableColumn id="4" name="상품명">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="매입수량" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="매입액" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0400-000007000000}" name="현금지출" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0400-000008000000}" name="매입비용" dataDxfId="203" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0400-000009000000}" name="매도수량" dataDxfId="202" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0400-00000A000000}" name="매도원금" dataDxfId="201" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="매도액" dataDxfId="200" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="이자배당액" dataDxfId="199" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0400-00000D000000}" name="현금수입" dataDxfId="198" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0400-00000E000000}" name="매매수익" dataDxfId="197" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="매도비용" dataDxfId="196" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="순수익" dataDxfId="195" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0400-000011000000}" name="입출금" dataDxfId="194"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0400-000012000000}" name="순현금수입" dataDxfId="193" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0400-000013000000}" name="누적" dataDxfId="192" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
+    <tableColumn id="5" name="매입수량"/>
+    <tableColumn id="6" name="매입액"/>
+    <tableColumn id="7" name="현금지출"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="0">
+      <calculatedColumnFormula>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="매도수량"/>
+    <tableColumn id="10" name="매도원금"/>
+    <tableColumn id="11" name="매도액"/>
+    <tableColumn id="12" name="이자배당액"/>
+    <tableColumn id="13" name="현금수입"/>
+    <tableColumn id="14" name="매매수익"/>
+    <tableColumn id="15" name="매도비용"/>
+    <tableColumn id="16" name="순수익"/>
+    <tableColumn id="17" name="입출금"/>
+    <tableColumn id="18" name="순현금수입"/>
+    <tableColumn id="19" name="누적">
+      <calculatedColumnFormula>SUM($R$2:R13)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7874,42 +7407,42 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="불리오" displayName="불리오" ref="A1:S37" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S37" totalsRowShown="0" headerRowDxfId="193" dataDxfId="192" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S37"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="거래일자" dataDxfId="189"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="종목코드" dataDxfId="188"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="종목명" dataDxfId="187">
+    <tableColumn id="1" name="거래일자" dataDxfId="191"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="190"/>
+    <tableColumn id="9" name="종목명" dataDxfId="189">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="상품명" dataDxfId="186">
+    <tableColumn id="10" name="상품명" dataDxfId="188">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="매입수량" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="매입액" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="현금지출" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="매입비용" dataDxfId="182" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="187"/>
+    <tableColumn id="2" name="매입액" dataDxfId="186" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="184" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="매도수량" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="매도원금" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0500-000013000000}" name="매도액" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0500-00000E000000}" name="이자배당액" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0500-000011000000}" name="현금수입" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0500-000012000000}" name="매매수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="178" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0500-00000F000000}" name="매도비용" dataDxfId="175" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="177" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0500-00000D000000}" name="순수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="입출금" dataDxfId="173" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0500-000016000000}" name="순현금수입" dataDxfId="172" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="입출금" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="174" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0500-000017000000}" name="누적" dataDxfId="171" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" name="누적" dataDxfId="173" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7918,42 +7451,42 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="표4" displayName="표4" ref="A1:S11" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S11" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S11"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="거래일자" dataDxfId="166"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0600-000011000000}" name="종목코드" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="종목명" dataDxfId="164">
+    <tableColumn id="1" name="거래일자" dataDxfId="168"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="167"/>
+    <tableColumn id="2" name="종목명" dataDxfId="166">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="상품명" dataDxfId="163">
+    <tableColumn id="3" name="상품명" dataDxfId="165">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0600-000012000000}" name="매입수량" dataDxfId="162"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="매입액" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="현금지출" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="매입비용" dataDxfId="159" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="164"/>
+    <tableColumn id="4" name="매입액" dataDxfId="163" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="161" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0600-000013000000}" name="매도수량" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="매도원금" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="매도액" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="이자배당액" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="현금수입" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="매매수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="155" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0600-00000C000000}" name="매도비용" dataDxfId="152" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="154" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0600-00000D000000}" name="순수익" dataDxfId="151" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0600-00000E000000}" name="입출금" dataDxfId="150"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="순현금수입" dataDxfId="149">
+    <tableColumn id="14" name="입출금" dataDxfId="152"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="151">
       <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0600-000010000000}" name="누적" dataDxfId="148" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="누적" dataDxfId="150" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7962,42 +7495,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="표4_10" displayName="표4_10" ref="A1:S4" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S4" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S4" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="거래일자" dataDxfId="143"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0700-000011000000}" name="종목코드" dataDxfId="142"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="종목명" dataDxfId="141">
+    <tableColumn id="1" name="거래일자" dataDxfId="145"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="144"/>
+    <tableColumn id="2" name="종목명" dataDxfId="143">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="상품명" dataDxfId="140">
+    <tableColumn id="3" name="상품명" dataDxfId="142">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0700-000012000000}" name="매입수량" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="매입액" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="현금지출" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="매입비용" dataDxfId="136" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="141"/>
+    <tableColumn id="4" name="매입액" dataDxfId="140" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="139" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="138" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0700-000013000000}" name="매도수량" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="매도원금" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="매도액" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0700-000009000000}" name="이자배당액" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0700-00000A000000}" name="현금수입" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0700-00000B000000}" name="매매수익" dataDxfId="130" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="136" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="132" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="매도비용" dataDxfId="129" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="131" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0700-00000D000000}" name="순수익" dataDxfId="128" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="130" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0700-00000E000000}" name="입출금" dataDxfId="127"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0700-00000F000000}" name="순현금수입" dataDxfId="126">
+    <tableColumn id="14" name="입출금" dataDxfId="129"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="128">
       <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0700-000010000000}" name="누적" dataDxfId="125">
+    <tableColumn id="16" name="누적" dataDxfId="127">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8006,45 +7539,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:T4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T4" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:T4"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="거래일자" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="종목코드" dataDxfId="120" totalsRowDxfId="119"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0800-000009000000}" name="종목명" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="1" name="거래일자" dataDxfId="124" totalsRowDxfId="123"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="9" name="종목명" dataDxfId="120" totalsRowDxfId="119">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0800-00000A000000}" name="상품명" dataDxfId="116" totalsRowDxfId="115">
+    <tableColumn id="10" name="상품명" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="매입수량" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="매입액" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="현금지출" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0800-000010000000}" name="매입비용" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매입수량" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="2" name="매입액" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="매도수량" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="매도원금" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0800-00000F000000}" name="매도액" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0800-00000E000000}" name="이자배당액" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0800-00000D000000}" name="현금수입" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0800-000011000000}" name="매매수익" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
+    <tableColumn id="8" name="매도수량" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0800-000012000000}" name="매도비용" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0800-000013000000}" name="순수익" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="입출금" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0800-000015000000}" name="순현금수입" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0800-000016000000}" name="누적" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0800-00000C000000}" name="외화입출금" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="외화입출금" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8312,11 +7845,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10323,7 +9856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10549,57 +10082,57 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="101">
+      <c r="A4" s="100">
         <v>45341</v>
       </c>
-      <c r="B4" s="108" t="s">
+      <c r="B4" s="107" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="99" t="str">
+      <c r="C4" s="98" t="str">
         <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>일본배당주</v>
       </c>
-      <c r="D4" s="102" t="str">
+      <c r="D4" s="101" t="str">
         <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>NEXT FUNDS JAPAN HIGH DIVIDEND EQUITY ACTIVE EXCHANGE TRADED</v>
       </c>
       <c r="E4" s="43">
         <v>151</v>
       </c>
-      <c r="F4" s="103">
+      <c r="F4" s="102">
         <v>335069</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="103">
         <v>336007</v>
       </c>
-      <c r="H4" s="104">
+      <c r="H4" s="103">
         <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
         <v>938</v>
       </c>
-      <c r="I4" s="100">
-        <v>0</v>
-      </c>
-      <c r="J4" s="103">
-        <v>0</v>
-      </c>
-      <c r="K4" s="103">
-        <v>0</v>
-      </c>
-      <c r="L4" s="103">
-        <v>0</v>
-      </c>
-      <c r="M4" s="103">
-        <v>0</v>
-      </c>
-      <c r="N4" s="103">
+      <c r="I4" s="99">
+        <v>0</v>
+      </c>
+      <c r="J4" s="102">
+        <v>0</v>
+      </c>
+      <c r="K4" s="102">
+        <v>0</v>
+      </c>
+      <c r="L4" s="102">
+        <v>0</v>
+      </c>
+      <c r="M4" s="102">
+        <v>0</v>
+      </c>
+      <c r="N4" s="102">
         <f>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O4" s="103">
+      <c r="O4" s="102">
         <f>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P4" s="105">
+      <c r="P4" s="104">
         <f>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</f>
         <v>-938</v>
       </c>
@@ -10625,7 +10158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10871,55 +10404,55 @@
       <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="F4" s="95">
+      <c r="F4" s="94">
         <v>2999992</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="94">
         <v>2999992</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H4" s="95">
         <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="96">
-        <v>0</v>
-      </c>
-      <c r="J4" s="95">
-        <v>0</v>
-      </c>
-      <c r="K4" s="95">
-        <v>0</v>
-      </c>
-      <c r="L4" s="95">
-        <v>0</v>
-      </c>
-      <c r="M4" s="95">
-        <v>0</v>
-      </c>
-      <c r="N4" s="96">
+      <c r="I4" s="95">
+        <v>0</v>
+      </c>
+      <c r="J4" s="94">
+        <v>0</v>
+      </c>
+      <c r="K4" s="94">
+        <v>0</v>
+      </c>
+      <c r="L4" s="94">
+        <v>0</v>
+      </c>
+      <c r="M4" s="94">
+        <v>0</v>
+      </c>
+      <c r="N4" s="95">
         <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O4" s="96">
+      <c r="O4" s="95">
         <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P4" s="96">
+      <c r="P4" s="95">
         <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="98">
+      <c r="Q4" s="97">
         <v>2999992</v>
       </c>
-      <c r="R4" s="96">
+      <c r="R4" s="95">
         <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
         <v>0</v>
       </c>
-      <c r="S4" s="96">
+      <c r="S4" s="95">
         <f>SUM($R$2:R4)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="97">
+      <c r="T4" s="96">
         <v>-336258</v>
       </c>
     </row>
@@ -10934,7 +10467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11574,7 +11107,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>넥스틸</v>
       </c>
-      <c r="E10" s="113">
+      <c r="E10" s="112">
         <v>634</v>
       </c>
       <c r="F10" s="7">
@@ -11900,7 +11433,7 @@
       <c r="A15" s="3">
         <v>45294</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="108" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="64" t="str">
@@ -11968,7 +11501,7 @@
       <c r="A16" s="3">
         <v>45294</v>
       </c>
-      <c r="B16" s="110" t="s">
+      <c r="B16" s="109" t="s">
         <v>279</v>
       </c>
       <c r="C16" s="9" t="str">
@@ -12437,7 +11970,7 @@
       <c r="A23" s="3">
         <v>45324</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="109" t="s">
         <v>279</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -12784,7 +12317,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E28" s="113"/>
+      <c r="E28" s="112"/>
       <c r="H28" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -12829,7 +12362,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E29" s="113"/>
+      <c r="E29" s="112"/>
       <c r="H29" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -13076,7 +12609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13423,7 +12956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13588,7 +13121,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
@@ -13700,7 +13233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13813,7 +13346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M340"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -18293,7 +17826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18631,7 +18164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -18660,16 +18193,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" style="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="50" customWidth="1"/>
     <col min="4" max="4" width="46.625" customWidth="1"/>
@@ -18679,7 +18212,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="31" t="s">
         <v>318</v>
       </c>
       <c r="B1" t="s">
@@ -18711,7 +18244,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="31" t="s">
         <v>324</v>
       </c>
       <c r="B2" t="s">
@@ -18735,12 +18268,12 @@
       <c r="H2" t="s">
         <v>327</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="31" t="s">
         <v>332</v>
       </c>
       <c r="B3" t="s">
@@ -18764,12 +18297,12 @@
       <c r="H3" t="s">
         <v>329</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="31" t="s">
         <v>333</v>
       </c>
       <c r="B4" t="s">
@@ -18793,7 +18326,7 @@
       <c r="H4" t="s">
         <v>329</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="50">
         <v>0</v>
       </c>
     </row>
@@ -18822,12 +18355,12 @@
       <c r="H5" t="s">
         <v>337</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="31" t="s">
         <v>371</v>
       </c>
       <c r="B6" t="s">
@@ -18851,12 +18384,12 @@
       <c r="H6" t="s">
         <v>329</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="31" t="s">
         <v>373</v>
       </c>
       <c r="B7" t="s">
@@ -18880,12 +18413,12 @@
       <c r="H7" t="s">
         <v>329</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="31" t="s">
         <v>358</v>
       </c>
       <c r="B8" t="s">
@@ -18909,12 +18442,12 @@
       <c r="H8" t="s">
         <v>352</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="31" t="s">
         <v>360</v>
       </c>
       <c r="B9" t="s">
@@ -18938,12 +18471,12 @@
       <c r="H9" t="s">
         <v>329</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="31" t="s">
         <v>362</v>
       </c>
       <c r="B10" t="s">
@@ -18967,12 +18500,12 @@
       <c r="H10" t="s">
         <v>329</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="31" t="s">
         <v>363</v>
       </c>
       <c r="B11" t="s">
@@ -18996,12 +18529,12 @@
       <c r="H11" t="s">
         <v>329</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="31" t="s">
         <v>364</v>
       </c>
       <c r="B12" t="s">
@@ -19025,12 +18558,12 @@
       <c r="H12" t="s">
         <v>352</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="31" t="s">
         <v>365</v>
       </c>
       <c r="B13" t="s">
@@ -19054,12 +18587,12 @@
       <c r="H13" t="s">
         <v>354</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="31" t="s">
         <v>366</v>
       </c>
       <c r="B14" t="s">
@@ -19083,12 +18616,12 @@
       <c r="H14" t="s">
         <v>356</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B15" t="s">
@@ -19112,12 +18645,12 @@
       <c r="H15" t="s">
         <v>356</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="31" t="s">
         <v>369</v>
       </c>
       <c r="B16" t="s">
@@ -19141,19 +18674,19 @@
       <c r="H16" t="s">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="50">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="31" t="s">
         <v>413</v>
       </c>
       <c r="B17" t="s">
         <v>414</v>
       </c>
       <c r="C17" s="50">
-        <v>12709251</v>
+        <v>80911</v>
       </c>
       <c r="D17" t="s">
         <v>415</v>
@@ -19170,7 +18703,326 @@
       <c r="H17" t="s">
         <v>412</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>114260</v>
+      </c>
+      <c r="B18" t="s">
+        <v>486</v>
+      </c>
+      <c r="C18" s="50">
+        <v>652300</v>
+      </c>
+      <c r="D18" t="s">
+        <v>461</v>
+      </c>
+      <c r="E18" t="s">
+        <v>410</v>
+      </c>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>493</v>
+      </c>
+      <c r="H18" t="s">
+        <v>501</v>
+      </c>
+      <c r="J18" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>462</v>
+      </c>
+      <c r="B19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C19" s="50">
+        <v>1196745</v>
+      </c>
+      <c r="D19" t="s">
+        <v>472</v>
+      </c>
+      <c r="E19" t="s">
+        <v>410</v>
+      </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>494</v>
+      </c>
+      <c r="H19" t="s">
+        <v>501</v>
+      </c>
+      <c r="J19" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>463</v>
+      </c>
+      <c r="B20" t="s">
+        <v>488</v>
+      </c>
+      <c r="C20" s="50">
+        <v>1283815</v>
+      </c>
+      <c r="D20" t="s">
+        <v>473</v>
+      </c>
+      <c r="E20" t="s">
+        <v>410</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>495</v>
+      </c>
+      <c r="H20" t="s">
+        <v>502</v>
+      </c>
+      <c r="J20" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>464</v>
+      </c>
+      <c r="B21" t="s">
+        <v>482</v>
+      </c>
+      <c r="C21" s="50">
+        <v>1278230</v>
+      </c>
+      <c r="D21" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" t="s">
+        <v>410</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>496</v>
+      </c>
+      <c r="H21" t="s">
+        <v>506</v>
+      </c>
+      <c r="J21" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>465</v>
+      </c>
+      <c r="B22" t="s">
+        <v>483</v>
+      </c>
+      <c r="C22" s="50">
+        <v>1274550</v>
+      </c>
+      <c r="D22" t="s">
+        <v>475</v>
+      </c>
+      <c r="E22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>496</v>
+      </c>
+      <c r="H22" t="s">
+        <v>505</v>
+      </c>
+      <c r="J22" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
+        <v>466</v>
+      </c>
+      <c r="B23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" s="50">
+        <v>1267560</v>
+      </c>
+      <c r="D23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E23" t="s">
+        <v>410</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>497</v>
+      </c>
+      <c r="H23" t="s">
+        <v>503</v>
+      </c>
+      <c r="J23" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="31" t="s">
+        <v>467</v>
+      </c>
+      <c r="B24" t="s">
+        <v>484</v>
+      </c>
+      <c r="C24" s="50">
+        <v>642490</v>
+      </c>
+      <c r="D24" t="s">
+        <v>476</v>
+      </c>
+      <c r="E24" t="s">
+        <v>410</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>498</v>
+      </c>
+      <c r="H24" t="s">
+        <v>503</v>
+      </c>
+      <c r="J24" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="31" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" t="s">
+        <v>489</v>
+      </c>
+      <c r="C25" s="50">
+        <v>1274400</v>
+      </c>
+      <c r="D25" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>493</v>
+      </c>
+      <c r="H25" t="s">
+        <v>502</v>
+      </c>
+      <c r="J25" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="31" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C26" s="50">
+        <v>1283580</v>
+      </c>
+      <c r="D26" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" t="s">
+        <v>410</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>498</v>
+      </c>
+      <c r="H26" t="s">
+        <v>504</v>
+      </c>
+      <c r="J26" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="31" t="s">
+        <v>470</v>
+      </c>
+      <c r="B27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" s="50">
+        <v>1277865</v>
+      </c>
+      <c r="D27" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" t="s">
+        <v>410</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>499</v>
+      </c>
+      <c r="H27" t="s">
+        <v>504</v>
+      </c>
+      <c r="J27" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="31" t="s">
+        <v>471</v>
+      </c>
+      <c r="B28" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="50">
+        <v>1265000</v>
+      </c>
+      <c r="D28" t="s">
+        <v>480</v>
+      </c>
+      <c r="E28" t="s">
+        <v>410</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>500</v>
+      </c>
+      <c r="H28" t="s">
+        <v>504</v>
+      </c>
+      <c r="J28" s="50">
         <v>0</v>
       </c>
     </row>
@@ -19184,7 +19036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22689,7 +22541,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23006,7 +22858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23722,11 +23574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:S2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23797,44 +23649,338 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="71">
+      <c r="A2">
         <v>45327</v>
       </c>
       <c r="B2" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="71" t="str">
+      <c r="C2" t="str">
         <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
         <v>엔투현금</v>
       </c>
-      <c r="D2" s="94" t="str">
+      <c r="D2" t="str">
         <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
         <v>NH투자증권 예수금</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="75">
+      <c r="F2">
         <v>12709251</v>
       </c>
-      <c r="G2" s="75">
+      <c r="G2">
         <v>12709251</v>
       </c>
-      <c r="H2" s="76"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="75">
+      <c r="H2">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>12709251</v>
       </c>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78">
-        <f>SUM($R$2:R2)</f>
+      <c r="S2">
+        <f>SUM($R$2:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>45346</v>
+      </c>
+      <c r="B3">
+        <v>114260</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>국내채권 중기</v>
+      </c>
+      <c r="D3" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>KODEX 국고채3년</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>652300</v>
+      </c>
+      <c r="H3">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>652300</v>
+      </c>
+      <c r="S3">
+        <f>SUM($R$2:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>45346</v>
+      </c>
+      <c r="B4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>국내채권 단기</v>
+      </c>
+      <c r="D4" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>KODEX 단기채권</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <f>SUM($R$2:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>45346</v>
+      </c>
+      <c r="B5" t="s">
+        <v>463</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>미국채권 종합</v>
+      </c>
+      <c r="D5" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>KODEX 미국종합채권ESG액티브(H)</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <f>SUM($R$2:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>45346</v>
+      </c>
+      <c r="B6" t="s">
+        <v>464</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>금</v>
+      </c>
+      <c r="D6" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>ACE KRX 금현물</v>
+      </c>
+      <c r="E6">
+        <v>103</v>
+      </c>
+      <c r="H6">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <f>SUM($R$2:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>45346</v>
+      </c>
+      <c r="B7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>리츠</v>
+      </c>
+      <c r="D7" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>TIGER 리츠부동산인프라</v>
+      </c>
+      <c r="E7">
+        <v>290</v>
+      </c>
+      <c r="H7">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <f>SUM($R$2:R13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>45346</v>
+      </c>
+      <c r="B8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>국내주식 대형주</v>
+      </c>
+      <c r="D8" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>TIGER 200TR</v>
+      </c>
+      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="H8">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <f>SUM($R$2:R15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>45346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>국내주식 반도체</v>
+      </c>
+      <c r="D9" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>SOL 반도체소부장루</v>
+      </c>
+      <c r="E9">
+        <v>47</v>
+      </c>
+      <c r="H9">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <f>SUM($R$2:R17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>45346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>미국채권 투자등급</v>
+      </c>
+      <c r="D10" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>KBSTAR 미국단기투자등급회사채액티브</v>
+      </c>
+      <c r="E10">
+        <v>120</v>
+      </c>
+      <c r="H10">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <f>SUM($R$2:R19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>45346</v>
+      </c>
+      <c r="B11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>미국주식 S&amp;P</v>
+      </c>
+      <c r="D11" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>KODEX 미국S&amp;P500(H)</v>
+      </c>
+      <c r="E11">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f>SUM($R$2:R21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>45346</v>
+      </c>
+      <c r="B12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>글로벌 인공지능</v>
+      </c>
+      <c r="D12" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>TIMEFOLIO 글로벌AI인공지능액티브</v>
+      </c>
+      <c r="E12">
+        <v>73</v>
+      </c>
+      <c r="H12">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f>SUM($R$2:R23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>45346</v>
+      </c>
+      <c r="B13" t="s">
+        <v>471</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</f>
+        <v>미국배당주</v>
+      </c>
+      <c r="D13" t="str">
+        <f>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</f>
+        <v>TIGER 미국배당다우존스</v>
+      </c>
+      <c r="E13">
+        <v>115</v>
+      </c>
+      <c r="H13">
+        <f>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f>SUM($R$2:R23)</f>
         <v>0</v>
       </c>
     </row>
@@ -23848,7 +23994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24412,7 +24558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24653,7 +24799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26575,47 +26721,47 @@
       <c r="E29" s="38">
         <v>0</v>
       </c>
-      <c r="F29" s="95">
-        <v>0</v>
-      </c>
-      <c r="G29" s="96">
-        <v>0</v>
-      </c>
-      <c r="H29" s="96">
+      <c r="F29" s="94">
+        <v>0</v>
+      </c>
+      <c r="G29" s="95">
+        <v>0</v>
+      </c>
+      <c r="H29" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I29" s="111">
+      <c r="I29" s="110">
         <v>1</v>
       </c>
-      <c r="J29" s="95">
+      <c r="J29" s="94">
         <v>18.149999999999999</v>
       </c>
-      <c r="K29" s="95">
+      <c r="K29" s="94">
         <v>16.36</v>
       </c>
-      <c r="L29" s="112">
-        <v>0</v>
-      </c>
-      <c r="M29" s="95">
+      <c r="L29" s="111">
+        <v>0</v>
+      </c>
+      <c r="M29" s="94">
         <v>16.350000000000001</v>
       </c>
-      <c r="N29" s="112">
+      <c r="N29" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>-1.7899999999999991</v>
       </c>
-      <c r="O29" s="112">
+      <c r="O29" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>9.9999999999980105E-3</v>
       </c>
-      <c r="P29" s="112">
+      <c r="P29" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-1.7999999999999972</v>
       </c>
       <c r="Q29" s="91">
         <v>0</v>
       </c>
-      <c r="R29" s="111">
+      <c r="R29" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>16.350000000000001</v>
       </c>
@@ -26642,47 +26788,47 @@
       <c r="E30" s="38">
         <v>0</v>
       </c>
-      <c r="F30" s="95">
-        <v>0</v>
-      </c>
-      <c r="G30" s="96">
-        <v>0</v>
-      </c>
-      <c r="H30" s="96">
+      <c r="F30" s="94">
+        <v>0</v>
+      </c>
+      <c r="G30" s="95">
+        <v>0</v>
+      </c>
+      <c r="H30" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I30" s="111">
+      <c r="I30" s="110">
         <v>1</v>
       </c>
-      <c r="J30" s="95">
+      <c r="J30" s="94">
         <v>35.590000000000003</v>
       </c>
-      <c r="K30" s="95">
+      <c r="K30" s="94">
         <v>32.86</v>
       </c>
-      <c r="L30" s="112">
-        <v>0</v>
-      </c>
-      <c r="M30" s="95">
+      <c r="L30" s="111">
+        <v>0</v>
+      </c>
+      <c r="M30" s="94">
         <v>32.82</v>
       </c>
-      <c r="N30" s="112">
+      <c r="N30" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>-2.730000000000004</v>
       </c>
-      <c r="O30" s="112">
+      <c r="O30" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="P30" s="112">
+      <c r="P30" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-2.7700000000000031</v>
       </c>
       <c r="Q30" s="91">
         <v>0</v>
       </c>
-      <c r="R30" s="111">
+      <c r="R30" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>32.82</v>
       </c>
@@ -26709,47 +26855,47 @@
       <c r="E31" s="38">
         <v>0</v>
       </c>
-      <c r="F31" s="95">
-        <v>0</v>
-      </c>
-      <c r="G31" s="96">
-        <v>0</v>
-      </c>
-      <c r="H31" s="96">
+      <c r="F31" s="94">
+        <v>0</v>
+      </c>
+      <c r="G31" s="95">
+        <v>0</v>
+      </c>
+      <c r="H31" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I31" s="111">
+      <c r="I31" s="110">
         <v>1</v>
       </c>
-      <c r="J31" s="95">
+      <c r="J31" s="94">
         <v>25.08</v>
       </c>
-      <c r="K31" s="95">
+      <c r="K31" s="94">
         <v>23.23</v>
       </c>
-      <c r="L31" s="112">
-        <v>0</v>
-      </c>
-      <c r="M31" s="95">
+      <c r="L31" s="111">
+        <v>0</v>
+      </c>
+      <c r="M31" s="94">
         <v>23.21</v>
       </c>
-      <c r="N31" s="112">
+      <c r="N31" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>-1.8499999999999979</v>
       </c>
-      <c r="O31" s="112">
+      <c r="O31" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="P31" s="112">
+      <c r="P31" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-1.8699999999999974</v>
       </c>
       <c r="Q31" s="91">
         <v>0</v>
       </c>
-      <c r="R31" s="111">
+      <c r="R31" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>23.21</v>
       </c>
@@ -26776,47 +26922,47 @@
       <c r="E32" s="38">
         <v>0</v>
       </c>
-      <c r="F32" s="95">
-        <v>0</v>
-      </c>
-      <c r="G32" s="96">
-        <v>0</v>
-      </c>
-      <c r="H32" s="96">
+      <c r="F32" s="94">
+        <v>0</v>
+      </c>
+      <c r="G32" s="95">
+        <v>0</v>
+      </c>
+      <c r="H32" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I32" s="111">
+      <c r="I32" s="110">
         <v>1</v>
       </c>
-      <c r="J32" s="95">
+      <c r="J32" s="94">
         <v>24.2</v>
       </c>
-      <c r="K32" s="95">
+      <c r="K32" s="94">
         <v>24.65</v>
       </c>
-      <c r="L32" s="112">
-        <v>0</v>
-      </c>
-      <c r="M32" s="95">
+      <c r="L32" s="111">
+        <v>0</v>
+      </c>
+      <c r="M32" s="94">
         <v>24.62</v>
       </c>
-      <c r="N32" s="112">
+      <c r="N32" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0.44999999999999929</v>
       </c>
-      <c r="O32" s="112">
+      <c r="O32" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>2.9999999999997584E-2</v>
       </c>
-      <c r="P32" s="112">
+      <c r="P32" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>0.42000000000000171</v>
       </c>
       <c r="Q32" s="91">
         <v>0</v>
       </c>
-      <c r="R32" s="111">
+      <c r="R32" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>24.62</v>
       </c>
@@ -26843,47 +26989,47 @@
       <c r="E33" s="38">
         <v>0</v>
       </c>
-      <c r="F33" s="95">
-        <v>0</v>
-      </c>
-      <c r="G33" s="96">
-        <v>0</v>
-      </c>
-      <c r="H33" s="96">
+      <c r="F33" s="94">
+        <v>0</v>
+      </c>
+      <c r="G33" s="95">
+        <v>0</v>
+      </c>
+      <c r="H33" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I33" s="111">
+      <c r="I33" s="110">
         <v>17</v>
       </c>
-      <c r="J33" s="95">
+      <c r="J33" s="94">
         <v>395.59</v>
       </c>
-      <c r="K33" s="95">
+      <c r="K33" s="94">
         <v>394.91</v>
       </c>
-      <c r="L33" s="112">
-        <v>0</v>
-      </c>
-      <c r="M33" s="95">
+      <c r="L33" s="111">
+        <v>0</v>
+      </c>
+      <c r="M33" s="94">
         <v>394.25</v>
       </c>
-      <c r="N33" s="112">
+      <c r="N33" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>-0.67999999999994998</v>
       </c>
-      <c r="O33" s="112">
+      <c r="O33" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>0.66000000000002501</v>
       </c>
-      <c r="P33" s="112">
+      <c r="P33" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-1.339999999999975</v>
       </c>
       <c r="Q33" s="91">
         <v>0</v>
       </c>
-      <c r="R33" s="111">
+      <c r="R33" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>394.25</v>
       </c>
@@ -26910,47 +27056,47 @@
       <c r="E34" s="38">
         <v>1</v>
       </c>
-      <c r="F34" s="95">
+      <c r="F34" s="94">
         <v>67.81</v>
       </c>
-      <c r="G34" s="96">
+      <c r="G34" s="95">
         <v>67.92</v>
       </c>
-      <c r="H34" s="96">
+      <c r="H34" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0.10999999999999943</v>
       </c>
-      <c r="I34" s="111">
-        <v>0</v>
-      </c>
-      <c r="J34" s="95">
-        <v>0</v>
-      </c>
-      <c r="K34" s="95">
-        <v>0</v>
-      </c>
-      <c r="L34" s="112">
-        <v>0</v>
-      </c>
-      <c r="M34" s="95">
-        <v>0</v>
-      </c>
-      <c r="N34" s="112">
+      <c r="I34" s="110">
+        <v>0</v>
+      </c>
+      <c r="J34" s="94">
+        <v>0</v>
+      </c>
+      <c r="K34" s="94">
+        <v>0</v>
+      </c>
+      <c r="L34" s="111">
+        <v>0</v>
+      </c>
+      <c r="M34" s="94">
+        <v>0</v>
+      </c>
+      <c r="N34" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O34" s="112">
+      <c r="O34" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P34" s="112">
+      <c r="P34" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.10999999999999943</v>
       </c>
-      <c r="Q34" s="114">
-        <v>0</v>
-      </c>
-      <c r="R34" s="111">
+      <c r="Q34" s="113">
+        <v>0</v>
+      </c>
+      <c r="R34" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-67.92</v>
       </c>
@@ -26977,47 +27123,47 @@
       <c r="E35" s="38">
         <v>1</v>
       </c>
-      <c r="F35" s="95">
+      <c r="F35" s="94">
         <v>27.4</v>
       </c>
-      <c r="G35" s="96">
+      <c r="G35" s="95">
         <v>27.439999999999998</v>
       </c>
-      <c r="H35" s="96">
+      <c r="H35" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>3.9999999999999147E-2</v>
       </c>
-      <c r="I35" s="111">
-        <v>0</v>
-      </c>
-      <c r="J35" s="95">
-        <v>0</v>
-      </c>
-      <c r="K35" s="95">
-        <v>0</v>
-      </c>
-      <c r="L35" s="112">
-        <v>0</v>
-      </c>
-      <c r="M35" s="95">
-        <v>0</v>
-      </c>
-      <c r="N35" s="112">
+      <c r="I35" s="110">
+        <v>0</v>
+      </c>
+      <c r="J35" s="94">
+        <v>0</v>
+      </c>
+      <c r="K35" s="94">
+        <v>0</v>
+      </c>
+      <c r="L35" s="111">
+        <v>0</v>
+      </c>
+      <c r="M35" s="94">
+        <v>0</v>
+      </c>
+      <c r="N35" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O35" s="112">
+      <c r="O35" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P35" s="112">
+      <c r="P35" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-3.9999999999999147E-2</v>
       </c>
-      <c r="Q35" s="114">
-        <v>0</v>
-      </c>
-      <c r="R35" s="111">
+      <c r="Q35" s="113">
+        <v>0</v>
+      </c>
+      <c r="R35" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-27.439999999999998</v>
       </c>
@@ -27044,47 +27190,47 @@
       <c r="E36" s="38">
         <v>1</v>
       </c>
-      <c r="F36" s="95">
+      <c r="F36" s="94">
         <v>36.68</v>
       </c>
-      <c r="G36" s="96">
+      <c r="G36" s="95">
         <v>36.74</v>
       </c>
-      <c r="H36" s="96">
+      <c r="H36" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>6.0000000000002274E-2</v>
       </c>
-      <c r="I36" s="111">
-        <v>0</v>
-      </c>
-      <c r="J36" s="95">
-        <v>0</v>
-      </c>
-      <c r="K36" s="95">
-        <v>0</v>
-      </c>
-      <c r="L36" s="112">
-        <v>0</v>
-      </c>
-      <c r="M36" s="95">
-        <v>0</v>
-      </c>
-      <c r="N36" s="112">
+      <c r="I36" s="110">
+        <v>0</v>
+      </c>
+      <c r="J36" s="94">
+        <v>0</v>
+      </c>
+      <c r="K36" s="94">
+        <v>0</v>
+      </c>
+      <c r="L36" s="111">
+        <v>0</v>
+      </c>
+      <c r="M36" s="94">
+        <v>0</v>
+      </c>
+      <c r="N36" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O36" s="112">
+      <c r="O36" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P36" s="112">
+      <c r="P36" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-6.0000000000002274E-2</v>
       </c>
-      <c r="Q36" s="114">
-        <v>0</v>
-      </c>
-      <c r="R36" s="111">
+      <c r="Q36" s="113">
+        <v>0</v>
+      </c>
+      <c r="R36" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-36.74</v>
       </c>
@@ -27111,48 +27257,48 @@
       <c r="E37" s="38">
         <v>8</v>
       </c>
-      <c r="F37" s="95">
+      <c r="F37" s="94">
         <f>8*48.05</f>
         <v>384.4</v>
       </c>
-      <c r="G37" s="96">
+      <c r="G37" s="95">
         <v>385.04999999999995</v>
       </c>
-      <c r="H37" s="96">
+      <c r="H37" s="95">
         <f>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</f>
         <v>0.64999999999997726</v>
       </c>
-      <c r="I37" s="111">
-        <v>0</v>
-      </c>
-      <c r="J37" s="95">
-        <v>0</v>
-      </c>
-      <c r="K37" s="95">
-        <v>0</v>
-      </c>
-      <c r="L37" s="112">
-        <v>0</v>
-      </c>
-      <c r="M37" s="95">
-        <v>0</v>
-      </c>
-      <c r="N37" s="112">
+      <c r="I37" s="110">
+        <v>0</v>
+      </c>
+      <c r="J37" s="94">
+        <v>0</v>
+      </c>
+      <c r="K37" s="94">
+        <v>0</v>
+      </c>
+      <c r="L37" s="111">
+        <v>0</v>
+      </c>
+      <c r="M37" s="94">
+        <v>0</v>
+      </c>
+      <c r="N37" s="111">
         <f>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O37" s="112">
+      <c r="O37" s="111">
         <f>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P37" s="112">
+      <c r="P37" s="111">
         <f>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</f>
         <v>-0.64999999999997726</v>
       </c>
-      <c r="Q37" s="114">
-        <v>0</v>
-      </c>
-      <c r="R37" s="111">
+      <c r="Q37" s="113">
+        <v>0</v>
+      </c>
+      <c r="R37" s="110">
         <f>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</f>
         <v>-385.04999999999995</v>
       </c>
@@ -27172,7 +27318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27535,38 +27681,38 @@
       <c r="A6" s="3">
         <v>45292</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="C6" s="117" t="str">
+      <c r="C6" s="116" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>직접운용달러</v>
       </c>
-      <c r="D6" s="118" t="str">
+      <c r="D6" s="117" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 달러예수금</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120">
+      <c r="E6" s="112"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="119"/>
+      <c r="H6" s="119">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I6" s="100"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119">
+      <c r="I6" s="99"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O6" s="119">
+      <c r="O6" s="118">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P6" s="122">
+      <c r="P6" s="121">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>0</v>
       </c>
@@ -27577,13 +27723,13 @@
         <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
         <v>0</v>
       </c>
-      <c r="S6" s="125">
+      <c r="S6" s="124">
         <f>SUM($R$2:R6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="101">
+      <c r="A7" s="100">
         <v>45341</v>
       </c>
       <c r="B7" t="s">
@@ -27600,41 +27746,41 @@
       <c r="E7" s="43">
         <v>0</v>
       </c>
-      <c r="F7" s="103">
-        <v>0</v>
-      </c>
-      <c r="G7" s="104">
-        <v>0</v>
-      </c>
-      <c r="H7" s="104">
+      <c r="F7" s="102">
+        <v>0</v>
+      </c>
+      <c r="G7" s="103">
+        <v>0</v>
+      </c>
+      <c r="H7" s="103">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I7" s="100">
+      <c r="I7" s="99">
         <v>1</v>
       </c>
-      <c r="J7" s="103">
+      <c r="J7" s="102">
         <v>5835.86</v>
       </c>
-      <c r="K7" s="103">
+      <c r="K7" s="102">
         <f>3884.79+2023.91</f>
         <v>5908.7</v>
       </c>
-      <c r="L7" s="103">
-        <v>0</v>
-      </c>
-      <c r="M7" s="103">
+      <c r="L7" s="102">
+        <v>0</v>
+      </c>
+      <c r="M7" s="102">
         <v>5897.5</v>
       </c>
-      <c r="N7" s="103">
+      <c r="N7" s="102">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>72.840000000000146</v>
       </c>
-      <c r="O7" s="103">
+      <c r="O7" s="102">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>11.199999999999818</v>
       </c>
-      <c r="P7" s="105">
+      <c r="P7" s="104">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>61.640000000000327</v>
       </c>
@@ -27651,57 +27797,57 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="101">
+      <c r="A8" s="100">
         <v>45341</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="106" t="str">
+      <c r="C8" s="105" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>한투외화RP</v>
       </c>
-      <c r="D8" s="107" t="str">
+      <c r="D8" s="106" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 외화RP</v>
       </c>
       <c r="E8" s="43">
         <v>1</v>
       </c>
-      <c r="F8" s="103">
+      <c r="F8" s="102">
         <v>5897.5</v>
       </c>
-      <c r="G8" s="103">
+      <c r="G8" s="102">
         <v>5897.5</v>
       </c>
-      <c r="H8" s="104">
+      <c r="H8" s="103">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I8" s="100">
-        <v>0</v>
-      </c>
-      <c r="J8" s="103">
-        <v>0</v>
-      </c>
-      <c r="K8" s="103">
-        <v>0</v>
-      </c>
-      <c r="L8" s="103">
-        <v>0</v>
-      </c>
-      <c r="M8" s="103">
-        <v>0</v>
-      </c>
-      <c r="N8" s="103">
+      <c r="I8" s="99">
+        <v>0</v>
+      </c>
+      <c r="J8" s="102">
+        <v>0</v>
+      </c>
+      <c r="K8" s="102">
+        <v>0</v>
+      </c>
+      <c r="L8" s="102">
+        <v>0</v>
+      </c>
+      <c r="M8" s="102">
+        <v>0</v>
+      </c>
+      <c r="N8" s="102">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O8" s="103">
+      <c r="O8" s="102">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P8" s="105">
+      <c r="P8" s="104">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>0</v>
       </c>
@@ -27718,57 +27864,57 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="124">
+      <c r="A9" s="123">
         <v>45342</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="117" t="str">
+      <c r="C9" s="116" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>한투외화RP</v>
       </c>
-      <c r="D9" s="118" t="str">
+      <c r="D9" s="117" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 외화RP</v>
       </c>
       <c r="E9" s="43">
         <v>0</v>
       </c>
-      <c r="F9" s="119">
-        <v>0</v>
-      </c>
-      <c r="G9" s="120">
-        <v>0</v>
-      </c>
-      <c r="H9" s="120">
+      <c r="F9" s="118">
+        <v>0</v>
+      </c>
+      <c r="G9" s="119">
+        <v>0</v>
+      </c>
+      <c r="H9" s="119">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I9" s="100">
+      <c r="I9" s="99">
         <v>1</v>
       </c>
-      <c r="J9" s="119">
+      <c r="J9" s="118">
         <v>5897.5</v>
       </c>
-      <c r="K9" s="119">
+      <c r="K9" s="118">
         <v>5898.02</v>
       </c>
-      <c r="L9" s="119">
-        <v>0</v>
-      </c>
-      <c r="M9" s="119">
+      <c r="L9" s="118">
+        <v>0</v>
+      </c>
+      <c r="M9" s="118">
         <v>5897.95</v>
       </c>
-      <c r="N9" s="119">
+      <c r="N9" s="118">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0.52000000000043656</v>
       </c>
-      <c r="O9" s="119">
+      <c r="O9" s="118">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>7.0000000000618456E-2</v>
       </c>
-      <c r="P9" s="122">
+      <c r="P9" s="121">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>0.4499999999998181</v>
       </c>
@@ -27785,57 +27931,57 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="115">
+      <c r="A10" s="114">
         <v>45343</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="98" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="117" t="str">
+      <c r="C10" s="116" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>미국인프라</v>
       </c>
-      <c r="D10" s="118" t="str">
+      <c r="D10" s="117" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>GLOBAL X US INFRASTRUCTURE DEVELOPMENT ETF</v>
       </c>
       <c r="E10" s="43">
         <v>89</v>
       </c>
-      <c r="F10" s="119">
+      <c r="F10" s="118">
         <v>3220.02</v>
       </c>
-      <c r="G10" s="120">
+      <c r="G10" s="119">
         <v>3228.06</v>
       </c>
-      <c r="H10" s="120">
+      <c r="H10" s="119">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>8.0399999999999636</v>
       </c>
-      <c r="I10" s="100">
-        <v>0</v>
-      </c>
-      <c r="J10" s="119">
-        <v>0</v>
-      </c>
-      <c r="K10" s="119">
-        <v>0</v>
-      </c>
-      <c r="L10" s="119">
-        <v>0</v>
-      </c>
-      <c r="M10" s="119">
-        <v>0</v>
-      </c>
-      <c r="N10" s="119">
+      <c r="I10" s="99">
+        <v>0</v>
+      </c>
+      <c r="J10" s="118">
+        <v>0</v>
+      </c>
+      <c r="K10" s="118">
+        <v>0</v>
+      </c>
+      <c r="L10" s="118">
+        <v>0</v>
+      </c>
+      <c r="M10" s="118">
+        <v>0</v>
+      </c>
+      <c r="N10" s="118">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O10" s="119">
+      <c r="O10" s="118">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P10" s="122">
+      <c r="P10" s="121">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>-8.0399999999999636</v>
       </c>
@@ -27852,57 +27998,57 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="123">
+      <c r="A11" s="122">
         <v>45343</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="C11" s="106" t="str">
+      <c r="C11" s="105" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>미국부동산</v>
       </c>
-      <c r="D11" s="107" t="str">
+      <c r="D11" s="106" t="str">
         <f>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>VANGUARD REAL ESTATE ETF</v>
       </c>
       <c r="E11" s="43">
         <v>31</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F11" s="102">
         <v>2607.7200000000003</v>
       </c>
-      <c r="G11" s="104">
+      <c r="G11" s="103">
         <v>2614.2300000000005</v>
       </c>
-      <c r="H11" s="104">
+      <c r="H11" s="103">
         <f>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</f>
         <v>6.5100000000002183</v>
       </c>
-      <c r="I11" s="121">
-        <v>0</v>
-      </c>
-      <c r="J11" s="103">
-        <v>0</v>
-      </c>
-      <c r="K11" s="103">
-        <v>0</v>
-      </c>
-      <c r="L11" s="103">
-        <v>0</v>
-      </c>
-      <c r="M11" s="103">
-        <v>0</v>
-      </c>
-      <c r="N11" s="103">
+      <c r="I11" s="120">
+        <v>0</v>
+      </c>
+      <c r="J11" s="102">
+        <v>0</v>
+      </c>
+      <c r="K11" s="102">
+        <v>0</v>
+      </c>
+      <c r="L11" s="102">
+        <v>0</v>
+      </c>
+      <c r="M11" s="102">
+        <v>0</v>
+      </c>
+      <c r="N11" s="102">
         <f>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O11" s="103">
+      <c r="O11" s="102">
         <f>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P11" s="105">
+      <c r="P11" s="104">
         <f>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</f>
         <v>-6.5100000000002183</v>
       </c>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="507">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -2083,7 +2083,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2444,9 +2444,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2462,13 +2459,7 @@
     <cellStyle name="표준 2 2" xfId="5"/>
     <cellStyle name="표준 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="249">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="250">
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
@@ -5430,6 +5421,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF9BC2E6"/>
@@ -6955,6 +6952,9 @@
       </font>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -6980,8 +6980,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:J64" totalsRowShown="0">
   <autoFilter ref="A1:J64"/>
   <tableColumns count="10">
-    <tableColumn id="8" name="종목코드" dataDxfId="248"/>
-    <tableColumn id="9" name="종목명" dataDxfId="247">
+    <tableColumn id="8" name="종목코드" dataDxfId="249"/>
+    <tableColumn id="9" name="종목명" dataDxfId="248">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="평가금액"/>
@@ -6991,31 +6991,31 @@
     <tableColumn id="6" name="자산군"/>
     <tableColumn id="4" name="세부자산군"/>
     <tableColumn id="5" name="세부자산군2"/>
-    <tableColumn id="10" name="기초평가손익" dataDxfId="246"/>
+    <tableColumn id="10" name="기초평가손익" dataDxfId="247"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S32" totalsRowShown="0" headerRowDxfId="84" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="CMA_한투183611" displayName="CMA_한투183611" ref="A1:S33" totalsRowShown="0" headerRowDxfId="82" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S33"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="83"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="82"/>
-    <tableColumn id="9" name="종목명" dataDxfId="81">
+    <tableColumn id="1" name="거래일자" dataDxfId="81"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="80"/>
+    <tableColumn id="9" name="종목명" dataDxfId="79">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="80">
+    <tableColumn id="10" name="상품명" dataDxfId="78">
       <calculatedColumnFormula>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="79"/>
-    <tableColumn id="2" name="매입액" dataDxfId="78" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="77" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="76">
+    <tableColumn id="6" name="매입수량" dataDxfId="77"/>
+    <tableColumn id="2" name="매입액" dataDxfId="76" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="75" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="74">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="75"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="73"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7030,10 +7030,10 @@
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="74">
+    <tableColumn id="21" name="순현금수입" dataDxfId="72">
       <calculatedColumnFormula>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="73">
+    <tableColumn id="22" name="누적" dataDxfId="71">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7042,24 +7042,24 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S5" totalsRowShown="0" headerRowDxfId="72" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="CMA_한투18361112" displayName="CMA_한투18361112" ref="A1:S7" totalsRowShown="0" headerRowDxfId="70" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S7"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="71"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="70"/>
-    <tableColumn id="9" name="종목명" dataDxfId="69">
+    <tableColumn id="1" name="거래일자" dataDxfId="69"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="68"/>
+    <tableColumn id="9" name="종목명" dataDxfId="67">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="68">
+    <tableColumn id="10" name="상품명" dataDxfId="66">
       <calculatedColumnFormula>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="67"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="65"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="66">
+    <tableColumn id="16" name="매입비용" dataDxfId="64">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="65"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="63"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7074,10 +7074,10 @@
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="64">
+    <tableColumn id="21" name="순현금수입" dataDxfId="62">
       <calculatedColumnFormula>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="63">
+    <tableColumn id="22" name="누적" dataDxfId="61">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7086,68 +7086,52 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="CMA_한투183" displayName="CMA_한투183" ref="A1:S2" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="60"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="59"/>
-    <tableColumn id="9" name="종목명" dataDxfId="58">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="57">
-      <calculatedColumnFormula>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="56"/>
-    <tableColumn id="2" name="매입액" dataDxfId="55" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="54" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="53" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="47" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="46" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="45" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="44" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="43" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="42" dataCellStyle="쉼표 [0]">
-      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" name="거래일자" dataDxfId="58"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="57"/>
+    <tableColumn id="9" name="종목명" dataDxfId="56"/>
+    <tableColumn id="10" name="상품명" dataDxfId="55"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="54"/>
+    <tableColumn id="2" name="매입액" dataDxfId="53" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="52" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="51" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="50" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="49" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="48" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="47" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="46" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="45" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매도비용" dataDxfId="44" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="순수익" dataDxfId="43" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="4" name="입출금" dataDxfId="42" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="41" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="누적" dataDxfId="40" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="41" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CMA_한투1836" displayName="CMA_한투1836" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="39" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="40"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="39"/>
-    <tableColumn id="9" name="종목명" dataDxfId="38">
+    <tableColumn id="1" name="거래일자" dataDxfId="38"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="37"/>
+    <tableColumn id="9" name="종목명" dataDxfId="36">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="37">
+    <tableColumn id="10" name="상품명" dataDxfId="35">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1836[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="36"/>
+    <tableColumn id="6" name="매입수량" dataDxfId="34"/>
     <tableColumn id="2" name="매입액"/>
     <tableColumn id="12" name="현금지출"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="35">
+    <tableColumn id="16" name="매입비용" dataDxfId="33">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[현금지출]]-CMA_한투1836[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="34"/>
+    <tableColumn id="7" name="매도수량" dataDxfId="32"/>
     <tableColumn id="3" name="매도원금"/>
     <tableColumn id="15" name="매도액"/>
     <tableColumn id="14" name="이자배당액"/>
@@ -7162,10 +7146,10 @@
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[매매수익]]+CMA_한투1836[[#This Row],[이자배당액]]-CMA_한투1836[[#This Row],[매도비용]]-CMA_한투1836[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" name="입출금"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="33">
+    <tableColumn id="21" name="순현금수입" dataDxfId="31">
       <calculatedColumnFormula>CMA_한투1836[[#This Row],[입출금]]+CMA_한투1836[[#This Row],[현금수입]]-CMA_한투1836[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="32">
+    <tableColumn id="22" name="누적" dataDxfId="30">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7174,42 +7158,42 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="CMA_한투1838" displayName="CMA_한투1838" ref="A1:S2" insertRow="1" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S2"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="29"/>
-    <tableColumn id="5" name="종목코드" dataDxfId="28"/>
-    <tableColumn id="9" name="종목명" dataDxfId="27">
+    <tableColumn id="1" name="거래일자" dataDxfId="27"/>
+    <tableColumn id="5" name="종목코드" dataDxfId="26"/>
+    <tableColumn id="9" name="종목명" dataDxfId="25">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="26">
+    <tableColumn id="10" name="상품명" dataDxfId="24">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1838[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="25"/>
-    <tableColumn id="2" name="매입액" dataDxfId="24" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="현금지출" dataDxfId="23" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="22" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="23"/>
+    <tableColumn id="2" name="매입액" dataDxfId="22" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="현금지출" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="20" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[현금지출]]-CMA_한투1838[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="21" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="20" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="16" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="19" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="18" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="17" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="16" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="15" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]-CMA_한투1838[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="15" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="13" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매도액]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="14" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="12" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[매매수익]]+CMA_한투1838[[#This Row],[이자배당액]]-CMA_한투1838[[#This Row],[매도비용]]-CMA_한투1838[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="13" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="12" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="11" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="10" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1838[[#This Row],[입출금]]+CMA_한투1838[[#This Row],[현금수입]]-CMA_한투1838[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="11" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="9" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7218,28 +7202,28 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="표8" displayName="표8" ref="A1:F340" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:F340"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="거래일자" dataDxfId="9"/>
-    <tableColumn id="4" name="원화자금유입" dataDxfId="8"/>
-    <tableColumn id="2" name="원화투자회수" dataDxfId="7" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="원화투자지출" dataDxfId="6" dataCellStyle="쉼표 [0]">
+    <tableColumn id="1" name="거래일자" dataDxfId="7"/>
+    <tableColumn id="4" name="원화자금유입" dataDxfId="6"/>
+    <tableColumn id="2" name="원화투자회수" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="원화투자지출" dataDxfId="4" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>IF(WEEKDAY(표8[[#This Row],[거래일자]])=4, 2000000,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="원화자금유출" dataDxfId="5" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="달러투자회수" dataDxfId="4" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="원화자금유출" dataDxfId="3" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="달러투자회수" dataDxfId="2" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="표1" displayName="표1" ref="A1:T57" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:T57"/>
   <tableColumns count="20">
     <tableColumn id="2" name="종목코드"/>
-    <tableColumn id="3" name="거래일자" dataDxfId="2"/>
+    <tableColumn id="3" name="거래일자" dataDxfId="0"/>
     <tableColumn id="4" name="종목명"/>
     <tableColumn id="5" name="통화"/>
     <tableColumn id="6" name="계좌"/>
@@ -7267,7 +7251,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J28" totalsRowShown="0">
   <autoFilter ref="A1:J28"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="종목코드" dataDxfId="1"/>
+    <tableColumn id="1" name="종목코드" dataDxfId="246"/>
     <tableColumn id="2" name="종목명"/>
     <tableColumn id="8" name="평가금액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
     <tableColumn id="3" name="상품명"/>
@@ -7374,7 +7358,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S13" totalsRowShown="0" headerRowDxfId="197" headerRowBorderDxfId="196" tableBorderDxfId="195" totalsRowBorderDxfId="194" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S13"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자"/>
+    <tableColumn id="1" name="거래일자" dataDxfId="193"/>
     <tableColumn id="2" name="종목코드"/>
     <tableColumn id="3" name="종목명">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
@@ -7385,7 +7369,7 @@
     <tableColumn id="5" name="매입수량"/>
     <tableColumn id="6" name="매입액"/>
     <tableColumn id="7" name="현금지출"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="0">
+    <tableColumn id="8" name="매입비용" dataDxfId="192">
       <calculatedColumnFormula>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="매도수량"/>
@@ -7407,42 +7391,42 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S37" totalsRowShown="0" headerRowDxfId="193" dataDxfId="192" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="불리오" displayName="불리오" ref="A1:S37" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S37"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="191"/>
-    <tableColumn id="4" name="종목코드" dataDxfId="190"/>
-    <tableColumn id="9" name="종목명" dataDxfId="189">
+    <tableColumn id="1" name="거래일자" dataDxfId="189"/>
+    <tableColumn id="4" name="종목코드" dataDxfId="188"/>
+    <tableColumn id="9" name="종목명" dataDxfId="187">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="188">
+    <tableColumn id="10" name="상품명" dataDxfId="186">
       <calculatedColumnFormula>VLOOKUP(불리오[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="매입수량" dataDxfId="187"/>
-    <tableColumn id="2" name="매입액" dataDxfId="186" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="현금지출" dataDxfId="185" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="매입비용" dataDxfId="184" dataCellStyle="쉼표 [0]">
+    <tableColumn id="6" name="매입수량" dataDxfId="185"/>
+    <tableColumn id="2" name="매입액" dataDxfId="184" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="현금지출" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="매입비용" dataDxfId="182" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[현금지출]]-불리오[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매도수량" dataDxfId="183" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="182" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="19" name="매도액" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="현금수입" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="18" name="매매수익" dataDxfId="178" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매도수량" dataDxfId="181" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="180" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="19" name="매도액" dataDxfId="179" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="178" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="현금수입" dataDxfId="177" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="18" name="매매수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]-불리오[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="177" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="175" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매도액]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="176" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="174" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[매매수익]]+불리오[[#This Row],[이자배당액]]-불리오[[#This Row],[매도비용]]-불리오[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="입출금" dataDxfId="175" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="22" name="순현금수입" dataDxfId="174" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="입출금" dataDxfId="173" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="22" name="순현금수입" dataDxfId="172" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>불리오[[#This Row],[입출금]]+불리오[[#This Row],[현금수입]]-불리오[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" name="누적" dataDxfId="173" dataCellStyle="쉼표 [0]">
+    <tableColumn id="23" name="누적" dataDxfId="171" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7451,42 +7435,42 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S11" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="표4" displayName="표4" ref="A1:S11" totalsRowShown="0" headerRowDxfId="170" dataDxfId="168" headerRowBorderDxfId="169" tableBorderDxfId="167" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S11"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="168"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="167"/>
-    <tableColumn id="2" name="종목명" dataDxfId="166">
+    <tableColumn id="1" name="거래일자" dataDxfId="166"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="165"/>
+    <tableColumn id="2" name="종목명" dataDxfId="164">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="165">
+    <tableColumn id="3" name="상품명" dataDxfId="163">
       <calculatedColumnFormula>VLOOKUP(표4[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="164"/>
-    <tableColumn id="4" name="매입액" dataDxfId="163" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="162" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="161" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="162"/>
+    <tableColumn id="4" name="매입액" dataDxfId="161" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="159" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[현금지출]]-표4[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="160" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="159" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="155" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="158" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="157" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="156" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="155" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="154" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]-표4[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="154" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="152" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매도액]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="153" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="151" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4[[#This Row],[매매수익]]+표4[[#This Row],[이자배당액]]-표4[[#This Row],[매도비용]]-표4[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="152"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="151">
+    <tableColumn id="14" name="입출금" dataDxfId="150"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="149">
       <calculatedColumnFormula>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="150" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="누적" dataDxfId="148" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7495,42 +7479,42 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S4" totalsRowShown="0" headerRowDxfId="149" dataDxfId="147" headerRowBorderDxfId="148" tableBorderDxfId="146" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="표4_10" displayName="표4_10" ref="A1:S4" totalsRowShown="0" headerRowDxfId="147" dataDxfId="145" headerRowBorderDxfId="146" tableBorderDxfId="144" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S4"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="145"/>
-    <tableColumn id="17" name="종목코드" dataDxfId="144"/>
-    <tableColumn id="2" name="종목명" dataDxfId="143">
+    <tableColumn id="1" name="거래일자" dataDxfId="143"/>
+    <tableColumn id="17" name="종목코드" dataDxfId="142"/>
+    <tableColumn id="2" name="종목명" dataDxfId="141">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="상품명" dataDxfId="142">
+    <tableColumn id="3" name="상품명" dataDxfId="140">
       <calculatedColumnFormula>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매입수량" dataDxfId="141"/>
-    <tableColumn id="4" name="매입액" dataDxfId="140" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="139" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입비용" dataDxfId="138" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매입수량" dataDxfId="139"/>
+    <tableColumn id="4" name="매입액" dataDxfId="138" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입비용" dataDxfId="136" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="매도수량" dataDxfId="137" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="매도원금" dataDxfId="136" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매도액" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="9" name="이자배당액" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="현금수입" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매매수익" dataDxfId="132" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="매도수량" dataDxfId="135" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="매도원금" dataDxfId="134" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매도액" dataDxfId="133" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="9" name="이자배당액" dataDxfId="132" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="현금수입" dataDxfId="131" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매매수익" dataDxfId="130" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="매도비용" dataDxfId="131" dataCellStyle="쉼표 [0]">
+    <tableColumn id="12" name="매도비용" dataDxfId="129" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" name="순수익" dataDxfId="130" dataCellStyle="쉼표 [0]">
+    <tableColumn id="13" name="순수익" dataDxfId="128" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" name="입출금" dataDxfId="129"/>
-    <tableColumn id="15" name="순현금수입" dataDxfId="128">
+    <tableColumn id="14" name="입출금" dataDxfId="127"/>
+    <tableColumn id="15" name="순현금수입" dataDxfId="126">
       <calculatedColumnFormula>표4_10[[#This Row],[입출금]]+표4_10[[#This Row],[현금수입]]-표4_10[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="누적" dataDxfId="127">
+    <tableColumn id="16" name="누적" dataDxfId="125">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7539,45 +7523,45 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T4" totalsRowShown="0" headerRowDxfId="126" dataDxfId="125" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="CMA_한투1837" displayName="CMA_한투1837" ref="A1:T4" totalsRowShown="0" headerRowDxfId="124" dataDxfId="123" headerRowCellStyle="쉼표 [0]" dataCellStyle="쉼표 [0]">
   <autoFilter ref="A1:T4"/>
   <tableColumns count="20">
-    <tableColumn id="1" name="거래일자" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="6" name="종목코드" dataDxfId="122" totalsRowDxfId="121"/>
-    <tableColumn id="9" name="종목명" dataDxfId="120" totalsRowDxfId="119">
+    <tableColumn id="1" name="거래일자" dataDxfId="122" totalsRowDxfId="121"/>
+    <tableColumn id="6" name="종목코드" dataDxfId="120" totalsRowDxfId="119"/>
+    <tableColumn id="9" name="종목명" dataDxfId="118" totalsRowDxfId="117">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="상품명" dataDxfId="118" totalsRowDxfId="117">
+    <tableColumn id="10" name="상품명" dataDxfId="116" totalsRowDxfId="115">
       <calculatedColumnFormula>VLOOKUP(CMA_한투1837[[#This Row],[종목코드]],표3[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="매입수량" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="2" name="매입액" dataDxfId="114" totalsRowDxfId="113" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="5" name="현금지출" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="16" name="매입비용" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]">
+    <tableColumn id="7" name="매입수량" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="2" name="매입액" dataDxfId="112" totalsRowDxfId="111" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="5" name="현금지출" dataDxfId="110" totalsRowDxfId="109" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="16" name="매입비용" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="매도수량" dataDxfId="108" totalsRowDxfId="107" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="3" name="매도원금" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="15" name="매도액" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="이자배당액" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="17" name="매매수익" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]">
+    <tableColumn id="8" name="매도수량" dataDxfId="106" totalsRowDxfId="105" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="3" name="매도원금" dataDxfId="104" totalsRowDxfId="103" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="15" name="매도액" dataDxfId="102" totalsRowDxfId="101" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="이자배당액" dataDxfId="100" totalsRowDxfId="99" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="98" totalsRowDxfId="97" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="17" name="매매수익" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="매도비용" dataDxfId="96" totalsRowDxfId="95" dataCellStyle="쉼표 [0]">
+    <tableColumn id="18" name="매도비용" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="순수익" dataDxfId="94" totalsRowDxfId="93" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="순수익" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="입출금" dataDxfId="92" totalsRowDxfId="91" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="21" name="순현금수입" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]">
+    <tableColumn id="4" name="입출금" dataDxfId="90" totalsRowDxfId="89" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="21" name="순현금수입" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="누적" dataDxfId="88" totalsRowDxfId="87" dataCellStyle="쉼표 [0]">
+    <tableColumn id="22" name="누적" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="외화입출금" dataDxfId="86" totalsRowDxfId="85" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="외화입출금" dataDxfId="84" totalsRowDxfId="83" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7848,8 +7832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9860,11 +9844,11 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10083,7 +10067,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="100">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="B4" s="107" t="s">
         <v>423</v>
@@ -10470,8 +10454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12231,8 +12215,8 @@
         <v>-1999992</v>
       </c>
       <c r="S26">
-        <f>SUM($R$2:R27)</f>
-        <v>8710530</v>
+        <f>SUM($R$2:R26)</f>
+        <v>-1538103</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -12342,7 +12326,7 @@
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
         <v>-178410</v>
       </c>
-      <c r="S28" s="5">
+      <c r="S28">
         <f>SUM($R$2:R28)</f>
         <v>8532120</v>
       </c>
@@ -12352,22 +12336,44 @@
         <v>45343</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>한투예수금</v>
+        <v>미국단기회사채</v>
       </c>
       <c r="D29" s="33" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>한국투자증권 직접투자 원화예수금</v>
-      </c>
-      <c r="E29" s="112"/>
+        <v>KBSTAR 미국단기투자등급회사채액티비</v>
+      </c>
+      <c r="E29" s="40">
+        <v>330</v>
+      </c>
+      <c r="F29" s="7">
+        <v>3507900</v>
+      </c>
+      <c r="G29" s="7">
+        <v>3508190</v>
+      </c>
       <c r="H29" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="50"/>
+        <v>290</v>
+      </c>
+      <c r="I29" s="35">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
       <c r="N29">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -12378,18 +12384,18 @@
       </c>
       <c r="P29">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>0</v>
+        <v>-290</v>
       </c>
       <c r="Q29">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="R29" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>8000000</v>
-      </c>
-      <c r="S29" s="5">
+        <v>-3508190</v>
+      </c>
+      <c r="S29">
         <f>SUM($R$2:R29)</f>
-        <v>16532120</v>
+        <v>5023930</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -12397,24 +12403,24 @@
         <v>45343</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>미국단기회사채</v>
+        <v>글로벌AI주식</v>
       </c>
       <c r="D30" s="33" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>KBSTAR 미국단기투자등급회사채액티비</v>
+        <v>TIMEFOLIO 글로벌AI인공지능액티브</v>
       </c>
       <c r="E30" s="40">
-        <v>330</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7">
-        <v>3507900</v>
+        <v>2013760</v>
       </c>
       <c r="G30" s="7">
-        <v>3508190</v>
+        <v>2014050</v>
       </c>
       <c r="H30" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
@@ -12452,11 +12458,11 @@
       </c>
       <c r="R30" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>-3508190</v>
+        <v>-2014050</v>
       </c>
       <c r="S30">
         <f>SUM($R$2:R30)</f>
-        <v>13023930</v>
+        <v>3009880</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -12464,28 +12470,28 @@
         <v>45343</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>글로벌AI주식</v>
+        <v>미국배당주</v>
       </c>
       <c r="D31" s="33" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>TIMEFOLIO 글로벌AI인공지능액티브</v>
+        <v>TIGER 미국배당다우존스</v>
       </c>
       <c r="E31" s="40">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="F31" s="7">
-        <v>2013760</v>
+        <v>2009340</v>
       </c>
       <c r="G31" s="7">
-        <v>2014050</v>
+        <v>2009850</v>
       </c>
       <c r="H31" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>290</v>
+        <v>510</v>
       </c>
       <c r="I31" s="35">
         <v>0</v>
@@ -12512,18 +12518,18 @@
       </c>
       <c r="P31">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>-290</v>
+        <v>-510</v>
       </c>
       <c r="Q31">
         <v>0</v>
       </c>
       <c r="R31" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>-2014050</v>
+        <v>-2009850</v>
       </c>
       <c r="S31">
         <f>SUM($R$2:R31)</f>
-        <v>11009880</v>
+        <v>1000030</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -12531,44 +12537,22 @@
         <v>45343</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>439</v>
+        <v>272</v>
       </c>
       <c r="C32" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>미국배당주</v>
+        <v>한투예수금</v>
       </c>
       <c r="D32" s="33" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>TIGER 미국배당다우존스</v>
-      </c>
-      <c r="E32" s="40">
-        <v>183</v>
-      </c>
-      <c r="F32" s="7">
-        <v>2009340</v>
-      </c>
-      <c r="G32" s="7">
-        <v>2009850</v>
-      </c>
+        <v>한국투자증권 직접투자 원화예수금</v>
+      </c>
+      <c r="E32" s="112"/>
       <c r="H32" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
-        <v>510</v>
-      </c>
-      <c r="I32" s="35">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" s="50"/>
       <c r="N32">
         <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
         <v>0</v>
@@ -12579,21 +12563,68 @@
       </c>
       <c r="P32">
         <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
-        <v>-510</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="R32" s="5">
         <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
-        <v>-2009850</v>
+        <v>8000000</v>
       </c>
       <c r="S32">
         <f>SUM($R$2:R32)</f>
         <v>9000030</v>
       </c>
     </row>
-    <row r="35" spans="10:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>45344</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C33" s="9" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>(약정)한투원화발행어음</v>
+      </c>
+      <c r="D33" s="33" t="str">
+        <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
+      </c>
+      <c r="E33" s="112"/>
+      <c r="F33" s="7">
+        <v>300000</v>
+      </c>
+      <c r="G33" s="7">
+        <v>300000</v>
+      </c>
+      <c r="H33" s="5">
+        <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f>CMA_한투183611[[#This Row],[매도액]]-CMA_한투183611[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="5">
+        <f>CMA_한투183611[[#This Row],[매도액]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>CMA_한투183611[[#This Row],[매매수익]]+CMA_한투183611[[#This Row],[이자배당액]]-CMA_한투183611[[#This Row],[매도비용]]-CMA_한투183611[[#This Row],[매입비용]]</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="5">
+        <f>CMA_한투183611[[#This Row],[입출금]]+CMA_한투183611[[#This Row],[현금수입]]-CMA_한투183611[[#This Row],[현금지출]]</f>
+        <v>-300000</v>
+      </c>
+      <c r="S33">
+        <f>SUM($R$2:R33)</f>
+        <v>8700030</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J35"/>
       <c r="L35"/>
       <c r="O35"/>
@@ -12610,10 +12641,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:S7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12945,6 +12976,100 @@
         <v>17988</v>
       </c>
     </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>45337</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="D6" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>삼척블루파워9</v>
+      </c>
+      <c r="E6" s="112"/>
+      <c r="H6" s="5">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8994</v>
+      </c>
+      <c r="M6">
+        <v>8994</v>
+      </c>
+      <c r="N6">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>8994</v>
+      </c>
+      <c r="R6" s="5">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>8994</v>
+      </c>
+      <c r="S6">
+        <f>SUM($R$2:R6)</f>
+        <v>26982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45344</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],2,FALSE)</f>
+        <v>메리츠캐피탈235-1</v>
+      </c>
+      <c r="D7" s="33" t="str">
+        <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
+        <v>메리츠캐피탈235-1</v>
+      </c>
+      <c r="E7" s="112"/>
+      <c r="H7" s="5">
+        <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>14194</v>
+      </c>
+      <c r="M7">
+        <v>14194</v>
+      </c>
+      <c r="N7">
+        <f>CMA_한투18361112[[#This Row],[매도액]]-CMA_한투18361112[[#This Row],[매도원금]]</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <f>CMA_한투18361112[[#This Row],[매도액]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[현금수입]]</f>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f>CMA_한투18361112[[#This Row],[매매수익]]+CMA_한투18361112[[#This Row],[이자배당액]]-CMA_한투18361112[[#This Row],[매도비용]]-CMA_한투18361112[[#This Row],[매입비용]]</f>
+        <v>14194</v>
+      </c>
+      <c r="R7" s="5">
+        <f>CMA_한투18361112[[#This Row],[입출금]]+CMA_한투18361112[[#This Row],[현금수입]]-CMA_한투18361112[[#This Row],[현금지출]]</f>
+        <v>14194</v>
+      </c>
+      <c r="S7">
+        <f>SUM($R$2:R7)</f>
+        <v>41176</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12960,7 +13085,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13044,71 +13169,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>45292</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],2,FALSE)</f>
-        <v>롯데케미칼</v>
-      </c>
-      <c r="D2" s="9" t="str">
-        <f>VLOOKUP(CMA_한투183[[#This Row],[종목코드]],표3[],4,FALSE)</f>
-        <v>우리사주 롯데케미칼</v>
-      </c>
-      <c r="E2" s="40">
-        <v>70</v>
-      </c>
-      <c r="F2" s="7">
-        <v>10010000</v>
-      </c>
-      <c r="G2" s="8">
-        <v>10010000</v>
-      </c>
-      <c r="H2" s="8">
-        <f>CMA_한투183[[#This Row],[현금지출]]-CMA_한투183[[#This Row],[매입액]]</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="7">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <f>CMA_한투183[[#This Row],[매도액]]-CMA_한투183[[#This Row],[매도원금]]</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="8">
-        <f>CMA_한투183[[#This Row],[매도액]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[현금수입]]</f>
-        <v>0</v>
-      </c>
-      <c r="P2" s="8">
-        <f>CMA_한투183[[#This Row],[매매수익]]+CMA_한투183[[#This Row],[이자배당액]]-CMA_한투183[[#This Row],[매도비용]]-CMA_한투183[[#This Row],[매입비용]]</f>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>10010000</v>
-      </c>
-      <c r="R2" s="8">
-        <f>CMA_한투183[[#This Row],[입출금]]+CMA_한투183[[#This Row],[현금수입]]-CMA_한투183[[#This Row],[현금지출]]</f>
-        <v>0</v>
-      </c>
-      <c r="S2" s="8">
-        <f>SUM($R$2:R2)</f>
-        <v>0</v>
-      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="12"/>
+      <c r="K2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -18196,7 +18267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -23578,7 +23649,7 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23649,7 +23720,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>45327</v>
       </c>
       <c r="B2" t="s">
@@ -23685,7 +23756,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>45346</v>
       </c>
       <c r="B3">
@@ -23715,7 +23786,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>45346</v>
       </c>
       <c r="B4" t="s">
@@ -23742,7 +23813,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>45346</v>
       </c>
       <c r="B5" t="s">
@@ -23769,7 +23840,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>45346</v>
       </c>
       <c r="B6" t="s">
@@ -23796,7 +23867,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>45346</v>
       </c>
       <c r="B7" t="s">
@@ -23823,7 +23894,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>45346</v>
       </c>
       <c r="B8" t="s">
@@ -23850,7 +23921,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>45346</v>
       </c>
       <c r="B9" t="s">
@@ -23877,7 +23948,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>45346</v>
       </c>
       <c r="B10" t="s">
@@ -23904,7 +23975,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>45346</v>
       </c>
       <c r="B11" t="s">
@@ -23931,7 +24002,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>45346</v>
       </c>
       <c r="B12" t="s">
@@ -23958,7 +24029,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>45346</v>
       </c>
       <c r="B13" t="s">
@@ -24803,11 +24874,11 @@
   <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A59" sqref="A59"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
-      <selection pane="bottomRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight" activeCell="S37" sqref="S37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26705,7 +26776,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="92">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="B29" s="46" t="s">
         <v>440</v>
@@ -26772,7 +26843,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="92">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="B30" s="46" t="s">
         <v>441</v>
@@ -26839,7 +26910,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="92">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="B31" s="46" t="s">
         <v>442</v>
@@ -26906,7 +26977,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="92">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="B32" s="46" t="s">
         <v>443</v>
@@ -26973,7 +27044,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="92">
-        <v>45341</v>
+        <v>45344</v>
       </c>
       <c r="B33" s="46" t="s">
         <v>444</v>
@@ -27040,7 +27111,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="92">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B34" s="46" t="s">
         <v>445</v>
@@ -27107,7 +27178,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="92">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B35" s="46" t="s">
         <v>446</v>
@@ -27174,7 +27245,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="92">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B36" s="46" t="s">
         <v>447</v>
@@ -27241,7 +27312,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="92">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B37" s="46" t="s">
         <v>448</v>
@@ -27326,7 +27397,7 @@
       <selection activeCell="A46" sqref="A46"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -27723,7 +27794,7 @@
         <f>표4[[#This Row],[입출금]]+표4[[#This Row],[현금수입]]-표4[[#This Row],[현금지출]]</f>
         <v>0</v>
       </c>
-      <c r="S6" s="124">
+      <c r="S6" s="123">
         <f>SUM($R$2:R6)</f>
         <v>0</v>
       </c>
@@ -27864,7 +27935,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="123">
+      <c r="A9" s="122">
         <v>45342</v>
       </c>
       <c r="B9" s="98" t="s">
@@ -27932,7 +28003,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="114">
-        <v>45343</v>
+        <v>45345</v>
       </c>
       <c r="B10" s="98" t="s">
         <v>449</v>
@@ -27998,8 +28069,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="122">
-        <v>45343</v>
+      <c r="A11" s="114">
+        <v>45345</v>
       </c>
       <c r="B11" s="115" t="s">
         <v>450</v>

--- a/trade.xlsx
+++ b/trade.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5610" tabRatio="810" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="자산정보" sheetId="2" r:id="rId1"/>
     <sheet name="연금종목정보" sheetId="15" r:id="rId2"/>
     <sheet name="농협IRP" sheetId="18" r:id="rId3"/>
-    <sheet name="삼성DC" sheetId="17" r:id="rId4"/>
-    <sheet name="엔투저축연금" sheetId="16" r:id="rId5"/>
-    <sheet name="농협IRP (2)" sheetId="19" r:id="rId6"/>
+    <sheet name="농협IRP (2)" sheetId="19" r:id="rId4"/>
+    <sheet name="삼성DC" sheetId="17" r:id="rId5"/>
+    <sheet name="엔투저축연금" sheetId="16" r:id="rId6"/>
     <sheet name="삼성DC (2)" sheetId="20" r:id="rId7"/>
     <sheet name="불리오달러" sheetId="1" r:id="rId8"/>
     <sheet name="한투달러" sheetId="4" r:id="rId9"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1493" uniqueCount="516">
   <si>
     <t>거래일자</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -1178,10 +1178,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>삼성 KODEX 코스피증권상장지수투자신탁(주식)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>주식</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1844,6 +1840,37 @@
   </si>
   <si>
     <t>상품</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASH_NHI</t>
+  </si>
+  <si>
+    <t>114260</t>
+  </si>
+  <si>
+    <t>153130</t>
+  </si>
+  <si>
+    <t>437080</t>
+  </si>
+  <si>
+    <t>411060</t>
+  </si>
+  <si>
+    <t>329200</t>
+  </si>
+  <si>
+    <t>182480</t>
+  </si>
+  <si>
+    <t>310960</t>
+  </si>
+  <si>
+    <t>455850</t>
+  </si>
+  <si>
+    <t>KODEX 코스피</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1851,11 +1878,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="179" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -2083,7 +2111,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2345,9 +2373,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2450,6 +2475,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -2459,7 +2496,7 @@
     <cellStyle name="표준 2 2" xfId="5"/>
     <cellStyle name="표준 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="250">
+  <dxfs count="255">
     <dxf>
       <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     </dxf>
@@ -5424,6 +5461,21 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/mm/dd"/>
     </dxf>
     <dxf>
@@ -6980,8 +7032,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="표3" displayName="표3" ref="A1:J64" totalsRowShown="0">
   <autoFilter ref="A1:J64"/>
   <tableColumns count="10">
-    <tableColumn id="8" name="종목코드" dataDxfId="249"/>
-    <tableColumn id="9" name="종목명" dataDxfId="248">
+    <tableColumn id="8" name="종목코드" dataDxfId="254"/>
+    <tableColumn id="9" name="종목명" dataDxfId="253">
       <calculatedColumnFormula>LEFT(#REF!,SEARCH("_",#REF!)-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="14" name="평가금액"/>
@@ -6991,7 +7043,7 @@
     <tableColumn id="6" name="자산군"/>
     <tableColumn id="4" name="세부자산군"/>
     <tableColumn id="5" name="세부자산군2"/>
-    <tableColumn id="10" name="기초평가손익" dataDxfId="247"/>
+    <tableColumn id="10" name="기초평가손익" dataDxfId="252"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7251,58 +7303,58 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="연금종목정보" displayName="연금종목정보" ref="A1:J28" totalsRowShown="0">
   <autoFilter ref="A1:J28"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="종목코드" dataDxfId="246"/>
+    <tableColumn id="1" name="종목코드" dataDxfId="251"/>
     <tableColumn id="2" name="종목명"/>
-    <tableColumn id="8" name="평가금액" dataDxfId="245" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="평가금액" dataDxfId="250" dataCellStyle="쉼표 [0]"/>
     <tableColumn id="3" name="상품명"/>
     <tableColumn id="4" name="계좌"/>
     <tableColumn id="11" name="통화"/>
     <tableColumn id="5" name="자산군"/>
     <tableColumn id="6" name="세부자산군"/>
     <tableColumn id="13" name="세부자산군2"/>
-    <tableColumn id="12" name="기초평가손익" dataDxfId="244" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="기초평가손익" dataDxfId="249" dataCellStyle="쉼표 [0]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S5" totalsRowShown="0" headerRowDxfId="243" headerRowBorderDxfId="242" tableBorderDxfId="241" totalsRowBorderDxfId="240" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="농협IRP" displayName="농협IRP" ref="A1:S18" totalsRowShown="0" headerRowDxfId="248" headerRowBorderDxfId="247" tableBorderDxfId="246" totalsRowBorderDxfId="245" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S18"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="239"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="238"/>
-    <tableColumn id="3" name="종목명" dataDxfId="237">
+    <tableColumn id="1" name="거래일자" dataDxfId="244"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="243"/>
+    <tableColumn id="3" name="종목명" dataDxfId="242">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="236">
+    <tableColumn id="4" name="상품명" dataDxfId="241">
       <calculatedColumnFormula>VLOOKUP(농협IRP[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="235" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="234" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="233" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="232" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="240" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="239" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="238" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="237" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[현금지출]]-농협IRP[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="231" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="230" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="229" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="228" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="227" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="226" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="236" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="235" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="234" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="233" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="232" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="231" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]-농협IRP[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="225" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="230" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매도액]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="224" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="229" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[매매수익]]+농협IRP[[#This Row],[이자배당액]]-농협IRP[[#This Row],[매도비용]]-농협IRP[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="223"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="222" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="228"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="227" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>농협IRP[[#This Row],[입출금]]+농협IRP[[#This Row],[현금수입]]-농협IRP[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="221" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="226" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7311,42 +7363,42 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="220" headerRowBorderDxfId="219" tableBorderDxfId="218" totalsRowBorderDxfId="217" headerRowCellStyle="쉼표 [0]">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="삼성DC" displayName="삼성DC" ref="A1:S12" totalsRowShown="0" headerRowDxfId="225" headerRowBorderDxfId="224" tableBorderDxfId="223" totalsRowBorderDxfId="222" headerRowCellStyle="쉼표 [0]">
   <autoFilter ref="A1:S12"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="216"/>
-    <tableColumn id="2" name="종목코드" dataDxfId="215"/>
-    <tableColumn id="3" name="종목명" dataDxfId="214">
+    <tableColumn id="1" name="거래일자" dataDxfId="221"/>
+    <tableColumn id="2" name="종목코드" dataDxfId="220"/>
+    <tableColumn id="3" name="종목명" dataDxfId="219">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="상품명" dataDxfId="213">
+    <tableColumn id="4" name="상품명" dataDxfId="218">
       <calculatedColumnFormula>VLOOKUP(삼성DC[[#This Row],[종목코드]],연금종목정보[],4,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="매입수량" dataDxfId="212" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="6" name="매입액" dataDxfId="211" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="7" name="현금지출" dataDxfId="210" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="209" dataCellStyle="쉼표 [0]">
+    <tableColumn id="5" name="매입수량" dataDxfId="217" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="6" name="매입액" dataDxfId="216" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="7" name="현금지출" dataDxfId="215" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="8" name="매입비용" dataDxfId="214" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[현금지출]]-삼성DC[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="매도수량" dataDxfId="208" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="10" name="매도원금" dataDxfId="207" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="11" name="매도액" dataDxfId="206" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="12" name="이자배당액" dataDxfId="205" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="13" name="현금수입" dataDxfId="204" dataCellStyle="쉼표 [0]"/>
-    <tableColumn id="14" name="매매수익" dataDxfId="203" dataCellStyle="쉼표 [0]">
+    <tableColumn id="9" name="매도수량" dataDxfId="213" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="10" name="매도원금" dataDxfId="212" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="11" name="매도액" dataDxfId="211" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="12" name="이자배당액" dataDxfId="210" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="13" name="현금수입" dataDxfId="209" dataCellStyle="쉼표 [0]"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="208" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]-삼성DC[[#This Row],[매도원금]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" name="매도비용" dataDxfId="202" dataCellStyle="쉼표 [0]">
+    <tableColumn id="15" name="매도비용" dataDxfId="207" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매도액]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[현금수입]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" name="순수익" dataDxfId="201" dataCellStyle="쉼표 [0]">
+    <tableColumn id="16" name="순수익" dataDxfId="206" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[매매수익]]+삼성DC[[#This Row],[이자배당액]]-삼성DC[[#This Row],[매도비용]]-삼성DC[[#This Row],[매입비용]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="입출금" dataDxfId="200"/>
-    <tableColumn id="18" name="순현금수입" dataDxfId="199" dataCellStyle="쉼표 [0]">
+    <tableColumn id="17" name="입출금" dataDxfId="205"/>
+    <tableColumn id="18" name="순현금수입" dataDxfId="204" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>삼성DC[[#This Row],[입출금]]+삼성DC[[#This Row],[현금수입]]-삼성DC[[#This Row],[현금지출]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="누적" dataDxfId="198" dataCellStyle="쉼표 [0]">
+    <tableColumn id="19" name="누적" dataDxfId="203" dataCellStyle="쉼표 [0]">
       <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7355,10 +7407,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S13" totalsRowShown="0" headerRowDxfId="197" headerRowBorderDxfId="196" tableBorderDxfId="195" totalsRowBorderDxfId="194" headerRowCellStyle="쉼표 [0]">
-  <autoFilter ref="A1:S13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="농협IRP17" displayName="농협IRP17" ref="A1:S14" totalsRowShown="0" headerRowDxfId="202" headerRowBorderDxfId="201" tableBorderDxfId="200" totalsRowBorderDxfId="199" headerRowCellStyle="쉼표 [0]">
+  <autoFilter ref="A1:S14"/>
   <tableColumns count="19">
-    <tableColumn id="1" name="거래일자" dataDxfId="193"/>
+    <tableColumn id="1" name="거래일자" dataDxfId="198"/>
     <tableColumn id="2" name="종목코드"/>
     <tableColumn id="3" name="종목명">
       <calculatedColumnFormula>VLOOKUP(농협IRP17[[#This Row],[종목코드]],연금종목정보[],2,FALSE)</calculatedColumnFormula>
@@ -7369,7 +7421,7 @@
     <tableColumn id="5" name="매입수량"/>
     <tableColumn id="6" name="매입액"/>
     <tableColumn id="7" name="현금지출"/>
-    <tableColumn id="8" name="매입비용" dataDxfId="192">
+    <tableColumn id="8" name="매입비용" dataDxfId="197">
       <calculatedColumnFormula>농협IRP17[[#This Row],[현금지출]]-농협IRP17[[#This Row],[매입액]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" name="매도수량"/>
@@ -7377,13 +7429,21 @@
     <tableColumn id="11" name="매도액"/>
     <tableColumn id="12" name="이자배당액"/>
     <tableColumn id="13" name="현금수입"/>
-    <tableColumn id="14" name="매매수익"/>
-    <tableColumn id="15" name="매도비용"/>
-    <tableColumn id="16" name="순수익"/>
+    <tableColumn id="14" name="매매수익" dataDxfId="196">
+      <calculatedColumnFormula>농협IRP17[[#This Row],[매도액]]-농협IRP17[[#This Row],[매도원금]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" name="매도비용" dataDxfId="195">
+      <calculatedColumnFormula>농협IRP17[[#This Row],[매도액]]+농협IRP17[[#This Row],[이자배당액]]-농협IRP17[[#This Row],[현금수입]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="16" name="순수익" dataDxfId="194">
+      <calculatedColumnFormula>농협IRP17[[#This Row],[매매수익]]+농협IRP17[[#This Row],[이자배당액]]-농협IRP17[[#This Row],[매도비용]]-농협IRP17[[#This Row],[매입비용]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="17" name="입출금"/>
-    <tableColumn id="18" name="순현금수입"/>
-    <tableColumn id="19" name="누적">
-      <calculatedColumnFormula>SUM($R$2:R13)</calculatedColumnFormula>
+    <tableColumn id="18" name="순현금수입" dataDxfId="193">
+      <calculatedColumnFormula>농협IRP17[[#This Row],[입출금]]+농협IRP17[[#This Row],[현금수입]]-농협IRP17[[#This Row],[현금지출]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="19" name="누적" dataDxfId="192">
+      <calculatedColumnFormula>SUM($R$2:R2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7832,7 +7892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -9504,7 +9564,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="31" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>237</v>
@@ -9629,7 +9689,7 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>312</v>
@@ -9658,28 +9718,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
         <v>424</v>
       </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>425</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>426</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>427</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>428</v>
-      </c>
-      <c r="H59" t="s">
-        <v>429</v>
       </c>
       <c r="J59" s="5">
         <v>0</v>
@@ -9687,28 +9747,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E60" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
+        <v>427</v>
+      </c>
+      <c r="H60" t="s">
         <v>428</v>
-      </c>
-      <c r="H60" t="s">
-        <v>429</v>
       </c>
       <c r="J60" s="5">
         <v>0</v>
@@ -9716,28 +9776,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61" t="s">
         <v>433</v>
       </c>
-      <c r="C61">
-        <v>0</v>
-      </c>
-      <c r="D61" t="s">
-        <v>434</v>
-      </c>
       <c r="E61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
+        <v>427</v>
+      </c>
+      <c r="H61" t="s">
         <v>428</v>
-      </c>
-      <c r="H61" t="s">
-        <v>429</v>
       </c>
       <c r="J61" s="5">
         <v>0</v>
@@ -9745,28 +9805,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
         <v>435</v>
       </c>
-      <c r="C62">
-        <v>0</v>
-      </c>
-      <c r="D62" t="s">
-        <v>436</v>
-      </c>
       <c r="E62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
+        <v>427</v>
+      </c>
+      <c r="H62" t="s">
         <v>428</v>
-      </c>
-      <c r="H62" t="s">
-        <v>429</v>
       </c>
       <c r="J62" s="5">
         <v>0</v>
@@ -9774,28 +9834,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F63" t="s">
         <v>18</v>
       </c>
       <c r="G63" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J63" s="5">
         <v>0</v>
@@ -9803,28 +9863,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
         <v>451</v>
       </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>452</v>
-      </c>
-      <c r="E64" t="s">
-        <v>453</v>
       </c>
       <c r="F64" t="s">
         <v>18</v>
       </c>
       <c r="G64" t="s">
+        <v>453</v>
+      </c>
+      <c r="H64" t="s">
         <v>454</v>
-      </c>
-      <c r="H64" t="s">
-        <v>455</v>
       </c>
       <c r="J64" s="5">
         <v>0</v>
@@ -10066,57 +10126,57 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="100">
+      <c r="A4" s="99">
         <v>45343</v>
       </c>
-      <c r="B4" s="107" t="s">
-        <v>423</v>
-      </c>
-      <c r="C4" s="98" t="str">
+      <c r="B4" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" s="97" t="str">
         <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],2,FALSE)</f>
         <v>일본배당주</v>
       </c>
-      <c r="D4" s="101" t="str">
+      <c r="D4" s="100" t="str">
         <f>VLOOKUP(표4_10[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>NEXT FUNDS JAPAN HIGH DIVIDEND EQUITY ACTIVE EXCHANGE TRADED</v>
       </c>
       <c r="E4" s="43">
         <v>151</v>
       </c>
-      <c r="F4" s="102">
+      <c r="F4" s="101">
         <v>335069</v>
       </c>
-      <c r="G4" s="103">
+      <c r="G4" s="102">
         <v>336007</v>
       </c>
-      <c r="H4" s="103">
+      <c r="H4" s="102">
         <f>표4_10[[#This Row],[현금지출]]-표4_10[[#This Row],[매입액]]</f>
         <v>938</v>
       </c>
-      <c r="I4" s="99">
-        <v>0</v>
-      </c>
-      <c r="J4" s="102">
-        <v>0</v>
-      </c>
-      <c r="K4" s="102">
-        <v>0</v>
-      </c>
-      <c r="L4" s="102">
-        <v>0</v>
-      </c>
-      <c r="M4" s="102">
-        <v>0</v>
-      </c>
-      <c r="N4" s="102">
+      <c r="I4" s="98">
+        <v>0</v>
+      </c>
+      <c r="J4" s="101">
+        <v>0</v>
+      </c>
+      <c r="K4" s="101">
+        <v>0</v>
+      </c>
+      <c r="L4" s="101">
+        <v>0</v>
+      </c>
+      <c r="M4" s="101">
+        <v>0</v>
+      </c>
+      <c r="N4" s="101">
         <f>표4_10[[#This Row],[매도액]]-표4_10[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O4" s="102">
+      <c r="O4" s="101">
         <f>표4_10[[#This Row],[매도액]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P4" s="104">
+      <c r="P4" s="103">
         <f>표4_10[[#This Row],[매매수익]]+표4_10[[#This Row],[이자배당액]]-표4_10[[#This Row],[매도비용]]-표4_10[[#This Row],[매입비용]]</f>
         <v>-938</v>
       </c>
@@ -10388,55 +10448,55 @@
       <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="93">
         <v>2999992</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="93">
         <v>2999992</v>
       </c>
-      <c r="H4" s="95">
+      <c r="H4" s="94">
         <f>CMA_한투1837[[#This Row],[현금지출]]-CMA_한투1837[[#This Row],[매입액]]</f>
         <v>0</v>
       </c>
-      <c r="I4" s="95">
-        <v>0</v>
-      </c>
-      <c r="J4" s="94">
-        <v>0</v>
-      </c>
-      <c r="K4" s="94">
-        <v>0</v>
-      </c>
-      <c r="L4" s="94">
-        <v>0</v>
-      </c>
-      <c r="M4" s="94">
-        <v>0</v>
-      </c>
-      <c r="N4" s="95">
+      <c r="I4" s="94">
+        <v>0</v>
+      </c>
+      <c r="J4" s="93">
+        <v>0</v>
+      </c>
+      <c r="K4" s="93">
+        <v>0</v>
+      </c>
+      <c r="L4" s="93">
+        <v>0</v>
+      </c>
+      <c r="M4" s="93">
+        <v>0</v>
+      </c>
+      <c r="N4" s="94">
         <f>CMA_한투1837[[#This Row],[매도액]]-CMA_한투1837[[#This Row],[매도원금]]</f>
         <v>0</v>
       </c>
-      <c r="O4" s="95">
+      <c r="O4" s="94">
         <f>CMA_한투1837[[#This Row],[매도액]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[현금수입]]</f>
         <v>0</v>
       </c>
-      <c r="P4" s="95">
+      <c r="P4" s="94">
         <f>CMA_한투1837[[#This Row],[매매수익]]+CMA_한투1837[[#This Row],[이자배당액]]-CMA_한투1837[[#This Row],[매도비용]]-CMA_한투1837[[#This Row],[매입비용]]</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="97">
+      <c r="Q4" s="96">
         <v>2999992</v>
       </c>
-      <c r="R4" s="95">
+      <c r="R4" s="94">
         <f>CMA_한투1837[[#This Row],[입출금]]+CMA_한투1837[[#This Row],[현금수입]]-CMA_한투1837[[#This Row],[현금지출]]</f>
         <v>0</v>
       </c>
-      <c r="S4" s="95">
+      <c r="S4" s="94">
         <f>SUM($R$2:R4)</f>
         <v>0</v>
       </c>
-      <c r="T4" s="96">
+      <c r="T4" s="95">
         <v>-336258</v>
       </c>
     </row>
@@ -11091,7 +11151,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>넥스틸</v>
       </c>
-      <c r="E10" s="112">
+      <c r="E10" s="111">
         <v>634</v>
       </c>
       <c r="F10" s="7">
@@ -11417,7 +11477,7 @@
       <c r="A15" s="3">
         <v>45294</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="107" t="s">
         <v>242</v>
       </c>
       <c r="C15" s="64" t="str">
@@ -11485,7 +11545,7 @@
       <c r="A16" s="3">
         <v>45294</v>
       </c>
-      <c r="B16" s="109" t="s">
+      <c r="B16" s="108" t="s">
         <v>279</v>
       </c>
       <c r="C16" s="9" t="str">
@@ -11888,7 +11948,7 @@
         <v>45315</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -11954,7 +12014,7 @@
       <c r="A23" s="3">
         <v>45324</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="108" t="s">
         <v>279</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -12301,7 +12361,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E28" s="112"/>
+      <c r="E28" s="111"/>
       <c r="H28" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -12336,7 +12396,7 @@
         <v>45343</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C29" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12403,7 +12463,7 @@
         <v>45343</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C30" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12470,7 +12530,7 @@
         <v>45343</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C31" s="9" t="str">
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],2,FALSE)</f>
@@ -12547,7 +12607,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자 원화예수금</v>
       </c>
-      <c r="E32" s="112"/>
+      <c r="E32" s="111"/>
       <c r="H32" s="5">
         <f>CMA_한투183611[[#This Row],[현금지출]]-CMA_한투183611[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -12592,7 +12652,7 @@
         <f>VLOOKUP(CMA_한투183611[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>한국투자증권 직접투자계좌 원화발행어음(약정)</v>
       </c>
-      <c r="E33" s="112"/>
+      <c r="E33" s="111"/>
       <c r="F33" s="7">
         <v>300000</v>
       </c>
@@ -12991,7 +13051,7 @@
         <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>삼척블루파워9</v>
       </c>
-      <c r="E6" s="112"/>
+      <c r="E6" s="111"/>
       <c r="H6" s="5">
         <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -13038,7 +13098,7 @@
         <f>VLOOKUP(CMA_한투18361112[[#This Row],[종목코드]],표3[],4,FALSE)</f>
         <v>메리츠캐피탈235-1</v>
       </c>
-      <c r="E7" s="112"/>
+      <c r="E7" s="111"/>
       <c r="H7" s="5">
         <f>CMA_한투18361112[[#This Row],[현금지출]]-CMA_한투18361112[[#This Row],[매입액]]</f>
         <v>0</v>
@@ -18267,8 +18327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18290,7 +18350,7 @@
         <v>319</v>
       </c>
       <c r="C1" s="50" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D1" t="s">
         <v>320</v>
@@ -18299,7 +18359,7 @@
         <v>321</v>
       </c>
       <c r="F1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G1" t="s">
         <v>322</v>
@@ -18308,10 +18368,10 @@
         <v>323</v>
       </c>
       <c r="I1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -18319,10 +18379,7 @@
         <v>324</v>
       </c>
       <c r="B2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C2" s="50">
-        <v>548019</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
         <v>325</v>
@@ -18331,7 +18388,7 @@
         <v>326</v>
       </c>
       <c r="F2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -18350,9 +18407,6 @@
       <c r="B3" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="50">
-        <v>9732471</v>
-      </c>
       <c r="D3" t="s">
         <v>330</v>
       </c>
@@ -18360,7 +18414,7 @@
         <v>326</v>
       </c>
       <c r="F3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G3" t="s">
         <v>328</v>
@@ -18379,9 +18433,6 @@
       <c r="B4" t="s">
         <v>331</v>
       </c>
-      <c r="C4" s="50">
-        <v>6199116</v>
-      </c>
       <c r="D4" t="s">
         <v>331</v>
       </c>
@@ -18389,7 +18440,7 @@
         <v>326</v>
       </c>
       <c r="F4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G4" t="s">
         <v>328</v>
@@ -18409,22 +18460,22 @@
         <v>334</v>
       </c>
       <c r="C5" s="50">
-        <v>3575705</v>
+        <v>3648855</v>
       </c>
       <c r="D5" t="s">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="E5" t="s">
         <v>326</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H5" t="s">
         <v>336</v>
-      </c>
-      <c r="H5" t="s">
-        <v>337</v>
       </c>
       <c r="J5" s="50">
         <v>0</v>
@@ -18432,22 +18483,22 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C6" s="50">
         <v>15156281</v>
       </c>
       <c r="D6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G6" t="s">
         <v>328</v>
@@ -18461,22 +18512,22 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" t="s">
         <v>373</v>
-      </c>
-      <c r="B